--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -1,21 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2506\Desktop\TESIS\DOCUMENTOS TESIS\Capitulos\R\Tesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>BIP001271</t>
+  </si>
+  <si>
+    <t>SES_bip1271</t>
+  </si>
+  <si>
+    <t>cros_smoothed</t>
+  </si>
+  <si>
+    <t>SBA_smoothed</t>
+  </si>
+  <si>
+    <t>SBJ_smoothed</t>
+  </si>
+  <si>
+    <t>err_croston</t>
+  </si>
+  <si>
+    <t>err_SBA</t>
+  </si>
+  <si>
+    <t>err_SBJ</t>
+  </si>
+  <si>
+    <t>err_SES</t>
+  </si>
+  <si>
+    <t>Dec-17</t>
+  </si>
+  <si>
+    <t>Jan-18</t>
+  </si>
+  <si>
+    <t>Feb-18</t>
+  </si>
+  <si>
+    <t>Mar-18</t>
+  </si>
+  <si>
+    <t>Apr-18</t>
+  </si>
+  <si>
+    <t>May-18</t>
+  </si>
+  <si>
+    <t>Jun-18</t>
+  </si>
+  <si>
+    <t>Jul-18</t>
+  </si>
+  <si>
+    <t>Aug-18</t>
+  </si>
+  <si>
+    <t>Sep-18</t>
+  </si>
+  <si>
+    <t>Oct-18</t>
+  </si>
+  <si>
+    <t>Nov-18</t>
+  </si>
+  <si>
+    <t>Dec-18</t>
+  </si>
+  <si>
+    <t>Jan-19</t>
+  </si>
+  <si>
+    <t>Feb-19</t>
+  </si>
+  <si>
+    <t>Mar-19</t>
+  </si>
+  <si>
+    <t>Apr-19</t>
+  </si>
+  <si>
+    <t>May-19</t>
+  </si>
+  <si>
+    <t>Jun-19</t>
+  </si>
+  <si>
+    <t>Jul-19</t>
+  </si>
+  <si>
+    <t>Aug-19</t>
+  </si>
+  <si>
+    <t>Sep-19</t>
+  </si>
+  <si>
+    <t>Oct-19</t>
+  </si>
+  <si>
+    <t>Nov-19</t>
+  </si>
+  <si>
+    <t>Dec-19</t>
+  </si>
+  <si>
+    <t>Jan-20</t>
+  </si>
+  <si>
+    <t>Feb-20</t>
+  </si>
+  <si>
+    <t>Mar-20</t>
+  </si>
+  <si>
+    <t>Apr-20</t>
+  </si>
+  <si>
+    <t>May-20</t>
+  </si>
+  <si>
+    <t>Jun-20</t>
+  </si>
+  <si>
+    <t>Jul-20</t>
+  </si>
+  <si>
+    <t>Aug-20</t>
+  </si>
+  <si>
+    <t>Sep-20</t>
+  </si>
+  <si>
+    <t>Oct-20</t>
+  </si>
+  <si>
+    <t>Nov-20</t>
+  </si>
+  <si>
+    <t>Forecast 1</t>
+  </si>
+  <si>
+    <t>Forecast 2</t>
+  </si>
+  <si>
+    <t>Forecast 3</t>
+  </si>
+  <si>
+    <t>Forecast 4</t>
+  </si>
+  <si>
+    <t>Forecast 5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,7 +226,1820 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Item BIP001271 demand behavior</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIP001271</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EB3-4A5D-A82D-0BFCE16CF7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cros_smoothed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="2">
+                  <c:v>16.069086430961409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.06524829587109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.87719625148212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.28936749349263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.68983956215834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.429754902894011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.050992087683252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.949542358124681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.46899836848732</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.318407435993208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.57562027179792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.960472419515568</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.446968471895861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.58110860941564</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.37059345522907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.770935923953729</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.27843325110932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.57758750049274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.073189233001269</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.362251960782299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.64131925410501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.551068121578599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.6205253004597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.102125643367099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.952400072777671</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.799204923069539</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.350903404283461</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.396828291565051</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.869564755657009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.825824837026451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.06773613962906</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.06773613962906</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.06773613962906</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.58754225655891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.96058</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.96058</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.96058</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.96058</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.96058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EB3-4A5D-A82D-0BFCE16CF7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SES_bip1271</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0737500000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6126874999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.820784375000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.94766671875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.8055167109375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.484689204296879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.26198582365234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.522687950104491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.694284757588822</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.490142043950499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.76662073735792</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.701627626754229</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.3463834827411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.494425960329931</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.970262066280441</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.97472275633837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.828514342887619</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.454237191454471</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.5861016127363</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.498186370825859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.523458415201979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.99493965292168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.895698704983431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.71134389923591</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.204642314350529</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.223945967197949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.690354072118261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.636800961300519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.94128081710544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.70008869453962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.795075390358679</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.32581408180488</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.02694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.02694</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.02694</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.02694</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.02694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9EB3-4A5D-A82D-0BFCE16CF7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBA_smoothed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="2">
+                  <c:v>10.73315770912146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.24658253911428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.417392225472771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.44916684477737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.01318495503655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.18181857509985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.968797505067091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.99644210028745</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.704002228836201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.732625049325391</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.026135232042609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.510894183714399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.388154818789541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.984860173392249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.228923109771252</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.93672094358525</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.747558032530531</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.919110015287771</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.779484452847779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.238528359549271</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.239789644289871</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.313594691975009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.795119007594881</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.52223733385463</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.153593474787169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.455695046760589</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.85072436115334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.499798808914829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.37814159459376</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.87830977116001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.157626967529168</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.157626967529168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.157626967529168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.579080889118789</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.617660000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.617660000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.617660000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.617660000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.617660000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9EB3-4A5D-A82D-0BFCE16CF7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBJ_smoothed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="2">
+                  <c:v>12.04010902309439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.36991714924274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.4223949664499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.220086620757829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.20009448987464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.18287526984135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.00106975343666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.168108912572858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.904246070545071</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.91222114108883</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.002265252841351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.418512452555088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.467496814846609</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.26253988618037</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.156278680025569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.475303539120919</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.352429672061511</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.823907663788152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.421030199193311</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.55143030387428</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.75591866105173</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.859534675274279</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.454797760327072</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.250344587387239</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.812504307695288</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.24511007112179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.892100756969519</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.735066939352599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.757686372941961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.44527320196155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.490920914063789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.490920914063789</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.490920914063789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.53221279100293</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.985949999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.985949999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.985949999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.985949999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.985949999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9EB3-4A5D-A82D-0BFCE16CF7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="547309328"/>
+        <c:axId val="547302112"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="547309328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547302112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:minorUnit val="3"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="547302112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547309328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -109,7 +2085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +2117,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +2152,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,70 +2328,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BIP001271</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SES_bip1271</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cros_smoothed</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SBA_smoothed</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SBJ_smoothed</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>err_croston</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>err_SBA</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>err_SBJ</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>err_SES</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dec-17</t>
-        </is>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -434,11 +2399,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jan-18</t>
-        </is>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -459,11 +2422,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Feb-18</t>
-        </is>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -472,7 +2433,7 @@
         <v>1.5</v>
       </c>
       <c r="D4">
-        <v>16.06908643096141</v>
+        <v>16.069086430961409</v>
       </c>
       <c r="E4">
         <v>10.73315770912146</v>
@@ -481,29 +2442,27 @@
         <v>12.04010902309439</v>
       </c>
       <c r="G4">
-        <v>-0.06908643096140921</v>
+        <v>-6.9086430961409206E-2</v>
       </c>
       <c r="H4">
-        <v>5.266842290878538</v>
+        <v>5.2668422908785377</v>
       </c>
       <c r="I4">
-        <v>3.95989097690561</v>
+        <v>3.9598909769056099</v>
       </c>
       <c r="J4">
         <v>14.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mar-18</t>
-        </is>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>3.675</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="D5">
         <v>16.06524829587109</v>
@@ -515,44 +2474,42 @@
         <v>12.36991714924274</v>
       </c>
       <c r="G5">
-        <v>-3.065248295871086</v>
+        <v>-3.0652482958710858</v>
       </c>
       <c r="H5">
-        <v>1.753417460885723</v>
+        <v>1.7534174608857229</v>
       </c>
       <c r="I5">
-        <v>0.6300828507572565</v>
+        <v>0.63008285075725645</v>
       </c>
       <c r="J5">
-        <v>9.324999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Apr-18</t>
-        </is>
+        <v>9.3249999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>22</v>
       </c>
       <c r="C6">
-        <v>5.07375</v>
+        <v>5.0737500000000004</v>
       </c>
       <c r="D6">
         <v>15.87719625148212</v>
       </c>
       <c r="E6">
-        <v>11.41739222547277</v>
+        <v>11.417392225472771</v>
       </c>
       <c r="F6">
         <v>12.4223949664499</v>
       </c>
       <c r="G6">
-        <v>6.122803748517883</v>
+        <v>6.1228037485178826</v>
       </c>
       <c r="H6">
-        <v>10.58260777452723</v>
+        <v>10.582607774527229</v>
       </c>
       <c r="I6">
         <v>9.577605033550098</v>
@@ -561,17 +2518,15 @@
         <v>16.92625</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>May-18</t>
-        </is>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>49</v>
       </c>
       <c r="C7">
-        <v>7.612687499999999</v>
+        <v>7.6126874999999989</v>
       </c>
       <c r="D7">
         <v>16.28936749349263</v>
@@ -580,32 +2535,30 @@
         <v>12.44916684477737</v>
       </c>
       <c r="F7">
-        <v>13.22008662075783</v>
+        <v>13.220086620757829</v>
       </c>
       <c r="G7">
-        <v>32.71063250650737</v>
+        <v>32.710632506507373</v>
       </c>
       <c r="H7">
-        <v>36.55083315522263</v>
+        <v>36.550833155222627</v>
       </c>
       <c r="I7">
-        <v>35.77991337924217</v>
+        <v>35.779913379242167</v>
       </c>
       <c r="J7">
         <v>41.3873125</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jun-18</t>
-        </is>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>28</v>
       </c>
       <c r="C8">
-        <v>13.820784375</v>
+        <v>13.820784375000001</v>
       </c>
       <c r="D8">
         <v>18.68983956215834</v>
@@ -617,7 +2570,7 @@
         <v>16.20009448987464</v>
       </c>
       <c r="G8">
-        <v>9.310160437841663</v>
+        <v>9.3101604378416631</v>
       </c>
       <c r="H8">
         <v>11.98681504496345</v>
@@ -626,14 +2579,12 @@
         <v>11.79990551012536</v>
       </c>
       <c r="J8">
-        <v>14.179215625</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jul-18</t>
-        </is>
+        <v>14.179215624999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -642,7 +2593,7 @@
         <v>15.94766671875</v>
       </c>
       <c r="D9">
-        <v>19.42975490289401</v>
+        <v>19.429754902894011</v>
       </c>
       <c r="E9">
         <v>17.18181857509985</v>
@@ -651,23 +2602,21 @@
         <v>17.18287526984135</v>
       </c>
       <c r="G9">
-        <v>-4.429754902894011</v>
+        <v>-4.4297549028940111</v>
       </c>
       <c r="H9">
-        <v>-2.18181857509985</v>
+        <v>-2.1818185750998502</v>
       </c>
       <c r="I9">
-        <v>-2.182875269841347</v>
+        <v>-2.1828752698413472</v>
       </c>
       <c r="J9">
-        <v>-0.9476667187499999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Aug-18</t>
-        </is>
+        <v>-0.94766671874999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -676,10 +2625,10 @@
         <v>15.8055167109375</v>
       </c>
       <c r="D10">
-        <v>19.05099208768325</v>
+        <v>19.050992087683252</v>
       </c>
       <c r="E10">
-        <v>16.96879750506709</v>
+        <v>16.968797505067091</v>
       </c>
       <c r="F10">
         <v>17.00106975343666</v>
@@ -688,54 +2637,50 @@
         <v>-12.05099208768325</v>
       </c>
       <c r="H10">
-        <v>-9.968797505067091</v>
+        <v>-9.9687975050670907</v>
       </c>
       <c r="I10">
         <v>-10.00106975343666</v>
       </c>
       <c r="J10">
-        <v>-8.8055167109375</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sep-18</t>
-        </is>
+        <v>-8.8055167109374999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>14.48468920429688</v>
+        <v>14.484689204296879</v>
       </c>
       <c r="D11">
-        <v>17.94954235812468</v>
+        <v>17.949542358124681</v>
       </c>
       <c r="E11">
         <v>15.99644210028745</v>
       </c>
       <c r="F11">
-        <v>16.16810891257286</v>
+        <v>16.168108912572858</v>
       </c>
       <c r="G11">
-        <v>-4.949542358124681</v>
+        <v>-4.9495423581246811</v>
       </c>
       <c r="H11">
-        <v>-2.996442100287448</v>
+        <v>-2.9964421002874482</v>
       </c>
       <c r="I11">
-        <v>-3.168108912572858</v>
+        <v>-3.1681089125728579</v>
       </c>
       <c r="J11">
         <v>-1.484689204296876</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Oct-18</t>
-        </is>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -747,41 +2692,39 @@
         <v>17.46899836848732</v>
       </c>
       <c r="E12">
-        <v>15.7040022288362</v>
+        <v>15.704002228836201</v>
       </c>
       <c r="F12">
-        <v>15.90424607054507</v>
+        <v>15.904246070545071</v>
       </c>
       <c r="G12">
-        <v>-1.468998368487323</v>
+        <v>-1.4689983684873229</v>
       </c>
       <c r="H12">
-        <v>0.2959977711638029</v>
+        <v>0.29599777116380288</v>
       </c>
       <c r="I12">
-        <v>0.09575392945492744</v>
+        <v>9.5753929454927444E-2</v>
       </c>
       <c r="J12">
         <v>1.738014176347656</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nov-18</t>
-        </is>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>29</v>
       </c>
       <c r="C13">
-        <v>14.52268795010449</v>
+        <v>14.522687950104491</v>
       </c>
       <c r="D13">
-        <v>17.31840743599321</v>
+        <v>17.318407435993208</v>
       </c>
       <c r="E13">
-        <v>15.73262504932539</v>
+        <v>15.732625049325391</v>
       </c>
       <c r="F13">
         <v>15.91222114108883</v>
@@ -790,88 +2733,82 @@
         <v>11.68159256400679</v>
       </c>
       <c r="H13">
-        <v>13.26737495067461</v>
+        <v>13.267374950674609</v>
       </c>
       <c r="I13">
         <v>13.08777885891117</v>
       </c>
       <c r="J13">
-        <v>14.47731204989551</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dec-18</t>
-        </is>
+        <v>14.477312049895509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
       <c r="C14">
-        <v>16.69428475758882</v>
+        <v>16.694284757588822</v>
       </c>
       <c r="D14">
         <v>18.57562027179792</v>
       </c>
       <c r="E14">
-        <v>17.02613523204261</v>
+        <v>17.026135232042609</v>
       </c>
       <c r="F14">
-        <v>17.00226525284135</v>
+        <v>17.002265252841351</v>
       </c>
       <c r="G14">
         <v>3.42437972820208</v>
       </c>
       <c r="H14">
-        <v>4.973864767957391</v>
+        <v>4.9738647679573909</v>
       </c>
       <c r="I14">
-        <v>4.997734747158649</v>
+        <v>4.9977347471586491</v>
       </c>
       <c r="J14">
         <v>5.305715242411182</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jan-19</t>
-        </is>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>17.4901420439505</v>
+        <v>17.490142043950499</v>
       </c>
       <c r="D15">
-        <v>18.96047241951557</v>
+        <v>18.960472419515568</v>
       </c>
       <c r="E15">
-        <v>17.5108941837144</v>
+        <v>17.510894183714399</v>
       </c>
       <c r="F15">
-        <v>17.41851245255509</v>
+        <v>17.418512452555088</v>
       </c>
       <c r="G15">
         <v>-12.96047241951557</v>
       </c>
       <c r="H15">
-        <v>-11.5108941837144</v>
+        <v>-11.510894183714401</v>
       </c>
       <c r="I15">
         <v>-11.41851245255509</v>
       </c>
       <c r="J15">
-        <v>-11.4901420439505</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Feb-19</t>
-        </is>
+        <v>-11.490142043950501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -880,19 +2817,19 @@
         <v>15.76662073735792</v>
       </c>
       <c r="D16">
-        <v>17.44696847189586</v>
+        <v>17.446968471895861</v>
       </c>
       <c r="E16">
-        <v>16.38815481878954</v>
+        <v>16.388154818789541</v>
       </c>
       <c r="F16">
-        <v>16.46749681484661</v>
+        <v>16.467496814846609</v>
       </c>
       <c r="G16">
-        <v>-15.44696847189586</v>
+        <v>-15.446968471895859</v>
       </c>
       <c r="H16">
-        <v>-14.38815481878954</v>
+        <v>-14.388154818789539</v>
       </c>
       <c r="I16">
         <v>-14.46749681484661</v>
@@ -901,23 +2838,21 @@
         <v>-13.76662073735792</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mar-19</t>
-        </is>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>38</v>
       </c>
       <c r="C17">
-        <v>13.70162762675423</v>
+        <v>13.701627626754229</v>
       </c>
       <c r="D17">
         <v>15.58110860941564</v>
       </c>
       <c r="E17">
-        <v>14.98486017339225</v>
+        <v>14.984860173392249</v>
       </c>
       <c r="F17">
         <v>15.26253988618037</v>
@@ -926,20 +2861,18 @@
         <v>22.41889139058436</v>
       </c>
       <c r="H17">
-        <v>23.01513982660775</v>
+        <v>23.015139826607751</v>
       </c>
       <c r="I17">
         <v>22.73746011381963</v>
       </c>
       <c r="J17">
-        <v>24.29837237324577</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Apr-19</t>
-        </is>
+        <v>24.298372373245769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>45</v>
@@ -951,97 +2884,91 @@
         <v>18.37059345522907</v>
       </c>
       <c r="E18">
-        <v>17.22892310977125</v>
+        <v>17.228923109771252</v>
       </c>
       <c r="F18">
-        <v>17.15627868002557</v>
+        <v>17.156278680025569</v>
       </c>
       <c r="G18">
         <v>26.62940654477093</v>
       </c>
       <c r="H18">
-        <v>27.77107689022875</v>
+        <v>27.771076890228748</v>
       </c>
       <c r="I18">
-        <v>27.84372131997444</v>
+        <v>27.843721319974438</v>
       </c>
       <c r="J18">
         <v>27.6536165172589</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>May-19</t>
-        </is>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>21.49442596032993</v>
+        <v>21.494425960329931</v>
       </c>
       <c r="D19">
-        <v>21.77093592395373</v>
+        <v>21.770935923953729</v>
       </c>
       <c r="E19">
         <v>19.93672094358525</v>
       </c>
       <c r="F19">
-        <v>19.47530353912092</v>
+        <v>19.475303539120919</v>
       </c>
       <c r="G19">
-        <v>-3.770935923953726</v>
+        <v>-3.7709359239537261</v>
       </c>
       <c r="H19">
-        <v>-1.93672094358525</v>
+        <v>-1.9367209435852499</v>
       </c>
       <c r="I19">
         <v>-1.475303539120919</v>
       </c>
       <c r="J19">
-        <v>-3.494425960329931</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Jun-19</t>
-        </is>
+        <v>-3.4944259603299308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>20.97026206628044</v>
+        <v>20.970262066280441</v>
       </c>
       <c r="D20">
         <v>21.27843325110932</v>
       </c>
       <c r="E20">
-        <v>19.74755803253053</v>
+        <v>19.747558032530531</v>
       </c>
       <c r="F20">
-        <v>19.35242967206151</v>
+        <v>19.352429672061511</v>
       </c>
       <c r="G20">
         <v>-20.27843325110932</v>
       </c>
       <c r="H20">
-        <v>-18.74755803253053</v>
+        <v>-18.747558032530531</v>
       </c>
       <c r="I20">
-        <v>-18.35242967206151</v>
+        <v>-18.352429672061511</v>
       </c>
       <c r="J20">
-        <v>-19.97026206628044</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Jul-19</t>
-        </is>
+        <v>-19.970262066280441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
       </c>
       <c r="B21">
         <v>37</v>
@@ -1053,75 +2980,71 @@
         <v>18.57758750049274</v>
       </c>
       <c r="E21">
-        <v>17.91911001528777</v>
+        <v>17.919110015287771</v>
       </c>
       <c r="F21">
-        <v>17.82390766378815</v>
+        <v>17.823907663788152</v>
       </c>
       <c r="G21">
         <v>18.42241249950726</v>
       </c>
       <c r="H21">
-        <v>19.08088998471223</v>
+        <v>19.080889984712229</v>
       </c>
       <c r="I21">
-        <v>19.17609233621185</v>
+        <v>19.176092336211848</v>
       </c>
       <c r="J21">
         <v>19.02527724366163</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Aug-19</t>
-        </is>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
       </c>
       <c r="B22">
         <v>45</v>
       </c>
       <c r="C22">
-        <v>20.82851434288762</v>
+        <v>20.828514342887619</v>
       </c>
       <c r="D22">
-        <v>21.07318923300127</v>
+        <v>21.073189233001269</v>
       </c>
       <c r="E22">
-        <v>19.77948445284778</v>
+        <v>19.779484452847779</v>
       </c>
       <c r="F22">
-        <v>19.42103019919331</v>
+        <v>19.421030199193311</v>
       </c>
       <c r="G22">
-        <v>23.92681076699873</v>
+        <v>23.926810766998731</v>
       </c>
       <c r="H22">
-        <v>25.22051554715222</v>
+        <v>25.220515547152221</v>
       </c>
       <c r="I22">
-        <v>25.57896980080669</v>
+        <v>25.578969800806689</v>
       </c>
       <c r="J22">
-        <v>24.17148565711239</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sep-19</t>
-        </is>
+        <v>24.171485657112392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>24.45423719145447</v>
+        <v>24.454237191454471</v>
       </c>
       <c r="D23">
-        <v>24.3622519607823</v>
+        <v>24.362251960782299</v>
       </c>
       <c r="E23">
-        <v>22.23852835954927</v>
+        <v>22.238528359549271</v>
       </c>
       <c r="F23">
         <v>21.55143030387428</v>
@@ -1130,20 +3053,18 @@
         <v>-12.3622519607823</v>
       </c>
       <c r="H23">
-        <v>-10.23852835954927</v>
+        <v>-10.238528359549271</v>
       </c>
       <c r="I23">
-        <v>-9.551430303874277</v>
+        <v>-9.5514303038742767</v>
       </c>
       <c r="J23">
-        <v>-12.45423719145447</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Oct-19</t>
-        </is>
+        <v>-12.454237191454469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -1155,97 +3076,91 @@
         <v>22.64131925410501</v>
       </c>
       <c r="E24">
-        <v>21.23978964428987</v>
+        <v>21.239789644289871</v>
       </c>
       <c r="F24">
         <v>20.75591866105173</v>
       </c>
       <c r="G24">
-        <v>-0.6413192541050101</v>
+        <v>-0.64131925410501012</v>
       </c>
       <c r="H24">
-        <v>0.7602103557101323</v>
+        <v>0.76021035571013229</v>
       </c>
       <c r="I24">
-        <v>1.24408133894827</v>
+        <v>1.2440813389482701</v>
       </c>
       <c r="J24">
-        <v>-0.5861016127363001</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Nov-19</t>
-        </is>
+        <v>-0.58610161273630013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
       <c r="C25">
-        <v>22.49818637082586</v>
+        <v>22.498186370825859</v>
       </c>
       <c r="D25">
-        <v>22.5510681215786</v>
+        <v>22.551068121578599</v>
       </c>
       <c r="E25">
-        <v>21.31359469197501</v>
+        <v>21.313594691975009</v>
       </c>
       <c r="F25">
-        <v>20.85953467527428</v>
+        <v>20.859534675274279</v>
       </c>
       <c r="G25">
-        <v>-6.551068121578599</v>
+        <v>-6.5510681215785986</v>
       </c>
       <c r="H25">
-        <v>-5.313594691975005</v>
+        <v>-5.3135946919750046</v>
       </c>
       <c r="I25">
-        <v>-4.859534675274276</v>
+        <v>-4.8595346752742756</v>
       </c>
       <c r="J25">
-        <v>-6.498186370825856</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Dec-19</t>
-        </is>
+        <v>-6.4981863708258558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
       </c>
       <c r="B26">
         <v>18</v>
       </c>
       <c r="C26">
-        <v>21.52345841520198</v>
+        <v>21.523458415201979</v>
       </c>
       <c r="D26">
         <v>21.6205253004597</v>
       </c>
       <c r="E26">
-        <v>20.79511900759488</v>
+        <v>20.795119007594881</v>
       </c>
       <c r="F26">
-        <v>20.45479776032707</v>
+        <v>20.454797760327072</v>
       </c>
       <c r="G26">
         <v>-3.6205253004597</v>
       </c>
       <c r="H26">
-        <v>-2.795119007594877</v>
+        <v>-2.7951190075948769</v>
       </c>
       <c r="I26">
         <v>-2.454797760327065</v>
       </c>
       <c r="J26">
-        <v>-3.523458415201976</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Jan-20</t>
-        </is>
+        <v>-3.5234584152019761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -1254,50 +3169,48 @@
         <v>20.99493965292168</v>
       </c>
       <c r="D27">
-        <v>21.1021256433671</v>
+        <v>21.102125643367099</v>
       </c>
       <c r="E27">
         <v>20.52223733385463</v>
       </c>
       <c r="F27">
-        <v>20.25034458738724</v>
+        <v>20.250344587387239</v>
       </c>
       <c r="G27">
-        <v>5.897874356632897</v>
+        <v>5.8978743566328973</v>
       </c>
       <c r="H27">
-        <v>6.47776266614537</v>
+        <v>6.4777626661453702</v>
       </c>
       <c r="I27">
         <v>6.749655412612757</v>
       </c>
       <c r="J27">
-        <v>6.00506034707832</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Feb-20</t>
-        </is>
+        <v>6.0050603470783201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
       </c>
       <c r="B28">
         <v>14</v>
       </c>
       <c r="C28">
-        <v>21.89569870498343</v>
+        <v>21.895698704983431</v>
       </c>
       <c r="D28">
-        <v>21.95240007277767</v>
+        <v>21.952400072777671</v>
       </c>
       <c r="E28">
-        <v>21.15359347478717</v>
+        <v>21.153593474787169</v>
       </c>
       <c r="F28">
-        <v>20.81250430769529</v>
+        <v>20.812504307695288</v>
       </c>
       <c r="G28">
-        <v>-7.952400072777675</v>
+        <v>-7.9524000727776754</v>
       </c>
       <c r="H28">
         <v>-7.153593474787165</v>
@@ -1306,14 +3219,12 @@
         <v>-6.812504307695292</v>
       </c>
       <c r="J28">
-        <v>-7.895698704983428</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mar-20</t>
-        </is>
+        <v>-7.8956987049834284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1322,19 +3233,19 @@
         <v>20.71134389923591</v>
       </c>
       <c r="D29">
-        <v>20.79920492306954</v>
+        <v>20.799204923069539</v>
       </c>
       <c r="E29">
-        <v>20.45569504676059</v>
+        <v>20.455695046760589</v>
       </c>
       <c r="F29">
         <v>20.24511007112179</v>
       </c>
       <c r="G29">
-        <v>-16.79920492306954</v>
+        <v>-16.799204923069539</v>
       </c>
       <c r="H29">
-        <v>-16.45569504676059</v>
+        <v>-16.455695046760589</v>
       </c>
       <c r="I29">
         <v>-16.24511007112179</v>
@@ -1343,97 +3254,91 @@
         <v>-16.71134389923591</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Apr-20</t>
-        </is>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>18.20464231435053</v>
+        <v>18.204642314350529</v>
       </c>
       <c r="D30">
-        <v>18.35090340428346</v>
+        <v>18.350903404283461</v>
       </c>
       <c r="E30">
         <v>18.85072436115334</v>
       </c>
       <c r="F30">
-        <v>18.89210075696952</v>
+        <v>18.892100756969519</v>
       </c>
       <c r="G30">
-        <v>-13.35090340428346</v>
+        <v>-13.350903404283461</v>
       </c>
       <c r="H30">
         <v>-13.85072436115334</v>
       </c>
       <c r="I30">
-        <v>-13.89210075696952</v>
+        <v>-13.892100756969519</v>
       </c>
       <c r="J30">
-        <v>-13.20464231435053</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>May-20</t>
-        </is>
+        <v>-13.204642314350529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>16.22394596719795</v>
+        <v>16.223945967197949</v>
       </c>
       <c r="D31">
-        <v>16.39682829156505</v>
+        <v>16.396828291565051</v>
       </c>
       <c r="E31">
-        <v>17.49979880891483</v>
+        <v>17.499798808914829</v>
       </c>
       <c r="F31">
-        <v>17.7350669393526</v>
+        <v>17.735066939352599</v>
       </c>
       <c r="G31">
-        <v>-10.39682829156505</v>
+        <v>-10.396828291565051</v>
       </c>
       <c r="H31">
         <v>-11.49979880891483</v>
       </c>
       <c r="I31">
-        <v>-11.7350669393526</v>
+        <v>-11.735066939352601</v>
       </c>
       <c r="J31">
-        <v>-10.22394596719795</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Jun-20</t>
-        </is>
+        <v>-10.223945967197951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>14.69035407211826</v>
+        <v>14.690354072118261</v>
       </c>
       <c r="D32">
-        <v>14.86956475565701</v>
+        <v>14.869564755657009</v>
       </c>
       <c r="E32">
         <v>16.37814159459376</v>
       </c>
       <c r="F32">
-        <v>16.75768637294196</v>
+        <v>16.757686372941961</v>
       </c>
       <c r="G32">
-        <v>-13.86956475565701</v>
+        <v>-13.869564755657009</v>
       </c>
       <c r="H32">
         <v>-15.37814159459376</v>
@@ -1442,23 +3347,21 @@
         <v>-15.75768637294196</v>
       </c>
       <c r="J32">
-        <v>-13.69035407211826</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Jul-20</t>
-        </is>
+        <v>-13.690354072118261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
       </c>
       <c r="B33">
         <v>28</v>
       </c>
       <c r="C33">
-        <v>12.63680096130052</v>
+        <v>12.636800961300519</v>
       </c>
       <c r="D33">
-        <v>12.82582483702645</v>
+        <v>12.825824837026451</v>
       </c>
       <c r="E33">
         <v>14.87830977116001</v>
@@ -1467,7 +3370,7 @@
         <v>15.44527320196155</v>
       </c>
       <c r="G33">
-        <v>15.17417516297355</v>
+        <v>15.174175162973549</v>
       </c>
       <c r="H33">
         <v>13.12169022883999</v>
@@ -1476,14 +3379,12 @@
         <v>12.55472679803845</v>
       </c>
       <c r="J33">
-        <v>15.36319903869948</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Aug-20</t>
-        </is>
+        <v>15.363199038699481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1495,29 +3396,27 @@
         <v>15.06773613962906</v>
       </c>
       <c r="E34">
-        <v>16.15762696752917</v>
+        <v>16.157626967529168</v>
       </c>
       <c r="F34">
-        <v>16.49092091406379</v>
+        <v>16.490920914063789</v>
       </c>
       <c r="G34">
         <v>-15.06773613962906</v>
       </c>
       <c r="H34">
-        <v>-16.15762696752917</v>
+        <v>-16.157626967529168</v>
       </c>
       <c r="I34">
-        <v>-16.49092091406379</v>
+        <v>-16.490920914063789</v>
       </c>
       <c r="J34">
         <v>-14.94128081710544</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sep-20</t>
-        </is>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1529,63 +3428,59 @@
         <v>15.06773613962906</v>
       </c>
       <c r="E35">
-        <v>16.15762696752917</v>
+        <v>16.157626967529168</v>
       </c>
       <c r="F35">
-        <v>16.49092091406379</v>
+        <v>16.490920914063789</v>
       </c>
       <c r="G35">
         <v>-15.06773613962906</v>
       </c>
       <c r="H35">
-        <v>-16.15762696752917</v>
+        <v>-16.157626967529168</v>
       </c>
       <c r="I35">
-        <v>-16.49092091406379</v>
+        <v>-16.490920914063789</v>
       </c>
       <c r="J35">
         <v>-12.70008869453962</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Oct-20</t>
-        </is>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
       </c>
       <c r="B36">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>10.79507539035868</v>
+        <v>10.795075390358679</v>
       </c>
       <c r="D36">
         <v>15.06773613962906</v>
       </c>
       <c r="E36">
-        <v>16.15762696752917</v>
+        <v>16.157626967529168</v>
       </c>
       <c r="F36">
-        <v>16.49092091406379</v>
+        <v>16.490920914063789</v>
       </c>
       <c r="G36">
-        <v>25.93226386037094</v>
+        <v>25.932263860370941</v>
       </c>
       <c r="H36">
-        <v>24.84237303247083</v>
+        <v>24.842373032470832</v>
       </c>
       <c r="I36">
-        <v>24.50907908593621</v>
+        <v>24.509079085936211</v>
       </c>
       <c r="J36">
-        <v>30.20492460964132</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Nov-20</t>
-        </is>
+        <v>30.204924609641321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
       </c>
       <c r="B37">
         <v>60</v>
@@ -1597,25 +3492,112 @@
         <v>14.58754225655891</v>
       </c>
       <c r="E37">
-        <v>18.57908088911879</v>
+        <v>18.579080889118789</v>
       </c>
       <c r="F37">
         <v>18.53221279100293</v>
       </c>
       <c r="G37">
-        <v>45.4124577434411</v>
+        <v>45.412457743441102</v>
       </c>
       <c r="H37">
-        <v>41.42091911088122</v>
+        <v>41.420919110881222</v>
       </c>
       <c r="I37">
-        <v>41.46778720899707</v>
+        <v>41.467787208997073</v>
       </c>
       <c r="J37">
-        <v>44.67418591819512</v>
+        <v>44.674185918195121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>22.02694</v>
+      </c>
+      <c r="D38">
+        <v>19.96058</v>
+      </c>
+      <c r="E38">
+        <v>22.617660000000001</v>
+      </c>
+      <c r="F38">
+        <v>21.985949999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>22.02694</v>
+      </c>
+      <c r="D39">
+        <v>19.96058</v>
+      </c>
+      <c r="E39">
+        <v>22.617660000000001</v>
+      </c>
+      <c r="F39">
+        <v>21.985949999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>22.02694</v>
+      </c>
+      <c r="D40">
+        <v>19.96058</v>
+      </c>
+      <c r="E40">
+        <v>22.617660000000001</v>
+      </c>
+      <c r="F40">
+        <v>21.985949999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>22.02694</v>
+      </c>
+      <c r="D41">
+        <v>19.96058</v>
+      </c>
+      <c r="E41">
+        <v>22.617660000000001</v>
+      </c>
+      <c r="F41">
+        <v>21.985949999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>22.02694</v>
+      </c>
+      <c r="D42">
+        <v>19.96058</v>
+      </c>
+      <c r="E42">
+        <v>22.617660000000001</v>
+      </c>
+      <c r="F42">
+        <v>21.985949999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>X</t>
   </si>
@@ -159,6 +159,18 @@
     <t>Nov-20</t>
   </si>
   <si>
+    <t xml:space="preserve">          croston_1271  SBA_1271  SBJ_1271 SES_bip1271</t>
+  </si>
+  <si>
+    <t>ME_1271       1.469275  2.490486  2.400955    4.079063</t>
+  </si>
+  <si>
+    <t>MAE_1271     12.256495 12.308866 12.142947   13.656211</t>
+  </si>
+  <si>
+    <t>RMSE_1271    15.799244 15.833640 15.732477   17.107302</t>
+  </si>
+  <si>
     <t>Forecast 1</t>
   </si>
   <si>
@@ -172,6 +184,27 @@
   </si>
   <si>
     <t>Forecast 5</t>
+  </si>
+  <si>
+    <t>croston_1271  SBA_1271  SBJ_1271 SES_bip1271</t>
+  </si>
+  <si>
+    <t>ME_1271       1.475555  1.813973  1.840646    5.552847</t>
+  </si>
+  <si>
+    <t>MAE_1271     12.059021 11.968242 11.962091   13.812953</t>
+  </si>
+  <si>
+    <t>RMSE_1271    15.583988 15.574060 15.575400   17.462432</t>
+  </si>
+  <si>
+    <t>ME_1271       1.135131  2.453853  2.605049    3.381521</t>
+  </si>
+  <si>
+    <t>MAE_1271     12.481392 12.079953 12.045239   13.695372</t>
+  </si>
+  <si>
+    <t>RMSE_1271    15.921076 15.945175 15.957732   16.969212</t>
   </si>
 </sst>
 </file>
@@ -2011,16 +2044,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2329,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2871,7 @@
         <v>-13.76662073735792</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2870,7 +2903,7 @@
         <v>24.298372373245769</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2902,7 +2935,7 @@
         <v>27.6536165172589</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2934,7 +2967,7 @@
         <v>-3.4944259603299308</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2966,7 +2999,7 @@
         <v>-19.970262066280441</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2998,7 +3031,7 @@
         <v>19.02527724366163</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3030,7 +3063,7 @@
         <v>24.171485657112392</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3062,7 +3095,7 @@
         <v>-12.454237191454469</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3094,7 +3127,7 @@
         <v>-0.58610161273630013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3126,7 +3159,7 @@
         <v>-6.4981863708258558</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3158,7 +3191,7 @@
         <v>-3.5234584152019761</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3190,7 +3223,7 @@
         <v>6.0050603470783201</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3222,7 +3255,7 @@
         <v>-7.8956987049834284</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3254,7 +3287,7 @@
         <v>-16.71134389923591</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3286,7 +3319,7 @@
         <v>-13.204642314350529</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3318,7 +3351,7 @@
         <v>-10.223945967197951</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3349,8 +3382,14 @@
       <c r="J32">
         <v>-13.690354072118261</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3381,8 +3420,14 @@
       <c r="J33">
         <v>15.363199038699481</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3413,8 +3458,14 @@
       <c r="J34">
         <v>-14.94128081710544</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+      <c r="S34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3445,8 +3496,14 @@
       <c r="J35">
         <v>-12.70008869453962</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>49</v>
+      </c>
+      <c r="S35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3478,7 +3535,7 @@
         <v>30.204924609641321</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3510,9 +3567,9 @@
         <v>44.674185918195121</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>22.02694</v>
@@ -3526,10 +3583,13 @@
       <c r="F38">
         <v>21.985949999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>22.02694</v>
@@ -3543,10 +3603,13 @@
       <c r="F39">
         <v>21.985949999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>22.02694</v>
@@ -3560,10 +3623,13 @@
       <c r="F40">
         <v>21.985949999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>22.02694</v>
@@ -3577,10 +3643,13 @@
       <c r="F41">
         <v>21.985949999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>22.02694</v>

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>X</t>
   </si>
@@ -159,18 +159,6 @@
     <t>Nov-20</t>
   </si>
   <si>
-    <t xml:space="preserve">          croston_1271  SBA_1271  SBJ_1271 SES_bip1271</t>
-  </si>
-  <si>
-    <t>ME_1271       1.469275  2.490486  2.400955    4.079063</t>
-  </si>
-  <si>
-    <t>MAE_1271     12.256495 12.308866 12.142947   13.656211</t>
-  </si>
-  <si>
-    <t>RMSE_1271    15.799244 15.833640 15.732477   17.107302</t>
-  </si>
-  <si>
     <t>Forecast 1</t>
   </si>
   <si>
@@ -186,32 +174,44 @@
     <t>Forecast 5</t>
   </si>
   <si>
-    <t>croston_1271  SBA_1271  SBJ_1271 SES_bip1271</t>
-  </si>
-  <si>
-    <t>ME_1271       1.475555  1.813973  1.840646    5.552847</t>
-  </si>
-  <si>
-    <t>MAE_1271     12.059021 11.968242 11.962091   13.812953</t>
-  </si>
-  <si>
-    <t>RMSE_1271    15.583988 15.574060 15.575400   17.462432</t>
-  </si>
-  <si>
-    <t>ME_1271       1.135131  2.453853  2.605049    3.381521</t>
-  </si>
-  <si>
-    <t>MAE_1271     12.481392 12.079953 12.045239   13.695372</t>
-  </si>
-  <si>
-    <t>RMSE_1271    15.921076 15.945175 15.957732   16.969212</t>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Croston</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>RMSE variation</t>
+  </si>
+  <si>
+    <t>MAE variation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -245,17 +252,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2362,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57:S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,6 +2389,7 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2871,7 +2886,7 @@
         <v>-13.76662073735792</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>24.298372373245769</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2935,7 +2950,7 @@
         <v>27.6536165172589</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2967,7 +2982,7 @@
         <v>-3.4944259603299308</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2999,7 +3014,7 @@
         <v>-19.970262066280441</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3031,7 +3046,7 @@
         <v>19.02527724366163</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3063,7 +3078,7 @@
         <v>24.171485657112392</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>-12.454237191454469</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3127,7 +3142,7 @@
         <v>-0.58610161273630013</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>-6.4981863708258558</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3191,7 +3206,7 @@
         <v>-3.5234584152019761</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3223,7 +3238,7 @@
         <v>6.0050603470783201</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>-7.8956987049834284</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3287,7 +3302,7 @@
         <v>-16.71134389923591</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3319,7 +3334,7 @@
         <v>-13.204642314350529</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>-10.223945967197951</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3382,14 +3397,14 @@
       <c r="J32">
         <v>-13.690354072118261</v>
       </c>
-      <c r="L32" t="s">
-        <v>55</v>
-      </c>
-      <c r="S32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>0.15</v>
+      </c>
+      <c r="T32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3420,14 +3435,32 @@
       <c r="J33">
         <v>15.363199038699481</v>
       </c>
-      <c r="L33" t="s">
-        <v>47</v>
-      </c>
-      <c r="S33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" t="s">
+        <v>53</v>
+      </c>
+      <c r="V33" t="s">
+        <v>54</v>
+      </c>
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3459,13 +3492,37 @@
         <v>-14.94128081710544</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4.0790629999999997</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.4692750000000001</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2.1390769999999999</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2.1649449999999999</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="T34" s="2">
+        <v>5.5528469999999999</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1.4755549999999999</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1.8139730000000001</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1.840646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3497,13 +3554,37 @@
         <v>-12.70008869453962</v>
       </c>
       <c r="L35" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="M35" s="2">
+        <v>13.656211000000001</v>
+      </c>
+      <c r="N35" s="2">
+        <v>12.256494999999999</v>
+      </c>
+      <c r="O35" s="2">
+        <v>12.046198</v>
+      </c>
+      <c r="P35" s="2">
+        <v>12.036384</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="T35" s="2">
+        <v>13.812953</v>
+      </c>
+      <c r="U35" s="2">
+        <v>12.059021</v>
+      </c>
+      <c r="V35" s="2">
+        <v>11.968242</v>
+      </c>
+      <c r="W35" s="2">
+        <v>11.962090999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3534,8 +3615,38 @@
       <c r="J36">
         <v>30.204924609641321</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" s="2">
+        <v>17.107302000000001</v>
+      </c>
+      <c r="N36" s="2">
+        <v>15.799244</v>
+      </c>
+      <c r="O36" s="2">
+        <v>15.778325000000001</v>
+      </c>
+      <c r="P36" s="2">
+        <v>15.774134</v>
+      </c>
+      <c r="S36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="2">
+        <v>17.462432</v>
+      </c>
+      <c r="U36" s="2">
+        <v>15.583988</v>
+      </c>
+      <c r="V36" s="2">
+        <v>15.574059999999999</v>
+      </c>
+      <c r="W36" s="2">
+        <v>15.5754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3566,10 +3677,42 @@
       <c r="J37">
         <v>44.674185918195121</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
+        <f>(M36-N36)/N36</f>
+        <v>8.2792442473829816E-2</v>
+      </c>
+      <c r="O37" s="4">
+        <f>(M36-O36)/O36</f>
+        <v>8.422801533115841E-2</v>
+      </c>
+      <c r="P37" s="4">
+        <f>(M36-P36)/P36</f>
+        <v>8.4516081833715909E-2</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4">
+        <f>(T36-U36)/U36</f>
+        <v>0.12053679712792387</v>
+      </c>
+      <c r="V37" s="4">
+        <f>(T36-V36)/V36</f>
+        <v>0.12125110600575575</v>
+      </c>
+      <c r="W37" s="4">
+        <f>(T36-W36)/W36</f>
+        <v>0.1211546412933215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>22.02694</v>
@@ -3583,13 +3726,32 @@
       <c r="F38">
         <v>21.985949999999999</v>
       </c>
-      <c r="P38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L38" s="3"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4">
+        <f>(N36-O36)/O36</f>
+        <v>1.3258061296113018E-3</v>
+      </c>
+      <c r="P38" s="4">
+        <f>(N36-P36)/P36</f>
+        <v>1.5918465000994504E-3</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4">
+        <f>($U$36-V36)/V36</f>
+        <v>6.3747025502665215E-4</v>
+      </c>
+      <c r="W38" s="4">
+        <f>($U$36-W36)/W36</f>
+        <v>5.5138230799848457E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>22.02694</v>
@@ -3603,13 +3765,26 @@
       <c r="F39">
         <v>21.985949999999999</v>
       </c>
-      <c r="P39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4">
+        <f>(O36-P36)/P36</f>
+        <v>2.6568811955068341E-4</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4">
+        <f>($V$36-W36)/W36</f>
+        <v>-8.6033103483749057E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>22.02694</v>
@@ -3623,13 +3798,40 @@
       <c r="F40">
         <v>21.985949999999999</v>
       </c>
-      <c r="P40" t="s">
+      <c r="L40" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N40" s="4">
+        <f>(M35-N35)/N35</f>
+        <v>0.11420198025618267</v>
+      </c>
+      <c r="O40" s="4">
+        <f>(M35-O35)/O35</f>
+        <v>0.13365320742694087</v>
+      </c>
+      <c r="P40" s="4">
+        <f>(M35-P35)/P35</f>
+        <v>0.1345775442192606</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U40" s="4">
+        <f>($T$35-U35)/U35</f>
+        <v>0.14544563775119065</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" ref="V40:W40" si="0">($T$35-V35)/V35</f>
+        <v>0.15413383185266477</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15472729642334282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>22.02694</v>
@@ -3643,13 +3845,28 @@
       <c r="F41">
         <v>21.985949999999999</v>
       </c>
-      <c r="P41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L41" s="3"/>
+      <c r="O41" s="4">
+        <f>(N35-O35)/O35</f>
+        <v>1.7457541375295246E-2</v>
+      </c>
+      <c r="P41" s="4">
+        <f>(N35-P35)/P35</f>
+        <v>1.82871367347535E-2</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="V41" s="4">
+        <f>($U$35-V35)/V35</f>
+        <v>7.584990343610991E-3</v>
+      </c>
+      <c r="W41" s="4">
+        <f>($U$35-W35)/W35</f>
+        <v>8.1030983629869074E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>22.02694</v>
@@ -3663,8 +3880,460 @@
       <c r="F42">
         <v>21.985949999999999</v>
       </c>
+      <c r="L42" s="3"/>
+      <c r="P42" s="4">
+        <f>(O35-P35)/P35</f>
+        <v>8.1536115830139956E-4</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="W42" s="4">
+        <f>($V$35-W35)/W35</f>
+        <v>5.1420775849313519E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>0.2</v>
+      </c>
+      <c r="U44">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" t="s">
+        <v>54</v>
+      </c>
+      <c r="P45" t="s">
+        <v>55</v>
+      </c>
+      <c r="T45" t="s">
+        <v>52</v>
+      </c>
+      <c r="U45" t="s">
+        <v>53</v>
+      </c>
+      <c r="V45" t="s">
+        <v>54</v>
+      </c>
+      <c r="W45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="2">
+        <v>3.3815210000000002</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1.1351309999999999</v>
+      </c>
+      <c r="O46" s="2">
+        <v>2.4538530000000001</v>
+      </c>
+      <c r="P46" s="2">
+        <v>2.6050490000000002</v>
+      </c>
+      <c r="S46" t="s">
+        <v>56</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1.7806340000000001</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0.54734760000000005</v>
+      </c>
+      <c r="V46" s="2">
+        <v>8.4957940000000001</v>
+      </c>
+      <c r="W46" s="2">
+        <v>15.22409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="2">
+        <v>13.695372000000001</v>
+      </c>
+      <c r="N47" s="2">
+        <v>12.481392</v>
+      </c>
+      <c r="O47" s="2">
+        <v>12.079953</v>
+      </c>
+      <c r="P47" s="2">
+        <v>12.045239</v>
+      </c>
+      <c r="S47" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" s="2">
+        <v>13.537411000000001</v>
+      </c>
+      <c r="U47" s="2">
+        <v>13.6922487</v>
+      </c>
+      <c r="V47" s="2">
+        <v>12.758718999999999</v>
+      </c>
+      <c r="W47" s="2">
+        <v>15.892720000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="2">
+        <v>16.969211999999999</v>
+      </c>
+      <c r="N48" s="2">
+        <v>15.921075999999999</v>
+      </c>
+      <c r="O48" s="2">
+        <v>15.945175000000001</v>
+      </c>
+      <c r="P48" s="2">
+        <v>15.957732</v>
+      </c>
+      <c r="S48" t="s">
+        <v>58</v>
+      </c>
+      <c r="T48" s="2">
+        <v>17.427333000000001</v>
+      </c>
+      <c r="U48" s="2">
+        <v>17.939190199999999</v>
+      </c>
+      <c r="V48" s="2">
+        <v>18.078852000000001</v>
+      </c>
+      <c r="W48" s="2">
+        <v>21.77338</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
+        <f>(M48-N48)/N48</f>
+        <v>6.5833238909229472E-2</v>
+      </c>
+      <c r="O49" s="4">
+        <f>(M48-O48)/O48</f>
+        <v>6.422237448005419E-2</v>
+      </c>
+      <c r="P49" s="4">
+        <f>(M48-P48)/P48</f>
+        <v>6.3384947184223855E-2</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4">
+        <f>(T48-U48)/U48</f>
+        <v>-2.8532904456300259E-2</v>
+      </c>
+      <c r="V49" s="4">
+        <f>(T48-V48)/V48</f>
+        <v>-3.6037631150473509E-2</v>
+      </c>
+      <c r="W49" s="4">
+        <f>(T48-W48)/W48</f>
+        <v>-0.19960369037788339</v>
+      </c>
+    </row>
+    <row r="50" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4">
+        <f>(N48-O48)/O48</f>
+        <v>-1.5113662910567884E-3</v>
+      </c>
+      <c r="P50" s="4">
+        <f>(N48-P48)/P48</f>
+        <v>-2.2970682801290738E-3</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4">
+        <f>(U48-V48)/V48</f>
+        <v>-7.7251475923362E-3</v>
+      </c>
+      <c r="W50" s="4">
+        <f>(U48-W48)/W48</f>
+        <v>-0.17609529618277001</v>
+      </c>
+    </row>
+    <row r="51" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L51" s="3"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4">
+        <f>(O48-P48)/P48</f>
+        <v>-7.8689127001250949E-4</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4">
+        <f>(V48-W48)/W48</f>
+        <v>-0.16968095904264741</v>
+      </c>
+    </row>
+    <row r="52" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52" s="4">
+        <f>(M47-N47)/N47</f>
+        <v>9.7263189874975578E-2</v>
+      </c>
+      <c r="O52" s="4">
+        <f>(M47-O47)/O47</f>
+        <v>0.13372725870704968</v>
+      </c>
+      <c r="P52" s="4">
+        <f>(M47-P47)/P47</f>
+        <v>0.13699462501325213</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="4">
+        <f>(T47-U47)/U47</f>
+        <v>-1.1308420069816571E-2</v>
+      </c>
+      <c r="V52" s="4">
+        <f>(T47-V47)/V47</f>
+        <v>6.1032145938789098E-2</v>
+      </c>
+      <c r="W52" s="4">
+        <f>(T47-W47)/W47</f>
+        <v>-0.14820049683125355</v>
+      </c>
+    </row>
+    <row r="53" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L53" s="3"/>
+      <c r="O53" s="4">
+        <f>(N47-O47)/O47</f>
+        <v>3.3231834594058429E-2</v>
+      </c>
+      <c r="P53" s="4">
+        <f>(N47-P47)/P47</f>
+        <v>3.6209576248341695E-2</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="V53" s="4">
+        <f>(U47-V47)/V47</f>
+        <v>7.3167980265103516E-2</v>
+      </c>
+      <c r="W53" s="4">
+        <f>(U47-W47)/W47</f>
+        <v>-0.13845781590564737</v>
+      </c>
+    </row>
+    <row r="54" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L54" s="3"/>
+      <c r="P54" s="4">
+        <f>(O47-P47)/P47</f>
+        <v>2.8819685520560649E-3</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="W54" s="4">
+        <f>(V47-W47)/W47</f>
+        <v>-0.19719727019666874</v>
+      </c>
+    </row>
+    <row r="56" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="Q57">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="R57">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="S57">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58" t="s">
+        <v>54</v>
+      </c>
+      <c r="S58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="P59" s="2">
+        <v>2.6796150000000001</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>2.4482569999999999</v>
+      </c>
+      <c r="R59" s="2">
+        <v>2.4904860000000002</v>
+      </c>
+      <c r="S59" s="2">
+        <v>2.4009550000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" s="2">
+        <v>13.580219</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>12.237493000000001</v>
+      </c>
+      <c r="R60" s="2">
+        <v>12.308866</v>
+      </c>
+      <c r="S60" s="2">
+        <v>12.142946999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>58</v>
+      </c>
+      <c r="P61" s="2">
+        <v>16.884156999999998</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>15.788823000000001</v>
+      </c>
+      <c r="R61" s="2">
+        <v>15.833640000000001</v>
+      </c>
+      <c r="S61" s="2">
+        <v>15.732476999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4">
+        <f>(P61-Q61)/Q61</f>
+        <v>6.9374012236377444E-2</v>
+      </c>
+      <c r="R62" s="4">
+        <f>(P61-R61)/R61</f>
+        <v>6.6347157065589302E-2</v>
+      </c>
+      <c r="S62" s="4">
+        <f>(P61-S61)/S61</f>
+        <v>7.3203984343978318E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O63" s="3"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4">
+        <f>(Q61-R61)/R61</f>
+        <v>-2.8304925462496371E-3</v>
+      </c>
+      <c r="S63" s="4">
+        <f>(Q61-S61)/S61</f>
+        <v>3.5815084935449989E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O64" s="3"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4">
+        <f>(R61-S61)/S61</f>
+        <v>6.4302016777142883E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q65" s="4">
+        <f>(P60-Q60)/Q60</f>
+        <v>0.10972230995351735</v>
+      </c>
+      <c r="R65" s="4">
+        <f>(P60-R60)/R60</f>
+        <v>0.10328758148801032</v>
+      </c>
+      <c r="S65" s="4">
+        <f>(P60-S60)/S60</f>
+        <v>0.11836270058660391</v>
+      </c>
+    </row>
+    <row r="66" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O66" s="3"/>
+      <c r="R66" s="4">
+        <f>(Q60-R60)/R60</f>
+        <v>-5.7985032902299416E-3</v>
+      </c>
+      <c r="S66" s="4">
+        <f>(Q60-S60)/S60</f>
+        <v>7.7860835594523413E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O67" s="3"/>
+      <c r="S67" s="4">
+        <f>(R60-S60)/S60</f>
+        <v>1.3663816534816514E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="S40:S42"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S52:S54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +266,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2378,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57:S67"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,6 +3847,7 @@
         <v>21.985949999999999</v>
       </c>
       <c r="L41" s="3"/>
+      <c r="N41" s="5"/>
       <c r="O41" s="4">
         <f>(N35-O35)/O35</f>
         <v>1.7457541375295246E-2</v>

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -26,11 +26,12 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="66">
   <si>
     <t>X</t>
   </si>
@@ -218,10 +219,16 @@
     <t>SES_bip1271.1</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>opt</t>
   </si>
   <si>
-    <t>opt</t>
+    <t>Cro.</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -255,12 +262,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,28 +289,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +370,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1476,7 +1489,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1588,7 +1600,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3186,7 +3197,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3298,7 +3308,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4896,7 +4905,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5008,7 +5016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6546,7 +6553,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6743,7 +6749,7 @@
             <c:strRef>
               <c:f>[4]Sheet1!$A$2:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>Dec-17</c:v>
                 </c:pt>
@@ -7021,7 +7027,7 @@
             <c:strRef>
               <c:f>[4]Sheet1!$A$2:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>Dec-17</c:v>
                 </c:pt>
@@ -7314,7 +7320,7 @@
             <c:strRef>
               <c:f>[4]Sheet1!$A$2:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>Dec-17</c:v>
                 </c:pt>
@@ -7601,7 +7607,7 @@
             <c:strRef>
               <c:f>[4]Sheet1!$A$2:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>Dec-17</c:v>
                 </c:pt>
@@ -7888,7 +7894,7 @@
             <c:strRef>
               <c:f>[4]Sheet1!$A$2:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>Dec-17</c:v>
                 </c:pt>
@@ -8263,7 +8269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16015,20 +16020,20 @@
       <c r="F38">
         <v>21.985949999999999</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="S38" s="4" t="s">
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="S38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -16046,35 +16051,35 @@
       <c r="F39">
         <v>21.985949999999999</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5">
         <f>(M36-N36)/N36</f>
         <v>0.12053679712792387</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <f>(M36-O36)/O36</f>
         <v>0.12125110600575575</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="5">
         <f>(M36-P36)/P36</f>
         <v>0.1211546412933215</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="S39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6">
+      <c r="T39" s="5"/>
+      <c r="U39" s="5">
         <f>(T36-U36)/U36</f>
         <v>8.2792442473829816E-2</v>
       </c>
-      <c r="V39" s="6">
+      <c r="V39" s="5">
         <f>(T36-V36)/V36</f>
         <v>8.422801533115841E-2</v>
       </c>
-      <c r="W39" s="6">
+      <c r="W39" s="5">
         <f>(T36-W36)/W36</f>
         <v>8.4516081833715909E-2</v>
       </c>
@@ -16095,35 +16100,35 @@
       <c r="F40">
         <v>21.985949999999999</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="5">
         <f>(N36-M36)/M36</f>
         <v>-0.10757058352467744</v>
       </c>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5">
         <f>(N36-O36)/O36</f>
         <v>6.3747025502665215E-4</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <f>(N36-P36)/P36</f>
         <v>5.5138230799848457E-4</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="S40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="5">
         <f>(U36-T36)/T36</f>
         <v>-7.6461969280720063E-2</v>
       </c>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6">
+      <c r="U40" s="5"/>
+      <c r="V40" s="5">
         <f>(U36-V36)/V36</f>
         <v>1.3258061296113018E-3</v>
       </c>
-      <c r="W40" s="6">
+      <c r="W40" s="5">
         <f>(U36-W36)/W36</f>
         <v>1.5918465000994504E-3</v>
       </c>
@@ -16144,35 +16149,35 @@
       <c r="F41">
         <v>21.985949999999999</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="5">
         <f>(O36-M36)/M36</f>
         <v>-0.10813911830837769</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <f>(O36-N36)/N36</f>
         <v>-6.3706414558329879E-4</v>
       </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6">
+      <c r="O41" s="5"/>
+      <c r="P41" s="5">
         <f>(O36-P36)/P36</f>
         <v>-8.6033103483749057E-5</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="S41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="5">
         <f>(V36-T36)/T36</f>
         <v>-7.7684780452230276E-2</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="5">
         <f>(V36-U36)/U36</f>
         <v>-1.3240506950838436E-3</v>
       </c>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6">
+      <c r="V41" s="5"/>
+      <c r="W41" s="5">
         <f>(V36-W36)/W36</f>
         <v>2.6568811955068341E-4</v>
       </c>
@@ -16193,190 +16198,190 @@
       <c r="F42">
         <v>21.985949999999999</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <f>(P36-M36)/M36</f>
         <v>-0.1080623821469999</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <f>(P36-N36)/N36</f>
         <v>-5.5107845308913195E-4</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <f>(P36-O36)/O36</f>
         <v>8.6040505815489668E-5</v>
       </c>
-      <c r="P42" s="5"/>
-      <c r="S42" s="5" t="s">
+      <c r="P42" s="4"/>
+      <c r="S42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="5">
         <f>(W36-T36)/T36</f>
         <v>-7.7929763559443824E-2</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="5">
         <f>(W36-U36)/U36</f>
         <v>-1.5893165521084264E-3</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="5">
         <f>(W36-V36)/V36</f>
         <v>-2.6561754812380275E-4</v>
       </c>
-      <c r="W42" s="5"/>
+      <c r="W42" s="4"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="S43" s="7" t="s">
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="S43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="6">
+      <c r="M44" s="4"/>
+      <c r="N44" s="5">
         <f>(M35-N35)/N35</f>
         <v>0.14544563775119065</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <f>(M35-O35)/O35</f>
         <v>0.15413383185266477</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="5">
         <f>(M35-P35)/P35</f>
         <v>0.15472729642334282</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T44" s="5"/>
-      <c r="U44" s="6">
+      <c r="T44" s="4"/>
+      <c r="U44" s="5">
         <f>(T35-U35)/U35</f>
         <v>0.11420198025618267</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V44" s="5">
         <f>(T35-V35)/V35</f>
         <v>0.13365320742694087</v>
       </c>
-      <c r="W44" s="6">
+      <c r="W44" s="5">
         <f>(T35-W35)/W35</f>
         <v>0.1345775442192606</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="5">
         <f>(N35-M35)/M35</f>
         <v>-0.12697733786540796</v>
       </c>
-      <c r="N45" s="5"/>
-      <c r="O45" s="6">
+      <c r="N45" s="4"/>
+      <c r="O45" s="5">
         <f>(N35-O35)/O35</f>
         <v>7.584990343610991E-3</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="5">
         <f>(N35-P35)/P35</f>
         <v>8.1030983629869074E-3</v>
       </c>
-      <c r="S45" s="5" t="s">
+      <c r="S45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="5">
         <f>(U35-T35)/T35</f>
         <v>-0.10249665884629357</v>
       </c>
-      <c r="U45" s="5"/>
-      <c r="V45" s="6">
+      <c r="U45" s="4"/>
+      <c r="V45" s="5">
         <f>(U35-V35)/V35</f>
         <v>1.7457541375295246E-2</v>
       </c>
-      <c r="W45" s="6">
+      <c r="W45" s="5">
         <f>(U35-W35)/W35</f>
         <v>1.82871367347535E-2</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="5">
         <f>(O35-M35)/M35</f>
         <v>-0.1335493576210677</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="5">
         <f>(O35-N35)/N35</f>
         <v>-7.5278913603350969E-3</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="6">
+      <c r="O46" s="4"/>
+      <c r="P46" s="5">
         <f>(O35-P35)/P35</f>
         <v>5.1420775849313519E-4</v>
       </c>
-      <c r="S46" s="5" t="s">
+      <c r="S46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="5">
         <f>(V35-T35)/T35</f>
         <v>-0.11789602547880962</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="5">
         <f>(V35-U35)/U35</f>
         <v>-1.7158004796640383E-2</v>
       </c>
-      <c r="V46" s="5"/>
-      <c r="W46" s="6">
+      <c r="V46" s="4"/>
+      <c r="W46" s="5">
         <f>(V35-W35)/W35</f>
         <v>8.1536115830139956E-4</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="5">
         <f>(P35-M35)/M35</f>
         <v>-0.13399466428358955</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="5">
         <f>(P35-N35)/N35</f>
         <v>-8.0379659343822688E-3</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="5">
         <f>(P35-O35)/O35</f>
         <v>-5.1394348476584161E-4</v>
       </c>
-      <c r="P47" s="5"/>
-      <c r="S47" s="5" t="s">
+      <c r="P47" s="4"/>
+      <c r="S47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="5">
         <f>(W35-T35)/T35</f>
         <v>-0.1186146728400726</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="5">
         <f>(W35-U35)/U35</f>
         <v>-1.7958723109665471E-2</v>
       </c>
-      <c r="V47" s="6">
+      <c r="V47" s="5">
         <f>(W35-V35)/V35</f>
         <v>-8.1469688610468079E-4</v>
       </c>
-      <c r="W47" s="5"/>
+      <c r="W47" s="4"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M48" s="2"/>
@@ -16551,13 +16556,13 @@
       </c>
     </row>
     <row r="55" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
       <c r="S55" t="s">
         <v>60</v>
       </c>
@@ -16579,301 +16584,301 @@
       </c>
     </row>
     <row r="56" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6">
+      <c r="M56" s="5"/>
+      <c r="N56" s="5">
         <f>(M53-N53)/N53</f>
         <v>1.1939635950889808E-2</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="5">
         <f>(M53-O53)/O53</f>
         <v>3.3911691312952801E-3</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="5">
         <f>(M53-P53)/P53</f>
         <v>-1.6294443460130585E-2</v>
       </c>
-      <c r="S56" s="4" t="s">
+      <c r="S56" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
     </row>
     <row r="57" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="5">
         <f>(N53-M53)/M53</f>
         <v>-1.1798763015810211E-2</v>
       </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6">
+      <c r="N57" s="5"/>
+      <c r="O57" s="5">
         <f>(N53-O53)/O53</f>
         <v>-8.4476054854416144E-3</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="5">
         <f>(N53-P53)/P53</f>
         <v>-2.7900952199080196E-2</v>
       </c>
-      <c r="S57" s="5" t="s">
+      <c r="S57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6">
+      <c r="T57" s="5"/>
+      <c r="U57" s="5">
         <f>(T54-U54)/U54</f>
         <v>6.9374012236377444E-2</v>
       </c>
-      <c r="V57" s="6">
+      <c r="V57" s="5">
         <f>(T54-V54)/V54</f>
         <v>6.6347157065589302E-2</v>
       </c>
-      <c r="W57" s="6">
+      <c r="W57" s="5">
         <f>(T54-W54)/W54</f>
         <v>7.3203984343978318E-2</v>
       </c>
     </row>
     <row r="58" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="5">
         <f>(O53-M53)/M53</f>
         <v>-3.3797079699547771E-3</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="5">
         <f>(O53-N53)/N53</f>
         <v>8.5195754981534505E-3</v>
       </c>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6">
+      <c r="O58" s="5"/>
+      <c r="P58" s="5">
         <f>(O53-P53)/P53</f>
         <v>-1.9619080969657181E-2</v>
       </c>
-      <c r="S58" s="5" t="s">
+      <c r="S58" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T58" s="5">
         <f>(U54-T54)/T54</f>
         <v>-6.4873478729201448E-2</v>
       </c>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6">
+      <c r="U58" s="5"/>
+      <c r="V58" s="5">
         <f>(U54-V54)/V54</f>
         <v>-2.8304925462496371E-3</v>
       </c>
-      <c r="W58" s="6">
+      <c r="W58" s="5">
         <f>(U54-W54)/W54</f>
         <v>3.5815084935449989E-3</v>
       </c>
     </row>
     <row r="59" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="5">
         <f>(P53-M53)/M53</f>
         <v>1.656435033003717E-2</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="5">
         <f>(P53-N53)/N53</f>
         <v>2.8701758593630625E-2</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="5">
         <f>(P53-O53)/O53</f>
         <v>2.0011691974851635E-2</v>
       </c>
-      <c r="P59" s="5"/>
-      <c r="S59" s="5" t="s">
+      <c r="P59" s="4"/>
+      <c r="S59" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T59" s="5">
         <f>(V54-T54)/T54</f>
         <v>-6.2219096872884891E-2</v>
       </c>
-      <c r="U59" s="6">
+      <c r="U59" s="5">
         <f>(V54-U54)/U54</f>
         <v>2.838526975696675E-3</v>
       </c>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6">
+      <c r="V59" s="5"/>
+      <c r="W59" s="5">
         <f>(V54-W54)/W54</f>
         <v>6.4302016777142883E-3</v>
       </c>
     </row>
     <row r="60" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="S60" s="5" t="s">
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="S60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="5">
         <f>(W54-T54)/T54</f>
         <v>-6.8210690056956888E-2</v>
       </c>
-      <c r="U60" s="6">
+      <c r="U60" s="5">
         <f>(W54-U54)/U54</f>
         <v>-3.5687270672425256E-3</v>
       </c>
-      <c r="V60" s="6">
+      <c r="V60" s="5">
         <f>(W54-V54)/V54</f>
         <v>-6.3891183581287333E-3</v>
       </c>
-      <c r="W60" s="5"/>
+      <c r="W60" s="4"/>
     </row>
     <row r="61" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L61" s="5" t="s">
+      <c r="L61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M61" s="5"/>
-      <c r="N61" s="6">
+      <c r="M61" s="4"/>
+      <c r="N61" s="5">
         <f>(M52-N52)/N52</f>
         <v>4.4677756046552136E-2</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="5">
         <f>(M52-O52)/O52</f>
         <v>0.10290136294934353</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="5">
         <f>(M52-P52)/P52</f>
         <v>0.10117783207669008</v>
       </c>
-      <c r="S61" s="7" t="s">
+      <c r="S61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
     </row>
     <row r="62" spans="12:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L62" s="5" t="s">
+      <c r="L62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="5">
         <f>(N52-M52)/M52</f>
         <v>-4.2767021493430972E-2</v>
       </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="6">
+      <c r="N62" s="4"/>
+      <c r="O62" s="5">
         <f>(N52-O52)/O52</f>
         <v>5.5733556654954643E-2</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62" s="5">
         <f>(N52-P52)/P52</f>
         <v>5.408373606417656E-2</v>
       </c>
-      <c r="S62" s="5" t="s">
+      <c r="S62" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T62" s="5"/>
-      <c r="U62" s="6">
+      <c r="T62" s="4"/>
+      <c r="U62" s="5">
         <f>(T53-U53)/U53</f>
         <v>0.10972230995351735</v>
       </c>
-      <c r="V62" s="6">
+      <c r="V62" s="5">
         <f>(T53-V53)/V53</f>
         <v>0.10328758148801032</v>
       </c>
-      <c r="W62" s="6">
+      <c r="W62" s="5">
         <f>(T53-W53)/W53</f>
         <v>0.11836270058660391</v>
       </c>
     </row>
     <row r="63" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="5">
         <f>(O52-M52)/M52</f>
         <v>-9.330060366791823E-2</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="5">
         <f>(O52-N52)/N52</f>
         <v>-5.2791309231037385E-2</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="6">
+      <c r="O63" s="4"/>
+      <c r="P63" s="5">
         <f>(O52-P52)/P52</f>
         <v>-1.5627244017945823E-3</v>
       </c>
-      <c r="S63" s="5" t="s">
+      <c r="S63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T63" s="6">
+      <c r="T63" s="5">
         <f>(U53-T53)/T53</f>
         <v>-9.8873663230320444E-2</v>
       </c>
-      <c r="U63" s="5"/>
-      <c r="V63" s="6">
+      <c r="U63" s="4"/>
+      <c r="V63" s="5">
         <f>(U53-V53)/V53</f>
         <v>-5.7985032902299416E-3</v>
       </c>
-      <c r="W63" s="6">
+      <c r="W63" s="5">
         <f>(U53-W53)/W53</f>
         <v>7.7860835594523413E-3</v>
       </c>
     </row>
     <row r="64" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="5">
         <f>(P52-M52)/M52</f>
         <v>-9.1881464673040827E-2</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N64" s="5">
         <f>(P52-N52)/N52</f>
         <v>-5.1308766290350714E-2</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="5">
         <f>(P52-O52)/O52</f>
         <v>1.5651703316648397E-3</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="S64" s="5" t="s">
+      <c r="P64" s="4"/>
+      <c r="S64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T64" s="6">
+      <c r="T64" s="5">
         <f>(V53-T53)/T53</f>
         <v>-9.3618004245734146E-2</v>
       </c>
-      <c r="U64" s="6">
+      <c r="U64" s="5">
         <f>(V53-U53)/U53</f>
         <v>5.8323220287030573E-3</v>
       </c>
-      <c r="V64" s="5"/>
-      <c r="W64" s="6">
+      <c r="V64" s="4"/>
+      <c r="W64" s="5">
         <f>(V53-W53)/W53</f>
         <v>1.3663816534816514E-2</v>
       </c>
     </row>
     <row r="65" spans="19:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S65" s="5" t="s">
+      <c r="S65" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T65" s="6">
+      <c r="T65" s="5">
         <f>(W53-T53)/T53</f>
         <v>-0.1058357011768367</v>
       </c>
-      <c r="U65" s="6">
+      <c r="U65" s="5">
         <f>(W53-U53)/U53</f>
         <v>-7.725928831992069E-3</v>
       </c>
-      <c r="V65" s="6">
+      <c r="V65" s="5">
         <f>(W53-V53)/V53</f>
         <v>-1.3479633298469624E-2</v>
       </c>
-      <c r="W65" s="5"/>
+      <c r="W65" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18135,13 +18140,13 @@
       <c r="J36">
         <v>28.283641966836871</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -18174,19 +18179,19 @@
       <c r="J37">
         <v>44.455277770153181</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6">
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
         <f>(M34-N34)/N34</f>
         <v>0.12053679712792387</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <f>(M34-O34)/O34</f>
         <v>0.12125110600575575</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <f>(M34-P34)/P34</f>
         <v>0.1211546412933215</v>
       </c>
@@ -18204,19 +18209,19 @@
       <c r="F38">
         <v>18.391079999999999</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
         <f>(N34-M34)/M34</f>
         <v>-0.10757058352467744</v>
       </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6">
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
         <f>(N34-O34)/O34</f>
         <v>6.3747025502665215E-4</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="5">
         <f>(N34-P34)/P34</f>
         <v>5.5138230799848457E-4</v>
       </c>
@@ -18234,19 +18239,19 @@
       <c r="F39">
         <v>18.391079999999999</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
         <f>(O34-M34)/M34</f>
         <v>-0.10813911830837769</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <f>(O34-N34)/N34</f>
         <v>-6.3706414558329879E-4</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5">
         <f>(O34-P34)/P34</f>
         <v>-8.6033103483749057E-5</v>
       </c>
@@ -18264,22 +18269,22 @@
       <c r="F40">
         <v>18.391079999999999</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="5">
         <f>(P34-M34)/M34</f>
         <v>-0.1080623821469999</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <f>(P34-N34)/N34</f>
         <v>-5.5107845308913195E-4</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <f>(P34-O34)/O34</f>
         <v>8.6040505815489668E-5</v>
       </c>
-      <c r="P40" s="5"/>
+      <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -18294,13 +18299,13 @@
       <c r="F41">
         <v>18.391079999999999</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -18315,76 +18320,76 @@
       <c r="F42">
         <v>18.391079999999999</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="6">
+      <c r="M42" s="4"/>
+      <c r="N42" s="5">
         <f>(M33-N33)/N33</f>
         <v>0.14544563775119065</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <f>(M33-O33)/O33</f>
         <v>0.15413383185266477</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <f>(M33-P33)/P33</f>
         <v>0.15472729642334282</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <f>(N33-M33)/M33</f>
         <v>-0.12697733786540796</v>
       </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="6">
+      <c r="N43" s="4"/>
+      <c r="O43" s="5">
         <f>(N33-O33)/O33</f>
         <v>7.584990343610991E-3</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="5">
         <f>(N33-P33)/P33</f>
         <v>8.1030983629869074E-3</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="5">
         <f>(O33-M33)/M33</f>
         <v>-0.1335493576210677</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <f>(O33-N33)/N33</f>
         <v>-7.5278913603350969E-3</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="6">
+      <c r="O44" s="4"/>
+      <c r="P44" s="5">
         <f>(O33-P33)/P33</f>
         <v>5.1420775849313519E-4</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="5">
         <f>(P33-M33)/M33</f>
         <v>-0.13399466428358955</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="5">
         <f>(P33-N33)/N33</f>
         <v>-8.0379659343822688E-3</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="5">
         <f>(P33-O33)/O33</f>
         <v>-5.1394348476584161E-4</v>
       </c>
-      <c r="P45" s="5"/>
+      <c r="P45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19470,13 +19475,13 @@
       <c r="I34">
         <v>-14.94128081710544</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -19506,19 +19511,19 @@
       <c r="I35">
         <v>-12.70008869453962</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
         <f>(L32-M32)/M32</f>
         <v>8.2792442473829816E-2</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <f>(L32-N32)/N32</f>
         <v>8.422801533115841E-2</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <f>(L32-O32)/O32</f>
         <v>8.4516081833715909E-2</v>
       </c>
@@ -19551,19 +19556,19 @@
       <c r="I36">
         <v>30.204924609641321</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <f>(M32-L32)/L32</f>
         <v>-7.6461969280720063E-2</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
         <f>(M32-N32)/N32</f>
         <v>1.3258061296113018E-3</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <f>(M32-O32)/O32</f>
         <v>1.5918465000994504E-3</v>
       </c>
@@ -19596,19 +19601,19 @@
       <c r="I37">
         <v>44.674185918195121</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <f>(N32-L32)/L32</f>
         <v>-7.7684780452230276E-2</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <f>(N32-M32)/M32</f>
         <v>-1.3240506950838436E-3</v>
       </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
         <f>(N32-O32)/O32</f>
         <v>2.6568811955068341E-4</v>
       </c>
@@ -19626,22 +19631,22 @@
       <c r="E38">
         <v>18.380500000000001</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <f>(O32-L32)/L32</f>
         <v>-7.7929763559443824E-2</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
         <f>(O32-M32)/M32</f>
         <v>-1.5893165521084264E-3</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <f>(O32-N32)/N32</f>
         <v>-2.6561754812380275E-4</v>
       </c>
-      <c r="O38" s="5"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39">
@@ -19656,13 +19661,13 @@
       <c r="E39">
         <v>18.380500000000001</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40">
@@ -19677,19 +19682,19 @@
       <c r="E40">
         <v>18.380500000000001</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="6">
+      <c r="L40" s="4"/>
+      <c r="M40" s="5">
         <f>(L31-M31)/M31</f>
         <v>0.11420198025618267</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <f>(L31-N31)/N31</f>
         <v>0.13365320742694087</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <f>(L31-O31)/O31</f>
         <v>0.1345775442192606</v>
       </c>
@@ -19707,19 +19712,19 @@
       <c r="E41">
         <v>18.380500000000001</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <f>(M31-L31)/L31</f>
         <v>-0.10249665884629357</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="6">
+      <c r="M41" s="4"/>
+      <c r="N41" s="5">
         <f>(M31-N31)/N31</f>
         <v>1.7457541375295246E-2</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <f>(M31-O31)/O31</f>
         <v>1.82871367347535E-2</v>
       </c>
@@ -19737,40 +19742,40 @@
       <c r="E42">
         <v>18.380500000000001</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <f>(N31-L31)/L31</f>
         <v>-0.11789602547880962</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <f>(N31-M31)/M31</f>
         <v>-1.7158004796640383E-2</v>
       </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6">
+      <c r="N42" s="4"/>
+      <c r="O42" s="5">
         <f>(N31-O31)/O31</f>
         <v>8.1536115830139956E-4</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <f>(O31-L31)/L31</f>
         <v>-0.1186146728400726</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <f>(O31-M31)/M31</f>
         <v>-1.7958723109665471E-2</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <f>(O31-N31)/N31</f>
         <v>-8.1469688610468079E-4</v>
       </c>
-      <c r="O43" s="5"/>
+      <c r="O43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20863,13 +20868,13 @@
       <c r="J31">
         <v>-2.1059569045901299</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -20902,20 +20907,20 @@
       <c r="J32">
         <v>-6.0529784522950649</v>
       </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="5" t="s">
+      <c r="L32" s="6"/>
+      <c r="M32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5">
         <f>(N29-O29)/O29</f>
         <v>1.1939635950889808E-2</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <f>(N29-P29)/P29</f>
         <v>3.3911691312952801E-3</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <f>(N29-Q29)/Q29</f>
         <v>-1.6294443460130585E-2</v>
       </c>
@@ -20951,20 +20956,20 @@
       <c r="J33">
         <v>23.973510773852471</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="5" t="s">
+      <c r="L33" s="6"/>
+      <c r="M33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <f>(O29-N29)/N29</f>
         <v>-1.1798763015810211E-2</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5">
         <f>(O29-P29)/P29</f>
         <v>-8.4476054854416144E-3</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <f>(O29-Q29)/Q29</f>
         <v>-2.7900952199080196E-2</v>
       </c>
@@ -21000,20 +21005,20 @@
       <c r="J34">
         <v>-16.01324461307377</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="5" t="s">
+      <c r="L34" s="6"/>
+      <c r="M34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <f>(P29-N29)/N29</f>
         <v>-3.3797079699547771E-3</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <f>(P29-O29)/O29</f>
         <v>8.5195754981534505E-3</v>
       </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5">
         <f>(P29-Q29)/Q29</f>
         <v>-1.9619080969657181E-2</v>
       </c>
@@ -21049,22 +21054,22 @@
       <c r="J35">
         <v>-8.0066223065368831</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <f>(Q29-N29)/N29</f>
         <v>1.656435033003717E-2</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <f>(Q29-O29)/O29</f>
         <v>2.8701758593630625E-2</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="5">
         <f>(Q29-P29)/P29</f>
         <v>2.0011691974851635E-2</v>
       </c>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -21097,13 +21102,13 @@
       <c r="J36">
         <v>36.996688846731558</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -21136,76 +21141,76 @@
       <c r="J37">
         <v>37.498344423365779</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="6">
+      <c r="N37" s="4"/>
+      <c r="O37" s="5">
         <f>(N28-O28)/O28</f>
         <v>4.4677756046552136E-2</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <f>(N28-P28)/P28</f>
         <v>0.10290136294934353</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="5">
         <f>(N28-Q28)/Q28</f>
         <v>0.10117783207669008</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <f>(O28-N28)/N28</f>
         <v>-4.2767021493430972E-2</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="6">
+      <c r="O38" s="4"/>
+      <c r="P38" s="5">
         <f>(O28-P28)/P28</f>
         <v>5.5733556654954643E-2</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="5">
         <f>(O28-Q28)/Q28</f>
         <v>5.408373606417656E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <f>(P28-N28)/N28</f>
         <v>-9.330060366791823E-2</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <f>(P28-O28)/O28</f>
         <v>-5.2791309231037385E-2</v>
       </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="6">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5">
         <f>(P28-Q28)/Q28</f>
         <v>-1.5627244017945823E-3</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <f>(Q28-N28)/N28</f>
         <v>-9.1881464673040827E-2</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <f>(Q28-O28)/O28</f>
         <v>-5.1308766290350714E-2</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <f>(Q28-P28)/P28</f>
         <v>1.5651703316648397E-3</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22440,13 +22445,13 @@
       <c r="J35">
         <v>-9.2707664974478199</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -22479,19 +22484,19 @@
       <c r="J36">
         <v>34.740653555014653</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
         <f>(M33-N33)/N33</f>
         <v>6.9374012236377444E-2</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <f>(M33-O33)/O33</f>
         <v>6.6347157065589302E-2</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <f>(M33-P33)/P33</f>
         <v>7.3203984343978318E-2</v>
       </c>
@@ -22527,19 +22532,19 @@
       <c r="J37">
         <v>42.455858411050713</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <f>(N33-M33)/M33</f>
         <v>-6.4873478729201448E-2</v>
       </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
         <f>(N33-O33)/O33</f>
         <v>-2.8304925462496371E-3</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <f>(N33-P33)/P33</f>
         <v>3.5815084935449989E-3</v>
       </c>
@@ -22557,19 +22562,19 @@
       <c r="F38">
         <v>21.985949999999999</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
         <f>(O33-M33)/M33</f>
         <v>-6.2219096872884891E-2</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <f>(O33-N33)/N33</f>
         <v>2.838526975696675E-3</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6">
+      <c r="O38" s="5"/>
+      <c r="P38" s="5">
         <f>(O33-P33)/P33</f>
         <v>6.4302016777142883E-3</v>
       </c>
@@ -22587,22 +22592,22 @@
       <c r="F39">
         <v>21.985949999999999</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
         <f>(P33-M33)/M33</f>
         <v>-6.8210690056956888E-2</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <f>(P33-N33)/N33</f>
         <v>-3.5687270672425256E-3</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <f>(P33-O33)/O33</f>
         <v>-6.3891183581287333E-3</v>
       </c>
-      <c r="P39" s="5"/>
+      <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C40">
@@ -22617,13 +22622,13 @@
       <c r="F40">
         <v>21.985949999999999</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -22638,19 +22643,19 @@
       <c r="F41">
         <v>21.985949999999999</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="6">
+      <c r="M41" s="4"/>
+      <c r="N41" s="5">
         <f>(M32-N32)/N32</f>
         <v>0.10972230995351735</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <f>(M32-O32)/O32</f>
         <v>0.10328758148801032</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="5">
         <f>(M32-P32)/P32</f>
         <v>0.11836270058660391</v>
       </c>
@@ -22668,58 +22673,58 @@
       <c r="F42">
         <v>21.985949999999999</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <f>(N32-M32)/M32</f>
         <v>-9.8873663230320444E-2</v>
       </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6">
+      <c r="N42" s="4"/>
+      <c r="O42" s="5">
         <f>(N32-O32)/O32</f>
         <v>-5.7985032902299416E-3</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <f>(N32-P32)/P32</f>
         <v>7.7860835594523413E-3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <f>(O32-M32)/M32</f>
         <v>-9.3618004245734146E-2</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <f>(O32-N32)/N32</f>
         <v>5.8323220287030573E-3</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="6">
+      <c r="O43" s="4"/>
+      <c r="P43" s="5">
         <f>(O32-P32)/P32</f>
         <v>1.3663816534816514E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="5">
         <f>(P32-M32)/M32</f>
         <v>-0.1058357011768367</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <f>(P32-N32)/N32</f>
         <v>-7.725928831992069E-3</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <f>(P32-O32)/O32</f>
         <v>-1.3479633298469624E-2</v>
       </c>
-      <c r="P44" s="5"/>
+      <c r="P44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22733,22 +22738,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N38"/>
+  <dimension ref="B1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C1" s="10">
         <v>0.1</v>
       </c>
@@ -22765,14 +22767,14 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -22781,7 +22783,7 @@
         <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>53</v>
@@ -22790,7 +22792,7 @@
         <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
@@ -22799,7 +22801,7 @@
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>53</v>
@@ -22807,91 +22809,90 @@
       <c r="N2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="AB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>44912</v>
       </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>0+(($AE$2)*(AB3-0))</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>44579</v>
       </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>AC3+(($AE$2)*(AB4-AC3))</f>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>44610</v>
       </c>
       <c r="C5" s="2">
@@ -22930,9 +22931,29 @@
       <c r="N5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="V5">
+        <v>16</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <f>X4+(0.9*(W4-X4))</f>
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>16</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>AC4+(($AE$2)*(AB5-AC4))</f>
+        <v>0.36100000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>44638</v>
       </c>
       <c r="C6" s="2">
@@ -22971,9 +22992,36 @@
       <c r="N6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="V6">
+        <v>13</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <f>($AE$2*W6)+((1-$AE$2)*X5)</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AA6">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" ref="AC6:AC38" si="0">AC5+(($AE$2)*(AB6-AC5))</f>
+        <v>0.42490000000000006</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <f>AF6*(1-((1-AE2)/2))</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>44669</v>
       </c>
       <c r="C7" s="2">
@@ -23012,9 +23060,29 @@
       <c r="N7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="V7">
+        <v>22</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" ref="X7:X38" si="1">($AE$2*W7)+((1-$AE$2)*X6)</f>
+        <v>2.6200000000000006</v>
+      </c>
+      <c r="AA7">
+        <v>22</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48241000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>44699</v>
       </c>
       <c r="C8" s="2">
@@ -23053,9 +23121,29 @@
       <c r="N8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="V8">
+        <v>49</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4580000000000006</v>
+      </c>
+      <c r="AA8">
+        <v>49</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53416900000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>44730</v>
       </c>
       <c r="C9" s="2">
@@ -23094,9 +23182,29 @@
       <c r="N9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="V9">
+        <v>28</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3122000000000007</v>
+      </c>
+      <c r="AA9">
+        <v>28</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5807521000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>44760</v>
       </c>
       <c r="C10" s="2">
@@ -23135,9 +23243,29 @@
       <c r="N10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1809800000000008</v>
+      </c>
+      <c r="AA10">
+        <v>15</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62267689000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>44791</v>
       </c>
       <c r="C11" s="2">
@@ -23176,9 +23304,29 @@
       <c r="N11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0628820000000005</v>
+      </c>
+      <c r="AA11">
+        <v>7</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66040920100000011</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>44822</v>
       </c>
       <c r="C12" s="2">
@@ -23217,9 +23365,29 @@
       <c r="N12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="V12">
+        <v>13</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9565938000000007</v>
+      </c>
+      <c r="AA12">
+        <v>13</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69436828090000013</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>44852</v>
       </c>
       <c r="C13" s="2">
@@ -23258,9 +23426,29 @@
       <c r="N13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
+      <c r="V13">
+        <v>16</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8609344200000009</v>
+      </c>
+      <c r="AA13">
+        <v>16</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72493145281000015</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>44883</v>
       </c>
       <c r="C14" s="2">
@@ -23299,9 +23487,29 @@
       <c r="N14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+      <c r="V14">
+        <v>29</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.774840978000001</v>
+      </c>
+      <c r="AA14">
+        <v>29</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75243830752900009</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>44913</v>
       </c>
       <c r="C15" s="2">
@@ -23340,9 +23548,29 @@
       <c r="N15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
+      <c r="V15">
+        <v>22</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.697356880200001</v>
+      </c>
+      <c r="AA15">
+        <v>22</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7771944767761001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>44580</v>
       </c>
       <c r="C16" s="2">
@@ -23381,9 +23609,29 @@
       <c r="N16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.627621192180001</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79947502909849011</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>44611</v>
       </c>
       <c r="C17" s="2">
@@ -23422,9 +23670,29 @@
       <c r="N17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5648590729620011</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81952752618864111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>44639</v>
       </c>
       <c r="C18" s="2">
@@ -23463,9 +23731,29 @@
       <c r="N18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+      <c r="V18">
+        <v>38</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.508373165665801</v>
+      </c>
+      <c r="AA18">
+        <v>38</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83757477356977694</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
         <v>44670</v>
       </c>
       <c r="C19" s="2">
@@ -23504,9 +23792,29 @@
       <c r="N19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+      <c r="V19">
+        <v>45</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.457535849099221</v>
+      </c>
+      <c r="AA19">
+        <v>45</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85381729621279923</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>44700</v>
       </c>
       <c r="C20" s="2">
@@ -23545,9 +23853,29 @@
       <c r="N20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="1"/>
+        <v>1.411782264189299</v>
+      </c>
+      <c r="AA20">
+        <v>18</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86843556659151933</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>44731</v>
       </c>
       <c r="C21" s="2">
@@ -23586,9 +23914,29 @@
       <c r="N21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3706040377703692</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88159200993236742</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>44761</v>
       </c>
       <c r="C22" s="2">
@@ -23627,9 +23975,29 @@
       <c r="N22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="V22">
+        <v>37</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3335436339933324</v>
+      </c>
+      <c r="AA22">
+        <v>37</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89343280893913068</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>44792</v>
       </c>
       <c r="C23" s="2">
@@ -23668,9 +24036,29 @@
       <c r="N23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="V23">
+        <v>45</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3001892705939992</v>
+      </c>
+      <c r="AA23">
+        <v>45</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90408952804521758</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>44823</v>
       </c>
       <c r="C24" s="2">
@@ -23709,9 +24097,29 @@
       <c r="N24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="V24">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <f>($AE$2*W24)+((1-$AE$2)*X23)</f>
+        <v>1.2701703435345995</v>
+      </c>
+      <c r="AA24">
+        <v>12</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91368057524069579</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
         <v>44853</v>
       </c>
       <c r="C25" s="2">
@@ -23750,9 +24158,29 @@
       <c r="N25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="V25">
+        <v>22</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2431533091811395</v>
+      </c>
+      <c r="AA25">
+        <v>22</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92231251771662626</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>44884</v>
       </c>
       <c r="C26" s="2">
@@ -23791,9 +24219,29 @@
       <c r="N26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="V26">
+        <v>16</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2188379782630256</v>
+      </c>
+      <c r="AA26">
+        <v>16</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93008126594496365</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <v>44914</v>
       </c>
       <c r="C27" s="2">
@@ -23832,9 +24280,29 @@
       <c r="N27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
+      <c r="V27">
+        <v>18</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1969541804367232</v>
+      </c>
+      <c r="AA27">
+        <v>18</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93707313935046732</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
         <v>44581</v>
       </c>
       <c r="C28" s="2">
@@ -23873,9 +24341,29 @@
       <c r="N28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
+      <c r="V28">
+        <v>27</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2">
+        <f>($AE$2*W28)+((1-$AE$2)*X27)</f>
+        <v>1.1772587623930511</v>
+      </c>
+      <c r="AA28">
+        <v>27</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94336582541542058</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>44612</v>
       </c>
       <c r="C29" s="2">
@@ -23914,9 +24402,29 @@
       <c r="N29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
+      <c r="V29">
+        <v>14</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1595328861537462</v>
+      </c>
+      <c r="AA29">
+        <v>14</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94902924287387846</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
         <v>44640</v>
       </c>
       <c r="C30" s="2">
@@ -23955,9 +24463,29 @@
       <c r="N30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1435795975383716</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95412631858649066</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
         <v>44671</v>
       </c>
       <c r="C31" s="2">
@@ -23996,9 +24524,29 @@
       <c r="N31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1292216377845345</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95871368672784163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
         <v>44701</v>
       </c>
       <c r="C32" s="2">
@@ -24037,9 +24585,29 @@
       <c r="N32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1162994740060812</v>
+      </c>
+      <c r="AA32">
+        <v>6</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96284231805505749</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
         <v>44732</v>
       </c>
       <c r="C33" s="2">
@@ -24078,9 +24646,29 @@
       <c r="N33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1046695266054731</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96655808624955175</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
         <v>44762</v>
       </c>
       <c r="C34" s="2">
@@ -24119,9 +24707,29 @@
       <c r="N34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+      <c r="V34">
+        <v>28</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <f>($AE$2*W34)+((1-$AE$2)*X33)</f>
+        <v>1.0942025739449259</v>
+      </c>
+      <c r="AA34">
+        <v>28</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96990227762459658</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
         <v>44793</v>
       </c>
       <c r="C35" s="2">
@@ -24160,9 +24768,29 @@
       <c r="N35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35" s="11">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <f>($AE$2*W35)+((1-$AE$2)*X34)</f>
+        <v>1.0847823165504333</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87291204986213689</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
         <v>44824</v>
       </c>
       <c r="C36" s="2">
@@ -24201,9 +24829,28 @@
       <c r="N36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1.0847823165504333</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98562084487592316</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
         <v>44854</v>
       </c>
       <c r="C37" s="2">
@@ -24242,9 +24889,28 @@
       <c r="N37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
+      <c r="V37">
+        <v>41</v>
+      </c>
+      <c r="W37" s="11">
+        <v>1</v>
+      </c>
+      <c r="X37" s="2">
+        <v>1.0847823165504333</v>
+      </c>
+      <c r="AA37">
+        <v>41</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1870587603883309</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
         <v>44885</v>
       </c>
       <c r="C38" s="2">
@@ -24281,6 +24947,31 @@
         <v>1.000189</v>
       </c>
       <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>60</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2">
+        <f>($AE$2*W38)+((1-$AE$2)*X37)</f>
+        <v>1.2763040848953899</v>
+      </c>
+      <c r="AA38">
+        <v>60</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1683528843494979</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W39">
         <v>1</v>
       </c>
     </row>

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -22740,8 +22740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24836,7 +24836,7 @@
         <v>1</v>
       </c>
       <c r="X36" s="2">
-        <v>1.0847823165504333</v>
+        <v>1.08478231655043</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="X37" s="2">
-        <v>1.0847823165504333</v>
+        <v>1.08478231655043</v>
       </c>
       <c r="AA37">
         <v>41</v>
@@ -24957,7 +24957,7 @@
       </c>
       <c r="X38" s="2">
         <f>($AE$2*W38)+((1-$AE$2)*X37)</f>
-        <v>1.2763040848953899</v>
+        <v>1.276304084895387</v>
       </c>
       <c r="AA38">
         <v>60</v>

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,12 +26,11 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="74">
   <si>
     <t>X</t>
   </si>
@@ -230,6 +229,30 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>SES (0.1)</t>
+  </si>
+  <si>
+    <t>SES (0.15)</t>
+  </si>
+  <si>
+    <t>Croston (0.1)</t>
+  </si>
+  <si>
+    <t>Croston (0.15)</t>
+  </si>
+  <si>
+    <t>SBA (0.1)</t>
+  </si>
+  <si>
+    <t>SBA (0.15)</t>
+  </si>
+  <si>
+    <t>SBJ (0.1)</t>
+  </si>
+  <si>
+    <t>SBJ (0.15)</t>
+  </si>
 </sst>
 </file>
 
@@ -302,16 +325,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,6 +393,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -688,11 +712,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cros_smoothed</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -723,126 +747,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$42</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="2">
-                  <c:v>16.069086430961409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.06524829587109</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.87719625148212</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.28936749349263</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.68983956215834</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.429754902894011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.050992087683252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.949542358124681</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.46899836848732</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.318407435993208</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.57562027179792</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.960472419515568</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.446968471895861</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.58110860941564</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.37059345522907</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.770935923953729</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.27843325110932</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.57758750049274</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.073189233001269</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.362251960782299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.64131925410501</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.551068121578599</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.6205253004597</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21.102125643367099</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.952400072777671</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.799204923069539</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.350903404283461</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16.396828291565051</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14.869564755657009</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.825824837026451</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15.06773613962906</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.06773613962906</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15.06773613962906</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14.58754225655891</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19.96058</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>19.96058</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19.96058</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.96058</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19.96058</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,11 +769,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SES_bip1271</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -894,132 +804,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6749999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0737500000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6126874999999989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.820784375000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.94766671875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.8055167109375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.484689204296879</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.26198582365234</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.522687950104491</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.694284757588822</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.490142043950499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.76662073735792</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.701627626754229</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.3463834827411</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.494425960329931</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.970262066280441</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.97472275633837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.828514342887619</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.454237191454471</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.5861016127363</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.498186370825859</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.523458415201979</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.99493965292168</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.895698704983431</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.71134389923591</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.204642314350529</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16.223945967197949</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14.690354072118261</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.636800961300519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14.94128081710544</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.70008869453962</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10.795075390358679</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15.32581408180488</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.02694</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.02694</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>22.02694</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.02694</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22.02694</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,11 +826,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SBA_smoothed</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1071,126 +861,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="2">
-                  <c:v>10.73315770912146</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.24658253911428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.417392225472771</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.44916684477737</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.01318495503655</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.18181857509985</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.968797505067091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.99644210028745</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.704002228836201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.732625049325391</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.026135232042609</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.510894183714399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.388154818789541</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.984860173392249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.228923109771252</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.93672094358525</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.747558032530531</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.919110015287771</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.779484452847779</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.238528359549271</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.239789644289871</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.313594691975009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.795119007594881</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.52223733385463</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.153593474787169</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.455695046760589</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.85072436115334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.499798808914829</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.37814159459376</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14.87830977116001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.157626967529168</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.157626967529168</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16.157626967529168</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18.579080889118789</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.617660000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.617660000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>22.617660000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.617660000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22.617660000000001</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,11 +883,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SBJ_smoothed</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1242,126 +918,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$42</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="2">
-                  <c:v>12.04010902309439</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.36991714924274</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.4223949664499</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.220086620757829</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.20009448987464</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.18287526984135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.00106975343666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.168108912572858</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.904246070545071</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.91222114108883</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.002265252841351</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.418512452555088</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.467496814846609</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.26253988618037</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.156278680025569</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.475303539120919</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.352429672061511</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.823907663788152</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.421030199193311</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.55143030387428</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20.75591866105173</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20.859534675274279</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.454797760327072</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.250344587387239</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.812504307695288</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.24511007112179</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.892100756969519</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.735066939352599</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.757686372941961</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.44527320196155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.490920914063789</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.490920914063789</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16.490920914063789</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18.53221279100293</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.985949999999999</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,6 +1051,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1640,7 +1203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$B$1</c:f>
+              <c:f>[1]Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1675,7 +1238,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -1791,7 +1354,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$B$2:$B$42</c:f>
+              <c:f>[1]Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1918,7 +1481,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$C$1</c:f>
+              <c:f>[1]Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1953,7 +1516,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -2069,7 +1632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$C$2:$C$42</c:f>
+              <c:f>[1]Sheet1!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2211,7 +1774,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$D$1</c:f>
+              <c:f>[1]Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2246,7 +1809,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -2362,7 +1925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$D$2:$D$42</c:f>
+              <c:f>[1]Sheet1!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2498,7 +2061,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$E$1</c:f>
+              <c:f>[1]Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2533,7 +2096,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -2649,7 +2212,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$E$2:$E$42</c:f>
+              <c:f>[1]Sheet1!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2785,7 +2348,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$F$1</c:f>
+              <c:f>[1]Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2820,7 +2383,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -2936,7 +2499,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$F$2:$F$42</c:f>
+              <c:f>[1]Sheet1!$F$2:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3348,7 +2911,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$B$1</c:f>
+              <c:f>[2]Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3383,7 +2946,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -3499,7 +3062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$B$2:$B$42</c:f>
+              <c:f>[2]Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3626,7 +3189,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$C$1</c:f>
+              <c:f>[2]Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3661,7 +3224,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -3777,7 +3340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$C$2:$C$42</c:f>
+              <c:f>[2]Sheet1!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3919,7 +3482,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$D$1</c:f>
+              <c:f>[2]Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3954,7 +3517,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -4070,7 +3633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$D$2:$D$42</c:f>
+              <c:f>[2]Sheet1!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4206,7 +3769,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$E$1</c:f>
+              <c:f>[2]Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4241,7 +3804,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -4357,7 +3920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$E$2:$E$42</c:f>
+              <c:f>[2]Sheet1!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4493,7 +4056,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$F$1</c:f>
+              <c:f>[2]Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4528,7 +4091,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -4644,7 +4207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$F$2:$F$42</c:f>
+              <c:f>[2]Sheet1!$F$2:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -5056,7 +4619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$1</c:f>
+              <c:f>[3]Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5091,7 +4654,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -5207,7 +4770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$2:$B$37</c:f>
+              <c:f>[3]Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -5334,7 +4897,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$C$1</c:f>
+              <c:f>[3]Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5369,7 +4932,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -5485,7 +5048,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$C$2:$C$37</c:f>
+              <c:f>[3]Sheet1!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -5612,7 +5175,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$D$1</c:f>
+              <c:f>[3]Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5647,7 +5210,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -5763,7 +5326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$2:$D$37</c:f>
+              <c:f>[3]Sheet1!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -5884,7 +5447,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$E$1</c:f>
+              <c:f>[3]Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5919,7 +5482,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -6035,7 +5598,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$E$2:$E$37</c:f>
+              <c:f>[3]Sheet1!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -6156,7 +5719,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$F$1</c:f>
+              <c:f>[3]Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6191,7 +5754,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -6307,7 +5870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$37</c:f>
+              <c:f>[3]Sheet1!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -8269,6 +7832,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11054,16 +10618,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11238,6 +10802,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -11246,7 +10811,7 @@
             <v>BIP001271</v>
           </cell>
           <cell r="C1" t="str">
-            <v>SES_bip1271</v>
+            <v>SES_bip1271.1</v>
           </cell>
           <cell r="D1" t="str">
             <v>cros_smoothed</v>
@@ -11288,16 +10853,16 @@
             <v>16</v>
           </cell>
           <cell r="C4">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="D4">
-            <v>17.181861170801749</v>
+            <v>16.787301196608649</v>
           </cell>
           <cell r="E4">
-            <v>17.1818165619738</v>
+            <v>17.181817506169448</v>
           </cell>
           <cell r="F4">
-            <v>17.181969642125878</v>
+            <v>17.181820866992119</v>
           </cell>
         </row>
         <row r="5">
@@ -11308,16 +10873,16 @@
             <v>13</v>
           </cell>
           <cell r="C5">
-            <v>10.5</v>
+            <v>2.5</v>
           </cell>
           <cell r="D5">
-            <v>16.88639565204544</v>
+            <v>16.759183294213688</v>
           </cell>
           <cell r="E5">
-            <v>15.74999737441005</v>
+            <v>17.111038291871211</v>
           </cell>
           <cell r="F5">
-            <v>15.224258953894619</v>
+            <v>17.109537789844801</v>
           </cell>
         </row>
         <row r="6">
@@ -11328,16 +10893,16 @@
             <v>22</v>
           </cell>
           <cell r="C6">
-            <v>11.75</v>
+            <v>3.55</v>
           </cell>
           <cell r="D6">
-            <v>15.59092977393702</v>
+            <v>16.61570300345959</v>
           </cell>
           <cell r="E6">
-            <v>13.61440369246777</v>
+            <v>16.929319229514</v>
           </cell>
           <cell r="F6">
-            <v>12.762710153133961</v>
+            <v>16.9265702942552</v>
           </cell>
         </row>
         <row r="7">
@@ -11348,16 +10913,16 @@
             <v>49</v>
           </cell>
           <cell r="C7">
-            <v>16.875</v>
+            <v>5.3949999999999996</v>
           </cell>
           <cell r="D7">
-            <v>18.154558648918549</v>
+            <v>16.83475497421226</v>
           </cell>
           <cell r="E7">
-            <v>14.814355090484391</v>
+            <v>17.090860388345181</v>
           </cell>
           <cell r="F7">
-            <v>13.57915618869489</v>
+            <v>17.08586789484146</v>
           </cell>
         </row>
         <row r="8">
@@ -11368,16 +10933,16 @@
             <v>28</v>
           </cell>
           <cell r="C8">
-            <v>32.9375</v>
+            <v>9.7555000000000014</v>
           </cell>
           <cell r="D8">
-            <v>31.863646024643678</v>
+            <v>18.225865067053991</v>
           </cell>
           <cell r="E8">
-            <v>24.774325666513221</v>
+            <v>18.364934694051701</v>
           </cell>
           <cell r="F8">
-            <v>22.391477036175999</v>
+            <v>18.354581030395401</v>
           </cell>
         </row>
         <row r="9">
@@ -11388,16 +10953,16 @@
             <v>15</v>
           </cell>
           <cell r="C9">
-            <v>30.46875</v>
+            <v>11.57995</v>
           </cell>
           <cell r="D9">
-            <v>30.045459496450771</v>
+            <v>18.674018450838041</v>
           </cell>
           <cell r="E9">
-            <v>22.978045832919658</v>
+            <v>18.742520322330218</v>
           </cell>
           <cell r="F9">
-            <v>20.603283093335431</v>
+            <v>18.729262818445729</v>
           </cell>
         </row>
         <row r="10">
@@ -11408,16 +10973,16 @@
             <v>7</v>
           </cell>
           <cell r="C10">
-            <v>22.734375</v>
+            <v>11.921955000000001</v>
           </cell>
           <cell r="D10">
-            <v>22.750690917498339</v>
+            <v>18.49591719665402</v>
           </cell>
           <cell r="E10">
-            <v>17.258708212510982</v>
+            <v>18.524741446941789</v>
           </cell>
           <cell r="F10">
-            <v>15.40941602137997</v>
+            <v>18.51021313182795</v>
           </cell>
         </row>
         <row r="11">
@@ -11428,16 +10993,16 @@
             <v>13</v>
           </cell>
           <cell r="C11">
-            <v>14.8671875</v>
+            <v>11.429759499999999</v>
           </cell>
           <cell r="D11">
-            <v>14.996504437111399</v>
+            <v>17.908369695532659</v>
           </cell>
           <cell r="E11">
-            <v>11.32935321801537</v>
+            <v>17.917832455464179</v>
           </cell>
           <cell r="F11">
-            <v>10.09319799296434</v>
+            <v>17.903105293795601</v>
           </cell>
         </row>
         <row r="12">
@@ -11448,16 +11013,16 @@
             <v>16</v>
           </cell>
           <cell r="C12">
-            <v>13.93359375</v>
+            <v>11.58678355</v>
           </cell>
           <cell r="D12">
-            <v>14.00599059609759</v>
+            <v>17.64461134065111</v>
           </cell>
           <cell r="E12">
-            <v>10.544639445268659</v>
+            <v>17.61863687958677</v>
           </cell>
           <cell r="F12">
-            <v>9.3836133592921147</v>
+            <v>17.602862801657569</v>
           </cell>
         </row>
         <row r="13">
@@ -11468,16 +11033,16 @@
             <v>29</v>
           </cell>
           <cell r="C13">
-            <v>14.966796875</v>
+            <v>12.028105195</v>
           </cell>
           <cell r="D13">
-            <v>14.999115908234391</v>
+            <v>17.55194887336658</v>
           </cell>
           <cell r="E13">
-            <v>11.270025909035899</v>
+            <v>17.482363415138959</v>
           </cell>
           <cell r="F13">
-            <v>10.02348033133366</v>
+            <v>17.465105778931989</v>
           </cell>
         </row>
         <row r="14">
@@ -11488,16 +11053,16 @@
             <v>22</v>
           </cell>
           <cell r="C14">
-            <v>21.9833984375</v>
+            <v>13.725294675500001</v>
           </cell>
           <cell r="D14">
-            <v>21.985911889097871</v>
+            <v>18.226412323856731</v>
           </cell>
           <cell r="E14">
-            <v>16.501741102165759</v>
+            <v>18.075499620419041</v>
           </cell>
           <cell r="F14">
-            <v>14.672377696616881</v>
+            <v>18.05476247653516</v>
           </cell>
         </row>
         <row r="15">
@@ -11508,16 +11073,16 @@
             <v>6</v>
           </cell>
           <cell r="C15">
-            <v>21.99169921875</v>
+            <v>14.552765207949999</v>
           </cell>
           <cell r="D15">
-            <v>21.992949072310221</v>
+            <v>18.458259137895539</v>
           </cell>
           <cell r="E15">
-            <v>16.50087123875236</v>
+            <v>18.249035134432962</v>
           </cell>
           <cell r="F15">
-            <v>14.669524032094619</v>
+            <v>18.22601502748353</v>
           </cell>
         </row>
         <row r="16">
@@ -11528,16 +11093,16 @@
             <v>2</v>
           </cell>
           <cell r="C16">
-            <v>13.995849609375</v>
+            <v>13.697488687154999</v>
           </cell>
           <cell r="D16">
-            <v>14.00037715319082</v>
+            <v>17.662132510321559</v>
           </cell>
           <cell r="E16">
-            <v>10.50280650082134</v>
+            <v>17.447107529046349</v>
           </cell>
           <cell r="F16">
-            <v>9.3364911131171766</v>
+            <v>17.42454959061671</v>
           </cell>
         </row>
         <row r="17">
@@ -11548,16 +11113,16 @@
             <v>38</v>
           </cell>
           <cell r="C17">
-            <v>7.9979248046875</v>
+            <v>12.5277398184395</v>
           </cell>
           <cell r="D17">
-            <v>8.0016531065923733</v>
+            <v>16.623786456334528</v>
           </cell>
           <cell r="E17">
-            <v>6.0022927193547702</v>
+            <v>16.416387153250771</v>
           </cell>
           <cell r="F17">
-            <v>5.335560821963373</v>
+            <v>16.3949759265798</v>
           </cell>
         </row>
         <row r="18">
@@ -11568,16 +11133,16 @@
             <v>45</v>
           </cell>
           <cell r="C18">
-            <v>22.99896240234375</v>
+            <v>15.074965836595551</v>
           </cell>
           <cell r="D18">
-            <v>22.998995825785109</v>
+            <v>18.090386025114249</v>
           </cell>
           <cell r="E18">
-            <v>17.25003487354234</v>
+            <v>17.76685927067015</v>
           </cell>
           <cell r="F18">
-            <v>15.33363667370363</v>
+            <v>17.740055996295979</v>
           </cell>
         </row>
         <row r="19">
@@ -11588,16 +11153,16 @@
             <v>18</v>
           </cell>
           <cell r="C19">
-            <v>33.999481201171882</v>
+            <v>18.067469252936</v>
           </cell>
           <cell r="D19">
-            <v>33.998826537533652</v>
+            <v>19.996460052957911</v>
           </cell>
           <cell r="E19">
-            <v>25.49960983104641</v>
+            <v>19.53647659690953</v>
           </cell>
           <cell r="F19">
-            <v>22.666521149743328</v>
+            <v>19.503183622256699</v>
           </cell>
         </row>
         <row r="20">
@@ -11608,16 +11173,16 @@
             <v>1</v>
           </cell>
           <cell r="C20">
-            <v>25.999740600585941</v>
+            <v>18.060722327642399</v>
           </cell>
           <cell r="D20">
-            <v>25.999657383662878</v>
+            <v>19.850797259541078</v>
           </cell>
           <cell r="E20">
-            <v>19.499953134942292</v>
+            <v>19.358709949116879</v>
           </cell>
           <cell r="F20">
-            <v>17.3333686458618</v>
+            <v>19.32439003993505</v>
           </cell>
         </row>
         <row r="21">
@@ -11628,16 +11193,16 @@
             <v>37</v>
           </cell>
           <cell r="C21">
-            <v>13.499870300292971</v>
+            <v>16.35465009487816</v>
           </cell>
           <cell r="D21">
-            <v>13.500019420878621</v>
+            <v>18.437210374544321</v>
           </cell>
           <cell r="E21">
-            <v>10.12509236879839</v>
+            <v>17.978274298880809</v>
           </cell>
           <cell r="F21">
-            <v>9.0001020889114525</v>
+            <v>17.94633076565805</v>
           </cell>
         </row>
         <row r="22">
@@ -11648,16 +11213,16 @@
             <v>45</v>
           </cell>
           <cell r="C22">
-            <v>25.249935150146481</v>
+            <v>18.41918508539035</v>
           </cell>
           <cell r="D22">
-            <v>25.249920065948761</v>
+            <v>19.864909452044021</v>
           </cell>
           <cell r="E22">
-            <v>18.93749175758845</v>
+            <v>19.298984108392759</v>
           </cell>
           <cell r="F22">
-            <v>16.833344694586501</v>
+            <v>19.26200851282665</v>
           </cell>
         </row>
         <row r="23">
@@ -11668,16 +11233,16 @@
             <v>12</v>
           </cell>
           <cell r="C23">
-            <v>35.124967575073242</v>
+            <v>21.077266576851311</v>
           </cell>
           <cell r="D23">
-            <v>35.124922362887759</v>
+            <v>21.84378507452136</v>
           </cell>
           <cell r="E23">
-            <v>26.343723007750331</v>
+            <v>21.145273304626819</v>
           </cell>
           <cell r="F23">
-            <v>23.416655671768432</v>
+            <v>21.101885397688228</v>
           </cell>
         </row>
         <row r="24">
@@ -11688,16 +11253,16 @@
             <v>22</v>
           </cell>
           <cell r="C24">
-            <v>23.562483787536621</v>
+            <v>20.16953991916618</v>
           </cell>
           <cell r="D24">
-            <v>23.5624832350126</v>
+            <v>21.051945060113901</v>
           </cell>
           <cell r="E24">
-            <v>17.671874893560972</v>
+            <v>20.361357598332429</v>
           </cell>
           <cell r="F24">
-            <v>15.70833759846796</v>
+            <v>20.318919667151881</v>
           </cell>
         </row>
         <row r="25">
@@ -11708,16 +11273,16 @@
             <v>16</v>
           </cell>
           <cell r="C25">
-            <v>22.781241893768311</v>
+            <v>20.35258592724956</v>
           </cell>
           <cell r="D25">
-            <v>22.781242362554519</v>
+            <v>21.129728570349702</v>
           </cell>
           <cell r="E25">
-            <v>17.08593789913575</v>
+            <v>20.405550710853301</v>
           </cell>
           <cell r="F25">
-            <v>15.187502462386121</v>
+            <v>20.361844617596539</v>
           </cell>
         </row>
         <row r="26">
@@ -11728,16 +11293,16 @@
             <v>18</v>
           </cell>
           <cell r="C26">
-            <v>19.390620946884159</v>
+            <v>19.917327334524611</v>
           </cell>
           <cell r="D26">
-            <v>19.390622798048181</v>
+            <v>20.701163402886898</v>
           </cell>
           <cell r="E26">
-            <v>14.542969931179339</v>
+            <v>19.97065093539139</v>
           </cell>
           <cell r="F26">
-            <v>12.92708528023091</v>
+            <v>19.92707861021411</v>
           </cell>
         </row>
         <row r="27">
@@ -11748,16 +11313,16 @@
             <v>27</v>
           </cell>
           <cell r="C27">
-            <v>18.695310473442081</v>
+            <v>19.725594601072149</v>
           </cell>
           <cell r="D27">
-            <v>18.695311564798949</v>
+            <v>20.471718225175191</v>
           </cell>
           <cell r="E27">
-            <v>14.02148506623889</v>
+            <v>19.72680895308887</v>
           </cell>
           <cell r="F27">
-            <v>12.463542713500029</v>
+            <v>19.682914189182782</v>
           </cell>
         </row>
         <row r="28">
@@ -11768,16 +11333,16 @@
             <v>14</v>
           </cell>
           <cell r="C28">
-            <v>22.847655236721039</v>
+            <v>20.453035140964939</v>
           </cell>
           <cell r="D28">
-            <v>22.84765528740229</v>
+            <v>21.034727862745981</v>
           </cell>
           <cell r="E28">
-            <v>17.13574223258572</v>
+            <v>20.23763459967001</v>
           </cell>
           <cell r="F28">
-            <v>15.23177113762746</v>
+            <v>20.19139767148264</v>
           </cell>
         </row>
         <row r="29">
@@ -11788,16 +11353,16 @@
             <v>4</v>
           </cell>
           <cell r="C29">
-            <v>18.423827618360519</v>
+            <v>19.807731626868438</v>
           </cell>
           <cell r="D29">
-            <v>18.423827907381401</v>
+            <v>20.419578029640309</v>
           </cell>
           <cell r="E29">
-            <v>13.81787127638435</v>
+            <v>19.630975041168728</v>
           </cell>
           <cell r="F29">
-            <v>12.282552352204929</v>
+            <v>19.585559668452579</v>
           </cell>
         </row>
         <row r="30">
@@ -11808,16 +11373,16 @@
             <v>5</v>
           </cell>
           <cell r="C30">
-            <v>11.21191380918026</v>
+            <v>18.2269584641816</v>
           </cell>
           <cell r="D30">
-            <v>11.211914168622149</v>
+            <v>18.965516422797741</v>
           </cell>
           <cell r="E30">
-            <v>8.4089357686861756</v>
+            <v>18.22903805960939</v>
           </cell>
           <cell r="F30">
-            <v>7.4746096045804693</v>
+            <v>18.186712400800399</v>
           </cell>
         </row>
         <row r="31">
@@ -11828,16 +11393,16 @@
             <v>6</v>
           </cell>
           <cell r="C31">
-            <v>8.1059569045901299</v>
+            <v>16.90426261776344</v>
           </cell>
           <cell r="D31">
-            <v>8.1059571305933709</v>
+            <v>17.714461759553568</v>
           </cell>
           <cell r="E31">
-            <v>6.0794679124430333</v>
+            <v>17.02156292249899</v>
           </cell>
           <cell r="F31">
-            <v>5.4039714894448929</v>
+            <v>16.981850207364818</v>
           </cell>
         </row>
         <row r="32">
@@ -11848,16 +11413,16 @@
             <v>1</v>
           </cell>
           <cell r="C32">
-            <v>7.0529784522950649</v>
+            <v>15.813836355987091</v>
           </cell>
           <cell r="D32">
-            <v>7.0529785731419752</v>
+            <v>16.654012310019681</v>
           </cell>
           <cell r="E32">
-            <v>5.2897339609847247</v>
+            <v>15.99668054220982</v>
           </cell>
           <cell r="F32">
-            <v>4.701985748195356</v>
+            <v>15.95913350941923</v>
           </cell>
         </row>
         <row r="33">
@@ -11868,16 +11433,16 @@
             <v>28</v>
           </cell>
           <cell r="C33">
-            <v>4.0264892261475334</v>
+            <v>14.33245272038838</v>
           </cell>
           <cell r="D33">
-            <v>4.0264892978455213</v>
+            <v>15.22338027986687</v>
           </cell>
           <cell r="E33">
-            <v>3.0198669873376112</v>
+            <v>14.62155299243299</v>
           </cell>
           <cell r="F33">
-            <v>2.68432621242196</v>
+            <v>14.587196952551221</v>
           </cell>
         </row>
         <row r="34">
@@ -11888,16 +11453,16 @@
             <v>0</v>
           </cell>
           <cell r="C34">
-            <v>16.01324461307377</v>
+            <v>15.699207448349551</v>
           </cell>
           <cell r="D34">
-            <v>16.013244626595728</v>
+            <v>16.401185233376712</v>
           </cell>
           <cell r="E34">
-            <v>12.00993348011311</v>
+            <v>15.725778899137991</v>
           </cell>
           <cell r="F34">
-            <v>10.67549642966071</v>
+            <v>15.687797384201479</v>
           </cell>
         </row>
         <row r="35">
@@ -11908,16 +11473,16 @@
             <v>0</v>
           </cell>
           <cell r="C35">
-            <v>8.0066223065368831</v>
+            <v>14.129286703514589</v>
           </cell>
           <cell r="D35">
-            <v>16.013244626595728</v>
+            <v>16.401185233376712</v>
           </cell>
           <cell r="E35">
-            <v>12.00993348011311</v>
+            <v>15.725778899137991</v>
           </cell>
           <cell r="F35">
-            <v>10.67549642966071</v>
+            <v>15.687797384201479</v>
           </cell>
         </row>
         <row r="36">
@@ -11928,16 +11493,16 @@
             <v>41</v>
           </cell>
           <cell r="C36">
-            <v>4.0033111532684416</v>
+            <v>12.716358033163131</v>
           </cell>
           <cell r="D36">
-            <v>16.013244626595728</v>
+            <v>16.401185233376712</v>
           </cell>
           <cell r="E36">
-            <v>12.00993348011311</v>
+            <v>15.725778899137991</v>
           </cell>
           <cell r="F36">
-            <v>10.67549642966071</v>
+            <v>15.687797384201479</v>
           </cell>
         </row>
         <row r="37">
@@ -11948,19 +11513,90 @@
             <v>60</v>
           </cell>
           <cell r="C37">
-            <v>22.501655576634221</v>
+            <v>15.544722229846821</v>
           </cell>
           <cell r="D37">
-            <v>14.25331115746846</v>
+            <v>15.75842651580423</v>
           </cell>
           <cell r="E37">
-            <v>10.68998337052585</v>
+            <v>15.08115690148289</v>
           </cell>
           <cell r="F37">
-            <v>9.5022074411112953</v>
+            <v>15.043649410527641</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>19.99025</v>
+          </cell>
+          <cell r="D38">
+            <v>19.30151</v>
+          </cell>
+          <cell r="E38">
+            <v>18.438230000000001</v>
+          </cell>
+          <cell r="F38">
+            <v>18.391079999999999</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>19.99025</v>
+          </cell>
+          <cell r="D39">
+            <v>19.30151</v>
+          </cell>
+          <cell r="E39">
+            <v>18.438230000000001</v>
+          </cell>
+          <cell r="F39">
+            <v>18.391079999999999</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>19.99025</v>
+          </cell>
+          <cell r="D40">
+            <v>19.30151</v>
+          </cell>
+          <cell r="E40">
+            <v>18.438230000000001</v>
+          </cell>
+          <cell r="F40">
+            <v>18.391079999999999</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>19.99025</v>
+          </cell>
+          <cell r="D41">
+            <v>19.30151</v>
+          </cell>
+          <cell r="E41">
+            <v>18.438230000000001</v>
+          </cell>
+          <cell r="F41">
+            <v>18.391079999999999</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>19.99025</v>
+          </cell>
+          <cell r="D42">
+            <v>19.30151</v>
+          </cell>
+          <cell r="E42">
+            <v>18.438230000000001</v>
+          </cell>
+          <cell r="F42">
+            <v>18.391079999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11971,7 +11607,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -12022,16 +11657,16 @@
             <v>16</v>
           </cell>
           <cell r="C4">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
           <cell r="D4">
-            <v>16.787301196608649</v>
+            <v>16.069086430961409</v>
           </cell>
           <cell r="E4">
-            <v>17.181817506169448</v>
+            <v>17.002824925994869</v>
           </cell>
           <cell r="F4">
-            <v>17.181820866992119</v>
+            <v>17.175348677887811</v>
           </cell>
         </row>
         <row r="5">
@@ -12042,16 +11677,16 @@
             <v>13</v>
           </cell>
           <cell r="C5">
-            <v>2.5</v>
+            <v>3.6749999999999998</v>
           </cell>
           <cell r="D5">
-            <v>16.759183294213688</v>
+            <v>16.06524829587109</v>
           </cell>
           <cell r="E5">
-            <v>17.111038291871211</v>
+            <v>16.880445762486811</v>
           </cell>
           <cell r="F5">
-            <v>17.109537789844801</v>
+            <v>17.037979456372341</v>
           </cell>
         </row>
         <row r="6">
@@ -12062,16 +11697,16 @@
             <v>22</v>
           </cell>
           <cell r="C6">
-            <v>3.55</v>
+            <v>5.0737500000000004</v>
           </cell>
           <cell r="D6">
-            <v>16.61570300345959</v>
+            <v>15.87719625148212</v>
           </cell>
           <cell r="E6">
-            <v>16.929319229514</v>
+            <v>16.582565652181891</v>
           </cell>
           <cell r="F6">
-            <v>16.9265702942552</v>
+            <v>16.725584761046999</v>
           </cell>
         </row>
         <row r="7">
@@ -12082,16 +11717,16 @@
             <v>49</v>
           </cell>
           <cell r="C7">
-            <v>5.3949999999999996</v>
+            <v>7.6126874999999989</v>
           </cell>
           <cell r="D7">
-            <v>16.83475497421226</v>
+            <v>16.28936749349263</v>
           </cell>
           <cell r="E7">
-            <v>17.090860388345181</v>
+            <v>16.836179544709449</v>
           </cell>
           <cell r="F7">
-            <v>17.08586789484146</v>
+            <v>16.960565001377891</v>
           </cell>
         </row>
         <row r="8">
@@ -12102,16 +11737,16 @@
             <v>28</v>
           </cell>
           <cell r="C8">
-            <v>9.7555000000000014</v>
+            <v>13.820784375000001</v>
           </cell>
           <cell r="D8">
-            <v>18.225865067053991</v>
+            <v>18.68983956215834</v>
           </cell>
           <cell r="E8">
-            <v>18.364934694051701</v>
+            <v>18.926833635759792</v>
           </cell>
           <cell r="F8">
-            <v>18.354581030395401</v>
+            <v>19.020224284552871</v>
           </cell>
         </row>
         <row r="9">
@@ -12122,16 +11757,16 @@
             <v>15</v>
           </cell>
           <cell r="C9">
-            <v>11.57995</v>
+            <v>15.94766671875</v>
           </cell>
           <cell r="D9">
-            <v>18.674018450838041</v>
+            <v>19.429754902894011</v>
           </cell>
           <cell r="E9">
-            <v>18.742520322330218</v>
+            <v>19.481018796562939</v>
           </cell>
           <cell r="F9">
-            <v>18.729262818445729</v>
+            <v>19.55345526625948</v>
           </cell>
         </row>
         <row r="10">
@@ -12142,16 +11777,16 @@
             <v>7</v>
           </cell>
           <cell r="C10">
-            <v>11.921955000000001</v>
+            <v>15.8055167109375</v>
           </cell>
           <cell r="D10">
-            <v>18.49591719665402</v>
+            <v>19.050992087683252</v>
           </cell>
           <cell r="E10">
-            <v>18.524741446941789</v>
+            <v>19.001680434644019</v>
           </cell>
           <cell r="F10">
-            <v>18.51021313182795</v>
+            <v>19.06012390721218</v>
           </cell>
         </row>
         <row r="11">
@@ -12162,16 +11797,16 @@
             <v>13</v>
           </cell>
           <cell r="C11">
-            <v>11.429759499999999</v>
+            <v>14.484689204296879</v>
           </cell>
           <cell r="D11">
-            <v>17.908369695532659</v>
+            <v>17.949542358124681</v>
           </cell>
           <cell r="E11">
-            <v>17.917832455464179</v>
+            <v>17.856753223594669</v>
           </cell>
           <cell r="F11">
-            <v>17.903105293795601</v>
+            <v>17.905964380937469</v>
           </cell>
         </row>
         <row r="12">
@@ -12182,16 +11817,16 @@
             <v>16</v>
           </cell>
           <cell r="C12">
-            <v>11.58678355</v>
+            <v>14.26198582365234</v>
           </cell>
           <cell r="D12">
-            <v>17.64461134065111</v>
+            <v>17.46899836848732</v>
           </cell>
           <cell r="E12">
-            <v>17.61863687958677</v>
+            <v>17.290556643183219</v>
           </cell>
           <cell r="F12">
-            <v>17.602862801657569</v>
+            <v>17.327314715523681</v>
           </cell>
         </row>
         <row r="13">
@@ -12202,16 +11837,16 @@
             <v>29</v>
           </cell>
           <cell r="C13">
-            <v>12.028105195</v>
+            <v>14.522687950104491</v>
           </cell>
           <cell r="D13">
-            <v>17.55194887336658</v>
+            <v>17.318407435993208</v>
           </cell>
           <cell r="E13">
-            <v>17.482363415138959</v>
+            <v>17.035243053306839</v>
           </cell>
           <cell r="F13">
-            <v>17.465105778931989</v>
+            <v>17.0582587533215</v>
           </cell>
         </row>
         <row r="14">
@@ -12222,16 +11857,16 @@
             <v>22</v>
           </cell>
           <cell r="C14">
-            <v>13.725294675500001</v>
+            <v>16.694284757588822</v>
           </cell>
           <cell r="D14">
-            <v>18.226412323856731</v>
+            <v>18.57562027179792</v>
           </cell>
           <cell r="E14">
-            <v>18.075499620419041</v>
+            <v>18.08885008635826</v>
           </cell>
           <cell r="F14">
-            <v>18.05476247653516</v>
+            <v>18.09040922297244</v>
           </cell>
         </row>
         <row r="15">
@@ -12242,16 +11877,16 @@
             <v>6</v>
           </cell>
           <cell r="C15">
-            <v>14.552765207949999</v>
+            <v>17.490142043950499</v>
           </cell>
           <cell r="D15">
-            <v>18.458259137895539</v>
+            <v>18.960472419515568</v>
           </cell>
           <cell r="E15">
-            <v>18.249035134432962</v>
+            <v>18.342971553313351</v>
           </cell>
           <cell r="F15">
-            <v>18.22601502748353</v>
+            <v>18.329320047816282</v>
           </cell>
         </row>
         <row r="16">
@@ -12262,16 +11897,16 @@
             <v>2</v>
           </cell>
           <cell r="C16">
-            <v>13.697488687154999</v>
+            <v>15.76662073735792</v>
           </cell>
           <cell r="D16">
-            <v>17.662132510321559</v>
+            <v>17.446968471895861</v>
           </cell>
           <cell r="E16">
-            <v>17.447107529046349</v>
+            <v>16.84902809905315</v>
           </cell>
           <cell r="F16">
-            <v>17.42454959061671</v>
+            <v>16.832709961277569</v>
           </cell>
         </row>
         <row r="17">
@@ -12282,16 +11917,16 @@
             <v>38</v>
           </cell>
           <cell r="C17">
-            <v>12.5277398184395</v>
+            <v>13.701627626754229</v>
           </cell>
           <cell r="D17">
-            <v>16.623786456334528</v>
+            <v>15.58110860941564</v>
           </cell>
           <cell r="E17">
-            <v>16.416387153250771</v>
+            <v>15.03727555088777</v>
           </cell>
           <cell r="F17">
-            <v>16.3949759265798</v>
+            <v>15.02145942055421</v>
           </cell>
         </row>
         <row r="18">
@@ -12302,16 +11937,16 @@
             <v>45</v>
           </cell>
           <cell r="C18">
-            <v>15.074965836595551</v>
+            <v>17.3463834827411</v>
           </cell>
           <cell r="D18">
-            <v>18.090386025114249</v>
+            <v>18.37059345522907</v>
           </cell>
           <cell r="E18">
-            <v>17.76685927067015</v>
+            <v>17.539814104358079</v>
           </cell>
           <cell r="F18">
-            <v>17.740055996295979</v>
+            <v>17.497213493441059</v>
           </cell>
         </row>
         <row r="19">
@@ -12322,16 +11957,16 @@
             <v>18</v>
           </cell>
           <cell r="C19">
-            <v>18.067469252936</v>
+            <v>21.494425960329931</v>
           </cell>
           <cell r="D19">
-            <v>19.996460052957911</v>
+            <v>21.770935923953729</v>
           </cell>
           <cell r="E19">
-            <v>19.53647659690953</v>
+            <v>20.61528183192328</v>
           </cell>
           <cell r="F19">
-            <v>19.503183622256699</v>
+            <v>20.543178403930149</v>
           </cell>
         </row>
         <row r="20">
@@ -12342,16 +11977,16 @@
             <v>1</v>
           </cell>
           <cell r="C20">
-            <v>18.060722327642399</v>
+            <v>20.970262066280441</v>
           </cell>
           <cell r="D20">
-            <v>19.850797259541078</v>
+            <v>21.27843325110932</v>
           </cell>
           <cell r="E20">
-            <v>19.358709949116879</v>
+            <v>20.097396633274339</v>
           </cell>
           <cell r="F20">
-            <v>19.32439003993505</v>
+            <v>20.020414325200431</v>
           </cell>
         </row>
         <row r="21">
@@ -12362,16 +11997,16 @@
             <v>37</v>
           </cell>
           <cell r="C21">
-            <v>16.35465009487816</v>
+            <v>17.97472275633837</v>
           </cell>
           <cell r="D21">
-            <v>18.437210374544321</v>
+            <v>18.57758750049274</v>
           </cell>
           <cell r="E21">
-            <v>17.978274298880809</v>
+            <v>17.54386178578293</v>
           </cell>
           <cell r="F21">
-            <v>17.94633076565805</v>
+            <v>17.476322677870829</v>
           </cell>
         </row>
         <row r="22">
@@ -12382,16 +12017,16 @@
             <v>45</v>
           </cell>
           <cell r="C22">
-            <v>18.41918508539035</v>
+            <v>20.828514342887619</v>
           </cell>
           <cell r="D22">
-            <v>19.864909452044021</v>
+            <v>21.073189233001269</v>
           </cell>
           <cell r="E22">
-            <v>19.298984108392759</v>
+            <v>19.803580887013378</v>
           </cell>
           <cell r="F22">
-            <v>19.26200851282665</v>
+            <v>19.714711256111059</v>
           </cell>
         </row>
         <row r="23">
@@ -12402,16 +12037,16 @@
             <v>12</v>
           </cell>
           <cell r="C23">
-            <v>21.077266576851311</v>
+            <v>24.454237191454471</v>
           </cell>
           <cell r="D23">
-            <v>21.84378507452136</v>
+            <v>24.362251960782299</v>
           </cell>
           <cell r="E23">
-            <v>21.145273304626819</v>
+            <v>22.803229145750809</v>
           </cell>
           <cell r="F23">
-            <v>21.101885397688228</v>
+            <v>22.688959146480961</v>
           </cell>
         </row>
         <row r="24">
@@ -12422,16 +12057,16 @@
             <v>22</v>
           </cell>
           <cell r="C24">
-            <v>20.16953991916618</v>
+            <v>22.5861016127363</v>
           </cell>
           <cell r="D24">
-            <v>21.051945060113901</v>
+            <v>22.64131925410501</v>
           </cell>
           <cell r="E24">
-            <v>20.361357598332429</v>
+            <v>21.174038131820609</v>
           </cell>
           <cell r="F24">
-            <v>20.318919667151881</v>
+            <v>21.065517037369339</v>
           </cell>
         </row>
         <row r="25">
@@ -12442,16 +12077,16 @@
             <v>16</v>
           </cell>
           <cell r="C25">
-            <v>20.35258592724956</v>
+            <v>22.498186370825859</v>
           </cell>
           <cell r="D25">
-            <v>21.129728570349702</v>
+            <v>22.551068121578599</v>
           </cell>
           <cell r="E25">
-            <v>20.405550710853301</v>
+            <v>21.05807346344</v>
           </cell>
           <cell r="F25">
-            <v>20.361844617596539</v>
+            <v>20.945997218747831</v>
           </cell>
         </row>
         <row r="26">
@@ -12462,16 +12097,16 @@
             <v>18</v>
           </cell>
           <cell r="C26">
-            <v>19.917327334524611</v>
+            <v>21.523458415201979</v>
           </cell>
           <cell r="D26">
-            <v>20.701163402886898</v>
+            <v>21.6205253004597</v>
           </cell>
           <cell r="E26">
-            <v>19.97065093539139</v>
+            <v>20.169148905418869</v>
           </cell>
           <cell r="F26">
-            <v>19.92707861021411</v>
+            <v>20.059171928290588</v>
           </cell>
         </row>
         <row r="27">
@@ -12482,16 +12117,16 @@
             <v>27</v>
           </cell>
           <cell r="C27">
-            <v>19.725594601072149</v>
+            <v>20.99493965292168</v>
           </cell>
           <cell r="D27">
-            <v>20.471718225175191</v>
+            <v>21.102125643367099</v>
           </cell>
           <cell r="E27">
-            <v>19.72680895308887</v>
+            <v>19.665264680288828</v>
           </cell>
           <cell r="F27">
-            <v>19.682914189182782</v>
+            <v>19.555361803281631</v>
           </cell>
         </row>
         <row r="28">
@@ -12502,16 +12137,16 @@
             <v>14</v>
           </cell>
           <cell r="C28">
-            <v>20.453035140964939</v>
+            <v>21.895698704983431</v>
           </cell>
           <cell r="D28">
-            <v>21.034727862745981</v>
+            <v>21.952400072777671</v>
           </cell>
           <cell r="E28">
-            <v>20.23763459967001</v>
+            <v>20.43074931013696</v>
           </cell>
           <cell r="F28">
-            <v>20.19139767148264</v>
+            <v>20.313020178937489</v>
           </cell>
         </row>
         <row r="29">
@@ -12522,16 +12157,16 @@
             <v>4</v>
           </cell>
           <cell r="C29">
-            <v>19.807731626868438</v>
+            <v>20.71134389923591</v>
           </cell>
           <cell r="D29">
-            <v>20.419578029640309</v>
+            <v>20.799204923069539</v>
           </cell>
           <cell r="E29">
-            <v>19.630975041168728</v>
+            <v>19.345949282365599</v>
           </cell>
           <cell r="F29">
-            <v>19.585559668452579</v>
+            <v>19.23294667889818</v>
           </cell>
         </row>
         <row r="30">
@@ -12542,16 +12177,16 @@
             <v>5</v>
           </cell>
           <cell r="C30">
-            <v>18.2269584641816</v>
+            <v>18.204642314350529</v>
           </cell>
           <cell r="D30">
-            <v>18.965516422797741</v>
+            <v>18.350903404283461</v>
           </cell>
           <cell r="E30">
-            <v>18.22903805960939</v>
+            <v>17.065722238102481</v>
           </cell>
           <cell r="F30">
-            <v>18.186712400800399</v>
+            <v>16.965643530227741</v>
           </cell>
         </row>
         <row r="31">
@@ -12562,16 +12197,16 @@
             <v>6</v>
           </cell>
           <cell r="C31">
-            <v>16.90426261776344</v>
+            <v>16.223945967197949</v>
           </cell>
           <cell r="D31">
-            <v>17.714461759553568</v>
+            <v>16.396828291565051</v>
           </cell>
           <cell r="E31">
-            <v>17.02156292249899</v>
+            <v>15.244863755956271</v>
           </cell>
           <cell r="F31">
-            <v>16.981850207364818</v>
+            <v>15.15498262534944</v>
           </cell>
         </row>
         <row r="32">
@@ -12582,16 +12217,16 @@
             <v>1</v>
           </cell>
           <cell r="C32">
-            <v>15.813836355987091</v>
+            <v>14.690354072118261</v>
           </cell>
           <cell r="D32">
-            <v>16.654012310019681</v>
+            <v>14.869564755657009</v>
           </cell>
           <cell r="E32">
-            <v>15.99668054220982</v>
+            <v>13.82071674843184</v>
           </cell>
           <cell r="F32">
-            <v>15.95913350941923</v>
+            <v>13.73867913433663</v>
           </cell>
         </row>
         <row r="33">
@@ -12602,16 +12237,16 @@
             <v>28</v>
           </cell>
           <cell r="C33">
-            <v>14.33245272038838</v>
+            <v>12.636800961300519</v>
           </cell>
           <cell r="D33">
-            <v>15.22338027986687</v>
+            <v>12.825824837026451</v>
           </cell>
           <cell r="E33">
-            <v>14.62155299243299</v>
+            <v>11.920477515184009</v>
           </cell>
           <cell r="F33">
-            <v>14.587196952551221</v>
+            <v>11.84963242251634</v>
           </cell>
         </row>
         <row r="34">
@@ -12622,16 +12257,16 @@
             <v>0</v>
           </cell>
           <cell r="C34">
-            <v>15.699207448349551</v>
+            <v>14.94128081710544</v>
           </cell>
           <cell r="D34">
-            <v>16.401185233376712</v>
+            <v>15.06773613962906</v>
           </cell>
           <cell r="E34">
-            <v>15.725778899137991</v>
+            <v>13.985884637859179</v>
           </cell>
           <cell r="F34">
-            <v>15.687797384201479</v>
+            <v>13.90034995388408</v>
           </cell>
         </row>
         <row r="35">
@@ -12642,16 +12277,16 @@
             <v>0</v>
           </cell>
           <cell r="C35">
-            <v>14.129286703514589</v>
+            <v>12.70008869453962</v>
           </cell>
           <cell r="D35">
-            <v>16.401185233376712</v>
+            <v>15.06773613962906</v>
           </cell>
           <cell r="E35">
-            <v>15.725778899137991</v>
+            <v>13.985884637859179</v>
           </cell>
           <cell r="F35">
-            <v>15.687797384201479</v>
+            <v>13.90034995388408</v>
           </cell>
         </row>
         <row r="36">
@@ -12662,16 +12297,16 @@
             <v>41</v>
           </cell>
           <cell r="C36">
-            <v>12.716358033163131</v>
+            <v>10.795075390358679</v>
           </cell>
           <cell r="D36">
-            <v>16.401185233376712</v>
+            <v>15.06773613962906</v>
           </cell>
           <cell r="E36">
-            <v>15.725778899137991</v>
+            <v>13.985884637859179</v>
           </cell>
           <cell r="F36">
-            <v>15.687797384201479</v>
+            <v>13.90034995388408</v>
           </cell>
         </row>
         <row r="37">
@@ -12682,90 +12317,89 @@
             <v>60</v>
           </cell>
           <cell r="C37">
-            <v>15.544722229846821</v>
+            <v>15.32581408180488</v>
           </cell>
           <cell r="D37">
-            <v>15.75842651580423</v>
+            <v>14.58754225655891</v>
           </cell>
           <cell r="E37">
-            <v>15.08115690148289</v>
+            <v>13.525175686791769</v>
           </cell>
           <cell r="F37">
-            <v>15.043649410527641</v>
+            <v>13.440472672437521</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>19.99025</v>
+            <v>22.02694</v>
           </cell>
           <cell r="D38">
-            <v>19.30151</v>
+            <v>19.968050000000002</v>
           </cell>
           <cell r="E38">
-            <v>18.438230000000001</v>
+            <v>18.498390000000001</v>
           </cell>
           <cell r="F38">
-            <v>18.391079999999999</v>
+            <v>18.380500000000001</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>19.99025</v>
+            <v>22.02694</v>
           </cell>
           <cell r="D39">
-            <v>19.30151</v>
+            <v>19.968050000000002</v>
           </cell>
           <cell r="E39">
-            <v>18.438230000000001</v>
+            <v>18.498390000000001</v>
           </cell>
           <cell r="F39">
-            <v>18.391079999999999</v>
+            <v>18.380500000000001</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>19.99025</v>
+            <v>22.02694</v>
           </cell>
           <cell r="D40">
-            <v>19.30151</v>
+            <v>19.968050000000002</v>
           </cell>
           <cell r="E40">
-            <v>18.438230000000001</v>
+            <v>18.498390000000001</v>
           </cell>
           <cell r="F40">
-            <v>18.391079999999999</v>
+            <v>18.380500000000001</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>19.99025</v>
+            <v>22.02694</v>
           </cell>
           <cell r="D41">
-            <v>19.30151</v>
+            <v>19.968050000000002</v>
           </cell>
           <cell r="E41">
-            <v>18.438230000000001</v>
+            <v>18.498390000000001</v>
           </cell>
           <cell r="F41">
-            <v>18.391079999999999</v>
+            <v>18.380500000000001</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>19.99025</v>
+            <v>22.02694</v>
           </cell>
           <cell r="D42">
-            <v>19.30151</v>
+            <v>19.968050000000002</v>
           </cell>
           <cell r="E42">
-            <v>18.438230000000001</v>
+            <v>18.498390000000001</v>
           </cell>
           <cell r="F42">
-            <v>18.391079999999999</v>
+            <v>18.380500000000001</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12784,7 +12418,7 @@
             <v>BIP001271</v>
           </cell>
           <cell r="C1" t="str">
-            <v>SES_bip1271.1</v>
+            <v>SES_bip1271</v>
           </cell>
           <cell r="D1" t="str">
             <v>cros_smoothed</v>
@@ -12826,16 +12460,16 @@
             <v>16</v>
           </cell>
           <cell r="C4">
-            <v>1.5</v>
+            <v>5</v>
           </cell>
           <cell r="D4">
-            <v>16.069086430961409</v>
+            <v>17.181861170801749</v>
           </cell>
           <cell r="E4">
-            <v>17.002824925994869</v>
+            <v>17.1818165619738</v>
           </cell>
           <cell r="F4">
-            <v>17.175348677887811</v>
+            <v>17.181969642125878</v>
           </cell>
         </row>
         <row r="5">
@@ -12846,16 +12480,16 @@
             <v>13</v>
           </cell>
           <cell r="C5">
-            <v>3.6749999999999998</v>
+            <v>10.5</v>
           </cell>
           <cell r="D5">
-            <v>16.06524829587109</v>
+            <v>16.88639565204544</v>
           </cell>
           <cell r="E5">
-            <v>16.880445762486811</v>
+            <v>15.74999737441005</v>
           </cell>
           <cell r="F5">
-            <v>17.037979456372341</v>
+            <v>15.224258953894619</v>
           </cell>
         </row>
         <row r="6">
@@ -12866,16 +12500,16 @@
             <v>22</v>
           </cell>
           <cell r="C6">
-            <v>5.0737500000000004</v>
+            <v>11.75</v>
           </cell>
           <cell r="D6">
-            <v>15.87719625148212</v>
+            <v>15.59092977393702</v>
           </cell>
           <cell r="E6">
-            <v>16.582565652181891</v>
+            <v>13.61440369246777</v>
           </cell>
           <cell r="F6">
-            <v>16.725584761046999</v>
+            <v>12.762710153133961</v>
           </cell>
         </row>
         <row r="7">
@@ -12886,16 +12520,16 @@
             <v>49</v>
           </cell>
           <cell r="C7">
-            <v>7.6126874999999989</v>
+            <v>16.875</v>
           </cell>
           <cell r="D7">
-            <v>16.28936749349263</v>
+            <v>18.154558648918549</v>
           </cell>
           <cell r="E7">
-            <v>16.836179544709449</v>
+            <v>14.814355090484391</v>
           </cell>
           <cell r="F7">
-            <v>16.960565001377891</v>
+            <v>13.57915618869489</v>
           </cell>
         </row>
         <row r="8">
@@ -12906,16 +12540,16 @@
             <v>28</v>
           </cell>
           <cell r="C8">
-            <v>13.820784375000001</v>
+            <v>32.9375</v>
           </cell>
           <cell r="D8">
-            <v>18.68983956215834</v>
+            <v>31.863646024643678</v>
           </cell>
           <cell r="E8">
-            <v>18.926833635759792</v>
+            <v>24.774325666513221</v>
           </cell>
           <cell r="F8">
-            <v>19.020224284552871</v>
+            <v>22.391477036175999</v>
           </cell>
         </row>
         <row r="9">
@@ -12926,16 +12560,16 @@
             <v>15</v>
           </cell>
           <cell r="C9">
-            <v>15.94766671875</v>
+            <v>30.46875</v>
           </cell>
           <cell r="D9">
-            <v>19.429754902894011</v>
+            <v>30.045459496450771</v>
           </cell>
           <cell r="E9">
-            <v>19.481018796562939</v>
+            <v>22.978045832919658</v>
           </cell>
           <cell r="F9">
-            <v>19.55345526625948</v>
+            <v>20.603283093335431</v>
           </cell>
         </row>
         <row r="10">
@@ -12946,16 +12580,16 @@
             <v>7</v>
           </cell>
           <cell r="C10">
-            <v>15.8055167109375</v>
+            <v>22.734375</v>
           </cell>
           <cell r="D10">
-            <v>19.050992087683252</v>
+            <v>22.750690917498339</v>
           </cell>
           <cell r="E10">
-            <v>19.001680434644019</v>
+            <v>17.258708212510982</v>
           </cell>
           <cell r="F10">
-            <v>19.06012390721218</v>
+            <v>15.40941602137997</v>
           </cell>
         </row>
         <row r="11">
@@ -12966,16 +12600,16 @@
             <v>13</v>
           </cell>
           <cell r="C11">
-            <v>14.484689204296879</v>
+            <v>14.8671875</v>
           </cell>
           <cell r="D11">
-            <v>17.949542358124681</v>
+            <v>14.996504437111399</v>
           </cell>
           <cell r="E11">
-            <v>17.856753223594669</v>
+            <v>11.32935321801537</v>
           </cell>
           <cell r="F11">
-            <v>17.905964380937469</v>
+            <v>10.09319799296434</v>
           </cell>
         </row>
         <row r="12">
@@ -12986,16 +12620,16 @@
             <v>16</v>
           </cell>
           <cell r="C12">
-            <v>14.26198582365234</v>
+            <v>13.93359375</v>
           </cell>
           <cell r="D12">
-            <v>17.46899836848732</v>
+            <v>14.00599059609759</v>
           </cell>
           <cell r="E12">
-            <v>17.290556643183219</v>
+            <v>10.544639445268659</v>
           </cell>
           <cell r="F12">
-            <v>17.327314715523681</v>
+            <v>9.3836133592921147</v>
           </cell>
         </row>
         <row r="13">
@@ -13006,16 +12640,16 @@
             <v>29</v>
           </cell>
           <cell r="C13">
-            <v>14.522687950104491</v>
+            <v>14.966796875</v>
           </cell>
           <cell r="D13">
-            <v>17.318407435993208</v>
+            <v>14.999115908234391</v>
           </cell>
           <cell r="E13">
-            <v>17.035243053306839</v>
+            <v>11.270025909035899</v>
           </cell>
           <cell r="F13">
-            <v>17.0582587533215</v>
+            <v>10.02348033133366</v>
           </cell>
         </row>
         <row r="14">
@@ -13026,16 +12660,16 @@
             <v>22</v>
           </cell>
           <cell r="C14">
-            <v>16.694284757588822</v>
+            <v>21.9833984375</v>
           </cell>
           <cell r="D14">
-            <v>18.57562027179792</v>
+            <v>21.985911889097871</v>
           </cell>
           <cell r="E14">
-            <v>18.08885008635826</v>
+            <v>16.501741102165759</v>
           </cell>
           <cell r="F14">
-            <v>18.09040922297244</v>
+            <v>14.672377696616881</v>
           </cell>
         </row>
         <row r="15">
@@ -13046,16 +12680,16 @@
             <v>6</v>
           </cell>
           <cell r="C15">
-            <v>17.490142043950499</v>
+            <v>21.99169921875</v>
           </cell>
           <cell r="D15">
-            <v>18.960472419515568</v>
+            <v>21.992949072310221</v>
           </cell>
           <cell r="E15">
-            <v>18.342971553313351</v>
+            <v>16.50087123875236</v>
           </cell>
           <cell r="F15">
-            <v>18.329320047816282</v>
+            <v>14.669524032094619</v>
           </cell>
         </row>
         <row r="16">
@@ -13066,16 +12700,16 @@
             <v>2</v>
           </cell>
           <cell r="C16">
-            <v>15.76662073735792</v>
+            <v>13.995849609375</v>
           </cell>
           <cell r="D16">
-            <v>17.446968471895861</v>
+            <v>14.00037715319082</v>
           </cell>
           <cell r="E16">
-            <v>16.84902809905315</v>
+            <v>10.50280650082134</v>
           </cell>
           <cell r="F16">
-            <v>16.832709961277569</v>
+            <v>9.3364911131171766</v>
           </cell>
         </row>
         <row r="17">
@@ -13086,16 +12720,16 @@
             <v>38</v>
           </cell>
           <cell r="C17">
-            <v>13.701627626754229</v>
+            <v>7.9979248046875</v>
           </cell>
           <cell r="D17">
-            <v>15.58110860941564</v>
+            <v>8.0016531065923733</v>
           </cell>
           <cell r="E17">
-            <v>15.03727555088777</v>
+            <v>6.0022927193547702</v>
           </cell>
           <cell r="F17">
-            <v>15.02145942055421</v>
+            <v>5.335560821963373</v>
           </cell>
         </row>
         <row r="18">
@@ -13106,16 +12740,16 @@
             <v>45</v>
           </cell>
           <cell r="C18">
-            <v>17.3463834827411</v>
+            <v>22.99896240234375</v>
           </cell>
           <cell r="D18">
-            <v>18.37059345522907</v>
+            <v>22.998995825785109</v>
           </cell>
           <cell r="E18">
-            <v>17.539814104358079</v>
+            <v>17.25003487354234</v>
           </cell>
           <cell r="F18">
-            <v>17.497213493441059</v>
+            <v>15.33363667370363</v>
           </cell>
         </row>
         <row r="19">
@@ -13126,16 +12760,16 @@
             <v>18</v>
           </cell>
           <cell r="C19">
-            <v>21.494425960329931</v>
+            <v>33.999481201171882</v>
           </cell>
           <cell r="D19">
-            <v>21.770935923953729</v>
+            <v>33.998826537533652</v>
           </cell>
           <cell r="E19">
-            <v>20.61528183192328</v>
+            <v>25.49960983104641</v>
           </cell>
           <cell r="F19">
-            <v>20.543178403930149</v>
+            <v>22.666521149743328</v>
           </cell>
         </row>
         <row r="20">
@@ -13146,16 +12780,16 @@
             <v>1</v>
           </cell>
           <cell r="C20">
-            <v>20.970262066280441</v>
+            <v>25.999740600585941</v>
           </cell>
           <cell r="D20">
-            <v>21.27843325110932</v>
+            <v>25.999657383662878</v>
           </cell>
           <cell r="E20">
-            <v>20.097396633274339</v>
+            <v>19.499953134942292</v>
           </cell>
           <cell r="F20">
-            <v>20.020414325200431</v>
+            <v>17.3333686458618</v>
           </cell>
         </row>
         <row r="21">
@@ -13166,16 +12800,16 @@
             <v>37</v>
           </cell>
           <cell r="C21">
-            <v>17.97472275633837</v>
+            <v>13.499870300292971</v>
           </cell>
           <cell r="D21">
-            <v>18.57758750049274</v>
+            <v>13.500019420878621</v>
           </cell>
           <cell r="E21">
-            <v>17.54386178578293</v>
+            <v>10.12509236879839</v>
           </cell>
           <cell r="F21">
-            <v>17.476322677870829</v>
+            <v>9.0001020889114525</v>
           </cell>
         </row>
         <row r="22">
@@ -13186,16 +12820,16 @@
             <v>45</v>
           </cell>
           <cell r="C22">
-            <v>20.828514342887619</v>
+            <v>25.249935150146481</v>
           </cell>
           <cell r="D22">
-            <v>21.073189233001269</v>
+            <v>25.249920065948761</v>
           </cell>
           <cell r="E22">
-            <v>19.803580887013378</v>
+            <v>18.93749175758845</v>
           </cell>
           <cell r="F22">
-            <v>19.714711256111059</v>
+            <v>16.833344694586501</v>
           </cell>
         </row>
         <row r="23">
@@ -13206,16 +12840,16 @@
             <v>12</v>
           </cell>
           <cell r="C23">
-            <v>24.454237191454471</v>
+            <v>35.124967575073242</v>
           </cell>
           <cell r="D23">
-            <v>24.362251960782299</v>
+            <v>35.124922362887759</v>
           </cell>
           <cell r="E23">
-            <v>22.803229145750809</v>
+            <v>26.343723007750331</v>
           </cell>
           <cell r="F23">
-            <v>22.688959146480961</v>
+            <v>23.416655671768432</v>
           </cell>
         </row>
         <row r="24">
@@ -13226,16 +12860,16 @@
             <v>22</v>
           </cell>
           <cell r="C24">
-            <v>22.5861016127363</v>
+            <v>23.562483787536621</v>
           </cell>
           <cell r="D24">
-            <v>22.64131925410501</v>
+            <v>23.5624832350126</v>
           </cell>
           <cell r="E24">
-            <v>21.174038131820609</v>
+            <v>17.671874893560972</v>
           </cell>
           <cell r="F24">
-            <v>21.065517037369339</v>
+            <v>15.70833759846796</v>
           </cell>
         </row>
         <row r="25">
@@ -13246,16 +12880,16 @@
             <v>16</v>
           </cell>
           <cell r="C25">
-            <v>22.498186370825859</v>
+            <v>22.781241893768311</v>
           </cell>
           <cell r="D25">
-            <v>22.551068121578599</v>
+            <v>22.781242362554519</v>
           </cell>
           <cell r="E25">
-            <v>21.05807346344</v>
+            <v>17.08593789913575</v>
           </cell>
           <cell r="F25">
-            <v>20.945997218747831</v>
+            <v>15.187502462386121</v>
           </cell>
         </row>
         <row r="26">
@@ -13266,16 +12900,16 @@
             <v>18</v>
           </cell>
           <cell r="C26">
-            <v>21.523458415201979</v>
+            <v>19.390620946884159</v>
           </cell>
           <cell r="D26">
-            <v>21.6205253004597</v>
+            <v>19.390622798048181</v>
           </cell>
           <cell r="E26">
-            <v>20.169148905418869</v>
+            <v>14.542969931179339</v>
           </cell>
           <cell r="F26">
-            <v>20.059171928290588</v>
+            <v>12.92708528023091</v>
           </cell>
         </row>
         <row r="27">
@@ -13286,16 +12920,16 @@
             <v>27</v>
           </cell>
           <cell r="C27">
-            <v>20.99493965292168</v>
+            <v>18.695310473442081</v>
           </cell>
           <cell r="D27">
-            <v>21.102125643367099</v>
+            <v>18.695311564798949</v>
           </cell>
           <cell r="E27">
-            <v>19.665264680288828</v>
+            <v>14.02148506623889</v>
           </cell>
           <cell r="F27">
-            <v>19.555361803281631</v>
+            <v>12.463542713500029</v>
           </cell>
         </row>
         <row r="28">
@@ -13306,16 +12940,16 @@
             <v>14</v>
           </cell>
           <cell r="C28">
-            <v>21.895698704983431</v>
+            <v>22.847655236721039</v>
           </cell>
           <cell r="D28">
-            <v>21.952400072777671</v>
+            <v>22.84765528740229</v>
           </cell>
           <cell r="E28">
-            <v>20.43074931013696</v>
+            <v>17.13574223258572</v>
           </cell>
           <cell r="F28">
-            <v>20.313020178937489</v>
+            <v>15.23177113762746</v>
           </cell>
         </row>
         <row r="29">
@@ -13326,16 +12960,16 @@
             <v>4</v>
           </cell>
           <cell r="C29">
-            <v>20.71134389923591</v>
+            <v>18.423827618360519</v>
           </cell>
           <cell r="D29">
-            <v>20.799204923069539</v>
+            <v>18.423827907381401</v>
           </cell>
           <cell r="E29">
-            <v>19.345949282365599</v>
+            <v>13.81787127638435</v>
           </cell>
           <cell r="F29">
-            <v>19.23294667889818</v>
+            <v>12.282552352204929</v>
           </cell>
         </row>
         <row r="30">
@@ -13346,16 +12980,16 @@
             <v>5</v>
           </cell>
           <cell r="C30">
-            <v>18.204642314350529</v>
+            <v>11.21191380918026</v>
           </cell>
           <cell r="D30">
-            <v>18.350903404283461</v>
+            <v>11.211914168622149</v>
           </cell>
           <cell r="E30">
-            <v>17.065722238102481</v>
+            <v>8.4089357686861756</v>
           </cell>
           <cell r="F30">
-            <v>16.965643530227741</v>
+            <v>7.4746096045804693</v>
           </cell>
         </row>
         <row r="31">
@@ -13366,16 +13000,16 @@
             <v>6</v>
           </cell>
           <cell r="C31">
-            <v>16.223945967197949</v>
+            <v>8.1059569045901299</v>
           </cell>
           <cell r="D31">
-            <v>16.396828291565051</v>
+            <v>8.1059571305933709</v>
           </cell>
           <cell r="E31">
-            <v>15.244863755956271</v>
+            <v>6.0794679124430333</v>
           </cell>
           <cell r="F31">
-            <v>15.15498262534944</v>
+            <v>5.4039714894448929</v>
           </cell>
         </row>
         <row r="32">
@@ -13386,16 +13020,16 @@
             <v>1</v>
           </cell>
           <cell r="C32">
-            <v>14.690354072118261</v>
+            <v>7.0529784522950649</v>
           </cell>
           <cell r="D32">
-            <v>14.869564755657009</v>
+            <v>7.0529785731419752</v>
           </cell>
           <cell r="E32">
-            <v>13.82071674843184</v>
+            <v>5.2897339609847247</v>
           </cell>
           <cell r="F32">
-            <v>13.73867913433663</v>
+            <v>4.701985748195356</v>
           </cell>
         </row>
         <row r="33">
@@ -13406,16 +13040,16 @@
             <v>28</v>
           </cell>
           <cell r="C33">
-            <v>12.636800961300519</v>
+            <v>4.0264892261475334</v>
           </cell>
           <cell r="D33">
-            <v>12.825824837026451</v>
+            <v>4.0264892978455213</v>
           </cell>
           <cell r="E33">
-            <v>11.920477515184009</v>
+            <v>3.0198669873376112</v>
           </cell>
           <cell r="F33">
-            <v>11.84963242251634</v>
+            <v>2.68432621242196</v>
           </cell>
         </row>
         <row r="34">
@@ -13426,16 +13060,16 @@
             <v>0</v>
           </cell>
           <cell r="C34">
-            <v>14.94128081710544</v>
+            <v>16.01324461307377</v>
           </cell>
           <cell r="D34">
-            <v>15.06773613962906</v>
+            <v>16.013244626595728</v>
           </cell>
           <cell r="E34">
-            <v>13.985884637859179</v>
+            <v>12.00993348011311</v>
           </cell>
           <cell r="F34">
-            <v>13.90034995388408</v>
+            <v>10.67549642966071</v>
           </cell>
         </row>
         <row r="35">
@@ -13446,16 +13080,16 @@
             <v>0</v>
           </cell>
           <cell r="C35">
-            <v>12.70008869453962</v>
+            <v>8.0066223065368831</v>
           </cell>
           <cell r="D35">
-            <v>15.06773613962906</v>
+            <v>16.013244626595728</v>
           </cell>
           <cell r="E35">
-            <v>13.985884637859179</v>
+            <v>12.00993348011311</v>
           </cell>
           <cell r="F35">
-            <v>13.90034995388408</v>
+            <v>10.67549642966071</v>
           </cell>
         </row>
         <row r="36">
@@ -13466,16 +13100,16 @@
             <v>41</v>
           </cell>
           <cell r="C36">
-            <v>10.795075390358679</v>
+            <v>4.0033111532684416</v>
           </cell>
           <cell r="D36">
-            <v>15.06773613962906</v>
+            <v>16.013244626595728</v>
           </cell>
           <cell r="E36">
-            <v>13.985884637859179</v>
+            <v>12.00993348011311</v>
           </cell>
           <cell r="F36">
-            <v>13.90034995388408</v>
+            <v>10.67549642966071</v>
           </cell>
         </row>
         <row r="37">
@@ -13486,86 +13120,16 @@
             <v>60</v>
           </cell>
           <cell r="C37">
-            <v>15.32581408180488</v>
+            <v>22.501655576634221</v>
           </cell>
           <cell r="D37">
-            <v>14.58754225655891</v>
+            <v>14.25331115746846</v>
           </cell>
           <cell r="E37">
-            <v>13.525175686791769</v>
+            <v>10.68998337052585</v>
           </cell>
           <cell r="F37">
-            <v>13.440472672437521</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D38">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E38">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F38">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D39">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E39">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F39">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D40">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E40">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F40">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D41">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E41">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F41">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D42">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E42">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F42">
-            <v>18.380500000000001</v>
+            <v>9.5022074411112953</v>
           </cell>
         </row>
       </sheetData>
@@ -14664,2232 +14228,1433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4">
-        <v>16.069086430961409</v>
-      </c>
-      <c r="E4">
-        <v>10.73315770912146</v>
-      </c>
-      <c r="F4">
-        <v>12.04010902309439</v>
-      </c>
-      <c r="G4">
-        <v>-6.9086430961409206E-2</v>
-      </c>
-      <c r="H4">
-        <v>5.2668422908785377</v>
-      </c>
-      <c r="I4">
-        <v>3.9598909769056099</v>
-      </c>
-      <c r="J4">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5.5528469999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.4755549999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.8139730000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.840646</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4.0790629999999997</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.4692750000000001</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2.1390769999999999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2.1649449999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="D5">
-        <v>16.06524829587109</v>
-      </c>
-      <c r="E5">
-        <v>11.24658253911428</v>
-      </c>
-      <c r="F5">
-        <v>12.36991714924274</v>
-      </c>
-      <c r="G5">
-        <v>-3.0652482958710858</v>
-      </c>
-      <c r="H5">
-        <v>1.7534174608857229</v>
-      </c>
-      <c r="I5">
-        <v>0.63008285075725645</v>
-      </c>
-      <c r="J5">
-        <v>9.3249999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2">
+        <v>13.812953</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12.059021</v>
+      </c>
+      <c r="N5" s="2">
+        <v>11.968242</v>
+      </c>
+      <c r="O5" s="2">
+        <v>11.962090999999999</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="2">
+        <v>13.656211000000001</v>
+      </c>
+      <c r="T5" s="2">
+        <v>12.256494999999999</v>
+      </c>
+      <c r="U5" s="2">
+        <v>12.046198</v>
+      </c>
+      <c r="V5" s="2">
+        <v>12.036384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6">
-        <v>5.0737500000000004</v>
-      </c>
-      <c r="D6">
-        <v>15.87719625148212</v>
-      </c>
-      <c r="E6">
-        <v>11.417392225472771</v>
-      </c>
-      <c r="F6">
-        <v>12.4223949664499</v>
-      </c>
-      <c r="G6">
-        <v>6.1228037485178826</v>
-      </c>
-      <c r="H6">
-        <v>10.582607774527229</v>
-      </c>
-      <c r="I6">
-        <v>9.577605033550098</v>
-      </c>
-      <c r="J6">
-        <v>16.92625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2">
+        <v>17.462432</v>
+      </c>
+      <c r="M6" s="2">
+        <v>15.583988</v>
+      </c>
+      <c r="N6" s="2">
+        <v>15.574059999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>15.5754</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="2">
+        <v>17.107302000000001</v>
+      </c>
+      <c r="T6" s="2">
+        <v>15.799244</v>
+      </c>
+      <c r="U6" s="2">
+        <v>15.778325000000001</v>
+      </c>
+      <c r="V6" s="2">
+        <v>15.774134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7">
-        <v>7.6126874999999989</v>
-      </c>
-      <c r="D7">
-        <v>16.28936749349263</v>
-      </c>
-      <c r="E7">
-        <v>12.44916684477737</v>
-      </c>
-      <c r="F7">
-        <v>13.220086620757829</v>
-      </c>
-      <c r="G7">
-        <v>32.710632506507373</v>
-      </c>
-      <c r="H7">
-        <v>36.550833155222627</v>
-      </c>
-      <c r="I7">
-        <v>35.779913379242167</v>
-      </c>
-      <c r="J7">
-        <v>41.3873125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2">
+        <f>L6-L5</f>
+        <v>3.6494789999999995</v>
+      </c>
+      <c r="M7" s="2">
+        <f>M6-M5</f>
+        <v>3.5249670000000002</v>
+      </c>
+      <c r="N7" s="2">
+        <f>N6-N5</f>
+        <v>3.6058179999999993</v>
+      </c>
+      <c r="O7" s="2">
+        <f>O6-O5</f>
+        <v>3.613309000000001</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="2">
+        <f>S6-S5</f>
+        <v>3.4510909999999999</v>
+      </c>
+      <c r="T7" s="2">
+        <f>T6-T5</f>
+        <v>3.5427490000000006</v>
+      </c>
+      <c r="U7" s="2">
+        <f>U6-U5</f>
+        <v>3.7321270000000002</v>
+      </c>
+      <c r="V7" s="2">
+        <f>V6-V5</f>
+        <v>3.7377500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>13.820784375000001</v>
-      </c>
-      <c r="D8">
-        <v>18.68983956215834</v>
-      </c>
-      <c r="E8">
-        <v>16.01318495503655</v>
-      </c>
-      <c r="F8">
-        <v>16.20009448987464</v>
-      </c>
-      <c r="G8">
-        <v>9.3101604378416631</v>
-      </c>
-      <c r="H8">
-        <v>11.98681504496345</v>
-      </c>
-      <c r="I8">
-        <v>11.79990551012536</v>
-      </c>
-      <c r="J8">
-        <v>14.179215624999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="R8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>15.94766671875</v>
-      </c>
-      <c r="D9">
-        <v>19.429754902894011</v>
-      </c>
-      <c r="E9">
-        <v>17.18181857509985</v>
-      </c>
-      <c r="F9">
-        <v>17.18287526984135</v>
-      </c>
-      <c r="G9">
-        <v>-4.4297549028940111</v>
-      </c>
-      <c r="H9">
-        <v>-2.1818185750998502</v>
-      </c>
-      <c r="I9">
-        <v>-2.1828752698413472</v>
-      </c>
-      <c r="J9">
-        <v>-0.94766671874999986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <f>(L6-M6)/M6</f>
+        <v>0.12053679712792387</v>
+      </c>
+      <c r="N9" s="5">
+        <f>(L6-N6)/N6</f>
+        <v>0.12125110600575575</v>
+      </c>
+      <c r="O9" s="5">
+        <f>(L6-O6)/O6</f>
+        <v>0.1211546412933215</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <f>(S6-T6)/T6</f>
+        <v>8.2792442473829816E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <f>(S6-U6)/U6</f>
+        <v>8.422801533115841E-2</v>
+      </c>
+      <c r="V9" s="5">
+        <f>(S6-V6)/V6</f>
+        <v>8.4516081833715909E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>15.8055167109375</v>
-      </c>
-      <c r="D10">
-        <v>19.050992087683252</v>
-      </c>
-      <c r="E10">
-        <v>16.968797505067091</v>
-      </c>
-      <c r="F10">
-        <v>17.00106975343666</v>
-      </c>
-      <c r="G10">
-        <v>-12.05099208768325</v>
-      </c>
-      <c r="H10">
-        <v>-9.9687975050670907</v>
-      </c>
-      <c r="I10">
-        <v>-10.00106975343666</v>
-      </c>
-      <c r="J10">
-        <v>-8.8055167109374999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="5">
+        <f>(M6-L6)/L6</f>
+        <v>-0.10757058352467744</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <f>(M6-N6)/N6</f>
+        <v>6.3747025502665215E-4</v>
+      </c>
+      <c r="O10" s="5">
+        <f>(M6-O6)/O6</f>
+        <v>5.5138230799848457E-4</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="5">
+        <f>(T6-S6)/S6</f>
+        <v>-7.6461969280720063E-2</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5">
+        <f>(T6-U6)/U6</f>
+        <v>1.3258061296113018E-3</v>
+      </c>
+      <c r="V10" s="5">
+        <f>(T6-V6)/V6</f>
+        <v>1.5918465000994504E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>14.484689204296879</v>
-      </c>
-      <c r="D11">
-        <v>17.949542358124681</v>
-      </c>
-      <c r="E11">
-        <v>15.99644210028745</v>
-      </c>
-      <c r="F11">
-        <v>16.168108912572858</v>
-      </c>
-      <c r="G11">
-        <v>-4.9495423581246811</v>
-      </c>
-      <c r="H11">
-        <v>-2.9964421002874482</v>
-      </c>
-      <c r="I11">
-        <v>-3.1681089125728579</v>
-      </c>
-      <c r="J11">
-        <v>-1.484689204296876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="5">
+        <f>(N6-L6)/L6</f>
+        <v>-0.10813911830837769</v>
+      </c>
+      <c r="M11" s="5">
+        <f>(N6-M6)/M6</f>
+        <v>-6.3706414558329879E-4</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
+        <f>(N6-O6)/O6</f>
+        <v>-8.6033103483749057E-5</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="5">
+        <f>(U6-S6)/S6</f>
+        <v>-7.7684780452230276E-2</v>
+      </c>
+      <c r="T11" s="5">
+        <f>(U6-T6)/T6</f>
+        <v>-1.3240506950838436E-3</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5">
+        <f>(U6-V6)/V6</f>
+        <v>2.6568811955068341E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>14.26198582365234</v>
-      </c>
-      <c r="D12">
-        <v>17.46899836848732</v>
-      </c>
-      <c r="E12">
-        <v>15.704002228836201</v>
-      </c>
-      <c r="F12">
-        <v>15.904246070545071</v>
-      </c>
-      <c r="G12">
-        <v>-1.4689983684873229</v>
-      </c>
-      <c r="H12">
-        <v>0.29599777116380288</v>
-      </c>
-      <c r="I12">
-        <v>9.5753929454927444E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.738014176347656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="5">
+        <f>(O6-L6)/L6</f>
+        <v>-0.1080623821469999</v>
+      </c>
+      <c r="M12" s="5">
+        <f>(O6-M6)/M6</f>
+        <v>-5.5107845308913195E-4</v>
+      </c>
+      <c r="N12" s="5">
+        <f>(O6-N6)/N6</f>
+        <v>8.6040505815489668E-5</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="5">
+        <f>(V6-S6)/S6</f>
+        <v>-7.7929763559443824E-2</v>
+      </c>
+      <c r="T12" s="5">
+        <f>(V6-T6)/T6</f>
+        <v>-1.5893165521084264E-3</v>
+      </c>
+      <c r="U12" s="5">
+        <f>(V6-U6)/U6</f>
+        <v>-2.6561754812380275E-4</v>
+      </c>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13">
-        <v>14.522687950104491</v>
-      </c>
-      <c r="D13">
-        <v>17.318407435993208</v>
-      </c>
-      <c r="E13">
-        <v>15.732625049325391</v>
-      </c>
-      <c r="F13">
-        <v>15.91222114108883</v>
-      </c>
-      <c r="G13">
-        <v>11.68159256400679</v>
-      </c>
-      <c r="H13">
-        <v>13.267374950674609</v>
-      </c>
-      <c r="I13">
-        <v>13.08777885891117</v>
-      </c>
-      <c r="J13">
-        <v>14.477312049895509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="R13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>16.694284757588822</v>
-      </c>
-      <c r="D14">
-        <v>18.57562027179792</v>
-      </c>
-      <c r="E14">
-        <v>17.026135232042609</v>
-      </c>
-      <c r="F14">
-        <v>17.002265252841351</v>
-      </c>
-      <c r="G14">
-        <v>3.42437972820208</v>
-      </c>
-      <c r="H14">
-        <v>4.9738647679573909</v>
-      </c>
-      <c r="I14">
-        <v>4.9977347471586491</v>
-      </c>
-      <c r="J14">
-        <v>5.305715242411182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5">
+        <f>(L5-M5)/M5</f>
+        <v>0.14544563775119065</v>
+      </c>
+      <c r="N14" s="5">
+        <f>(L5-N5)/N5</f>
+        <v>0.15413383185266477</v>
+      </c>
+      <c r="O14" s="5">
+        <f>(L5-O5)/O5</f>
+        <v>0.15472729642334282</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="5">
+        <f>(S5-T5)/T5</f>
+        <v>0.11420198025618267</v>
+      </c>
+      <c r="U14" s="5">
+        <f>(S5-U5)/U5</f>
+        <v>0.13365320742694087</v>
+      </c>
+      <c r="V14" s="5">
+        <f>(S5-V5)/V5</f>
+        <v>0.1345775442192606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>17.490142043950499</v>
-      </c>
-      <c r="D15">
-        <v>18.960472419515568</v>
-      </c>
-      <c r="E15">
-        <v>17.510894183714399</v>
-      </c>
-      <c r="F15">
-        <v>17.418512452555088</v>
-      </c>
-      <c r="G15">
-        <v>-12.96047241951557</v>
-      </c>
-      <c r="H15">
-        <v>-11.510894183714401</v>
-      </c>
-      <c r="I15">
-        <v>-11.41851245255509</v>
-      </c>
-      <c r="J15">
-        <v>-11.490142043950501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="5">
+        <f>(M5-L5)/L5</f>
+        <v>-0.12697733786540796</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5">
+        <f>(M5-N5)/N5</f>
+        <v>7.584990343610991E-3</v>
+      </c>
+      <c r="O15" s="5">
+        <f>(M5-O5)/O5</f>
+        <v>8.1030983629869074E-3</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="5">
+        <f>(T5-S5)/S5</f>
+        <v>-0.10249665884629357</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5">
+        <f>(T5-U5)/U5</f>
+        <v>1.7457541375295246E-2</v>
+      </c>
+      <c r="V15" s="5">
+        <f>(T5-V5)/V5</f>
+        <v>1.82871367347535E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>15.76662073735792</v>
-      </c>
-      <c r="D16">
-        <v>17.446968471895861</v>
-      </c>
-      <c r="E16">
-        <v>16.388154818789541</v>
-      </c>
-      <c r="F16">
-        <v>16.467496814846609</v>
-      </c>
-      <c r="G16">
-        <v>-15.446968471895859</v>
-      </c>
-      <c r="H16">
-        <v>-14.388154818789539</v>
-      </c>
-      <c r="I16">
-        <v>-14.46749681484661</v>
-      </c>
-      <c r="J16">
-        <v>-13.76662073735792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="5">
+        <f>(N5-L5)/L5</f>
+        <v>-0.1335493576210677</v>
+      </c>
+      <c r="M16" s="5">
+        <f>(N5-M5)/M5</f>
+        <v>-7.5278913603350969E-3</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5">
+        <f>(N5-O5)/O5</f>
+        <v>5.1420775849313519E-4</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="5">
+        <f>(U5-S5)/S5</f>
+        <v>-0.11789602547880962</v>
+      </c>
+      <c r="T16" s="5">
+        <f>(U5-T5)/T5</f>
+        <v>-1.7158004796640383E-2</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="5">
+        <f>(U5-V5)/V5</f>
+        <v>8.1536115830139956E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17">
-        <v>13.701627626754229</v>
-      </c>
-      <c r="D17">
-        <v>15.58110860941564</v>
-      </c>
-      <c r="E17">
-        <v>14.984860173392249</v>
-      </c>
-      <c r="F17">
-        <v>15.26253988618037</v>
-      </c>
-      <c r="G17">
-        <v>22.41889139058436</v>
-      </c>
-      <c r="H17">
-        <v>23.015139826607751</v>
-      </c>
-      <c r="I17">
-        <v>22.73746011381963</v>
-      </c>
-      <c r="J17">
-        <v>24.298372373245769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="5">
+        <f>(O5-L5)/L5</f>
+        <v>-0.13399466428358955</v>
+      </c>
+      <c r="M17" s="5">
+        <f>(O5-M5)/M5</f>
+        <v>-8.0379659343822688E-3</v>
+      </c>
+      <c r="N17" s="5">
+        <f>(O5-N5)/N5</f>
+        <v>-5.1394348476584161E-4</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" s="5">
+        <f>(V5-S5)/S5</f>
+        <v>-0.1186146728400726</v>
+      </c>
+      <c r="T17" s="5">
+        <f>(V5-T5)/T5</f>
+        <v>-1.7958723109665471E-2</v>
+      </c>
+      <c r="U17" s="5">
+        <f>(V5-U5)/U5</f>
+        <v>-8.1469688610468079E-4</v>
+      </c>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18">
         <v>45</v>
       </c>
-      <c r="C18">
-        <v>17.3463834827411</v>
-      </c>
-      <c r="D18">
-        <v>18.37059345522907</v>
-      </c>
-      <c r="E18">
-        <v>17.228923109771252</v>
-      </c>
-      <c r="F18">
-        <v>17.156278680025569</v>
-      </c>
-      <c r="G18">
-        <v>26.62940654477093</v>
-      </c>
-      <c r="H18">
-        <v>27.771076890228748</v>
-      </c>
-      <c r="I18">
-        <v>27.843721319974438</v>
-      </c>
-      <c r="J18">
-        <v>27.6536165172589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>21.494425960329931</v>
-      </c>
-      <c r="D19">
-        <v>21.770935923953729</v>
-      </c>
-      <c r="E19">
-        <v>19.93672094358525</v>
-      </c>
-      <c r="F19">
-        <v>19.475303539120919</v>
-      </c>
-      <c r="G19">
-        <v>-3.7709359239537261</v>
-      </c>
-      <c r="H19">
-        <v>-1.9367209435852499</v>
-      </c>
-      <c r="I19">
-        <v>-1.475303539120919</v>
-      </c>
-      <c r="J19">
-        <v>-3.4944259603299308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>20.970262066280441</v>
-      </c>
-      <c r="D20">
-        <v>21.27843325110932</v>
-      </c>
-      <c r="E20">
-        <v>19.747558032530531</v>
-      </c>
-      <c r="F20">
-        <v>19.352429672061511</v>
-      </c>
-      <c r="G20">
-        <v>-20.27843325110932</v>
-      </c>
-      <c r="H20">
-        <v>-18.747558032530531</v>
-      </c>
-      <c r="I20">
-        <v>-18.352429672061511</v>
-      </c>
-      <c r="J20">
-        <v>-19.970262066280441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21">
         <v>37</v>
       </c>
-      <c r="C21">
-        <v>17.97472275633837</v>
-      </c>
-      <c r="D21">
-        <v>18.57758750049274</v>
-      </c>
-      <c r="E21">
-        <v>17.919110015287771</v>
-      </c>
-      <c r="F21">
-        <v>17.823907663788152</v>
-      </c>
-      <c r="G21">
-        <v>18.42241249950726</v>
-      </c>
-      <c r="H21">
-        <v>19.080889984712229</v>
-      </c>
-      <c r="I21">
-        <v>19.176092336211848</v>
-      </c>
-      <c r="J21">
-        <v>19.02527724366163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2.2917130000000001</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.0633360000000001</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5.1535289999999998</v>
+      </c>
+      <c r="O21" s="2">
+        <v>6.5320960000000001</v>
+      </c>
+      <c r="S21">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="T21">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="U21">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="V21">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22">
         <v>45</v>
       </c>
-      <c r="C22">
-        <v>20.828514342887619</v>
-      </c>
-      <c r="D22">
-        <v>21.073189233001269</v>
-      </c>
-      <c r="E22">
-        <v>19.779484452847779</v>
-      </c>
-      <c r="F22">
-        <v>19.421030199193311</v>
-      </c>
-      <c r="G22">
-        <v>23.926810766998731</v>
-      </c>
-      <c r="H22">
-        <v>25.220515547152221</v>
-      </c>
-      <c r="I22">
-        <v>25.578969800806689</v>
-      </c>
-      <c r="J22">
-        <v>24.171485657112392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="2">
+        <v>13.487050999999999</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12.91025</v>
+      </c>
+      <c r="N22" s="2">
+        <v>12.228700999999999</v>
+      </c>
+      <c r="O22" s="2">
+        <v>12.247840999999999</v>
+      </c>
+      <c r="R22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="2">
+        <v>2.6796150000000001</v>
+      </c>
+      <c r="T22" s="2">
+        <v>2.4482569999999999</v>
+      </c>
+      <c r="U22" s="2">
+        <v>2.4904860000000002</v>
+      </c>
+      <c r="V22" s="2">
+        <v>2.4009550000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23">
-        <v>24.454237191454471</v>
-      </c>
-      <c r="D23">
-        <v>24.362251960782299</v>
-      </c>
-      <c r="E23">
-        <v>22.238528359549271</v>
-      </c>
-      <c r="F23">
-        <v>21.55143030387428</v>
-      </c>
-      <c r="G23">
-        <v>-12.3622519607823</v>
-      </c>
-      <c r="H23">
-        <v>-10.238528359549271</v>
-      </c>
-      <c r="I23">
-        <v>-9.5514303038742767</v>
-      </c>
-      <c r="J23">
-        <v>-12.454237191454469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="2">
+        <v>16.978390000000001</v>
+      </c>
+      <c r="M23" s="2">
+        <v>16.778065999999999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>16.921008</v>
+      </c>
+      <c r="O23" s="2">
+        <v>17.259626000000001</v>
+      </c>
+      <c r="R23" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="2">
+        <v>13.580219</v>
+      </c>
+      <c r="T23" s="2">
+        <v>12.237493000000001</v>
+      </c>
+      <c r="U23" s="2">
+        <v>12.308866</v>
+      </c>
+      <c r="V23" s="2">
+        <v>12.142946999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
-        <v>22.5861016127363</v>
-      </c>
-      <c r="D24">
-        <v>22.64131925410501</v>
-      </c>
-      <c r="E24">
-        <v>21.239789644289871</v>
-      </c>
-      <c r="F24">
-        <v>20.75591866105173</v>
-      </c>
-      <c r="G24">
-        <v>-0.64131925410501012</v>
-      </c>
-      <c r="H24">
-        <v>0.76021035571013229</v>
-      </c>
-      <c r="I24">
-        <v>1.2440813389482701</v>
-      </c>
-      <c r="J24">
-        <v>-0.58610161273630013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="2">
+        <f>L23-L22</f>
+        <v>3.4913390000000017</v>
+      </c>
+      <c r="M24" s="2">
+        <f>M23-M22</f>
+        <v>3.8678159999999995</v>
+      </c>
+      <c r="N24" s="2">
+        <f>N23-N22</f>
+        <v>4.6923070000000013</v>
+      </c>
+      <c r="O24" s="2">
+        <f>O23-O22</f>
+        <v>5.0117850000000015</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="2">
+        <v>16.884156999999998</v>
+      </c>
+      <c r="T24" s="2">
+        <v>15.788823000000001</v>
+      </c>
+      <c r="U24" s="2">
+        <v>15.833640000000001</v>
+      </c>
+      <c r="V24" s="2">
+        <v>15.732476999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25">
-        <v>22.498186370825859</v>
-      </c>
-      <c r="D25">
-        <v>22.551068121578599</v>
-      </c>
-      <c r="E25">
-        <v>21.313594691975009</v>
-      </c>
-      <c r="F25">
-        <v>20.859534675274279</v>
-      </c>
-      <c r="G25">
-        <v>-6.5510681215785986</v>
-      </c>
-      <c r="H25">
-        <v>-5.3135946919750046</v>
-      </c>
-      <c r="I25">
-        <v>-4.8595346752742756</v>
-      </c>
-      <c r="J25">
-        <v>-6.4981863708258558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="R25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="2">
+        <f>S24-S23</f>
+        <v>3.3039379999999987</v>
+      </c>
+      <c r="T25" s="2">
+        <f>T24-T23</f>
+        <v>3.5513300000000001</v>
+      </c>
+      <c r="U25" s="2">
+        <f>U24-U23</f>
+        <v>3.5247740000000007</v>
+      </c>
+      <c r="V25" s="2">
+        <f>V24-V23</f>
+        <v>3.5895299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26">
-        <v>21.523458415201979</v>
-      </c>
-      <c r="D26">
-        <v>21.6205253004597</v>
-      </c>
-      <c r="E26">
-        <v>20.795119007594881</v>
-      </c>
-      <c r="F26">
-        <v>20.454797760327072</v>
-      </c>
-      <c r="G26">
-        <v>-3.6205253004597</v>
-      </c>
-      <c r="H26">
-        <v>-2.7951190075948769</v>
-      </c>
-      <c r="I26">
-        <v>-2.454797760327065</v>
-      </c>
-      <c r="J26">
-        <v>-3.5234584152019761</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5">
+        <f>(L23-M23)/M23</f>
+        <v>1.1939635950889808E-2</v>
+      </c>
+      <c r="N26" s="5">
+        <f>(L23-N23)/N23</f>
+        <v>3.3911691312952801E-3</v>
+      </c>
+      <c r="O26" s="5">
+        <f>(L23-O23)/O23</f>
+        <v>-1.6294443460130585E-2</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>20.99493965292168</v>
-      </c>
-      <c r="D27">
-        <v>21.102125643367099</v>
-      </c>
-      <c r="E27">
-        <v>20.52223733385463</v>
-      </c>
-      <c r="F27">
-        <v>20.250344587387239</v>
-      </c>
-      <c r="G27">
-        <v>5.8978743566328973</v>
-      </c>
-      <c r="H27">
-        <v>6.4777626661453702</v>
-      </c>
-      <c r="I27">
-        <v>6.749655412612757</v>
-      </c>
-      <c r="J27">
-        <v>6.0050603470783201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="5">
+        <f>(M23-L23)/L23</f>
+        <v>-1.1798763015810211E-2</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <f>(M23-N23)/N23</f>
+        <v>-8.4476054854416144E-3</v>
+      </c>
+      <c r="O27" s="5">
+        <f>(M23-O23)/O23</f>
+        <v>-2.7900952199080196E-2</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="5">
+        <f>(S24-L6)/L6</f>
+        <v>-3.3115375910984304E-2</v>
+      </c>
+      <c r="T27" s="5">
+        <f>(S24-M6)/M6</f>
+        <v>8.342979986894232E-2</v>
+      </c>
+      <c r="U27" s="5">
+        <f>(S24-N6)/N6</f>
+        <v>8.412045413976825E-2</v>
+      </c>
+      <c r="V27" s="5">
+        <f>(S24-O6)/O6</f>
+        <v>8.4027183892548388E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
-        <v>21.895698704983431</v>
-      </c>
-      <c r="D28">
-        <v>21.952400072777671</v>
-      </c>
-      <c r="E28">
-        <v>21.153593474787169</v>
-      </c>
-      <c r="F28">
-        <v>20.812504307695288</v>
-      </c>
-      <c r="G28">
-        <v>-7.9524000727776754</v>
-      </c>
-      <c r="H28">
-        <v>-7.153593474787165</v>
-      </c>
-      <c r="I28">
-        <v>-6.812504307695292</v>
-      </c>
-      <c r="J28">
-        <v>-7.8956987049834284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="5">
+        <f>(N23-L23)/L23</f>
+        <v>-3.3797079699547771E-3</v>
+      </c>
+      <c r="M28" s="5">
+        <f>(N23-M23)/M23</f>
+        <v>8.5195754981534505E-3</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5">
+        <f>(N23-O23)/O23</f>
+        <v>-1.9619080969657181E-2</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" s="5">
+        <f>($S$24-S6)/S6</f>
+        <v>-1.3043845253915689E-2</v>
+      </c>
+      <c r="T28" s="5">
+        <f>($S$24-T6)/T6</f>
+        <v>6.8668665412091767E-2</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" ref="U28:V28" si="0">($S$24-U6)/U6</f>
+        <v>7.0085512879218659E-2</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="0"/>
+        <v>7.036982188689396E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>20.71134389923591</v>
-      </c>
-      <c r="D29">
-        <v>20.799204923069539</v>
-      </c>
-      <c r="E29">
-        <v>20.455695046760589</v>
-      </c>
-      <c r="F29">
-        <v>20.24511007112179</v>
-      </c>
-      <c r="G29">
-        <v>-16.799204923069539</v>
-      </c>
-      <c r="H29">
-        <v>-16.455695046760589</v>
-      </c>
-      <c r="I29">
-        <v>-16.24511007112179</v>
-      </c>
-      <c r="J29">
-        <v>-16.71134389923591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="5">
+        <f>(O23-L23)/L23</f>
+        <v>1.656435033003717E-2</v>
+      </c>
+      <c r="M29" s="5">
+        <f>(O23-M23)/M23</f>
+        <v>2.8701758593630625E-2</v>
+      </c>
+      <c r="N29" s="5">
+        <f>(O23-N23)/N23</f>
+        <v>2.0011691974851635E-2</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="R29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" s="5">
+        <f>($T$24-L6)/L6</f>
+        <v>-9.5840545005415001E-2</v>
+      </c>
+      <c r="T29" s="5">
+        <f>($T$24-M6)/M6</f>
+        <v>1.3143939792561506E-2</v>
+      </c>
+      <c r="U29" s="5">
+        <f>($T$24-N6)/N6</f>
+        <v>1.3789788918239777E-2</v>
+      </c>
+      <c r="V29" s="5">
+        <f>($T$24-O6)/O6</f>
+        <v>1.3702569436419006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>18.204642314350529</v>
-      </c>
-      <c r="D30">
-        <v>18.350903404283461</v>
-      </c>
-      <c r="E30">
-        <v>18.85072436115334</v>
-      </c>
-      <c r="F30">
-        <v>18.892100756969519</v>
-      </c>
-      <c r="G30">
-        <v>-13.350903404283461</v>
-      </c>
-      <c r="H30">
-        <v>-13.85072436115334</v>
-      </c>
-      <c r="I30">
-        <v>-13.892100756969519</v>
-      </c>
-      <c r="J30">
-        <v>-13.204642314350529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="R30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="5">
+        <f>($T$24-S6)/S6</f>
+        <v>-7.707112436549024E-2</v>
+      </c>
+      <c r="T30" s="5">
+        <f>($T$24-T6)/T6</f>
+        <v>-6.5958852208365952E-4</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" ref="U30:V30" si="1">($T$24-U6)/U6</f>
+        <v>6.6534312102204242E-4</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="1"/>
+        <v>9.3120801433540623E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31">
-        <v>16.223945967197949</v>
-      </c>
-      <c r="D31">
-        <v>16.396828291565051</v>
-      </c>
-      <c r="E31">
-        <v>17.499798808914829</v>
-      </c>
-      <c r="F31">
-        <v>17.735066939352599</v>
-      </c>
-      <c r="G31">
-        <v>-10.396828291565051</v>
-      </c>
-      <c r="H31">
-        <v>-11.49979880891483</v>
-      </c>
-      <c r="I31">
-        <v>-11.735066939352601</v>
-      </c>
-      <c r="J31">
-        <v>-10.223945967197951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5">
+        <f>(L22-M22)/M22</f>
+        <v>4.4677756046552136E-2</v>
+      </c>
+      <c r="N31" s="5">
+        <f>(L22-N22)/N22</f>
+        <v>0.10290136294934353</v>
+      </c>
+      <c r="O31" s="5">
+        <f>(L22-O22)/O22</f>
+        <v>0.10117783207669008</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31" s="5">
+        <f>($U$24-L6)/L6</f>
+        <v>-9.3274064002081658E-2</v>
+      </c>
+      <c r="T31" s="5">
+        <f>($U$24-M6)/M6</f>
+        <v>1.6019776195926299E-2</v>
+      </c>
+      <c r="U31" s="5">
+        <f t="shared" ref="U31:V31" si="2">($U$24-N6)/N6</f>
+        <v>1.6667458581770038E-2</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6579991525097312E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
-        <v>14.690354072118261</v>
-      </c>
-      <c r="D32">
-        <v>14.869564755657009</v>
-      </c>
-      <c r="E32">
-        <v>16.37814159459376</v>
-      </c>
-      <c r="F32">
-        <v>16.757686372941961</v>
-      </c>
-      <c r="G32">
-        <v>-13.869564755657009</v>
-      </c>
-      <c r="H32">
-        <v>-15.37814159459376</v>
-      </c>
-      <c r="I32">
-        <v>-15.75768637294196</v>
-      </c>
-      <c r="J32">
-        <v>-13.690354072118261</v>
-      </c>
-      <c r="N32">
-        <v>0.1</v>
-      </c>
-      <c r="T32">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="5">
+        <f>(M22-L22)/L22</f>
+        <v>-4.2767021493430972E-2</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5">
+        <f>(M22-N22)/N22</f>
+        <v>5.5733556654954643E-2</v>
+      </c>
+      <c r="O32" s="5">
+        <f>(M22-O22)/O22</f>
+        <v>5.408373606417656E-2</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S32" s="5">
+        <f>($U$24-S6)/S6</f>
+        <v>-7.4451365855352281E-2</v>
+      </c>
+      <c r="T32" s="5">
+        <f>($U$24-T6)/T6</f>
+        <v>2.1770661938002212E-3</v>
+      </c>
+      <c r="U32" s="5">
+        <f>($U$24-U6)/U6</f>
+        <v>3.5057586911158328E-3</v>
+      </c>
+      <c r="V32" s="5">
+        <f>($U$24-V6)/V6</f>
+        <v>3.7723782491007572E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33">
-        <v>12.636800961300519</v>
-      </c>
-      <c r="D33">
-        <v>12.825824837026451</v>
-      </c>
-      <c r="E33">
-        <v>14.87830977116001</v>
-      </c>
-      <c r="F33">
-        <v>15.44527320196155</v>
-      </c>
-      <c r="G33">
-        <v>15.174175162973549</v>
-      </c>
-      <c r="H33">
-        <v>13.12169022883999</v>
-      </c>
-      <c r="I33">
-        <v>12.55472679803845</v>
-      </c>
-      <c r="J33">
-        <v>15.363199038699481</v>
-      </c>
-      <c r="M33" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="K33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P33" t="s">
-        <v>54</v>
-      </c>
-      <c r="T33" t="s">
-        <v>51</v>
-      </c>
-      <c r="U33" t="s">
-        <v>52</v>
-      </c>
-      <c r="V33" t="s">
-        <v>53</v>
-      </c>
-      <c r="W33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L33" s="5">
+        <f>(N22-L22)/L22</f>
+        <v>-9.330060366791823E-2</v>
+      </c>
+      <c r="M33" s="5">
+        <f>(N22-M22)/M22</f>
+        <v>-5.2791309231037385E-2</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5">
+        <f>(N22-O22)/O22</f>
+        <v>-1.5627244017945823E-3</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S33" s="5">
+        <f>($V$24-L6)/L6</f>
+        <v>-9.9067243325557428E-2</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" ref="T33:V33" si="3">($V$24-M6)/M6</f>
+        <v>9.5283055916110596E-3</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0171849858033167E-2</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0084941638737962E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
-        <v>14.94128081710544</v>
-      </c>
-      <c r="D34">
-        <v>15.06773613962906</v>
-      </c>
-      <c r="E34">
-        <v>16.157626967529168</v>
-      </c>
-      <c r="F34">
-        <v>16.490920914063789</v>
-      </c>
-      <c r="G34">
-        <v>-15.06773613962906</v>
-      </c>
-      <c r="H34">
-        <v>-16.157626967529168</v>
-      </c>
-      <c r="I34">
-        <v>-16.490920914063789</v>
-      </c>
-      <c r="J34">
-        <v>-14.94128081710544</v>
-      </c>
-      <c r="L34" t="s">
-        <v>55</v>
-      </c>
-      <c r="M34" s="2">
-        <v>5.5528469999999999</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1.4755549999999999</v>
-      </c>
-      <c r="O34" s="2">
-        <v>1.8139730000000001</v>
-      </c>
-      <c r="P34" s="2">
-        <v>1.840646</v>
-      </c>
-      <c r="S34" t="s">
-        <v>55</v>
-      </c>
-      <c r="T34" s="2">
-        <v>4.0790629999999997</v>
-      </c>
-      <c r="U34" s="2">
-        <v>1.4692750000000001</v>
-      </c>
-      <c r="V34" s="2">
-        <v>2.1390769999999999</v>
-      </c>
-      <c r="W34" s="2">
-        <v>2.1649449999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="5">
+        <f>(O22-L22)/L22</f>
+        <v>-9.1881464673040827E-2</v>
+      </c>
+      <c r="M34" s="5">
+        <f>(O22-M22)/M22</f>
+        <v>-5.1308766290350714E-2</v>
+      </c>
+      <c r="N34" s="5">
+        <f>(O22-N22)/N22</f>
+        <v>1.5651703316648397E-3</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="R34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="5">
+        <f>($V$24-S6)/S6</f>
+        <v>-8.0364805625106825E-2</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" ref="T34:V34" si="4">($V$24-T6)/T6</f>
+        <v>-4.2259616979141825E-3</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.9057583742254783E-3</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.6408422801531117E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>12.70008869453962</v>
-      </c>
-      <c r="D35">
-        <v>15.06773613962906</v>
-      </c>
-      <c r="E35">
-        <v>16.157626967529168</v>
-      </c>
-      <c r="F35">
-        <v>16.490920914063789</v>
-      </c>
-      <c r="G35">
-        <v>-15.06773613962906</v>
-      </c>
-      <c r="H35">
-        <v>-16.157626967529168</v>
-      </c>
-      <c r="I35">
-        <v>-16.490920914063789</v>
-      </c>
-      <c r="J35">
-        <v>-12.70008869453962</v>
-      </c>
-      <c r="L35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M35" s="2">
-        <v>13.812953</v>
-      </c>
-      <c r="N35" s="2">
-        <v>12.059021</v>
-      </c>
-      <c r="O35" s="2">
-        <v>11.968242</v>
-      </c>
-      <c r="P35" s="2">
-        <v>11.962090999999999</v>
-      </c>
-      <c r="S35" t="s">
-        <v>56</v>
-      </c>
-      <c r="T35" s="2">
-        <v>13.656211000000001</v>
-      </c>
-      <c r="U35" s="2">
-        <v>12.256494999999999</v>
-      </c>
-      <c r="V35" s="2">
-        <v>12.046198</v>
-      </c>
-      <c r="W35" s="2">
-        <v>12.036384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36">
         <v>41</v>
       </c>
-      <c r="C36">
-        <v>10.795075390358679</v>
-      </c>
-      <c r="D36">
-        <v>15.06773613962906</v>
-      </c>
-      <c r="E36">
-        <v>16.157626967529168</v>
-      </c>
-      <c r="F36">
-        <v>16.490920914063789</v>
-      </c>
-      <c r="G36">
-        <v>25.932263860370941</v>
-      </c>
-      <c r="H36">
-        <v>24.842373032470832</v>
-      </c>
-      <c r="I36">
-        <v>24.509079085936211</v>
-      </c>
-      <c r="J36">
-        <v>30.204924609641321</v>
-      </c>
-      <c r="L36" t="s">
-        <v>57</v>
-      </c>
-      <c r="M36" s="2">
-        <v>17.462432</v>
-      </c>
-      <c r="N36" s="2">
-        <v>15.583988</v>
-      </c>
-      <c r="O36" s="2">
-        <v>15.574059999999999</v>
-      </c>
-      <c r="P36" s="2">
-        <v>15.5754</v>
-      </c>
-      <c r="S36" t="s">
-        <v>57</v>
-      </c>
-      <c r="T36" s="2">
-        <v>17.107302000000001</v>
-      </c>
-      <c r="U36" s="2">
-        <v>15.799244</v>
-      </c>
-      <c r="V36" s="2">
-        <v>15.778325000000001</v>
-      </c>
-      <c r="W36" s="2">
-        <v>15.774134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S36" s="5">
+        <f>($S$23-L5)/L5</f>
+        <v>-1.6848967776839655E-2</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" ref="T36:V36" si="5">($S$23-M5)/M5</f>
+        <v>0.12614606111059928</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="5"/>
+        <v>0.13468786810961875</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="5"/>
+        <v>0.13527133341486874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37">
-        <v>15.32581408180488</v>
-      </c>
-      <c r="D37">
-        <v>14.58754225655891</v>
-      </c>
-      <c r="E37">
-        <v>18.579080889118789</v>
-      </c>
-      <c r="F37">
-        <v>18.53221279100293</v>
-      </c>
-      <c r="G37">
-        <v>45.412457743441102</v>
-      </c>
-      <c r="H37">
-        <v>41.420919110881222</v>
-      </c>
-      <c r="I37">
-        <v>41.467787208997073</v>
-      </c>
-      <c r="J37">
-        <v>44.674185918195121</v>
-      </c>
-      <c r="L37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" s="2">
-        <f>M36-M35</f>
-        <v>3.6494789999999995</v>
-      </c>
-      <c r="N37" s="2">
-        <f>N36-N35</f>
-        <v>3.5249670000000002</v>
-      </c>
-      <c r="O37" s="2">
-        <f>O36-O35</f>
-        <v>3.6058179999999993</v>
-      </c>
-      <c r="P37" s="2">
-        <f>P36-P35</f>
-        <v>3.613309000000001</v>
-      </c>
-      <c r="S37" t="s">
-        <v>60</v>
-      </c>
-      <c r="T37" s="2">
-        <f>T36-T35</f>
-        <v>3.4510909999999999</v>
-      </c>
-      <c r="U37" s="2">
-        <f>U36-U35</f>
-        <v>3.5427490000000006</v>
-      </c>
-      <c r="V37" s="2">
-        <f>V36-V35</f>
-        <v>3.7321270000000002</v>
-      </c>
-      <c r="W37" s="2">
-        <f>W36-W35</f>
-        <v>3.7377500000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" s="5">
+        <f>($S$23-S5)/S5</f>
+        <v>-5.5646474706638003E-3</v>
+      </c>
+      <c r="T37" s="5">
+        <f t="shared" ref="T37:V37" si="6">($S$23-T5)/T5</f>
+        <v>0.10800183902494151</v>
+      </c>
+      <c r="U37" s="5">
+        <f t="shared" si="6"/>
+        <v>0.12734482697362265</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" si="6"/>
+        <v>0.12826402015754895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="C38">
-        <v>22.02694</v>
-      </c>
-      <c r="D38">
-        <v>19.96058</v>
-      </c>
-      <c r="E38">
-        <v>22.617660000000001</v>
-      </c>
-      <c r="F38">
-        <v>21.985949999999999</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="S38" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S38" s="5">
+        <f>($T$23-L5)/L5</f>
+        <v>-0.11405671184141433</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" ref="T38:V38" si="7">($T$23-M5)/M5</f>
+        <v>1.4799874716198029E-2</v>
+      </c>
+      <c r="U38" s="5">
+        <f t="shared" si="7"/>
+        <v>2.2497121966618034E-2</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" si="7"/>
+        <v>2.3022897919770174E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="C39">
-        <v>22.02694</v>
-      </c>
-      <c r="D39">
-        <v>19.96058</v>
-      </c>
-      <c r="E39">
-        <v>22.617660000000001</v>
-      </c>
-      <c r="F39">
-        <v>21.985949999999999</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5">
-        <f>(M36-N36)/N36</f>
-        <v>0.12053679712792387</v>
-      </c>
-      <c r="O39" s="5">
-        <f>(M36-O36)/O36</f>
-        <v>0.12125110600575575</v>
-      </c>
-      <c r="P39" s="5">
-        <f>(M36-P36)/P36</f>
-        <v>0.1211546412933215</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T39" s="5"/>
+      <c r="R39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S39" s="5">
+        <f>($T$23-S5)/S5</f>
+        <v>-0.10388811362097437</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" ref="T39:V39" si="8">($T$23-T5)/T5</f>
+        <v>-1.5503616653862815E-3</v>
+      </c>
       <c r="U39" s="5">
-        <f>(T36-U36)/U36</f>
-        <v>8.2792442473829816E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5880114206988812E-2</v>
       </c>
       <c r="V39" s="5">
-        <f>(T36-V36)/V36</f>
-        <v>8.422801533115841E-2</v>
-      </c>
-      <c r="W39" s="5">
-        <f>(T36-W36)/W36</f>
-        <v>8.4516081833715909E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1.6708423393603979E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="C40">
-        <v>22.02694</v>
-      </c>
-      <c r="D40">
-        <v>19.96058</v>
-      </c>
-      <c r="E40">
-        <v>22.617660000000001</v>
-      </c>
-      <c r="F40">
-        <v>21.985949999999999</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" s="5">
-        <f>(N36-M36)/M36</f>
-        <v>-0.10757058352467744</v>
-      </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5">
-        <f>(N36-O36)/O36</f>
-        <v>6.3747025502665215E-4</v>
-      </c>
-      <c r="P40" s="5">
-        <f>(N36-P36)/P36</f>
-        <v>5.5138230799848457E-4</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>52</v>
+      <c r="R40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S40" s="5">
+        <f>($U$23-L5)/L5</f>
+        <v>-0.10888960528570539</v>
       </c>
       <c r="T40" s="5">
-        <f>(U36-T36)/T36</f>
-        <v>-7.6461969280720063E-2</v>
-      </c>
-      <c r="U40" s="5"/>
+        <f>($U$23-M5)/M5</f>
+        <v>2.0718514380230414E-2</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" ref="U40:V40" si="9">($U$23-N5)/N5</f>
+        <v>2.846065445534942E-2</v>
+      </c>
       <c r="V40" s="5">
-        <f>(U36-V36)/V36</f>
-        <v>1.3258061296113018E-3</v>
-      </c>
-      <c r="W40" s="5">
-        <f>(U36-W36)/W36</f>
-        <v>1.5918465000994504E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>2.8989496903175288E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="C41">
-        <v>22.02694</v>
-      </c>
-      <c r="D41">
-        <v>19.96058</v>
-      </c>
-      <c r="E41">
-        <v>22.617660000000001</v>
-      </c>
-      <c r="F41">
-        <v>21.985949999999999</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M41" s="5">
-        <f>(O36-M36)/M36</f>
-        <v>-0.10813911830837769</v>
-      </c>
-      <c r="N41" s="5">
-        <f>(O36-N36)/N36</f>
-        <v>-6.3706414558329879E-4</v>
-      </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5">
-        <f>(O36-P36)/P36</f>
-        <v>-8.6033103483749057E-5</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>53</v>
+      <c r="R41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S41" s="5">
+        <f>($U$23-S5)/S5</f>
+        <v>-9.866170052586333E-2</v>
       </c>
       <c r="T41" s="5">
-        <f>(V36-T36)/T36</f>
-        <v>-7.7684780452230276E-2</v>
+        <f t="shared" ref="T41:V41" si="10">($U$23-T5)/T5</f>
+        <v>4.2729181548232867E-3</v>
       </c>
       <c r="U41" s="5">
-        <f>(V36-U36)/U36</f>
-        <v>-1.3240506950838436E-3</v>
-      </c>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5">
-        <f>(V36-W36)/W36</f>
-        <v>2.6568811955068341E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>2.1805054175599609E-2</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="10"/>
+        <v>2.263819432813045E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="C42">
-        <v>22.02694</v>
-      </c>
-      <c r="D42">
-        <v>19.96058</v>
-      </c>
-      <c r="E42">
-        <v>22.617660000000001</v>
-      </c>
-      <c r="F42">
-        <v>21.985949999999999</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M42" s="5">
-        <f>(P36-M36)/M36</f>
-        <v>-0.1080623821469999</v>
-      </c>
-      <c r="N42" s="5">
-        <f>(P36-N36)/N36</f>
-        <v>-5.5107845308913195E-4</v>
-      </c>
-      <c r="O42" s="5">
-        <f>(P36-O36)/O36</f>
-        <v>8.6040505815489668E-5</v>
-      </c>
-      <c r="P42" s="4"/>
-      <c r="S42" s="4" t="s">
-        <v>54</v>
+      <c r="R42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S42" s="5">
+        <f>($V$23-L5)/L5</f>
+        <v>-0.12090144663490861</v>
       </c>
       <c r="T42" s="5">
-        <f>(W36-T36)/T36</f>
-        <v>-7.7929763559443824E-2</v>
+        <f t="shared" ref="T42:V42" si="11">($V$23-M5)/M5</f>
+        <v>6.9596031054262155E-3</v>
       </c>
       <c r="U42" s="5">
-        <f>(W36-U36)/U36</f>
-        <v>-1.5893165521084264E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.4597381971387231E-2</v>
       </c>
       <c r="V42" s="5">
-        <f>(W36-V36)/V36</f>
-        <v>-2.6561754812380275E-4</v>
-      </c>
-      <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="S43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="5">
-        <f>(M35-N35)/N35</f>
-        <v>0.14544563775119065</v>
-      </c>
-      <c r="O44" s="5">
-        <f>(M35-O35)/O35</f>
-        <v>0.15413383185266477</v>
-      </c>
-      <c r="P44" s="5">
-        <f>(M35-P35)/P35</f>
-        <v>0.15472729642334282</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="5">
-        <f>(T35-U35)/U35</f>
-        <v>0.11420198025618267</v>
-      </c>
-      <c r="V44" s="5">
-        <f>(T35-V35)/V35</f>
-        <v>0.13365320742694087</v>
-      </c>
-      <c r="W44" s="5">
-        <f>(T35-W35)/W35</f>
-        <v>0.1345775442192606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="5">
-        <f>(N35-M35)/M35</f>
-        <v>-0.12697733786540796</v>
-      </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="5">
-        <f>(N35-O35)/O35</f>
-        <v>7.584990343610991E-3</v>
-      </c>
-      <c r="P45" s="5">
-        <f>(N35-P35)/P35</f>
-        <v>8.1030983629869074E-3</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T45" s="5">
-        <f>(U35-T35)/T35</f>
-        <v>-0.10249665884629357</v>
-      </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="5">
-        <f>(U35-V35)/V35</f>
-        <v>1.7457541375295246E-2</v>
-      </c>
-      <c r="W45" s="5">
-        <f>(U35-W35)/W35</f>
-        <v>1.82871367347535E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" s="5">
-        <f>(O35-M35)/M35</f>
-        <v>-0.1335493576210677</v>
-      </c>
-      <c r="N46" s="5">
-        <f>(O35-N35)/N35</f>
-        <v>-7.5278913603350969E-3</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="5">
-        <f>(O35-P35)/P35</f>
-        <v>5.1420775849313519E-4</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T46" s="5">
-        <f>(V35-T35)/T35</f>
-        <v>-0.11789602547880962</v>
-      </c>
-      <c r="U46" s="5">
-        <f>(V35-U35)/U35</f>
-        <v>-1.7158004796640383E-2</v>
-      </c>
-      <c r="V46" s="4"/>
-      <c r="W46" s="5">
-        <f>(V35-W35)/W35</f>
-        <v>8.1536115830139956E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M47" s="5">
-        <f>(P35-M35)/M35</f>
-        <v>-0.13399466428358955</v>
-      </c>
-      <c r="N47" s="5">
-        <f>(P35-N35)/N35</f>
-        <v>-8.0379659343822688E-3</v>
-      </c>
-      <c r="O47" s="5">
-        <f>(P35-O35)/O35</f>
-        <v>-5.1394348476584161E-4</v>
-      </c>
-      <c r="P47" s="4"/>
-      <c r="S47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="T47" s="5">
-        <f>(W35-T35)/T35</f>
-        <v>-0.1186146728400726</v>
-      </c>
-      <c r="U47" s="5">
-        <f>(W35-U35)/U35</f>
-        <v>-1.7958723109665471E-2</v>
-      </c>
-      <c r="V47" s="5">
-        <f>(W35-V35)/V35</f>
-        <v>-8.1469688610468079E-4</v>
-      </c>
-      <c r="W47" s="4"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-    </row>
-    <row r="49" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="N49">
-        <v>0.5</v>
-      </c>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="M50" t="s">
-        <v>51</v>
-      </c>
-      <c r="N50" t="s">
-        <v>52</v>
-      </c>
-      <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="s">
-        <v>54</v>
-      </c>
-      <c r="T50" t="s">
-        <v>51</v>
-      </c>
-      <c r="U50" t="s">
-        <v>52</v>
-      </c>
-      <c r="V50" t="s">
-        <v>53</v>
-      </c>
-      <c r="W50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L51" t="s">
-        <v>55</v>
-      </c>
-      <c r="M51" s="2">
-        <v>2.2917130000000001</v>
-      </c>
-      <c r="N51" s="2">
-        <v>1.0633360000000001</v>
-      </c>
-      <c r="O51" s="2">
-        <v>5.1535289999999998</v>
-      </c>
-      <c r="P51" s="2">
-        <v>6.5320960000000001</v>
-      </c>
-      <c r="T51">
-        <v>0.32479999999999998</v>
-      </c>
-      <c r="U51">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="V51">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="W51">
-        <v>9.1399999999999995E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L52" t="s">
-        <v>56</v>
-      </c>
-      <c r="M52" s="2">
-        <v>13.487050999999999</v>
-      </c>
-      <c r="N52" s="2">
-        <v>12.91025</v>
-      </c>
-      <c r="O52" s="2">
-        <v>12.228700999999999</v>
-      </c>
-      <c r="P52" s="2">
-        <v>12.247840999999999</v>
-      </c>
-      <c r="S52" t="s">
-        <v>55</v>
-      </c>
-      <c r="T52" s="2">
-        <v>2.6796150000000001</v>
-      </c>
-      <c r="U52" s="2">
-        <v>2.4482569999999999</v>
-      </c>
-      <c r="V52" s="2">
-        <v>2.4904860000000002</v>
-      </c>
-      <c r="W52" s="2">
-        <v>2.4009550000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L53" t="s">
-        <v>57</v>
-      </c>
-      <c r="M53" s="2">
-        <v>16.978390000000001</v>
-      </c>
-      <c r="N53" s="2">
-        <v>16.778065999999999</v>
-      </c>
-      <c r="O53" s="2">
-        <v>16.921008</v>
-      </c>
-      <c r="P53" s="2">
-        <v>17.259626000000001</v>
-      </c>
-      <c r="S53" t="s">
-        <v>56</v>
-      </c>
-      <c r="T53" s="2">
-        <v>13.580219</v>
-      </c>
-      <c r="U53" s="2">
-        <v>12.237493000000001</v>
-      </c>
-      <c r="V53" s="2">
-        <v>12.308866</v>
-      </c>
-      <c r="W53" s="2">
-        <v>12.142946999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L54" t="s">
-        <v>60</v>
-      </c>
-      <c r="M54" s="2">
-        <f>M53-M52</f>
-        <v>3.4913390000000017</v>
-      </c>
-      <c r="N54" s="2">
-        <f>N53-N52</f>
-        <v>3.8678159999999995</v>
-      </c>
-      <c r="O54" s="2">
-        <f>O53-O52</f>
-        <v>4.6923070000000013</v>
-      </c>
-      <c r="P54" s="2">
-        <f>P53-P52</f>
-        <v>5.0117850000000015</v>
-      </c>
-      <c r="S54" t="s">
-        <v>57</v>
-      </c>
-      <c r="T54" s="2">
-        <v>16.884156999999998</v>
-      </c>
-      <c r="U54" s="2">
-        <v>15.788823000000001</v>
-      </c>
-      <c r="V54" s="2">
-        <v>15.833640000000001</v>
-      </c>
-      <c r="W54" s="2">
-        <v>15.732476999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L55" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="S55" t="s">
-        <v>60</v>
-      </c>
-      <c r="T55" s="2">
-        <f>T54-T53</f>
-        <v>3.3039379999999987</v>
-      </c>
-      <c r="U55" s="2">
-        <f>U54-U53</f>
-        <v>3.5513300000000001</v>
-      </c>
-      <c r="V55" s="2">
-        <f>V54-V53</f>
-        <v>3.5247740000000007</v>
-      </c>
-      <c r="W55" s="2">
-        <f>W54-W53</f>
-        <v>3.5895299999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5">
-        <f>(M53-N53)/N53</f>
-        <v>1.1939635950889808E-2</v>
-      </c>
-      <c r="O56" s="5">
-        <f>(M53-O53)/O53</f>
-        <v>3.3911691312952801E-3</v>
-      </c>
-      <c r="P56" s="5">
-        <f>(M53-P53)/P53</f>
-        <v>-1.6294443460130585E-2</v>
-      </c>
-      <c r="S56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-    </row>
-    <row r="57" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" s="5">
-        <f>(N53-M53)/M53</f>
-        <v>-1.1798763015810211E-2</v>
-      </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5">
-        <f>(N53-O53)/O53</f>
-        <v>-8.4476054854416144E-3</v>
-      </c>
-      <c r="P57" s="5">
-        <f>(N53-P53)/P53</f>
-        <v>-2.7900952199080196E-2</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5">
-        <f>(T54-U54)/U54</f>
-        <v>6.9374012236377444E-2</v>
-      </c>
-      <c r="V57" s="5">
-        <f>(T54-V54)/V54</f>
-        <v>6.6347157065589302E-2</v>
-      </c>
-      <c r="W57" s="5">
-        <f>(T54-W54)/W54</f>
-        <v>7.3203984343978318E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L58" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58" s="5">
-        <f>(O53-M53)/M53</f>
-        <v>-3.3797079699547771E-3</v>
-      </c>
-      <c r="N58" s="5">
-        <f>(O53-N53)/N53</f>
-        <v>8.5195754981534505E-3</v>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5">
-        <f>(O53-P53)/P53</f>
-        <v>-1.9619080969657181E-2</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T58" s="5">
-        <f>(U54-T54)/T54</f>
-        <v>-6.4873478729201448E-2</v>
-      </c>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5">
-        <f>(U54-V54)/V54</f>
-        <v>-2.8304925462496371E-3</v>
-      </c>
-      <c r="W58" s="5">
-        <f>(U54-W54)/W54</f>
-        <v>3.5815084935449989E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L59" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M59" s="5">
-        <f>(P53-M53)/M53</f>
-        <v>1.656435033003717E-2</v>
-      </c>
-      <c r="N59" s="5">
-        <f>(P53-N53)/N53</f>
-        <v>2.8701758593630625E-2</v>
-      </c>
-      <c r="O59" s="5">
-        <f>(P53-O53)/O53</f>
-        <v>2.0011691974851635E-2</v>
-      </c>
-      <c r="P59" s="4"/>
-      <c r="S59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T59" s="5">
-        <f>(V54-T54)/T54</f>
-        <v>-6.2219096872884891E-2</v>
-      </c>
-      <c r="U59" s="5">
-        <f>(V54-U54)/U54</f>
-        <v>2.838526975696675E-3</v>
-      </c>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5">
-        <f>(V54-W54)/W54</f>
-        <v>6.4302016777142883E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L60" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="S60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="T60" s="5">
-        <f>(W54-T54)/T54</f>
-        <v>-6.8210690056956888E-2</v>
-      </c>
-      <c r="U60" s="5">
-        <f>(W54-U54)/U54</f>
-        <v>-3.5687270672425256E-3</v>
-      </c>
-      <c r="V60" s="5">
-        <f>(W54-V54)/V54</f>
-        <v>-6.3891183581287333E-3</v>
-      </c>
-      <c r="W60" s="4"/>
-    </row>
-    <row r="61" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="5">
-        <f>(M52-N52)/N52</f>
-        <v>4.4677756046552136E-2</v>
-      </c>
-      <c r="O61" s="5">
-        <f>(M52-O52)/O52</f>
-        <v>0.10290136294934353</v>
-      </c>
-      <c r="P61" s="5">
-        <f>(M52-P52)/P52</f>
-        <v>0.10117783207669008</v>
-      </c>
-      <c r="S61" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-    </row>
-    <row r="62" spans="12:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M62" s="5">
-        <f>(N52-M52)/M52</f>
-        <v>-4.2767021493430972E-2</v>
-      </c>
-      <c r="N62" s="4"/>
-      <c r="O62" s="5">
-        <f>(N52-O52)/O52</f>
-        <v>5.5733556654954643E-2</v>
-      </c>
-      <c r="P62" s="5">
-        <f>(N52-P52)/P52</f>
-        <v>5.408373606417656E-2</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T62" s="4"/>
-      <c r="U62" s="5">
-        <f>(T53-U53)/U53</f>
-        <v>0.10972230995351735</v>
-      </c>
-      <c r="V62" s="5">
-        <f>(T53-V53)/V53</f>
-        <v>0.10328758148801032</v>
-      </c>
-      <c r="W62" s="5">
-        <f>(T53-W53)/W53</f>
-        <v>0.11836270058660391</v>
-      </c>
-    </row>
-    <row r="63" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L63" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M63" s="5">
-        <f>(O52-M52)/M52</f>
-        <v>-9.330060366791823E-2</v>
-      </c>
-      <c r="N63" s="5">
-        <f>(O52-N52)/N52</f>
-        <v>-5.2791309231037385E-2</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="5">
-        <f>(O52-P52)/P52</f>
-        <v>-1.5627244017945823E-3</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T63" s="5">
-        <f>(U53-T53)/T53</f>
-        <v>-9.8873663230320444E-2</v>
-      </c>
-      <c r="U63" s="4"/>
-      <c r="V63" s="5">
-        <f>(U53-V53)/V53</f>
-        <v>-5.7985032902299416E-3</v>
-      </c>
-      <c r="W63" s="5">
-        <f>(U53-W53)/W53</f>
-        <v>7.7860835594523413E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="12:23" x14ac:dyDescent="0.25">
-      <c r="L64" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M64" s="5">
-        <f>(P52-M52)/M52</f>
-        <v>-9.1881464673040827E-2</v>
-      </c>
-      <c r="N64" s="5">
-        <f>(P52-N52)/N52</f>
-        <v>-5.1308766290350714E-2</v>
-      </c>
-      <c r="O64" s="5">
-        <f>(P52-O52)/O52</f>
-        <v>1.5651703316648397E-3</v>
-      </c>
-      <c r="P64" s="4"/>
-      <c r="S64" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T64" s="5">
-        <f>(V53-T53)/T53</f>
-        <v>-9.3618004245734146E-2</v>
-      </c>
-      <c r="U64" s="5">
-        <f>(V53-U53)/U53</f>
-        <v>5.8323220287030573E-3</v>
-      </c>
-      <c r="V64" s="4"/>
-      <c r="W64" s="5">
-        <f>(V53-W53)/W53</f>
-        <v>1.3663816534816514E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="19:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S65" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="T65" s="5">
-        <f>(W53-T53)/T53</f>
-        <v>-0.1058357011768367</v>
-      </c>
-      <c r="U65" s="5">
-        <f>(W53-U53)/U53</f>
-        <v>-7.725928831992069E-3</v>
-      </c>
-      <c r="V65" s="5">
-        <f>(W53-V53)/V53</f>
-        <v>-1.3479633298469624E-2</v>
-      </c>
-      <c r="W65" s="4"/>
-    </row>
+        <f t="shared" si="11"/>
+        <v>1.5119095816943741E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S43" s="5">
+        <f>($V$23-S5)/S5</f>
+        <v>-0.11081141028064088</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" ref="T43:V43" si="12">($V$23-T5)/T5</f>
+        <v>-9.2643125134877283E-3</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="12"/>
+        <v>8.0314967427896414E-3</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="12"/>
+        <v>8.8534064715781353E-3</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="L60:P60"/>
-    <mergeCell ref="S56:W56"/>
-    <mergeCell ref="S61:W61"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="S43:W43"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="R26:V26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18140,13 +16905,13 @@
       <c r="J36">
         <v>28.283641966836871</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -19475,13 +18240,13 @@
       <c r="I34">
         <v>-14.94128081710544</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -20868,13 +19633,13 @@
       <c r="J31">
         <v>-2.1059569045901299</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -22445,13 +21210,13 @@
       <c r="J35">
         <v>-9.2707664974478199</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -22740,8 +21505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22751,26 +21516,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="10">
+      <c r="C1" s="11">
         <v>0.1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11">
         <v>0.15</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11">
         <v>0.5</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -23067,7 +21832,7 @@
         <v>1</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" ref="X7:X38" si="1">($AE$2*W7)+((1-$AE$2)*X6)</f>
+        <f t="shared" ref="X7:X33" si="1">($AE$2*W7)+((1-$AE$2)*X6)</f>
         <v>2.6200000000000006</v>
       </c>
       <c r="AA7">
@@ -24771,7 +23536,7 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="8">
         <v>1</v>
       </c>
       <c r="X35" s="2">
@@ -24832,7 +23597,7 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W36" s="8">
         <v>1</v>
       </c>
       <c r="X36" s="2">
@@ -24892,7 +23657,7 @@
       <c r="V37">
         <v>41</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W37" s="8">
         <v>1</v>
       </c>
       <c r="X37" s="2">

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,21 @@
     <sheet name="0.5" sheetId="3" r:id="rId4"/>
     <sheet name="optimal" sheetId="6" r:id="rId5"/>
     <sheet name="interdemand inter." sheetId="8" r:id="rId6"/>
+    <sheet name="Agregate-Disaggregate" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="77">
   <si>
     <t>X</t>
   </si>
@@ -252,6 +254,15 @@
   </si>
   <si>
     <t>SBJ (0.15)</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>ADIDA</t>
+  </si>
+  <si>
+    <t>MAPA</t>
   </si>
 </sst>
 </file>
@@ -7832,6 +7843,1557 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Agregation of second level</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Agregate-Disaggregate'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Agregate-Disaggregate'!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB4F-40CF-8FE5-274EAA183582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="474635240"/>
+        <c:axId val="474627040"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Agregate-Disaggregate'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Agregate-Disaggregate'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB4F-40CF-8FE5-274EAA183582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="474635240"/>
+        <c:axId val="474627040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="474635240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474627040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474627040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474635240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Agregate-Disaggregate'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIP001271</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Agregate-Disaggregate'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Agregate-Disaggregate'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10B7-4DC0-B208-3894CC7A5056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Agregate-Disaggregate'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADIDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Agregate-Disaggregate'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Agregate-Disaggregate'!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="2">
+                  <c:v>6.1503969999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1503969999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4141709999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4141709999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.757759999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.757759999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.314620000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.314620000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.33146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.33146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.275010000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.275010000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.387080000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.387080000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.366630000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.366630000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.198509999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.198509999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.602440000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.602440000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.743649999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.743649999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.728660000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.728660000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.93779</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.93779</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.430060000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.430060000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.92442</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.92442</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.80935</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.80935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.80935</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.80935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-10B7-4DC0-B208-3894CC7A5056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="529212048"/>
+        <c:axId val="529213032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="529212048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529213032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="529213032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529212048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8060,6 +9622,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10614,6 +12256,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10789,6 +13437,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14230,8 +16943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21505,7 +24218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -23750,4 +26463,878 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>6.1503969999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>6.1503969999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>8.4141709999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>8.4141709999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>15.757759999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>15.757759999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>17.314620000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>17.314620000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>15.33146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>15.33146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>17.275010000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>17.275010000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>16.387080000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>16.387080000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>17.366630000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>17.366630000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>21.198509999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>21.198509999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>20.602440000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>20.602440000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>22.743649999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>22.743649999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>21.728660000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>21.728660000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>21.93779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>21.93779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>18.430060000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>18.430060000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>14.92442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>14.92442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>14.80935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>14.80935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="D36">
+        <v>14.80935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>14.80935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Agregate-Disaggregate'!C2:C37</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="84">
   <si>
     <t>X</t>
   </si>
@@ -358,6 +358,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,9 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1193,7 +1193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1829,7 +1828,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1897,746 +1895,6 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Level 6</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Aggr. 6 level</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>May-18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>May-19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>May-20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Nov-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$G$2:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="5">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F88B-4050-A0BA-1FA2F11ED703}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="375111392"/>
-        <c:axId val="375111720"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>May-18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>May-19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>May-20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Nov-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$2:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F88B-4050-A0BA-1FA2F11ED703}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="375111392"/>
-        <c:axId val="375111720"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="375111392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="375111720"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="375111720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="375111392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3373,7 +2631,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4107,7 +3365,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4152,7 +3410,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4766,6 +4023,745 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="546826488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Level 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aggr. 6 level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F88B-4050-A0BA-1FA2F11ED703}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="375111392"/>
+        <c:axId val="375111720"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIP001271</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F88B-4050-A0BA-1FA2F11ED703}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="375111392"/>
+        <c:axId val="375111720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="375111392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375111720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375111720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375111392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8307,7 +8303,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9845,7 +9840,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12118,121 +12112,121 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00">
                   <c:v>6.1503969999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>6.1503969999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>8.4141709999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>8.4141709999999996</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>15.757759999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>15.757759999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>17.314620000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>17.314620000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>15.33146</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>15.33146</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>17.275010000000002</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>17.275010000000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>16.387080000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>16.387080000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>17.366630000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>17.366630000000001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>21.198509999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>21.198509999999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>20.602440000000001</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>20.602440000000001</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>22.743649999999999</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>22.743649999999999</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>21.728660000000001</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>21.728660000000001</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>21.93779</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>21.93779</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>18.430060000000001</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>18.430060000000001</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>14.92442</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>14.92442</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>14.80935</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>14.80935</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>14.80935</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>14.80935</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>12.24295</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>12.24295</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>12.24295</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>12.24295</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>12.24295</c:v>
                 </c:pt>
               </c:numCache>
@@ -12289,115 +12283,115 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>17.762799999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>17.800249999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>18.912510000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>18.97653</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>19.13109</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>19.00544</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>18.726420000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>18.69923</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>19.049589999999998</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>19.070029999999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>18.84883</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>18.682020000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>18.968540000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>19.197690000000001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>19.631769999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>19.455439999999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>19.484719999999999</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>19.72054</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>19.862719999999999</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>19.863409999999998</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>19.712620000000001</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>19.682400000000001</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>19.757439999999999</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>19.692799999999998</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>19.007960000000001</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>18.879629999999999</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>18.349519999999998</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>18.206040000000002</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>18.268619999999999</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>18.248329999999999</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>18.248329999999999</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>18.46105</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>18.39264</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>18.39264</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>18.39264</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>18.39264</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>18.39264</c:v>
                 </c:pt>
               </c:numCache>
@@ -22726,16 +22720,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22756,16 +22750,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22786,16 +22780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22817,15 +22811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22847,19 +22841,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22877,19 +22871,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22907,19 +22901,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22937,19 +22931,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="15" name="Chart 14"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26398,10 +26392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26632,20 +26626,20 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="R8" s="10" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="R8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -26814,20 +26808,20 @@
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="R13" s="9" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="R13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -26949,7 +26943,7 @@
         <v>8.1536115830139956E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -26988,8 +26982,14 @@
         <v>-8.1469688610468079E-4</v>
       </c>
       <c r="V17" s="4"/>
+      <c r="Y17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -27004,8 +27004,17 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
+      <c r="X18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>3.2121460000000002</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>2.1843254999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -27017,8 +27026,17 @@
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
+      <c r="X19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>13.009081999999999</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>12.744807</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -27049,8 +27067,17 @@
       <c r="V20" t="s">
         <v>54</v>
       </c>
+      <c r="X20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>16.492356999999998</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>15.649894</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -27084,8 +27111,19 @@
       <c r="V21">
         <v>9.1399999999999995E-2</v>
       </c>
+      <c r="X21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>Y20-Y19</f>
+        <v>3.483274999999999</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>Z20-Z19</f>
+        <v>2.905087</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -27122,8 +27160,13 @@
       <c r="V22" s="2">
         <v>2.4009550000000002</v>
       </c>
+      <c r="X22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -27160,8 +27203,16 @@
       <c r="V23" s="2">
         <v>12.142946999999999</v>
       </c>
+      <c r="X23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5">
+        <f>(Y20-Z20)/Z20</f>
+        <v>5.3831866209445169E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -27202,21 +27253,29 @@
       <c r="V24" s="2">
         <v>15.732476999999999</v>
       </c>
+      <c r="X24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y24" s="5">
+        <f>(Z20-Y20)/Y20</f>
+        <v>-5.1082025449727939E-2</v>
+      </c>
+      <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
       <c r="R25" t="s">
         <v>60</v>
       </c>
@@ -27236,8 +27295,13 @@
         <f>V24-V23</f>
         <v>3.5895299999999999</v>
       </c>
+      <c r="X25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -27260,15 +27324,23 @@
         <f>(L23-O23)/O23</f>
         <v>-1.6294443460130585E-2</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="X26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="5">
+        <f>(Y19-Z19)/Z19</f>
+        <v>2.0735896589097004E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -27310,8 +27382,16 @@
         <f>(S24-O6)/O6</f>
         <v>8.4027183892548388E-2</v>
       </c>
+      <c r="X27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y27" s="5">
+        <f>(Z19-Y19)/Y19</f>
+        <v>-2.0314654024011811E-2</v>
+      </c>
+      <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -27354,7 +27434,7 @@
         <v>7.036982188689396E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -27397,20 +27477,20 @@
         <v>1.3702569436419006E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
       <c r="R30" s="4" t="s">
         <v>69</v>
       </c>
@@ -27431,7 +27511,7 @@
         <v>9.3120801433540623E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -27474,7 +27554,7 @@
         <v>1.6579991525097312E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -27610,13 +27690,13 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -27816,7 +27896,9 @@
     <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="X25:Z25"/>
     <mergeCell ref="R35:V35"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="K8:O8"/>
@@ -29075,13 +29157,13 @@
       <c r="J36">
         <v>28.283641966836871</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -29234,13 +29316,13 @@
       <c r="F41">
         <v>18.391079999999999</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -30410,13 +30492,13 @@
       <c r="I34">
         <v>-14.94128081710544</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -30596,13 +30678,13 @@
       <c r="E39">
         <v>18.380500000000001</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40">
@@ -31803,13 +31885,13 @@
       <c r="J31">
         <v>-2.1059569045901299</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -32037,13 +32119,13 @@
       <c r="J36">
         <v>36.996688846731558</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -32161,8 +32243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29:P44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33380,13 +33462,13 @@
       <c r="J35">
         <v>-9.2707664974478199</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -33557,13 +33639,13 @@
       <c r="F40">
         <v>21.985949999999999</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -33686,26 +33768,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="11">
+      <c r="C1" s="12">
         <v>0.1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12">
         <v>0.15</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12">
         <v>0.5</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -35926,8 +36008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35969,7 +36051,7 @@
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6.1503969999999999</v>
       </c>
     </row>
@@ -35980,7 +36062,7 @@
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>6.1503969999999999</v>
       </c>
     </row>
@@ -35991,10 +36073,10 @@
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>8.4141709999999996</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>17.762799999999999</v>
       </c>
     </row>
@@ -36005,10 +36087,10 @@
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>8.4141709999999996</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>17.800249999999998</v>
       </c>
     </row>
@@ -36019,10 +36101,10 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>15.757759999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>18.912510000000001</v>
       </c>
     </row>
@@ -36033,10 +36115,10 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>15.757759999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>18.97653</v>
       </c>
     </row>
@@ -36047,10 +36129,10 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>17.314620000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>19.13109</v>
       </c>
     </row>
@@ -36061,10 +36143,10 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>17.314620000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>19.00544</v>
       </c>
     </row>
@@ -36075,10 +36157,10 @@
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>15.33146</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>18.726420000000001</v>
       </c>
     </row>
@@ -36089,10 +36171,10 @@
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>15.33146</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>18.69923</v>
       </c>
     </row>
@@ -36103,10 +36185,10 @@
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>17.275010000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>19.049589999999998</v>
       </c>
     </row>
@@ -36117,10 +36199,10 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>17.275010000000002</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>19.070029999999999</v>
       </c>
     </row>
@@ -36131,10 +36213,10 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>16.387080000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>18.84883</v>
       </c>
     </row>
@@ -36145,10 +36227,10 @@
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>16.387080000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>18.682020000000001</v>
       </c>
     </row>
@@ -36159,10 +36241,10 @@
       <c r="B18">
         <v>45</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>17.366630000000001</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>18.968540000000001</v>
       </c>
     </row>
@@ -36173,10 +36255,10 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>17.366630000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>19.197690000000001</v>
       </c>
     </row>
@@ -36187,10 +36269,10 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>21.198509999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>19.631769999999999</v>
       </c>
     </row>
@@ -36201,10 +36283,10 @@
       <c r="B21">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>21.198509999999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>19.455439999999999</v>
       </c>
     </row>
@@ -36215,10 +36297,10 @@
       <c r="B22">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>20.602440000000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>19.484719999999999</v>
       </c>
     </row>
@@ -36229,10 +36311,10 @@
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>20.602440000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>19.72054</v>
       </c>
       <c r="I23" t="s">
@@ -36249,10 +36331,10 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>22.743649999999999</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>19.862719999999999</v>
       </c>
       <c r="H24" t="s">
@@ -36272,10 +36354,10 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>22.743649999999999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>19.863409999999998</v>
       </c>
       <c r="H25" t="s">
@@ -36295,10 +36377,10 @@
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>21.728660000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>19.712620000000001</v>
       </c>
       <c r="H26" t="s">
@@ -36318,10 +36400,10 @@
       <c r="B27">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>21.728660000000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>19.682400000000001</v>
       </c>
       <c r="H27" t="s">
@@ -36343,17 +36425,17 @@
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>21.93779</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>19.757439999999999</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -36362,10 +36444,10 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>21.93779</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>19.692799999999998</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -36384,10 +36466,10 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>18.430060000000001</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>19.007960000000001</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -36406,17 +36488,17 @@
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>18.430060000000001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>18.879629999999999</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -36425,10 +36507,10 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>14.92442</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>18.349519999999998</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -36447,10 +36529,10 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>14.92442</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>18.206040000000002</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -36469,10 +36551,10 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>14.80935</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>18.268619999999999</v>
       </c>
     </row>
@@ -36483,10 +36565,10 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>14.80935</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>18.248329999999999</v>
       </c>
     </row>
@@ -36497,10 +36579,10 @@
       <c r="B36">
         <v>41</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>14.80935</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>18.248329999999999</v>
       </c>
     </row>
@@ -36511,10 +36593,10 @@
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>14.80935</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>18.46105</v>
       </c>
       <c r="H37" s="4"/>
@@ -36522,10 +36604,10 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>12.24295</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>18.39264</v>
       </c>
       <c r="H38" s="4"/>
@@ -36533,34 +36615,34 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>12.24295</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>18.39264</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>12.24295</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>18.39264</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>12.24295</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>18.39264</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>12.24295</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>18.39264</v>
       </c>
     </row>
@@ -36598,15 +36680,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B64" sqref="B64:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="10" width="8.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="10" width="8.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -36616,28 +36699,28 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -36656,7 +36739,7 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>10</v>
       </c>
     </row>
@@ -36667,7 +36750,7 @@
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>26</v>
       </c>
     </row>
@@ -36678,10 +36761,10 @@
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>29</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>39</v>
       </c>
     </row>
@@ -36700,16 +36783,16 @@
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>71</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>84</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>110</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>110</v>
       </c>
     </row>
@@ -36728,13 +36811,13 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>43</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>114</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>153</v>
       </c>
     </row>
@@ -36745,10 +36828,10 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>50</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <v>160</v>
       </c>
     </row>
@@ -36759,7 +36842,7 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>20</v>
       </c>
     </row>
@@ -36770,7 +36853,7 @@
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>79</v>
       </c>
     </row>
@@ -36781,19 +36864,19 @@
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>45</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>58</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>65</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>108</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>179</v>
       </c>
     </row>
@@ -36812,7 +36895,7 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>28</v>
       </c>
     </row>
@@ -36823,10 +36906,10 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>30</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <v>95</v>
       </c>
     </row>
@@ -36837,13 +36920,13 @@
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>40</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>68</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <v>97</v>
       </c>
     </row>
@@ -36862,16 +36945,16 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>63</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>101</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>131</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <v>189</v>
       </c>
     </row>
@@ -36890,13 +36973,13 @@
       <c r="B21">
         <v>37</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>38</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>101</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>169</v>
       </c>
     </row>
@@ -36907,10 +36990,10 @@
       <c r="B22">
         <v>45</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <v>83</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>146</v>
       </c>
     </row>
@@ -36921,10 +37004,10 @@
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>57</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="9">
         <v>196</v>
       </c>
     </row>
@@ -36943,16 +37026,16 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="9">
         <v>38</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>50</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>95</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <v>133</v>
       </c>
     </row>
@@ -36971,10 +37054,10 @@
       <c r="B27">
         <v>27</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <v>45</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="9">
         <v>95</v>
       </c>
     </row>
@@ -36985,10 +37068,10 @@
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <v>59</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="9">
         <v>192</v>
       </c>
     </row>
@@ -36999,13 +37082,13 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="9">
         <v>18</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="9">
         <v>63</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <v>158</v>
       </c>
     </row>
@@ -37016,7 +37099,7 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="9">
         <v>106</v>
       </c>
     </row>
@@ -37027,13 +37110,13 @@
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <v>11</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
         <v>15</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="9">
         <v>74</v>
       </c>
     </row>
@@ -37044,7 +37127,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="9">
         <v>30</v>
       </c>
     </row>
@@ -37055,10 +37138,10 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="9">
         <v>29</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="9">
         <v>40</v>
       </c>
     </row>
@@ -37069,7 +37152,7 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <v>29</v>
       </c>
     </row>
@@ -37080,7 +37163,7 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <v>0</v>
       </c>
     </row>
@@ -37099,30 +37182,33 @@
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="9">
         <v>101</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="9">
         <v>101</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <v>101</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="9">
         <v>129</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="9">
         <v>130</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="9">
         <v>136</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="9">
         <v>141</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="9">
         <v>145</v>
       </c>
+    </row>
+    <row r="64" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="80">
   <si>
     <t>X</t>
   </si>
@@ -232,24 +232,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>SES (0.1)</t>
-  </si>
-  <si>
-    <t>SES (0.15)</t>
-  </si>
-  <si>
-    <t>Croston (0.1)</t>
-  </si>
-  <si>
-    <t>Croston (0.15)</t>
-  </si>
-  <si>
-    <t>SBA (0.1)</t>
-  </si>
-  <si>
-    <t>SBA (0.15)</t>
-  </si>
-  <si>
     <t>SBJ (0.1)</t>
   </si>
   <si>
@@ -284,6 +266,12 @@
   </si>
   <si>
     <t>Aggr. 9 level</t>
+  </si>
+  <si>
+    <t>SBA (0.5)</t>
+  </si>
+  <si>
+    <t>SBJ (0.0914)</t>
   </si>
 </sst>
 </file>
@@ -361,10 +349,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1934,7 +1922,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2564,7 +2551,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2671,7 +2657,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3298,7 +3283,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4142,7 +4126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4775,7 +4758,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11638,7 +11620,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12534,7 +12515,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12646,7 +12626,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13315,7 +13294,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13422,7 +13400,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14073,7 +14050,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14185,7 +14161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14827,7 +14802,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26392,20 +26366,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26413,7 +26391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -26427,7 +26405,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -26459,7 +26437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -26497,7 +26475,7 @@
         <v>2.1649449999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -26534,8 +26512,20 @@
       <c r="V5" s="2">
         <v>12.036384</v>
       </c>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -26572,8 +26562,26 @@
       <c r="V6" s="2">
         <v>15.774134</v>
       </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3.2121460000000002</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2.1843254999999999</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1.840646</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>2.1843254999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -26618,30 +26626,66 @@
         <f>V6-V5</f>
         <v>3.7377500000000001</v>
       </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>13.009081999999999</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>12.744807</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>11.962090999999999</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>12.744807</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="R8" s="11" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="R8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="X8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>16.492356999999998</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>15.649894</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>15.5754</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>15.649894</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -26653,35 +26697,57 @@
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
-        <f>(L6-M6)/M6</f>
-        <v>0.12053679712792387</v>
+        <f>(M6-L6)/L6</f>
+        <v>-0.10757058352467744</v>
       </c>
       <c r="N9" s="5">
-        <f>(L6-N6)/N6</f>
-        <v>0.12125110600575575</v>
+        <f>(N6-L6)/L6</f>
+        <v>-0.10813911830837769</v>
       </c>
       <c r="O9" s="5">
-        <f>(L6-O6)/O6</f>
-        <v>0.1211546412933215</v>
+        <f>(O6-L6)/L6</f>
+        <v>-0.1080623821469999</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5">
-        <f>(S6-T6)/T6</f>
-        <v>8.2792442473829816E-2</v>
+        <f>(T6-S6)/S6</f>
+        <v>-7.6461969280720063E-2</v>
       </c>
       <c r="U9" s="5">
-        <f>(S6-U6)/U6</f>
-        <v>8.422801533115841E-2</v>
+        <f>(U6-S6)/S6</f>
+        <v>-7.7684780452230276E-2</v>
       </c>
       <c r="V9" s="5">
-        <f>(S6-V6)/V6</f>
-        <v>8.4516081833715909E-2</v>
+        <f>(V6-S6)/S6</f>
+        <v>-7.7929763559443824E-2</v>
+      </c>
+      <c r="X9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>Y8-Y7</f>
+        <v>3.483274999999999</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>Z8-Z7</f>
+        <v>2.905087</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="2">
+        <f>AC8-AC7</f>
+        <v>3.613309000000001</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>AD8-AD7</f>
+        <v>2.905087</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -26691,37 +26757,41 @@
       <c r="K10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="5">
-        <f>(M6-L6)/L6</f>
-        <v>-0.10757058352467744</v>
-      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5">
-        <f>(M6-N6)/N6</f>
-        <v>6.3747025502665215E-4</v>
+        <f>(N6-M6)/M6</f>
+        <v>-6.3706414558329879E-4</v>
       </c>
       <c r="O10" s="5">
-        <f>(M6-O6)/O6</f>
-        <v>5.5138230799848457E-4</v>
+        <f>(O6-M6)/M6</f>
+        <v>-5.5107845308913195E-4</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S10" s="5">
-        <f>(T6-S6)/S6</f>
-        <v>-7.6461969280720063E-2</v>
-      </c>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5">
-        <f>(T6-U6)/U6</f>
-        <v>1.3258061296113018E-3</v>
+        <f>(U6-T6)/T6</f>
+        <v>-1.3240506950838436E-3</v>
       </c>
       <c r="V10" s="5">
-        <f>(T6-V6)/V6</f>
-        <v>1.5918465000994504E-3</v>
-      </c>
+        <f>(V6-T6)/T6</f>
+        <v>-1.5893165521084264E-3</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AB10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -26731,99 +26801,129 @@
       <c r="K11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="5">
-        <f>(N6-L6)/L6</f>
-        <v>-0.10813911830837769</v>
-      </c>
-      <c r="M11" s="5">
-        <f>(N6-M6)/M6</f>
-        <v>-6.3706414558329879E-4</v>
-      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5">
-        <f>(N6-O6)/O6</f>
-        <v>-8.6033103483749057E-5</v>
+        <f>(O6-N6)/N6</f>
+        <v>8.6040505815489668E-5</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="5">
-        <f>(U6-S6)/S6</f>
-        <v>-7.7684780452230276E-2</v>
-      </c>
-      <c r="T11" s="5">
-        <f>(U6-T6)/T6</f>
-        <v>-1.3240506950838436E-3</v>
-      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5">
-        <f>(U6-V6)/V6</f>
-        <v>2.6568811955068341E-4</v>
+        <f>(V6-U6)/U6</f>
+        <v>-2.6561754812380275E-4</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5">
+        <f>(Z8-Y8)/Y8</f>
+        <v>-5.1082025449727939E-2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5">
+        <f>(AD8-AC8)/AC8</f>
+        <v>4.7827985156079214E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="5">
-        <f>(O6-L6)/L6</f>
-        <v>-0.1080623821469999</v>
-      </c>
-      <c r="M12" s="5">
-        <f>(O6-M6)/M6</f>
-        <v>-5.5107845308913195E-4</v>
-      </c>
-      <c r="N12" s="5">
-        <f>(O6-N6)/N6</f>
-        <v>8.6040505815489668E-5</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="R12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="5">
-        <f>(V6-S6)/S6</f>
-        <v>-7.7929763559443824E-2</v>
-      </c>
-      <c r="T12" s="5">
-        <f>(V6-T6)/T6</f>
-        <v>-1.5893165521084264E-3</v>
-      </c>
-      <c r="U12" s="5">
-        <f>(V6-U6)/U6</f>
-        <v>-2.6561754812380275E-4</v>
-      </c>
-      <c r="V12" s="4"/>
+      <c r="K12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="R12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="X12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AB12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="R13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="K13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5">
+        <f>(M5-L5)/L5</f>
+        <v>-0.12697733786540796</v>
+      </c>
+      <c r="N13" s="5">
+        <f>(N5-L5)/L5</f>
+        <v>-0.1335493576210677</v>
+      </c>
+      <c r="O13" s="5">
+        <f>(O5-L5)/L5</f>
+        <v>-0.13399466428358955</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5">
+        <f>(T5-S5)/S5</f>
+        <v>-0.10249665884629357</v>
+      </c>
+      <c r="U13" s="5">
+        <f>(U5-S5)/S5</f>
+        <v>-0.11789602547880962</v>
+      </c>
+      <c r="V13" s="5">
+        <f>(V5-S5)/S5</f>
+        <v>-0.1186146728400726</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="5">
+        <f>(Z7-Y7)/Y7</f>
+        <v>-2.0314654024011811E-2</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="5">
+        <f>(AD7-AC7)/AC7</f>
+        <v>6.5433041765022584E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -26831,39 +26931,33 @@
         <v>22</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5">
-        <f>(L5-M5)/M5</f>
-        <v>0.14544563775119065</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="5">
-        <f>(L5-N5)/N5</f>
-        <v>0.15413383185266477</v>
+        <f>(N5-M5)/M5</f>
+        <v>-7.5278913603350969E-3</v>
       </c>
       <c r="O14" s="5">
-        <f>(L5-O5)/O5</f>
-        <v>0.15472729642334282</v>
+        <f>(O5-M5)/M5</f>
+        <v>-8.0379659343822688E-3</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5">
-        <f>(S5-T5)/T5</f>
-        <v>0.11420198025618267</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="5">
-        <f>(S5-U5)/U5</f>
-        <v>0.13365320742694087</v>
+        <f>(U5-T5)/T5</f>
+        <v>-1.7158004796640383E-2</v>
       </c>
       <c r="V14" s="5">
-        <f>(S5-V5)/V5</f>
-        <v>0.1345775442192606</v>
+        <f>(V5-T5)/T5</f>
+        <v>-1.7958723109665471E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -26871,125 +26965,60 @@
         <v>6</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="5">
-        <f>(M5-L5)/L5</f>
-        <v>-0.12697733786540796</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5">
-        <f>(M5-N5)/N5</f>
-        <v>7.584990343610991E-3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="5">
-        <f>(M5-O5)/O5</f>
-        <v>8.1030983629869074E-3</v>
+        <f>(O5-N5)/N5</f>
+        <v>-5.1394348476584161E-4</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="5">
-        <f>(T5-S5)/S5</f>
-        <v>-0.10249665884629357</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5">
-        <f>(T5-U5)/U5</f>
-        <v>1.7457541375295246E-2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="4"/>
       <c r="V15" s="5">
-        <f>(T5-V5)/V5</f>
-        <v>1.82871367347535E-2</v>
-      </c>
+        <f>(V5-U5)/U5</f>
+        <v>-8.1469688610468079E-4</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="5">
-        <f>(N5-L5)/L5</f>
-        <v>-0.1335493576210677</v>
-      </c>
-      <c r="M16" s="5">
-        <f>(N5-M5)/M5</f>
-        <v>-7.5278913603350969E-3</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5">
-        <f>(N5-O5)/O5</f>
-        <v>5.1420775849313519E-4</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S16" s="5">
-        <f>(U5-S5)/S5</f>
-        <v>-0.11789602547880962</v>
-      </c>
-      <c r="T16" s="5">
-        <f>(U5-T5)/T5</f>
-        <v>-1.7158004796640383E-2</v>
-      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="5">
-        <f>(U5-V5)/V5</f>
-        <v>8.1536115830139956E-4</v>
-      </c>
+      <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="5">
-        <f>(O5-L5)/L5</f>
-        <v>-0.13399466428358955</v>
-      </c>
-      <c r="M17" s="5">
-        <f>(O5-M5)/M5</f>
-        <v>-8.0379659343822688E-3</v>
-      </c>
-      <c r="N17" s="5">
-        <f>(O5-N5)/N5</f>
-        <v>-5.1394348476584161E-4</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="R17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" s="5">
-        <f>(V5-S5)/S5</f>
-        <v>-0.1186146728400726</v>
-      </c>
-      <c r="T17" s="5">
-        <f>(V5-T5)/T5</f>
-        <v>-1.7958723109665471E-2</v>
-      </c>
-      <c r="U17" s="5">
-        <f>(V5-U5)/U5</f>
-        <v>-8.1469688610468079E-4</v>
-      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17" s="4"/>
-      <c r="Y17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -27004,17 +27033,8 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="X18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>3.2121460000000002</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>2.1843254999999999</v>
-      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -27026,17 +27046,8 @@
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="X19" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>13.009081999999999</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>12.744807</v>
-      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -27067,17 +27078,20 @@
       <c r="V20" t="s">
         <v>54</v>
       </c>
-      <c r="X20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>16.492356999999998</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>15.649894</v>
+      <c r="Y20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -27112,18 +27126,22 @@
         <v>9.1399999999999995E-2</v>
       </c>
       <c r="X21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y21" s="2">
-        <f>Y20-Y19</f>
-        <v>3.483274999999999</v>
+        <v>1.840646</v>
       </c>
       <c r="Z21" s="2">
-        <f>Z20-Z19</f>
-        <v>2.905087</v>
+        <v>2.1649449999999999</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>5.1535289999999998</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>2.4009550000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -27160,13 +27178,23 @@
       <c r="V22" s="2">
         <v>2.4009550000000002</v>
       </c>
-      <c r="X22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
+      <c r="X22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>11.962090999999999</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>12.036384</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>12.228700999999999</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>12.142946999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -27203,16 +27231,23 @@
       <c r="V23" s="2">
         <v>12.142946999999999</v>
       </c>
-      <c r="X23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5">
-        <f>(Y20-Z20)/Z20</f>
-        <v>5.3831866209445169E-2</v>
+      <c r="X23" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>15.5754</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>15.774134</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>16.921008</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>15.732476999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -27253,29 +27288,40 @@
       <c r="V24" s="2">
         <v>15.732476999999999</v>
       </c>
-      <c r="X24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y24" s="5">
-        <f>(Z20-Y20)/Y20</f>
-        <v>-5.1082025449727939E-2</v>
-      </c>
-      <c r="Z24" s="5"/>
+      <c r="X24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>Y23-Y22</f>
+        <v>3.613309000000001</v>
+      </c>
+      <c r="Z24" s="2">
+        <f>Z23-Z22</f>
+        <v>3.7377500000000001</v>
+      </c>
+      <c r="AA24" s="2">
+        <f>AA23-AA22</f>
+        <v>4.6923070000000013</v>
+      </c>
+      <c r="AB24" s="2">
+        <f>AB23-AB22</f>
+        <v>3.5895299999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="R25" t="s">
         <v>60</v>
       </c>
@@ -27296,12 +27342,14 @@
         <v>3.5895299999999999</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
     </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -27313,34 +27361,42 @@
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5">
-        <f>(L23-M23)/M23</f>
-        <v>1.1939635950889808E-2</v>
+        <f>(M23-L23)/L23</f>
+        <v>-1.1798763015810211E-2</v>
       </c>
       <c r="N26" s="5">
-        <f>(L23-N23)/N23</f>
-        <v>3.3911691312952801E-3</v>
+        <f>(N23-L23)/L23</f>
+        <v>-3.3797079699547771E-3</v>
       </c>
       <c r="O26" s="5">
-        <f>(L23-O23)/O23</f>
-        <v>-1.6294443460130585E-2</v>
-      </c>
-      <c r="R26" s="11" t="s">
+        <f>(O23-L23)/L23</f>
+        <v>1.656435033003717E-2</v>
+      </c>
+      <c r="R26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="X26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y26" s="4"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="X26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y26" s="5"/>
       <c r="Z26" s="5">
-        <f>(Y19-Z19)/Z19</f>
-        <v>2.0735896589097004E-2</v>
+        <f>(Z23-Y23)/Y23</f>
+        <v>1.2759479692335348E-2</v>
+      </c>
+      <c r="AA26" s="5">
+        <f>(AA23-Y23)/Y23</f>
+        <v>8.6393158442158807E-2</v>
+      </c>
+      <c r="AB26" s="5">
+        <f>(AB23-Y23)/Y23</f>
+        <v>1.0084941638737962E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -27350,48 +27406,47 @@
       <c r="K27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="5">
-        <f>(M23-L23)/L23</f>
-        <v>-1.1798763015810211E-2</v>
-      </c>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5">
-        <f>(M23-N23)/N23</f>
-        <v>-8.4476054854416144E-3</v>
+        <f>(N23-M23)/M23</f>
+        <v>8.5195754981534505E-3</v>
       </c>
       <c r="O27" s="5">
-        <f>(M23-O23)/O23</f>
-        <v>-2.7900952199080196E-2</v>
+        <f>(O23-M23)/M23</f>
+        <v>2.8701758593630625E-2</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="5">
-        <f>(S24-L6)/L6</f>
-        <v>-3.3115375910984304E-2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="S27" s="5"/>
       <c r="T27" s="5">
-        <f>(S24-M6)/M6</f>
-        <v>8.342979986894232E-2</v>
+        <f>(T24-S24)/S24</f>
+        <v>-6.4873478729201448E-2</v>
       </c>
       <c r="U27" s="5">
-        <f>(S24-N6)/N6</f>
-        <v>8.412045413976825E-2</v>
+        <f>(U24-S24)/S24</f>
+        <v>-6.2219096872884891E-2</v>
       </c>
       <c r="V27" s="5">
-        <f>(S24-O6)/O6</f>
-        <v>8.4027183892548388E-2</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y27" s="5">
-        <f>(Z19-Y19)/Y19</f>
-        <v>-2.0314654024011811E-2</v>
-      </c>
-      <c r="Z27" s="4"/>
+        <f>(V24-S24)/S24</f>
+        <v>-6.8210690056956888E-2</v>
+      </c>
+      <c r="X27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5">
+        <f>(AA23-Z23)/Z23</f>
+        <v>7.2705988170253935E-2</v>
+      </c>
+      <c r="AB27" s="5">
+        <f>(AB23-Z23)/Z23</f>
+        <v>-2.6408422801531117E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -27401,117 +27456,117 @@
       <c r="K28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="5">
-        <f>(N23-L23)/L23</f>
-        <v>-3.3797079699547771E-3</v>
-      </c>
-      <c r="M28" s="5">
-        <f>(N23-M23)/M23</f>
-        <v>8.5195754981534505E-3</v>
-      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5">
-        <f>(N23-O23)/O23</f>
-        <v>-1.9619080969657181E-2</v>
+        <f>(O23-N23)/N23</f>
+        <v>2.0011691974851635E-2</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S28" s="5">
-        <f>($S$24-S6)/S6</f>
-        <v>-1.3043845253915689E-2</v>
-      </c>
-      <c r="T28" s="5">
-        <f>($S$24-T6)/T6</f>
-        <v>6.8668665412091767E-2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
       <c r="U28" s="5">
-        <f t="shared" ref="U28:V28" si="0">($S$24-U6)/U6</f>
-        <v>7.0085512879218659E-2</v>
+        <f>(U24-T24)/T24</f>
+        <v>2.838526975696675E-3</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="0"/>
-        <v>7.036982188689396E-2</v>
+        <f>(V24-T24)/T24</f>
+        <v>-3.5687270672425256E-3</v>
+      </c>
+      <c r="X28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5">
+        <f>(AB23-AA23)/AA23</f>
+        <v>-7.023996442765118E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="5">
-        <f>(O23-L23)/L23</f>
-        <v>1.656435033003717E-2</v>
-      </c>
-      <c r="M29" s="5">
-        <f>(O23-M23)/M23</f>
-        <v>2.8701758593630625E-2</v>
-      </c>
-      <c r="N29" s="5">
-        <f>(O23-N23)/N23</f>
-        <v>2.0011691974851635E-2</v>
-      </c>
-      <c r="O29" s="4"/>
+      <c r="K29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
       <c r="R29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S29" s="5">
-        <f>($T$24-L6)/L6</f>
-        <v>-9.5840545005415001E-2</v>
-      </c>
-      <c r="T29" s="5">
-        <f>($T$24-M6)/M6</f>
-        <v>1.3143939792561506E-2</v>
-      </c>
-      <c r="U29" s="5">
-        <f>($T$24-N6)/N6</f>
-        <v>1.3789788918239777E-2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="V29" s="5">
-        <f>($T$24-O6)/O6</f>
-        <v>1.3702569436419006E-2</v>
-      </c>
+        <f>(V24-U24)/U24</f>
+        <v>-6.3891183581287333E-3</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5">
+        <f>(M22-L22)/L22</f>
+        <v>-4.2767021493430972E-2</v>
+      </c>
+      <c r="N30" s="5">
+        <f>(N22-L22)/L22</f>
+        <v>-9.330060366791823E-2</v>
+      </c>
+      <c r="O30" s="5">
+        <f>(O22-L22)/L22</f>
+        <v>-9.1881464673040827E-2</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="R30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="5">
-        <f>($T$24-S6)/S6</f>
-        <v>-7.707112436549024E-2</v>
-      </c>
-      <c r="T30" s="5">
-        <f>($T$24-T6)/T6</f>
-        <v>-6.5958852208365952E-4</v>
-      </c>
-      <c r="U30" s="5">
-        <f t="shared" ref="U30:V30" si="1">($T$24-U6)/U6</f>
-        <v>6.6534312102204242E-4</v>
-      </c>
-      <c r="V30" s="5">
-        <f t="shared" si="1"/>
-        <v>9.3120801433540623E-4</v>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="X30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="5">
+        <f>(Z22-Y22)/Y22</f>
+        <v>6.2107034631320593E-3</v>
+      </c>
+      <c r="AA30" s="5">
+        <f>(AA22-Y22)/Y22</f>
+        <v>2.2287909363003511E-2</v>
+      </c>
+      <c r="AB30" s="5">
+        <f>(AB22-Y22)/Y22</f>
+        <v>1.5119095816943741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -27519,42 +27574,49 @@
         <v>6</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5">
+        <f>(N22-M22)/M22</f>
+        <v>-5.2791309231037385E-2</v>
+      </c>
+      <c r="O31" s="5">
+        <f>(O22-M22)/M22</f>
+        <v>-5.1308766290350714E-2</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5">
-        <f>(L22-M22)/M22</f>
-        <v>4.4677756046552136E-2</v>
-      </c>
-      <c r="N31" s="5">
-        <f>(L22-N22)/N22</f>
-        <v>0.10290136294934353</v>
-      </c>
-      <c r="O31" s="5">
-        <f>(L22-O22)/O22</f>
-        <v>0.10117783207669008</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S31" s="5">
-        <f>($U$24-L6)/L6</f>
-        <v>-9.3274064002081658E-2</v>
-      </c>
+      <c r="S31" s="4"/>
       <c r="T31" s="5">
-        <f>($U$24-M6)/M6</f>
-        <v>1.6019776195926299E-2</v>
+        <f>(T23-S23)/S23</f>
+        <v>-9.8873663230320444E-2</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" ref="U31:V31" si="2">($U$24-N6)/N6</f>
-        <v>1.6667458581770038E-2</v>
+        <f>(U23-S23)/S23</f>
+        <v>-9.3618004245734146E-2</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6579991525097312E-2</v>
+        <f>(V23-S23)/S23</f>
+        <v>-0.1058357011768367</v>
+      </c>
+      <c r="X31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="5">
+        <f>(AA22-Z22)/Z22</f>
+        <v>1.5977971457208345E-2</v>
+      </c>
+      <c r="AB31" s="5">
+        <f>(AB22-Z22)/Z22</f>
+        <v>8.8534064715781353E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -27562,39 +27624,37 @@
         <v>1</v>
       </c>
       <c r="K32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5">
+        <f>(O22-N22)/N22</f>
+        <v>1.5651703316648397E-3</v>
+      </c>
+      <c r="R32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="5">
-        <f>(M22-L22)/L22</f>
-        <v>-4.2767021493430972E-2</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5">
-        <f>(M22-N22)/N22</f>
-        <v>5.5733556654954643E-2</v>
-      </c>
-      <c r="O32" s="5">
-        <f>(M22-O22)/O22</f>
-        <v>5.408373606417656E-2</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S32" s="5">
-        <f>($U$24-S6)/S6</f>
-        <v>-7.4451365855352281E-2</v>
-      </c>
-      <c r="T32" s="5">
-        <f>($U$24-T6)/T6</f>
-        <v>2.1770661938002212E-3</v>
-      </c>
+      <c r="S32" s="5"/>
+      <c r="T32" s="4"/>
       <c r="U32" s="5">
-        <f>($U$24-U6)/U6</f>
-        <v>3.5057586911158328E-3</v>
+        <f>(U23-T23)/T23</f>
+        <v>5.8323220287030573E-3</v>
       </c>
       <c r="V32" s="5">
-        <f>($U$24-V6)/V6</f>
-        <v>3.7723782491007572E-3</v>
+        <f>(V23-T23)/T23</f>
+        <v>-7.725928831992069E-3</v>
+      </c>
+      <c r="X32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="5">
+        <f>(AB22-AA22)/AA22</f>
+        <v>-7.0125191547327614E-3</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -27604,40 +27664,15 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="5">
-        <f>(N22-L22)/L22</f>
-        <v>-9.330060366791823E-2</v>
-      </c>
-      <c r="M33" s="5">
-        <f>(N22-M22)/M22</f>
-        <v>-5.2791309231037385E-2</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5">
-        <f>(N22-O22)/O22</f>
-        <v>-1.5627244017945823E-3</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S33" s="5">
-        <f>($V$24-L6)/L6</f>
-        <v>-9.9067243325557428E-2</v>
-      </c>
-      <c r="T33" s="5">
-        <f t="shared" ref="T33:V33" si="3">($V$24-M6)/M6</f>
-        <v>9.5283055916110596E-3</v>
-      </c>
-      <c r="U33" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0171849858033167E-2</v>
-      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="4"/>
       <c r="V33" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0084941638737962E-2</v>
+        <f>(V23-U23)/U23</f>
+        <v>-1.3479633298469624E-2</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -27647,41 +27682,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="5">
-        <f>(O22-L22)/L22</f>
-        <v>-9.1881464673040827E-2</v>
-      </c>
-      <c r="M34" s="5">
-        <f>(O22-M22)/M22</f>
-        <v>-5.1308766290350714E-2</v>
-      </c>
-      <c r="N34" s="5">
-        <f>(O22-N22)/N22</f>
-        <v>1.5651703316648397E-3</v>
-      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="4"/>
-      <c r="R34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S34" s="5">
-        <f>($V$24-S6)/S6</f>
-        <v>-8.0364805625106825E-2</v>
-      </c>
-      <c r="T34" s="5">
-        <f t="shared" ref="T34:V34" si="4">($V$24-T6)/T6</f>
-        <v>-4.2259616979141825E-3</v>
-      </c>
-      <c r="U34" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.9057583742254783E-3</v>
-      </c>
-      <c r="V34" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.6408422801531117E-3</v>
-      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -27690,13 +27700,6 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -27705,25 +27708,11 @@
       <c r="B36">
         <v>41</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S36" s="5">
-        <f>($S$23-L5)/L5</f>
-        <v>-1.6848967776839655E-2</v>
-      </c>
-      <c r="T36" s="5">
-        <f t="shared" ref="T36:V36" si="5">($S$23-M5)/M5</f>
-        <v>0.12614606111059928</v>
-      </c>
-      <c r="U36" s="5">
-        <f t="shared" si="5"/>
-        <v>0.13468786810961875</v>
-      </c>
-      <c r="V36" s="5">
-        <f t="shared" si="5"/>
-        <v>0.13527133341486874</v>
-      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -27732,181 +27721,87 @@
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S37" s="5">
-        <f>($S$23-S5)/S5</f>
-        <v>-5.5646474706638003E-3</v>
-      </c>
-      <c r="T37" s="5">
-        <f t="shared" ref="T37:V37" si="6">($S$23-T5)/T5</f>
-        <v>0.10800183902494151</v>
-      </c>
-      <c r="U37" s="5">
-        <f t="shared" si="6"/>
-        <v>0.12734482697362265</v>
-      </c>
-      <c r="V37" s="5">
-        <f t="shared" si="6"/>
-        <v>0.12826402015754895</v>
-      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="R38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S38" s="5">
-        <f>($T$23-L5)/L5</f>
-        <v>-0.11405671184141433</v>
-      </c>
-      <c r="T38" s="5">
-        <f t="shared" ref="T38:V38" si="7">($T$23-M5)/M5</f>
-        <v>1.4799874716198029E-2</v>
-      </c>
-      <c r="U38" s="5">
-        <f t="shared" si="7"/>
-        <v>2.2497121966618034E-2</v>
-      </c>
-      <c r="V38" s="5">
-        <f t="shared" si="7"/>
-        <v>2.3022897919770174E-2</v>
-      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S39" s="5">
-        <f>($T$23-S5)/S5</f>
-        <v>-0.10388811362097437</v>
-      </c>
-      <c r="T39" s="5">
-        <f t="shared" ref="T39:V39" si="8">($T$23-T5)/T5</f>
-        <v>-1.5503616653862815E-3</v>
-      </c>
-      <c r="U39" s="5">
-        <f t="shared" si="8"/>
-        <v>1.5880114206988812E-2</v>
-      </c>
-      <c r="V39" s="5">
-        <f t="shared" si="8"/>
-        <v>1.6708423393603979E-2</v>
-      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S40" s="5">
-        <f>($U$23-L5)/L5</f>
-        <v>-0.10888960528570539</v>
-      </c>
-      <c r="T40" s="5">
-        <f>($U$23-M5)/M5</f>
-        <v>2.0718514380230414E-2</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" ref="U40:V40" si="9">($U$23-N5)/N5</f>
-        <v>2.846065445534942E-2</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" si="9"/>
-        <v>2.8989496903175288E-2</v>
-      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S41" s="5">
-        <f>($U$23-S5)/S5</f>
-        <v>-9.866170052586333E-2</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" ref="T41:V41" si="10">($U$23-T5)/T5</f>
-        <v>4.2729181548232867E-3</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="10"/>
-        <v>2.1805054175599609E-2</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="10"/>
-        <v>2.263819432813045E-2</v>
-      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S42" s="5">
-        <f>($V$23-L5)/L5</f>
-        <v>-0.12090144663490861</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" ref="T42:V42" si="11">($V$23-M5)/M5</f>
-        <v>6.9596031054262155E-3</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4597381971387231E-2</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="11"/>
-        <v>1.5119095816943741E-2</v>
-      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S43" s="5">
-        <f>($V$23-S5)/S5</f>
-        <v>-0.11081141028064088</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" ref="T43:V43" si="12">($V$23-T5)/T5</f>
-        <v>-9.2643125134877283E-3</v>
-      </c>
-      <c r="U43" s="5">
-        <f t="shared" si="12"/>
-        <v>8.0314967427896414E-3</v>
-      </c>
-      <c r="V43" s="5">
-        <f t="shared" si="12"/>
-        <v>8.8534064715781353E-3</v>
-      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
     </row>
     <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="R35:V35"/>
+  <mergeCells count="14">
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="R30:V30"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="R8:V8"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="K29:O29"/>
     <mergeCell ref="R26:V26"/>
+    <mergeCell ref="X25:AB25"/>
+    <mergeCell ref="X29:AB29"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AB12:AD12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29157,13 +29052,13 @@
       <c r="J36">
         <v>28.283641966836871</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -29316,13 +29211,13 @@
       <c r="F41">
         <v>18.391079999999999</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -30492,13 +30387,13 @@
       <c r="I34">
         <v>-14.94128081710544</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -30678,13 +30573,13 @@
       <c r="E39">
         <v>18.380500000000001</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40">
@@ -31885,13 +31780,13 @@
       <c r="J31">
         <v>-2.1059569045901299</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -32119,13 +32014,13 @@
       <c r="J36">
         <v>36.996688846731558</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -32243,7 +32138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -33462,13 +33357,13 @@
       <c r="J35">
         <v>-9.2707664974478199</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -33639,13 +33534,13 @@
       <c r="F40">
         <v>21.985949999999999</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -36022,10 +35917,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -36318,10 +36213,10 @@
         <v>19.72054</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -36431,11 +36326,11 @@
       <c r="D28" s="2">
         <v>19.757439999999999</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -36451,7 +36346,7 @@
         <v>19.692799999999998</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
@@ -36473,7 +36368,7 @@
         <v>19.007960000000001</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I30" s="5">
         <f>(J26-I26)/I26</f>
@@ -36494,11 +36389,11 @@
       <c r="D31" s="2">
         <v>18.879629999999999</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -36514,7 +36409,7 @@
         <v>18.349519999999998</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="5">
@@ -36536,7 +36431,7 @@
         <v>18.206040000000002</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I33" s="5">
         <f>(J25-I25)/I25</f>
@@ -36700,28 +36595,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="80">
   <si>
     <t>X</t>
   </si>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4869,6 +4879,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4909,7 +4920,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$1</c:f>
+              <c:f>'0.1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4944,115 +4955,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.1'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -5060,116 +5065,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$2:$B$42</c:f>
+              <c:f>'0.1'!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -5187,7 +5186,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$C$1</c:f>
+              <c:f>'0.1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5222,115 +5221,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.1'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -5338,117 +5331,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$C$2:$C$42</c:f>
+              <c:f>'0.1'!$C$4:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>5.3949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.55</c:v>
+                  <c:v>9.7555000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3949999999999996</c:v>
+                  <c:v>11.57995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7555000000000014</c:v>
+                  <c:v>11.921955000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.57995</c:v>
+                  <c:v>11.429759499999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.921955000000001</c:v>
+                  <c:v>11.58678355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.429759499999999</c:v>
+                  <c:v>12.028105195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.58678355</c:v>
+                  <c:v>13.725294675500001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.028105195</c:v>
+                  <c:v>14.552765207949999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.725294675500001</c:v>
+                  <c:v>13.697488687154999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.552765207949999</c:v>
+                  <c:v>12.5277398184395</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.697488687154999</c:v>
+                  <c:v>15.074965836595551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.5277398184395</c:v>
+                  <c:v>18.067469252936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.074965836595551</c:v>
+                  <c:v>18.060722327642399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.067469252936</c:v>
+                  <c:v>16.35465009487816</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.060722327642399</c:v>
+                  <c:v>18.41918508539035</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.35465009487816</c:v>
+                  <c:v>21.077266576851311</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.41918508539035</c:v>
+                  <c:v>20.16953991916618</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.077266576851311</c:v>
+                  <c:v>20.35258592724956</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.16953991916618</c:v>
+                  <c:v>19.917327334524611</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.35258592724956</c:v>
+                  <c:v>19.725594601072149</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.917327334524611</c:v>
+                  <c:v>20.453035140964939</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.725594601072149</c:v>
+                  <c:v>19.807731626868438</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.453035140964939</c:v>
+                  <c:v>18.2269584641816</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.807731626868438</c:v>
+                  <c:v>16.90426261776344</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.2269584641816</c:v>
+                  <c:v>15.813836355987091</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.90426261776344</c:v>
+                  <c:v>14.33245272038838</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.813836355987091</c:v>
+                  <c:v>15.699207448349551</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.33245272038838</c:v>
+                  <c:v>14.129286703514589</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.699207448349551</c:v>
+                  <c:v>12.716358033163131</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.129286703514589</c:v>
+                  <c:v>15.544722229846821</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.716358033163131</c:v>
+                  <c:v>19.99025</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.544722229846821</c:v>
+                  <c:v>19.99025</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19.99025</c:v>
@@ -5457,12 +5450,6 @@
                   <c:v>19.99025</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.99025</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.99025</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>19.99025</c:v>
                 </c:pt>
               </c:numCache>
@@ -5480,7 +5467,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$D$1</c:f>
+              <c:f>'0.1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5515,115 +5502,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.1'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -5631,111 +5612,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$2:$D$42</c:f>
+              <c:f>'0.1'!$D$4:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>16.787301196608649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.759183294213688</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.787301196608649</c:v>
+                  <c:v>16.61570300345959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.759183294213688</c:v>
+                  <c:v>16.83475497421226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.61570300345959</c:v>
+                  <c:v>18.225865067053991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.83475497421226</c:v>
+                  <c:v>18.674018450838041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.225865067053991</c:v>
+                  <c:v>18.49591719665402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.674018450838041</c:v>
+                  <c:v>17.908369695532659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.49591719665402</c:v>
+                  <c:v>17.64461134065111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.908369695532659</c:v>
+                  <c:v>17.55194887336658</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.64461134065111</c:v>
+                  <c:v>18.226412323856731</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.55194887336658</c:v>
+                  <c:v>18.458259137895539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.226412323856731</c:v>
+                  <c:v>17.662132510321559</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.458259137895539</c:v>
+                  <c:v>16.623786456334528</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.662132510321559</c:v>
+                  <c:v>18.090386025114249</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.623786456334528</c:v>
+                  <c:v>19.996460052957911</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.090386025114249</c:v>
+                  <c:v>19.850797259541078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.996460052957911</c:v>
+                  <c:v>18.437210374544321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.850797259541078</c:v>
+                  <c:v>19.864909452044021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.437210374544321</c:v>
+                  <c:v>21.84378507452136</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.864909452044021</c:v>
+                  <c:v>21.051945060113901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.84378507452136</c:v>
+                  <c:v>21.129728570349702</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.051945060113901</c:v>
+                  <c:v>20.701163402886898</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.129728570349702</c:v>
+                  <c:v>20.471718225175191</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.701163402886898</c:v>
+                  <c:v>21.034727862745981</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.471718225175191</c:v>
+                  <c:v>20.419578029640309</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.034727862745981</c:v>
+                  <c:v>18.965516422797741</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.419578029640309</c:v>
+                  <c:v>17.714461759553568</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.965516422797741</c:v>
+                  <c:v>16.654012310019681</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.714461759553568</c:v>
+                  <c:v>15.22338027986687</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.654012310019681</c:v>
+                  <c:v>16.401185233376712</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.22338027986687</c:v>
+                  <c:v>16.401185233376712</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>16.401185233376712</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.401185233376712</c:v>
+                  <c:v>15.75842651580423</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.401185233376712</c:v>
+                  <c:v>19.30151</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.75842651580423</c:v>
+                  <c:v>19.30151</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19.30151</c:v>
@@ -5744,12 +5731,6 @@
                   <c:v>19.30151</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.30151</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.30151</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>19.30151</c:v>
                 </c:pt>
               </c:numCache>
@@ -5767,7 +5748,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$E$1</c:f>
+              <c:f>'0.1'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5802,115 +5783,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.1'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -5918,111 +5893,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$E$2:$E$42</c:f>
+              <c:f>'0.1'!$E$4:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>17.181817506169448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.111038291871211</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.181817506169448</c:v>
+                  <c:v>16.929319229514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.111038291871211</c:v>
+                  <c:v>17.090860388345181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.929319229514</c:v>
+                  <c:v>18.364934694051701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.090860388345181</c:v>
+                  <c:v>18.742520322330218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.364934694051701</c:v>
+                  <c:v>18.524741446941789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.742520322330218</c:v>
+                  <c:v>17.917832455464179</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.524741446941789</c:v>
+                  <c:v>17.61863687958677</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.917832455464179</c:v>
+                  <c:v>17.482363415138959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.61863687958677</c:v>
+                  <c:v>18.075499620419041</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.482363415138959</c:v>
+                  <c:v>18.249035134432962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.075499620419041</c:v>
+                  <c:v>17.447107529046349</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.249035134432962</c:v>
+                  <c:v>16.416387153250771</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.447107529046349</c:v>
+                  <c:v>17.76685927067015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.416387153250771</c:v>
+                  <c:v>19.53647659690953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.76685927067015</c:v>
+                  <c:v>19.358709949116879</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.53647659690953</c:v>
+                  <c:v>17.978274298880809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.358709949116879</c:v>
+                  <c:v>19.298984108392759</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.978274298880809</c:v>
+                  <c:v>21.145273304626819</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.298984108392759</c:v>
+                  <c:v>20.361357598332429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.145273304626819</c:v>
+                  <c:v>20.405550710853301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.361357598332429</c:v>
+                  <c:v>19.97065093539139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.405550710853301</c:v>
+                  <c:v>19.72680895308887</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.97065093539139</c:v>
+                  <c:v>20.23763459967001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.72680895308887</c:v>
+                  <c:v>19.630975041168728</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.23763459967001</c:v>
+                  <c:v>18.22903805960939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.630975041168728</c:v>
+                  <c:v>17.02156292249899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.22903805960939</c:v>
+                  <c:v>15.99668054220982</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.02156292249899</c:v>
+                  <c:v>14.62155299243299</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.99668054220982</c:v>
+                  <c:v>15.725778899137991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.62155299243299</c:v>
+                  <c:v>15.725778899137991</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>15.725778899137991</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.725778899137991</c:v>
+                  <c:v>15.08115690148289</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.725778899137991</c:v>
+                  <c:v>18.438230000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.08115690148289</c:v>
+                  <c:v>18.438230000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>18.438230000000001</c:v>
@@ -6031,12 +6012,6 @@
                   <c:v>18.438230000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.438230000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18.438230000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>18.438230000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -6054,7 +6029,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$F$1</c:f>
+              <c:f>'0.1'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6089,115 +6064,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.1'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -6205,111 +6174,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$42</c:f>
+              <c:f>'0.1'!$F$4:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>17.181820866992119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.109537789844801</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.181820866992119</c:v>
+                  <c:v>16.9265702942552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.109537789844801</c:v>
+                  <c:v>17.08586789484146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.9265702942552</c:v>
+                  <c:v>18.354581030395401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.08586789484146</c:v>
+                  <c:v>18.729262818445729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.354581030395401</c:v>
+                  <c:v>18.51021313182795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.729262818445729</c:v>
+                  <c:v>17.903105293795601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.51021313182795</c:v>
+                  <c:v>17.602862801657569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.903105293795601</c:v>
+                  <c:v>17.465105778931989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.602862801657569</c:v>
+                  <c:v>18.05476247653516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.465105778931989</c:v>
+                  <c:v>18.22601502748353</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.05476247653516</c:v>
+                  <c:v>17.42454959061671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.22601502748353</c:v>
+                  <c:v>16.3949759265798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.42454959061671</c:v>
+                  <c:v>17.740055996295979</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.3949759265798</c:v>
+                  <c:v>19.503183622256699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.740055996295979</c:v>
+                  <c:v>19.32439003993505</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.503183622256699</c:v>
+                  <c:v>17.94633076565805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.32439003993505</c:v>
+                  <c:v>19.26200851282665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.94633076565805</c:v>
+                  <c:v>21.101885397688228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.26200851282665</c:v>
+                  <c:v>20.318919667151881</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.101885397688228</c:v>
+                  <c:v>20.361844617596539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.318919667151881</c:v>
+                  <c:v>19.92707861021411</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.361844617596539</c:v>
+                  <c:v>19.682914189182782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.92707861021411</c:v>
+                  <c:v>20.19139767148264</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.682914189182782</c:v>
+                  <c:v>19.585559668452579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.19139767148264</c:v>
+                  <c:v>18.186712400800399</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.585559668452579</c:v>
+                  <c:v>16.981850207364818</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.186712400800399</c:v>
+                  <c:v>15.95913350941923</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.981850207364818</c:v>
+                  <c:v>14.587196952551221</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.95913350941923</c:v>
+                  <c:v>15.687797384201479</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.587196952551221</c:v>
+                  <c:v>15.687797384201479</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>15.687797384201479</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.687797384201479</c:v>
+                  <c:v>15.043649410527641</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.687797384201479</c:v>
+                  <c:v>18.391079999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.043649410527641</c:v>
+                  <c:v>18.391079999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>18.391079999999999</c:v>
@@ -6318,12 +6293,6 @@
                   <c:v>18.391079999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.391079999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18.391079999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>18.391079999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6466,6 +6435,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6566,17 +6536,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Croston's and Exponential Smoothing forecasts of item BIP001271, alpha = 0.15</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6617,7 +6583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$B$1</c:f>
+              <c:f>'0.15'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6652,115 +6618,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.15'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -6768,116 +6728,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$B$2:$B$42</c:f>
+              <c:f>'0.15'!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -6886,7 +6840,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9EC-431E-9A23-8DFC26B73352}"/>
+              <c16:uniqueId val="{00000000-FA60-47B0-B977-84D2870D04FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6895,7 +6849,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$C$1</c:f>
+              <c:f>'0.15'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6930,115 +6884,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.15'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -7046,117 +6994,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$C$2:$C$42</c:f>
+              <c:f>'0.15'!$C$4:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.6749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>5.0737500000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6749999999999998</c:v>
+                  <c:v>7.6126874999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0737500000000004</c:v>
+                  <c:v>13.820784375000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6126874999999989</c:v>
+                  <c:v>15.94766671875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.820784375000001</c:v>
+                  <c:v>15.8055167109375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.94766671875</c:v>
+                  <c:v>14.484689204296879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.8055167109375</c:v>
+                  <c:v>14.26198582365234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.484689204296879</c:v>
+                  <c:v>14.522687950104491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.26198582365234</c:v>
+                  <c:v>16.694284757588822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.522687950104491</c:v>
+                  <c:v>17.490142043950499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.694284757588822</c:v>
+                  <c:v>15.76662073735792</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.490142043950499</c:v>
+                  <c:v>13.701627626754229</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.76662073735792</c:v>
+                  <c:v>17.3463834827411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.701627626754229</c:v>
+                  <c:v>21.494425960329931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.3463834827411</c:v>
+                  <c:v>20.970262066280441</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.494425960329931</c:v>
+                  <c:v>17.97472275633837</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.970262066280441</c:v>
+                  <c:v>20.828514342887619</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.97472275633837</c:v>
+                  <c:v>24.454237191454471</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.828514342887619</c:v>
+                  <c:v>22.5861016127363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.454237191454471</c:v>
+                  <c:v>22.498186370825859</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.5861016127363</c:v>
+                  <c:v>21.523458415201979</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.498186370825859</c:v>
+                  <c:v>20.99493965292168</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.523458415201979</c:v>
+                  <c:v>21.895698704983431</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.99493965292168</c:v>
+                  <c:v>20.71134389923591</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.895698704983431</c:v>
+                  <c:v>18.204642314350529</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.71134389923591</c:v>
+                  <c:v>16.223945967197949</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.204642314350529</c:v>
+                  <c:v>14.690354072118261</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.223945967197949</c:v>
+                  <c:v>12.636800961300519</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.690354072118261</c:v>
+                  <c:v>14.94128081710544</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.636800961300519</c:v>
+                  <c:v>12.70008869453962</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.94128081710544</c:v>
+                  <c:v>10.795075390358679</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.70008869453962</c:v>
+                  <c:v>15.32581408180488</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.795075390358679</c:v>
+                  <c:v>22.02694</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.32581408180488</c:v>
+                  <c:v>22.02694</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>22.02694</c:v>
@@ -7165,12 +7113,6 @@
                   <c:v>22.02694</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22.02694</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.02694</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>22.02694</c:v>
                 </c:pt>
               </c:numCache>
@@ -7179,7 +7121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9EC-431E-9A23-8DFC26B73352}"/>
+              <c16:uniqueId val="{00000001-FA60-47B0-B977-84D2870D04FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7188,7 +7130,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$D$1</c:f>
+              <c:f>'0.15'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7223,115 +7165,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.15'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -7339,111 +7275,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$D$2:$D$42</c:f>
+              <c:f>'0.15'!$D$4:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>16.069086430961409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.06524829587109</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.069086430961409</c:v>
+                  <c:v>15.87719625148212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.06524829587109</c:v>
+                  <c:v>16.28936749349263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.87719625148212</c:v>
+                  <c:v>18.68983956215834</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.28936749349263</c:v>
+                  <c:v>19.429754902894011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.68983956215834</c:v>
+                  <c:v>19.050992087683252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.429754902894011</c:v>
+                  <c:v>17.949542358124681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.050992087683252</c:v>
+                  <c:v>17.46899836848732</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.949542358124681</c:v>
+                  <c:v>17.318407435993208</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.46899836848732</c:v>
+                  <c:v>18.57562027179792</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.318407435993208</c:v>
+                  <c:v>18.960472419515568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.57562027179792</c:v>
+                  <c:v>17.446968471895861</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.960472419515568</c:v>
+                  <c:v>15.58110860941564</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.446968471895861</c:v>
+                  <c:v>18.37059345522907</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.58110860941564</c:v>
+                  <c:v>21.770935923953729</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.37059345522907</c:v>
+                  <c:v>21.27843325110932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.770935923953729</c:v>
+                  <c:v>18.57758750049274</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.27843325110932</c:v>
+                  <c:v>21.073189233001269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.57758750049274</c:v>
+                  <c:v>24.362251960782299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.073189233001269</c:v>
+                  <c:v>22.64131925410501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.362251960782299</c:v>
+                  <c:v>22.551068121578599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.64131925410501</c:v>
+                  <c:v>21.6205253004597</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.551068121578599</c:v>
+                  <c:v>21.102125643367099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.6205253004597</c:v>
+                  <c:v>21.952400072777671</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.102125643367099</c:v>
+                  <c:v>20.799204923069539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.952400072777671</c:v>
+                  <c:v>18.350903404283461</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.799204923069539</c:v>
+                  <c:v>16.396828291565051</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.350903404283461</c:v>
+                  <c:v>14.869564755657009</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.396828291565051</c:v>
+                  <c:v>12.825824837026451</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.869564755657009</c:v>
+                  <c:v>15.06773613962906</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.825824837026451</c:v>
+                  <c:v>15.06773613962906</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>15.06773613962906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.06773613962906</c:v>
+                  <c:v>14.58754225655891</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.06773613962906</c:v>
+                  <c:v>19.968050000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.58754225655891</c:v>
+                  <c:v>19.968050000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19.968050000000002</c:v>
@@ -7452,12 +7394,6 @@
                   <c:v>19.968050000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.968050000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.968050000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>19.968050000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -7466,7 +7402,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C9EC-431E-9A23-8DFC26B73352}"/>
+              <c16:uniqueId val="{00000002-FA60-47B0-B977-84D2870D04FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7475,7 +7411,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$E$1</c:f>
+              <c:f>'0.15'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7510,115 +7446,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.15'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -7626,111 +7556,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$E$2:$E$42</c:f>
+              <c:f>'0.15'!$E$4:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>17.002824925994869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.880445762486811</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.002824925994869</c:v>
+                  <c:v>16.582565652181891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.880445762486811</c:v>
+                  <c:v>16.836179544709449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.582565652181891</c:v>
+                  <c:v>18.926833635759792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.836179544709449</c:v>
+                  <c:v>19.481018796562939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.926833635759792</c:v>
+                  <c:v>19.001680434644019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.481018796562939</c:v>
+                  <c:v>17.856753223594669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.001680434644019</c:v>
+                  <c:v>17.290556643183219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.856753223594669</c:v>
+                  <c:v>17.035243053306839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.290556643183219</c:v>
+                  <c:v>18.08885008635826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.035243053306839</c:v>
+                  <c:v>18.342971553313351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.08885008635826</c:v>
+                  <c:v>16.84902809905315</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.342971553313351</c:v>
+                  <c:v>15.03727555088777</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.84902809905315</c:v>
+                  <c:v>17.539814104358079</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.03727555088777</c:v>
+                  <c:v>20.61528183192328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.539814104358079</c:v>
+                  <c:v>20.097396633274339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.61528183192328</c:v>
+                  <c:v>17.54386178578293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.097396633274339</c:v>
+                  <c:v>19.803580887013378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.54386178578293</c:v>
+                  <c:v>22.803229145750809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.803580887013378</c:v>
+                  <c:v>21.174038131820609</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.803229145750809</c:v>
+                  <c:v>21.05807346344</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.174038131820609</c:v>
+                  <c:v>20.169148905418869</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.05807346344</c:v>
+                  <c:v>19.665264680288828</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.169148905418869</c:v>
+                  <c:v>20.43074931013696</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.665264680288828</c:v>
+                  <c:v>19.345949282365599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.43074931013696</c:v>
+                  <c:v>17.065722238102481</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.345949282365599</c:v>
+                  <c:v>15.244863755956271</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.065722238102481</c:v>
+                  <c:v>13.82071674843184</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.244863755956271</c:v>
+                  <c:v>11.920477515184009</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.82071674843184</c:v>
+                  <c:v>13.985884637859179</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.920477515184009</c:v>
+                  <c:v>13.985884637859179</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>13.985884637859179</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.985884637859179</c:v>
+                  <c:v>13.525175686791769</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.985884637859179</c:v>
+                  <c:v>18.498390000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.525175686791769</c:v>
+                  <c:v>18.498390000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>18.498390000000001</c:v>
@@ -7739,12 +7675,6 @@
                   <c:v>18.498390000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.498390000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18.498390000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>18.498390000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -7753,7 +7683,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C9EC-431E-9A23-8DFC26B73352}"/>
+              <c16:uniqueId val="{00000003-FA60-47B0-B977-84D2870D04FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7762,7 +7692,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$F$1</c:f>
+              <c:f>'0.15'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7797,115 +7727,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.15'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -7913,111 +7837,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$F$2:$F$42</c:f>
+              <c:f>'0.15'!$F$4:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>17.175348677887811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.037979456372341</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.175348677887811</c:v>
+                  <c:v>16.725584761046999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.037979456372341</c:v>
+                  <c:v>16.960565001377891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.725584761046999</c:v>
+                  <c:v>19.020224284552871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.960565001377891</c:v>
+                  <c:v>19.55345526625948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.020224284552871</c:v>
+                  <c:v>19.06012390721218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.55345526625948</c:v>
+                  <c:v>17.905964380937469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.06012390721218</c:v>
+                  <c:v>17.327314715523681</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.905964380937469</c:v>
+                  <c:v>17.0582587533215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.327314715523681</c:v>
+                  <c:v>18.09040922297244</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.0582587533215</c:v>
+                  <c:v>18.329320047816282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.09040922297244</c:v>
+                  <c:v>16.832709961277569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.329320047816282</c:v>
+                  <c:v>15.02145942055421</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.832709961277569</c:v>
+                  <c:v>17.497213493441059</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.02145942055421</c:v>
+                  <c:v>20.543178403930149</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.497213493441059</c:v>
+                  <c:v>20.020414325200431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.543178403930149</c:v>
+                  <c:v>17.476322677870829</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.020414325200431</c:v>
+                  <c:v>19.714711256111059</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.476322677870829</c:v>
+                  <c:v>22.688959146480961</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.714711256111059</c:v>
+                  <c:v>21.065517037369339</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.688959146480961</c:v>
+                  <c:v>20.945997218747831</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.065517037369339</c:v>
+                  <c:v>20.059171928290588</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.945997218747831</c:v>
+                  <c:v>19.555361803281631</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.059171928290588</c:v>
+                  <c:v>20.313020178937489</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.555361803281631</c:v>
+                  <c:v>19.23294667889818</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.313020178937489</c:v>
+                  <c:v>16.965643530227741</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.23294667889818</c:v>
+                  <c:v>15.15498262534944</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.965643530227741</c:v>
+                  <c:v>13.73867913433663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.15498262534944</c:v>
+                  <c:v>11.84963242251634</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.73867913433663</c:v>
+                  <c:v>13.90034995388408</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.84963242251634</c:v>
+                  <c:v>13.90034995388408</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>13.90034995388408</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.90034995388408</c:v>
+                  <c:v>13.440472672437521</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.90034995388408</c:v>
+                  <c:v>18.380500000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.440472672437521</c:v>
+                  <c:v>18.380500000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>18.380500000000001</c:v>
@@ -8026,12 +7956,6 @@
                   <c:v>18.380500000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.380500000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18.380500000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>18.380500000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -8040,7 +7964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C9EC-431E-9A23-8DFC26B73352}"/>
+              <c16:uniqueId val="{00000004-FA60-47B0-B977-84D2870D04FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8054,11 +7978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485397464"/>
-        <c:axId val="485400416"/>
+        <c:axId val="502741408"/>
+        <c:axId val="502749280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="485397464"/>
+        <c:axId val="502741408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8101,7 +8025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485400416"/>
+        <c:crossAx val="502749280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8109,7 +8033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485400416"/>
+        <c:axId val="502749280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8160,7 +8084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485397464"/>
+        <c:crossAx val="502741408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8174,6 +8098,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8285,6 +8210,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8325,7 +8251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$B$1</c:f>
+              <c:f>'0.5'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8360,115 +8286,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.5'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -8476,116 +8396,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$B$2:$B$37</c:f>
+              <c:f>'0.5'!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -8594,7 +8508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0237-41A7-9626-39AAFE72CB10}"/>
+              <c16:uniqueId val="{00000000-5561-43FF-AF2F-8D93A97A5BD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8603,7 +8517,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$C$1</c:f>
+              <c:f>'0.5'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8638,115 +8552,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.5'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -8754,117 +8662,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$C$2:$C$37</c:f>
+              <c:f>'0.5'!$C$4:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5</c:v>
+                  <c:v>16.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.75</c:v>
+                  <c:v>32.9375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.875</c:v>
+                  <c:v>30.46875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.9375</c:v>
+                  <c:v>22.734375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.46875</c:v>
+                  <c:v>14.8671875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.734375</c:v>
+                  <c:v>13.93359375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.8671875</c:v>
+                  <c:v>14.966796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.93359375</c:v>
+                  <c:v>21.9833984375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.966796875</c:v>
+                  <c:v>21.99169921875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.9833984375</c:v>
+                  <c:v>13.995849609375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.99169921875</c:v>
+                  <c:v>7.9979248046875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.995849609375</c:v>
+                  <c:v>22.99896240234375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9979248046875</c:v>
+                  <c:v>33.999481201171882</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.99896240234375</c:v>
+                  <c:v>25.999740600585941</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.999481201171882</c:v>
+                  <c:v>13.499870300292971</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.999740600585941</c:v>
+                  <c:v>25.249935150146481</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.499870300292971</c:v>
+                  <c:v>35.124967575073242</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.249935150146481</c:v>
+                  <c:v>23.562483787536621</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.124967575073242</c:v>
+                  <c:v>22.781241893768311</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.562483787536621</c:v>
+                  <c:v>19.390620946884159</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.781241893768311</c:v>
+                  <c:v>18.695310473442081</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.390620946884159</c:v>
+                  <c:v>22.847655236721039</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.695310473442081</c:v>
+                  <c:v>18.423827618360519</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.847655236721039</c:v>
+                  <c:v>11.21191380918026</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.423827618360519</c:v>
+                  <c:v>8.1059569045901299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.21191380918026</c:v>
+                  <c:v>7.0529784522950649</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.1059569045901299</c:v>
+                  <c:v>4.0264892261475334</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0529784522950649</c:v>
+                  <c:v>16.01324461307377</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0264892261475334</c:v>
+                  <c:v>8.0066223065368831</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.01324461307377</c:v>
+                  <c:v>4.0033111532684416</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0066223065368831</c:v>
+                  <c:v>22.501655576634221</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0033111532684416</c:v>
+                  <c:v>41.250830000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22.501655576634221</c:v>
+                  <c:v>41.250830000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.250830000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.250830000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.250830000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8872,7 +8789,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0237-41A7-9626-39AAFE72CB10}"/>
+              <c16:uniqueId val="{00000001-5561-43FF-AF2F-8D93A97A5BD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8881,7 +8798,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$D$1</c:f>
+              <c:f>'0.5'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8916,115 +8833,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.5'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -9032,111 +8943,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$D$2:$D$37</c:f>
+              <c:f>'0.5'!$D$4:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>17.181861170801749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.88639565204544</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.181861170801749</c:v>
+                  <c:v>15.59092977393702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.88639565204544</c:v>
+                  <c:v>18.154558648918549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.59092977393702</c:v>
+                  <c:v>31.863646024643678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.154558648918549</c:v>
+                  <c:v>30.045459496450771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.863646024643678</c:v>
+                  <c:v>22.750690917498339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.045459496450771</c:v>
+                  <c:v>14.996504437111399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.750690917498339</c:v>
+                  <c:v>14.00599059609759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.996504437111399</c:v>
+                  <c:v>14.999115908234391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.00599059609759</c:v>
+                  <c:v>21.985911889097871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.999115908234391</c:v>
+                  <c:v>21.992949072310221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.985911889097871</c:v>
+                  <c:v>14.00037715319082</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.992949072310221</c:v>
+                  <c:v>8.0016531065923733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.00037715319082</c:v>
+                  <c:v>22.998995825785109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0016531065923733</c:v>
+                  <c:v>33.998826537533652</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.998995825785109</c:v>
+                  <c:v>25.999657383662878</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.998826537533652</c:v>
+                  <c:v>13.500019420878621</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.999657383662878</c:v>
+                  <c:v>25.249920065948761</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.500019420878621</c:v>
+                  <c:v>35.124922362887759</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.249920065948761</c:v>
+                  <c:v>23.5624832350126</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.124922362887759</c:v>
+                  <c:v>22.781242362554519</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.5624832350126</c:v>
+                  <c:v>19.390622798048181</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.781242362554519</c:v>
+                  <c:v>18.695311564798949</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.390622798048181</c:v>
+                  <c:v>22.84765528740229</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.695311564798949</c:v>
+                  <c:v>18.423827907381401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.84765528740229</c:v>
+                  <c:v>11.211914168622149</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.423827907381401</c:v>
+                  <c:v>8.1059571305933709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.211914168622149</c:v>
+                  <c:v>7.0529785731419752</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.1059571305933709</c:v>
+                  <c:v>4.0264892978455213</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0529785731419752</c:v>
+                  <c:v>16.013244626595728</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0264892978455213</c:v>
+                  <c:v>16.013244626595728</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>16.013244626595728</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.013244626595728</c:v>
+                  <c:v>14.25331115746846</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.013244626595728</c:v>
+                  <c:v>29.502210000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.25331115746846</c:v>
+                  <c:v>29.502210000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.502210000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.502210000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.502210000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9144,7 +9070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0237-41A7-9626-39AAFE72CB10}"/>
+              <c16:uniqueId val="{00000002-5561-43FF-AF2F-8D93A97A5BD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9153,7 +9079,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$E$1</c:f>
+              <c:f>'0.5'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9188,115 +9114,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.5'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -9304,111 +9224,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$E$2:$E$37</c:f>
+              <c:f>'0.5'!$E$4:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>17.1818165619738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.74999737441005</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.1818165619738</c:v>
+                  <c:v>13.61440369246777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.74999737441005</c:v>
+                  <c:v>14.814355090484391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.61440369246777</c:v>
+                  <c:v>24.774325666513221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.814355090484391</c:v>
+                  <c:v>22.978045832919658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.774325666513221</c:v>
+                  <c:v>17.258708212510982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.978045832919658</c:v>
+                  <c:v>11.32935321801537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.258708212510982</c:v>
+                  <c:v>10.544639445268659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.32935321801537</c:v>
+                  <c:v>11.270025909035899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.544639445268659</c:v>
+                  <c:v>16.501741102165759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.270025909035899</c:v>
+                  <c:v>16.50087123875236</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.501741102165759</c:v>
+                  <c:v>10.50280650082134</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.50087123875236</c:v>
+                  <c:v>6.0022927193547702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.50280650082134</c:v>
+                  <c:v>17.25003487354234</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0022927193547702</c:v>
+                  <c:v>25.49960983104641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.25003487354234</c:v>
+                  <c:v>19.499953134942292</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.49960983104641</c:v>
+                  <c:v>10.12509236879839</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.499953134942292</c:v>
+                  <c:v>18.93749175758845</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.12509236879839</c:v>
+                  <c:v>26.343723007750331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.93749175758845</c:v>
+                  <c:v>17.671874893560972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.343723007750331</c:v>
+                  <c:v>17.08593789913575</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.671874893560972</c:v>
+                  <c:v>14.542969931179339</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.08593789913575</c:v>
+                  <c:v>14.02148506623889</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.542969931179339</c:v>
+                  <c:v>17.13574223258572</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.02148506623889</c:v>
+                  <c:v>13.81787127638435</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.13574223258572</c:v>
+                  <c:v>8.4089357686861756</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.81787127638435</c:v>
+                  <c:v>6.0794679124430333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.4089357686861756</c:v>
+                  <c:v>5.2897339609847247</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.0794679124430333</c:v>
+                  <c:v>3.0198669873376112</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.2897339609847247</c:v>
+                  <c:v>12.00993348011311</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0198669873376112</c:v>
+                  <c:v>12.00993348011311</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>12.00993348011311</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.00993348011311</c:v>
+                  <c:v>10.68998337052585</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.00993348011311</c:v>
+                  <c:v>22.126660000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.68998337052585</c:v>
+                  <c:v>22.126660000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.126660000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.126660000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.126660000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9416,7 +9351,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0237-41A7-9626-39AAFE72CB10}"/>
+              <c16:uniqueId val="{00000003-5561-43FF-AF2F-8D93A97A5BD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9425,7 +9360,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Sheet1!$F$1</c:f>
+              <c:f>'0.5'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9460,115 +9395,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$37</c:f>
+              <c:f>'0.5'!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -9576,111 +9505,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$F$2:$F$37</c:f>
+              <c:f>'0.5'!$F$4:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>17.181969642125878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.224258953894619</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.181969642125878</c:v>
+                  <c:v>12.762710153133961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.224258953894619</c:v>
+                  <c:v>13.57915618869489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.762710153133961</c:v>
+                  <c:v>22.391477036175999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.57915618869489</c:v>
+                  <c:v>20.603283093335431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.391477036175999</c:v>
+                  <c:v>15.40941602137997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.603283093335431</c:v>
+                  <c:v>10.09319799296434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.40941602137997</c:v>
+                  <c:v>9.3836133592921147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.09319799296434</c:v>
+                  <c:v>10.02348033133366</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3836133592921147</c:v>
+                  <c:v>14.672377696616881</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.02348033133366</c:v>
+                  <c:v>14.669524032094619</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.672377696616881</c:v>
+                  <c:v>9.3364911131171766</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.669524032094619</c:v>
+                  <c:v>5.335560821963373</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3364911131171766</c:v>
+                  <c:v>15.33363667370363</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.335560821963373</c:v>
+                  <c:v>22.666521149743328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.33363667370363</c:v>
+                  <c:v>17.3333686458618</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.666521149743328</c:v>
+                  <c:v>9.0001020889114525</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.3333686458618</c:v>
+                  <c:v>16.833344694586501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0001020889114525</c:v>
+                  <c:v>23.416655671768432</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.833344694586501</c:v>
+                  <c:v>15.70833759846796</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.416655671768432</c:v>
+                  <c:v>15.187502462386121</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.70833759846796</c:v>
+                  <c:v>12.92708528023091</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.187502462386121</c:v>
+                  <c:v>12.463542713500029</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.92708528023091</c:v>
+                  <c:v>15.23177113762746</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.463542713500029</c:v>
+                  <c:v>12.282552352204929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15.23177113762746</c:v>
+                  <c:v>7.4746096045804693</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.282552352204929</c:v>
+                  <c:v>5.4039714894448929</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.4746096045804693</c:v>
+                  <c:v>4.701985748195356</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4039714894448929</c:v>
+                  <c:v>2.68432621242196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.701985748195356</c:v>
+                  <c:v>10.67549642966071</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.68432621242196</c:v>
+                  <c:v>10.67549642966071</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10.67549642966071</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.67549642966071</c:v>
+                  <c:v>9.5022074411112953</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.67549642966071</c:v>
+                  <c:v>19.668140000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.5022074411112953</c:v>
+                  <c:v>19.668140000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.668140000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.668140000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.668140000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9688,7 +9632,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0237-41A7-9626-39AAFE72CB10}"/>
+              <c16:uniqueId val="{00000004-5561-43FF-AF2F-8D93A97A5BD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9702,11 +9646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="378191192"/>
-        <c:axId val="378189880"/>
+        <c:axId val="502752560"/>
+        <c:axId val="502756496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378191192"/>
+        <c:axId val="502752560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9749,7 +9693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378189880"/>
+        <c:crossAx val="502756496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9757,7 +9701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378189880"/>
+        <c:axId val="502756496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9808,7 +9752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378191192"/>
+        <c:crossAx val="502752560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9822,6 +9766,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9933,14 +9878,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11247727208890804"/>
-          <c:y val="1.7710309930423784E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9977,15 +9915,281 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[4]Sheet1!$B$1</c:f>
+              <c:f>optimal!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>BIP001271</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>optimal!$A$4:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Apr-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>May-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jun-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jul-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Aug-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sep-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Oct-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Nov-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>optimal!$B$4:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F41-4397-86F8-7F0C7BBA0C97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>optimal!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SES_bip1271.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10016,115 +10220,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[4]Sheet1!$A$2:$A$42</c:f>
+              <c:f>optimal!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -10132,117 +10330,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[4]Sheet1!$B$2:$B$42</c:f>
+              <c:f>optimal!$C$4:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.2482967328445782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>7.3904283389350258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>9.2125836688645144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>13.366315937859589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>24.94119388968625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>25.934784879139968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>22.382842279413101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>17.386038647605002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>15.961323146690461</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>15.973886536314669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>20.205154716889851</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29</c:v>
+                  <c:v>20.788173723798671</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>15.98453608462335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>11.44194379722043</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>20.068788516639589</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>28.167185797365271</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>24.864582156584731</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>17.112657731591209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>23.57265662313463</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37</c:v>
+                  <c:v>30.5328935715957</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>24.512859807718641</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>23.696608377367749</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>21.196521592748962</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16</c:v>
+                  <c:v>20.158196528129601</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18</c:v>
+                  <c:v>22.38061731457373</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>19.658344130358682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14</c:v>
+                  <c:v>14.57204932231866</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4</c:v>
+                  <c:v>11.46276366828717</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>9.6882959306872447</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>6.8660796021234232</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>13.731004060185411</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28</c:v>
+                  <c:v>9.2707664974478199</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>6.259346444985348</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>17.544141588949291</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41</c:v>
+                  <c:v>31.335059999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60</c:v>
+                  <c:v>31.335059999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.335059999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.335059999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.335059999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10250,20 +10457,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE61-4680-BC04-CC6798BA9AC5}"/>
+              <c16:uniqueId val="{00000001-4F41-4397-86F8-7F0C7BBA0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[4]Sheet1!$C$1</c:f>
+              <c:f>optimal!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SES_bip1271.1</c:v>
+                  <c:v>cros_smoothed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10294,115 +10501,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[4]Sheet1!$A$2:$A$42</c:f>
+              <c:f>optimal!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -10410,132 +10611,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[4]Sheet1!$C$2:$C$42</c:f>
+              <c:f>optimal!$D$4:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.313970215948951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.74219013953172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2482967328445782</c:v>
+                  <c:v>11.85713162236938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3904283389350258</c:v>
+                  <c:v>12.78400971870027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2125836688645144</c:v>
+                  <c:v>16.09350828476413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.366315937859589</c:v>
+                  <c:v>17.181550241705601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.94119388968625</c:v>
+                  <c:v>16.982195265518619</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.934784879139968</c:v>
+                  <c:v>16.069999817790212</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.382842279413101</c:v>
+                  <c:v>15.78945632366551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.386038647605002</c:v>
+                  <c:v>15.80869626619749</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.961323146690461</c:v>
+                  <c:v>17.01414723280466</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.973886536314669</c:v>
+                  <c:v>17.4697656501036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.205154716889851</c:v>
+                  <c:v>16.421632677438481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.788173723798671</c:v>
+                  <c:v>15.103751463233341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.98453608462335</c:v>
+                  <c:v>17.196062095167822</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.44194379722043</c:v>
+                  <c:v>19.736848408436749</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.068788516639589</c:v>
+                  <c:v>19.57813128319675</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.167185797365271</c:v>
+                  <c:v>17.88041988367117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.864582156584731</c:v>
+                  <c:v>19.627610066447069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.112657731591209</c:v>
+                  <c:v>21.946196060179041</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.57265662313463</c:v>
+                  <c:v>21.037290297040201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.5328935715957</c:v>
+                  <c:v>21.125264857431919</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.512859807718641</c:v>
+                  <c:v>20.656906621686051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.696608377367749</c:v>
+                  <c:v>20.414112508703528</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.196521592748962</c:v>
+                  <c:v>21.015945692120741</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.158196528129601</c:v>
+                  <c:v>20.374812793091799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.38061731457373</c:v>
+                  <c:v>18.87844558784165</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.658344130358682</c:v>
+                  <c:v>17.61020202869355</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.57204932231866</c:v>
+                  <c:v>16.54923566406336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.46276366828717</c:v>
+                  <c:v>15.12831155492445</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.6882959306872447</c:v>
+                  <c:v>16.30455535872224</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.8660796021234232</c:v>
+                  <c:v>16.30455535872224</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.731004060185411</c:v>
+                  <c:v>16.30455535872224</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.2707664974478199</c:v>
+                  <c:v>18.561276703304699</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.259346444985348</c:v>
+                  <c:v>22.348040000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.544141588949291</c:v>
+                  <c:v>22.348040000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31.335059999999999</c:v>
+                  <c:v>22.348040000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.335059999999999</c:v>
+                  <c:v>22.348040000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31.335059999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>31.335059999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>31.335059999999999</c:v>
+                  <c:v>22.348040000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10543,20 +10738,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CE61-4680-BC04-CC6798BA9AC5}"/>
+              <c16:uniqueId val="{00000002-4F41-4397-86F8-7F0C7BBA0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[4]Sheet1!$D$1</c:f>
+              <c:f>optimal!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cros_smoothed</c:v>
+                  <c:v>SBA_smoothed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10587,115 +10782,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[4]Sheet1!$A$2:$A$42</c:f>
+              <c:f>optimal!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -10703,126 +10892,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[4]Sheet1!$D$2:$D$42</c:f>
+              <c:f>optimal!$E$4:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>10.73315770912146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.24658253911428</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.313970215948951</c:v>
+                  <c:v>11.417392225472771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.74219013953172</c:v>
+                  <c:v>12.44916684477737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85713162236938</c:v>
+                  <c:v>16.01318495503655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.78400971870027</c:v>
+                  <c:v>17.18181857509985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.09350828476413</c:v>
+                  <c:v>16.968797505067091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.181550241705601</c:v>
+                  <c:v>15.99644210028745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.982195265518619</c:v>
+                  <c:v>15.704002228836201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.069999817790212</c:v>
+                  <c:v>15.732625049325391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.78945632366551</c:v>
+                  <c:v>17.026135232042609</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.80869626619749</c:v>
+                  <c:v>17.510894183714399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.01414723280466</c:v>
+                  <c:v>16.388154818789541</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.4697656501036</c:v>
+                  <c:v>14.984860173392249</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.421632677438481</c:v>
+                  <c:v>17.228923109771252</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.103751463233341</c:v>
+                  <c:v>19.93672094358525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.196062095167822</c:v>
+                  <c:v>19.747558032530531</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.736848408436749</c:v>
+                  <c:v>17.919110015287771</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.57813128319675</c:v>
+                  <c:v>19.779484452847779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.88041988367117</c:v>
+                  <c:v>22.238528359549271</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.627610066447069</c:v>
+                  <c:v>21.239789644289871</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.946196060179041</c:v>
+                  <c:v>21.313594691975009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.037290297040201</c:v>
+                  <c:v>20.795119007594881</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.125264857431919</c:v>
+                  <c:v>20.52223733385463</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.656906621686051</c:v>
+                  <c:v>21.153593474787169</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.414112508703528</c:v>
+                  <c:v>20.455695046760589</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.015945692120741</c:v>
+                  <c:v>18.85072436115334</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.374812793091799</c:v>
+                  <c:v>17.499798808914829</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.87844558784165</c:v>
+                  <c:v>16.37814159459376</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.61020202869355</c:v>
+                  <c:v>14.87830977116001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.54923566406336</c:v>
+                  <c:v>16.157626967529168</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.12831155492445</c:v>
+                  <c:v>16.157626967529168</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.30455535872224</c:v>
+                  <c:v>16.157626967529168</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.30455535872224</c:v>
+                  <c:v>18.579080889118789</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.30455535872224</c:v>
+                  <c:v>22.617660000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.561276703304699</c:v>
+                  <c:v>22.617660000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.348040000000001</c:v>
+                  <c:v>22.617660000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.348040000000001</c:v>
+                  <c:v>22.617660000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22.348040000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.348040000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22.348040000000001</c:v>
+                  <c:v>22.617660000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10830,20 +11019,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CE61-4680-BC04-CC6798BA9AC5}"/>
+              <c16:uniqueId val="{00000003-4F41-4397-86F8-7F0C7BBA0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[4]Sheet1!$E$1</c:f>
+              <c:f>optimal!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SBA_smoothed</c:v>
+                  <c:v>SBJ_smoothed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10874,115 +11063,109 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[4]Sheet1!$A$2:$A$42</c:f>
+              <c:f>optimal!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
+                  <c:v>Feb-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
+                  <c:v>Mar-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
+                  <c:v>Apr-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
+                  <c:v>May-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
+                  <c:v>Jun-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>May-18</c:v>
+                  <c:v>Jul-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
+                  <c:v>Aug-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
+                  <c:v>Sep-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
+                  <c:v>Oct-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
+                  <c:v>Nov-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
+                  <c:v>Dec-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
+                  <c:v>Jan-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
+                  <c:v>Feb-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
+                  <c:v>Mar-19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
+                  <c:v>Apr-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
+                  <c:v>May-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
+                  <c:v>Jun-19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>May-19</c:v>
+                  <c:v>Jul-19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
+                  <c:v>Aug-19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
+                  <c:v>Sep-19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
+                  <c:v>Oct-19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
+                  <c:v>Nov-19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
+                  <c:v>Dec-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
+                  <c:v>Jan-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
+                  <c:v>Feb-20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
+                  <c:v>Mar-20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
+                  <c:v>Apr-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
+                  <c:v>May-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
+                  <c:v>Jun-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>May-20</c:v>
+                  <c:v>Jul-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
+                  <c:v>Aug-20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
+                  <c:v>Sep-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
+                  <c:v>Oct-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Nov-20</c:v>
                 </c:pt>
               </c:strCache>
@@ -10990,126 +11173,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[4]Sheet1!$E$2:$E$42</c:f>
+              <c:f>optimal!$F$4:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>12.04010902309439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.36991714924274</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.73315770912146</c:v>
+                  <c:v>12.4223949664499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.24658253911428</c:v>
+                  <c:v>13.220086620757829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.417392225472771</c:v>
+                  <c:v>16.20009448987464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.44916684477737</c:v>
+                  <c:v>17.18287526984135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.01318495503655</c:v>
+                  <c:v>17.00106975343666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.18181857509985</c:v>
+                  <c:v>16.168108912572858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.968797505067091</c:v>
+                  <c:v>15.904246070545071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.99644210028745</c:v>
+                  <c:v>15.91222114108883</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.704002228836201</c:v>
+                  <c:v>17.002265252841351</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.732625049325391</c:v>
+                  <c:v>17.418512452555088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.026135232042609</c:v>
+                  <c:v>16.467496814846609</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.510894183714399</c:v>
+                  <c:v>15.26253988618037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.388154818789541</c:v>
+                  <c:v>17.156278680025569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.984860173392249</c:v>
+                  <c:v>19.475303539120919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.228923109771252</c:v>
+                  <c:v>19.352429672061511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.93672094358525</c:v>
+                  <c:v>17.823907663788152</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.747558032530531</c:v>
+                  <c:v>19.421030199193311</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.919110015287771</c:v>
+                  <c:v>21.55143030387428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.779484452847779</c:v>
+                  <c:v>20.75591866105173</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.238528359549271</c:v>
+                  <c:v>20.859534675274279</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.239789644289871</c:v>
+                  <c:v>20.454797760327072</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.313594691975009</c:v>
+                  <c:v>20.250344587387239</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.795119007594881</c:v>
+                  <c:v>20.812504307695288</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.52223733385463</c:v>
+                  <c:v>20.24511007112179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.153593474787169</c:v>
+                  <c:v>18.892100756969519</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.455695046760589</c:v>
+                  <c:v>17.735066939352599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.85072436115334</c:v>
+                  <c:v>16.757686372941961</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.499798808914829</c:v>
+                  <c:v>15.44527320196155</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.37814159459376</c:v>
+                  <c:v>16.490920914063789</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.87830977116001</c:v>
+                  <c:v>16.490920914063789</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.157626967529168</c:v>
+                  <c:v>16.490920914063789</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.157626967529168</c:v>
+                  <c:v>18.53221279100293</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.157626967529168</c:v>
+                  <c:v>21.985949999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.579080889118789</c:v>
+                  <c:v>21.985949999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.617660000000001</c:v>
+                  <c:v>21.985949999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.617660000000001</c:v>
+                  <c:v>21.985949999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22.617660000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.617660000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22.617660000000001</c:v>
+                  <c:v>21.985949999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11117,294 +11300,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CE61-4680-BC04-CC6798BA9AC5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[4]Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SBJ_smoothed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[4]Sheet1!$A$2:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>Dec-17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jan-18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feb-18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mar-18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Apr-18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>May-18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jun-18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Jul-18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Aug-18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sep-18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Oct-18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Nov-18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dec-18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Jan-19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Feb-19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Mar-19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Apr-19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>May-19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Jun-19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Jul-19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Aug-19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Sep-19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Oct-19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Nov-19</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Dec-19</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Jan-20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Feb-20</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Mar-20</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Apr-20</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>May-20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Jun-20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Jul-20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Aug-20</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Sep-20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Oct-20</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Nov-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[4]Sheet1!$F$2:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="2">
-                  <c:v>12.04010902309439</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.36991714924274</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.4223949664499</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.220086620757829</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.20009448987464</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.18287526984135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.00106975343666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.168108912572858</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.904246070545071</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.91222114108883</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.002265252841351</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.418512452555088</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.467496814846609</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.26253988618037</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.156278680025569</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.475303539120919</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.352429672061511</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.823907663788152</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.421030199193311</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.55143030387428</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20.75591866105173</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20.859534675274279</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.454797760327072</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.250344587387239</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.812504307695288</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.24511007112179</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.892100756969519</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.735066939352599</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.757686372941961</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.44527320196155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.490920914063789</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.490920914063789</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16.490920914063789</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18.53221279100293</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.985949999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CE61-4680-BC04-CC6798BA9AC5}"/>
+              <c16:uniqueId val="{00000004-4F41-4397-86F8-7F0C7BBA0C97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11418,11 +11314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627512744"/>
-        <c:axId val="627516680"/>
+        <c:axId val="506502832"/>
+        <c:axId val="506509720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="627512744"/>
+        <c:axId val="506502832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11465,7 +11361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627516680"/>
+        <c:crossAx val="506509720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11473,7 +11369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627516680"/>
+        <c:axId val="506509720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11524,7 +11420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627512744"/>
+        <c:crossAx val="506502832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22546,23 +22442,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495298</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -22584,22 +22478,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -22621,22 +22513,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -26368,8 +26258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5:AD13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27814,7 +27704,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29315,53 +29205,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -29372,15 +29265,16 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="G2">
@@ -29392,15 +29286,18 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="G3">
@@ -29410,1289 +29307,1395 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1.5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>16.069086430961409</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>17.002824925994869</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>17.175348677887811</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-6.9086430961409206E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1.0028249259948721</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1.1753486778878111</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14.5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>3.6749999999999998</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>16.06524829587109</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>16.880445762486811</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>17.037979456372341</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-3.0652482958710858</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-3.8804457624868078</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-4.0379794563723408</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9.3249999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5.0737500000000004</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>15.87719625148212</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>16.582565652181891</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>16.725584761046999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6.1228037485178826</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.4174343478181086</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.2744152389530008</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>16.92625</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>49</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7.6126874999999989</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>16.28936749349263</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>16.836179544709449</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16.960565001377891</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>32.710632506507373</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>32.163820455290548</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>32.039434998622113</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>41.3873125</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>13.820784375000001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>18.68983956215834</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>18.926833635759792</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>19.020224284552871</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9.3101604378416631</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.0731663642402083</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>8.9797757154471292</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>14.179215624999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>15.94766671875</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>19.429754902894011</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>19.481018796562939</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>19.55345526625948</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-4.4297549028940111</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-4.4810187965629353</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-4.5534552662594834</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.94766671874999986</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>15.8055167109375</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>19.050992087683252</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>19.001680434644019</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>19.06012390721218</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-12.05099208768325</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-12.001680434644021</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-12.06012390721218</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-8.8055167109374999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>14.484689204296879</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>17.949542358124681</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17.856753223594669</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>17.905964380937469</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-4.9495423581246811</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-4.8567532235946729</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-4.9059643809374727</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-1.484689204296876</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>14.26198582365234</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>17.46899836848732</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>17.290556643183219</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>17.327314715523681</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-1.4689983684873229</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-1.2905566431832189</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-1.3273147155236811</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.738014176347656</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>14.522687950104491</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>17.318407435993208</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>17.035243053306839</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>17.0582587533215</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>11.68159256400679</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11.964756946693161</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11.9417412466785</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>14.477312049895509</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
         <v>16.694284757588822</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>18.57562027179792</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>18.08885008635826</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>18.09040922297244</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.42437972820208</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.91114991364174</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.9095907770275571</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5.305715242411182</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>17.490142043950499</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>18.960472419515568</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>18.342971553313351</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>18.329320047816282</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-12.96047241951557</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-12.342971553313349</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-12.32932004781628</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-11.490142043950501</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>15.76662073735792</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>17.446968471895861</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>16.84902809905315</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>16.832709961277569</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-15.446968471895859</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-14.84902809905315</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-14.832709961277571</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-13.76662073735792</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>13.701627626754229</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>15.58110860941564</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>15.03727555088777</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>15.02145942055421</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>22.41889139058436</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>22.96272444911223</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>22.978540579445792</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>24.298372373245769</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>45</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>17.3463834827411</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>18.37059345522907</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>17.539814104358079</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17.497213493441059</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>26.62940654477093</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>27.460185895641921</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>27.502786506558941</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>27.6536165172589</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>21.494425960329931</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>21.770935923953729</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>20.61528183192328</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>20.543178403930149</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-3.7709359239537261</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-2.61528183192328</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-2.543178403930149</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-3.4944259603299308</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>20.970262066280441</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>21.27843325110932</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>20.097396633274339</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>20.020414325200431</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-20.27843325110932</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-19.097396633274339</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-19.020414325200431</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-19.970262066280441</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>37</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>17.97472275633837</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>18.57758750049274</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>17.54386178578293</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>17.476322677870829</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>18.42241249950726</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>19.45613821421707</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>19.523677322129171</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>19.02527724366163</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
         <v>45</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>20.828514342887619</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>21.073189233001269</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>19.803580887013378</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>19.714711256111059</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>23.926810766998731</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>25.196419112986622</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>25.285288743888941</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>24.171485657112392</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>12</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>24.454237191454471</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>24.362251960782299</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>22.803229145750809</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>22.688959146480961</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-12.3622519607823</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-10.803229145750811</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-10.688959146480959</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-12.454237191454469</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>22.5861016127363</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>22.64131925410501</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>21.174038131820609</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>21.065517037369339</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.64131925410501012</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.82596186817938744</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.934482962630657</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.58610161273630013</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
         <v>16</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>22.498186370825859</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>22.551068121578599</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>21.05807346344</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>20.945997218747831</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-6.5510681215785986</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-5.0580734634400004</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-4.9459972187478272</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.4981863708258558</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
         <v>18</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>21.523458415201979</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>21.6205253004597</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>20.169148905418869</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>20.059171928290588</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-3.6205253004597</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-2.1691489054188722</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-2.0591719282905889</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-3.5234584152019761</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>20.99493965292168</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>21.102125643367099</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>19.665264680288828</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>19.555361803281631</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>5.8978743566328973</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>7.334735319711168</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7.4446381967183726</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6.0050603470783201</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
         <v>14</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>21.895698704983431</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>21.952400072777671</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>20.43074931013696</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>20.313020178937489</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-7.9524000727776754</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-6.4307493101369637</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-6.3130201789374851</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-7.8956987049834284</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>20.71134389923591</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>20.799204923069539</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>19.345949282365599</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>19.23294667889818</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-16.799204923069539</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-15.3459492823656</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-15.23294667889818</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-16.71134389923591</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>51</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>52</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>18.204642314350529</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>18.350903404283461</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>17.065722238102481</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>16.965643530227741</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-13.350903404283461</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-12.065722238102479</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-11.965643530227741</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-13.204642314350529</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>4.0790629999999997</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>1.4692750000000001</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>2.1390769999999999</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <v>2.1649449999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>16.223945967197949</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>16.396828291565051</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>15.244863755956271</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>15.15498262534944</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-10.396828291565051</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-9.2448637559562723</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-9.154982625349442</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-10.223945967197951</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>13.656211000000001</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>12.256494999999999</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <v>12.046198</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="2">
         <v>12.036384</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>14.690354072118261</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>14.869564755657009</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>13.82071674843184</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>13.73867913433663</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-13.869564755657009</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-12.82071674843184</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-12.73867913433663</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-13.690354072118261</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>17.107302000000001</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>15.799244</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>15.778325000000001</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>15.774134</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
         <v>28</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>12.636800961300519</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>12.825824837026451</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>11.920477515184009</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>11.84963242251634</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>15.174175162973549</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>16.079522484815989</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>16.15036757748366</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>15.363199038699481</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>60</v>
-      </c>
-      <c r="L33" s="2">
-        <f>L32-L31</f>
-        <v>3.4510909999999999</v>
       </c>
       <c r="M33" s="2">
         <f>M32-M31</f>
-        <v>3.5427490000000006</v>
+        <v>3.4510909999999999</v>
       </c>
       <c r="N33" s="2">
         <f>N32-N31</f>
-        <v>3.7321270000000002</v>
+        <v>3.5427490000000006</v>
       </c>
       <c r="O33" s="2">
         <f>O32-O31</f>
+        <v>3.7321270000000002</v>
+      </c>
+      <c r="P33" s="2">
+        <f>P32-P31</f>
         <v>3.7377500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>14.94128081710544</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>15.06773613962906</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>13.985884637859179</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>13.90034995388408</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-15.06773613962906</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-13.985884637859179</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-13.90034995388408</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-14.94128081710544</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="L34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>12.70008869453962</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>15.06773613962906</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>13.985884637859179</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>13.90034995388408</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-15.06773613962906</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-13.985884637859179</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-13.90034995388408</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-12.70008869453962</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5">
-        <f>(L32-M32)/M32</f>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
+        <f>(M32-N32)/N32</f>
         <v>8.2792442473829816E-2</v>
       </c>
-      <c r="N35" s="5">
-        <f>(L32-N32)/N32</f>
+      <c r="O35" s="5">
+        <f>(M32-O32)/O32</f>
         <v>8.422801533115841E-2</v>
       </c>
-      <c r="O35" s="5">
-        <f>(L32-O32)/O32</f>
+      <c r="P35" s="5">
+        <f>(M32-P32)/P32</f>
         <v>8.4516081833715909E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>41</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>10.795075390358679</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>15.06773613962906</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>13.985884637859179</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>13.90034995388408</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>25.932263860370941</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>27.014115362140821</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>27.099650046115919</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>30.204924609641321</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="5">
-        <f>(M32-L32)/L32</f>
+      <c r="M36" s="5">
+        <f>(N32-M32)/M32</f>
         <v>-7.6461969280720063E-2</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5">
-        <f>(M32-N32)/N32</f>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5">
+        <f>(N32-O32)/O32</f>
         <v>1.3258061296113018E-3</v>
       </c>
-      <c r="O36" s="5">
-        <f>(M32-O32)/O32</f>
+      <c r="P36" s="5">
+        <f>(N32-P32)/P32</f>
         <v>1.5918465000994504E-3</v>
       </c>
+      <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>60</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>15.32581408180488</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>14.58754225655891</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>13.525175686791769</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>13.440472672437521</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>45.412457743441102</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>46.474824313208231</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>46.559527327562478</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>44.674185918195121</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="5">
-        <f>(N32-L32)/L32</f>
+      <c r="M37" s="5">
+        <f>(O32-M32)/M32</f>
         <v>-7.7684780452230276E-2</v>
       </c>
-      <c r="M37" s="5">
-        <f>(N32-M32)/M32</f>
+      <c r="N37" s="5">
+        <f>(O32-N32)/N32</f>
         <v>-1.3240506950838436E-3</v>
       </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5">
-        <f>(N32-O32)/O32</f>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5">
+        <f>(O32-P32)/P32</f>
         <v>2.6568811955068341E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>22.02694</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>19.968050000000002</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>18.498390000000001</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>18.380500000000001</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="5">
-        <f>(O32-L32)/L32</f>
+      <c r="M38" s="5">
+        <f>(P32-M32)/M32</f>
         <v>-7.7929763559443824E-2</v>
       </c>
-      <c r="M38" s="5">
-        <f>(O32-M32)/M32</f>
+      <c r="N38" s="5">
+        <f>(P32-N32)/N32</f>
         <v>-1.5893165521084264E-3</v>
       </c>
-      <c r="N38" s="5">
-        <f>(O32-N32)/N32</f>
+      <c r="O38" s="5">
+        <f>(P32-O32)/O32</f>
         <v>-2.6561754812380275E-4</v>
       </c>
-      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C39">
         <v>22.02694</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>19.968050000000002</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>18.498390000000001</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>18.380500000000001</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="L39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C40">
         <v>22.02694</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>19.968050000000002</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>18.498390000000001</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>18.380500000000001</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="5">
-        <f>(L31-M31)/M31</f>
+      <c r="M40" s="4"/>
+      <c r="N40" s="5">
+        <f>(M31-N31)/N31</f>
         <v>0.11420198025618267</v>
       </c>
-      <c r="N40" s="5">
-        <f>(L31-N31)/N31</f>
+      <c r="O40" s="5">
+        <f>(M31-O31)/O31</f>
         <v>0.13365320742694087</v>
       </c>
-      <c r="O40" s="5">
-        <f>(L31-O31)/O31</f>
+      <c r="P40" s="5">
+        <f>(M31-P31)/P31</f>
         <v>0.1345775442192606</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C41">
         <v>22.02694</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>19.968050000000002</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>18.498390000000001</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>18.380500000000001</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="5">
-        <f>(M31-L31)/L31</f>
+      <c r="M41" s="5">
+        <f>(N31-M31)/M31</f>
         <v>-0.10249665884629357</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="5">
-        <f>(M31-N31)/N31</f>
+      <c r="N41" s="4"/>
+      <c r="O41" s="5">
+        <f>(N31-O31)/O31</f>
         <v>1.7457541375295246E-2</v>
       </c>
-      <c r="O41" s="5">
-        <f>(M31-O31)/O31</f>
+      <c r="P41" s="5">
+        <f>(N31-P31)/P31</f>
         <v>1.82871367347535E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C42">
         <v>22.02694</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>19.968050000000002</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>18.498390000000001</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>18.380500000000001</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="5">
-        <f>(N31-L31)/L31</f>
+      <c r="M42" s="5">
+        <f>(O31-M31)/M31</f>
         <v>-0.11789602547880962</v>
       </c>
-      <c r="M42" s="5">
-        <f>(N31-M31)/M31</f>
+      <c r="N42" s="5">
+        <f>(O31-N31)/N31</f>
         <v>-1.7158004796640383E-2</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="5">
-        <f>(N31-O31)/O31</f>
+      <c r="O42" s="4"/>
+      <c r="P42" s="5">
+        <f>(O31-P31)/P31</f>
         <v>8.1536115830139956E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K43" s="4" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="5">
-        <f>(O31-L31)/L31</f>
+      <c r="M43" s="5">
+        <f>(P31-M31)/M31</f>
         <v>-0.1186146728400726</v>
       </c>
-      <c r="M43" s="5">
-        <f>(O31-M31)/M31</f>
+      <c r="N43" s="5">
+        <f>(P31-N31)/N31</f>
         <v>-1.7958723109665471E-2</v>
       </c>
-      <c r="N43" s="5">
-        <f>(O31-N31)/N31</f>
+      <c r="O43" s="5">
+        <f>(P31-O31)/O31</f>
         <v>-8.1469688610468079E-4</v>
       </c>
-      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="L39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30701,10 +30704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:Q40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32071,6 +32074,18 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>41.250830000000001</v>
+      </c>
+      <c r="D38">
+        <v>29.502210000000002</v>
+      </c>
+      <c r="E38">
+        <v>22.126660000000001</v>
+      </c>
+      <c r="F38">
+        <v>19.668140000000001</v>
+      </c>
       <c r="M38" s="4" t="s">
         <v>52</v>
       </c>
@@ -32089,6 +32104,18 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>41.250830000000001</v>
+      </c>
+      <c r="D39">
+        <v>29.502210000000002</v>
+      </c>
+      <c r="E39">
+        <v>22.126660000000001</v>
+      </c>
+      <c r="F39">
+        <v>19.668140000000001</v>
+      </c>
       <c r="M39" s="4" t="s">
         <v>53</v>
       </c>
@@ -32107,6 +32134,18 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>41.250830000000001</v>
+      </c>
+      <c r="D40">
+        <v>29.502210000000002</v>
+      </c>
+      <c r="E40">
+        <v>22.126660000000001</v>
+      </c>
+      <c r="F40">
+        <v>19.668140000000001</v>
+      </c>
       <c r="M40" s="4" t="s">
         <v>54</v>
       </c>
@@ -32123,6 +32162,34 @@
         <v>1.5651703316648397E-3</v>
       </c>
       <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>41.250830000000001</v>
+      </c>
+      <c r="D41">
+        <v>29.502210000000002</v>
+      </c>
+      <c r="E41">
+        <v>22.126660000000001</v>
+      </c>
+      <c r="F41">
+        <v>19.668140000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>41.250830000000001</v>
+      </c>
+      <c r="D42">
+        <v>29.502210000000002</v>
+      </c>
+      <c r="E42">
+        <v>22.126660000000001</v>
+      </c>
+      <c r="F42">
+        <v>19.668140000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32138,8 +32205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
     <sheet name="Agregate-Disaggregate" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -356,6 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,9 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -426,7 +420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1084,7 +1077,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5333,7 +5325,7 @@
             <c:numRef>
               <c:f>'0.1'!$C$4:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -5614,7 +5606,7 @@
             <c:numRef>
               <c:f>'0.1'!$D$4:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>16.787301196608649</c:v>
@@ -5895,7 +5887,7 @@
             <c:numRef>
               <c:f>'0.1'!$E$4:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>17.181817506169448</c:v>
@@ -6176,7 +6168,7 @@
             <c:numRef>
               <c:f>'0.1'!$F$4:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>17.181820866992119</c:v>
@@ -6996,7 +6988,7 @@
             <c:numRef>
               <c:f>'0.15'!$C$4:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
@@ -7277,7 +7269,7 @@
             <c:numRef>
               <c:f>'0.15'!$D$4:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>16.069086430961409</c:v>
@@ -7558,7 +7550,7 @@
             <c:numRef>
               <c:f>'0.15'!$E$4:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>17.002824925994869</c:v>
@@ -7839,7 +7831,7 @@
             <c:numRef>
               <c:f>'0.15'!$F$4:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>17.175348677887811</c:v>
@@ -8664,7 +8656,7 @@
             <c:numRef>
               <c:f>'0.5'!$C$4:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -8945,7 +8937,7 @@
             <c:numRef>
               <c:f>'0.5'!$D$4:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>17.181861170801749</c:v>
@@ -9226,7 +9218,7 @@
             <c:numRef>
               <c:f>'0.5'!$E$4:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>17.1818165619738</c:v>
@@ -9507,7 +9499,7 @@
             <c:numRef>
               <c:f>'0.5'!$F$4:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>17.181969642125878</c:v>
@@ -10332,7 +10324,7 @@
             <c:numRef>
               <c:f>optimal!$C$4:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>3.2482967328445782</c:v>
@@ -10613,7 +10605,7 @@
             <c:numRef>
               <c:f>optimal!$D$4:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>11.313970215948951</c:v>
@@ -10894,7 +10886,7 @@
             <c:numRef>
               <c:f>optimal!$E$4:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>10.73315770912146</c:v>
@@ -11175,7 +11167,7 @@
             <c:numRef>
               <c:f>optimal!$F$4:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>12.04010902309439</c:v>
@@ -11516,6 +11508,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12411,6 +12404,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22825,3150 +22819,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP001271</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip1271.1</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>10</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>16</v>
-          </cell>
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-          <cell r="D4">
-            <v>16.787301196608649</v>
-          </cell>
-          <cell r="E4">
-            <v>17.181817506169448</v>
-          </cell>
-          <cell r="F4">
-            <v>17.181820866992119</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>13</v>
-          </cell>
-          <cell r="C5">
-            <v>2.5</v>
-          </cell>
-          <cell r="D5">
-            <v>16.759183294213688</v>
-          </cell>
-          <cell r="E5">
-            <v>17.111038291871211</v>
-          </cell>
-          <cell r="F5">
-            <v>17.109537789844801</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>22</v>
-          </cell>
-          <cell r="C6">
-            <v>3.55</v>
-          </cell>
-          <cell r="D6">
-            <v>16.61570300345959</v>
-          </cell>
-          <cell r="E6">
-            <v>16.929319229514</v>
-          </cell>
-          <cell r="F6">
-            <v>16.9265702942552</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>49</v>
-          </cell>
-          <cell r="C7">
-            <v>5.3949999999999996</v>
-          </cell>
-          <cell r="D7">
-            <v>16.83475497421226</v>
-          </cell>
-          <cell r="E7">
-            <v>17.090860388345181</v>
-          </cell>
-          <cell r="F7">
-            <v>17.08586789484146</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>28</v>
-          </cell>
-          <cell r="C8">
-            <v>9.7555000000000014</v>
-          </cell>
-          <cell r="D8">
-            <v>18.225865067053991</v>
-          </cell>
-          <cell r="E8">
-            <v>18.364934694051701</v>
-          </cell>
-          <cell r="F8">
-            <v>18.354581030395401</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>15</v>
-          </cell>
-          <cell r="C9">
-            <v>11.57995</v>
-          </cell>
-          <cell r="D9">
-            <v>18.674018450838041</v>
-          </cell>
-          <cell r="E9">
-            <v>18.742520322330218</v>
-          </cell>
-          <cell r="F9">
-            <v>18.729262818445729</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="C10">
-            <v>11.921955000000001</v>
-          </cell>
-          <cell r="D10">
-            <v>18.49591719665402</v>
-          </cell>
-          <cell r="E10">
-            <v>18.524741446941789</v>
-          </cell>
-          <cell r="F10">
-            <v>18.51021313182795</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>13</v>
-          </cell>
-          <cell r="C11">
-            <v>11.429759499999999</v>
-          </cell>
-          <cell r="D11">
-            <v>17.908369695532659</v>
-          </cell>
-          <cell r="E11">
-            <v>17.917832455464179</v>
-          </cell>
-          <cell r="F11">
-            <v>17.903105293795601</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>16</v>
-          </cell>
-          <cell r="C12">
-            <v>11.58678355</v>
-          </cell>
-          <cell r="D12">
-            <v>17.64461134065111</v>
-          </cell>
-          <cell r="E12">
-            <v>17.61863687958677</v>
-          </cell>
-          <cell r="F12">
-            <v>17.602862801657569</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>29</v>
-          </cell>
-          <cell r="C13">
-            <v>12.028105195</v>
-          </cell>
-          <cell r="D13">
-            <v>17.55194887336658</v>
-          </cell>
-          <cell r="E13">
-            <v>17.482363415138959</v>
-          </cell>
-          <cell r="F13">
-            <v>17.465105778931989</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>22</v>
-          </cell>
-          <cell r="C14">
-            <v>13.725294675500001</v>
-          </cell>
-          <cell r="D14">
-            <v>18.226412323856731</v>
-          </cell>
-          <cell r="E14">
-            <v>18.075499620419041</v>
-          </cell>
-          <cell r="F14">
-            <v>18.05476247653516</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>14.552765207949999</v>
-          </cell>
-          <cell r="D15">
-            <v>18.458259137895539</v>
-          </cell>
-          <cell r="E15">
-            <v>18.249035134432962</v>
-          </cell>
-          <cell r="F15">
-            <v>18.22601502748353</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="C16">
-            <v>13.697488687154999</v>
-          </cell>
-          <cell r="D16">
-            <v>17.662132510321559</v>
-          </cell>
-          <cell r="E16">
-            <v>17.447107529046349</v>
-          </cell>
-          <cell r="F16">
-            <v>17.42454959061671</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>38</v>
-          </cell>
-          <cell r="C17">
-            <v>12.5277398184395</v>
-          </cell>
-          <cell r="D17">
-            <v>16.623786456334528</v>
-          </cell>
-          <cell r="E17">
-            <v>16.416387153250771</v>
-          </cell>
-          <cell r="F17">
-            <v>16.3949759265798</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>45</v>
-          </cell>
-          <cell r="C18">
-            <v>15.074965836595551</v>
-          </cell>
-          <cell r="D18">
-            <v>18.090386025114249</v>
-          </cell>
-          <cell r="E18">
-            <v>17.76685927067015</v>
-          </cell>
-          <cell r="F18">
-            <v>17.740055996295979</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>18.067469252936</v>
-          </cell>
-          <cell r="D19">
-            <v>19.996460052957911</v>
-          </cell>
-          <cell r="E19">
-            <v>19.53647659690953</v>
-          </cell>
-          <cell r="F19">
-            <v>19.503183622256699</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1</v>
-          </cell>
-          <cell r="C20">
-            <v>18.060722327642399</v>
-          </cell>
-          <cell r="D20">
-            <v>19.850797259541078</v>
-          </cell>
-          <cell r="E20">
-            <v>19.358709949116879</v>
-          </cell>
-          <cell r="F20">
-            <v>19.32439003993505</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>37</v>
-          </cell>
-          <cell r="C21">
-            <v>16.35465009487816</v>
-          </cell>
-          <cell r="D21">
-            <v>18.437210374544321</v>
-          </cell>
-          <cell r="E21">
-            <v>17.978274298880809</v>
-          </cell>
-          <cell r="F21">
-            <v>17.94633076565805</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>45</v>
-          </cell>
-          <cell r="C22">
-            <v>18.41918508539035</v>
-          </cell>
-          <cell r="D22">
-            <v>19.864909452044021</v>
-          </cell>
-          <cell r="E22">
-            <v>19.298984108392759</v>
-          </cell>
-          <cell r="F22">
-            <v>19.26200851282665</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>12</v>
-          </cell>
-          <cell r="C23">
-            <v>21.077266576851311</v>
-          </cell>
-          <cell r="D23">
-            <v>21.84378507452136</v>
-          </cell>
-          <cell r="E23">
-            <v>21.145273304626819</v>
-          </cell>
-          <cell r="F23">
-            <v>21.101885397688228</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>22</v>
-          </cell>
-          <cell r="C24">
-            <v>20.16953991916618</v>
-          </cell>
-          <cell r="D24">
-            <v>21.051945060113901</v>
-          </cell>
-          <cell r="E24">
-            <v>20.361357598332429</v>
-          </cell>
-          <cell r="F24">
-            <v>20.318919667151881</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>16</v>
-          </cell>
-          <cell r="C25">
-            <v>20.35258592724956</v>
-          </cell>
-          <cell r="D25">
-            <v>21.129728570349702</v>
-          </cell>
-          <cell r="E25">
-            <v>20.405550710853301</v>
-          </cell>
-          <cell r="F25">
-            <v>20.361844617596539</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>18</v>
-          </cell>
-          <cell r="C26">
-            <v>19.917327334524611</v>
-          </cell>
-          <cell r="D26">
-            <v>20.701163402886898</v>
-          </cell>
-          <cell r="E26">
-            <v>19.97065093539139</v>
-          </cell>
-          <cell r="F26">
-            <v>19.92707861021411</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="C27">
-            <v>19.725594601072149</v>
-          </cell>
-          <cell r="D27">
-            <v>20.471718225175191</v>
-          </cell>
-          <cell r="E27">
-            <v>19.72680895308887</v>
-          </cell>
-          <cell r="F27">
-            <v>19.682914189182782</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>14</v>
-          </cell>
-          <cell r="C28">
-            <v>20.453035140964939</v>
-          </cell>
-          <cell r="D28">
-            <v>21.034727862745981</v>
-          </cell>
-          <cell r="E28">
-            <v>20.23763459967001</v>
-          </cell>
-          <cell r="F28">
-            <v>20.19139767148264</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>4</v>
-          </cell>
-          <cell r="C29">
-            <v>19.807731626868438</v>
-          </cell>
-          <cell r="D29">
-            <v>20.419578029640309</v>
-          </cell>
-          <cell r="E29">
-            <v>19.630975041168728</v>
-          </cell>
-          <cell r="F29">
-            <v>19.585559668452579</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>5</v>
-          </cell>
-          <cell r="C30">
-            <v>18.2269584641816</v>
-          </cell>
-          <cell r="D30">
-            <v>18.965516422797741</v>
-          </cell>
-          <cell r="E30">
-            <v>18.22903805960939</v>
-          </cell>
-          <cell r="F30">
-            <v>18.186712400800399</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>6</v>
-          </cell>
-          <cell r="C31">
-            <v>16.90426261776344</v>
-          </cell>
-          <cell r="D31">
-            <v>17.714461759553568</v>
-          </cell>
-          <cell r="E31">
-            <v>17.02156292249899</v>
-          </cell>
-          <cell r="F31">
-            <v>16.981850207364818</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>1</v>
-          </cell>
-          <cell r="C32">
-            <v>15.813836355987091</v>
-          </cell>
-          <cell r="D32">
-            <v>16.654012310019681</v>
-          </cell>
-          <cell r="E32">
-            <v>15.99668054220982</v>
-          </cell>
-          <cell r="F32">
-            <v>15.95913350941923</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>28</v>
-          </cell>
-          <cell r="C33">
-            <v>14.33245272038838</v>
-          </cell>
-          <cell r="D33">
-            <v>15.22338027986687</v>
-          </cell>
-          <cell r="E33">
-            <v>14.62155299243299</v>
-          </cell>
-          <cell r="F33">
-            <v>14.587196952551221</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>15.699207448349551</v>
-          </cell>
-          <cell r="D34">
-            <v>16.401185233376712</v>
-          </cell>
-          <cell r="E34">
-            <v>15.725778899137991</v>
-          </cell>
-          <cell r="F34">
-            <v>15.687797384201479</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>14.129286703514589</v>
-          </cell>
-          <cell r="D35">
-            <v>16.401185233376712</v>
-          </cell>
-          <cell r="E35">
-            <v>15.725778899137991</v>
-          </cell>
-          <cell r="F35">
-            <v>15.687797384201479</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>41</v>
-          </cell>
-          <cell r="C36">
-            <v>12.716358033163131</v>
-          </cell>
-          <cell r="D36">
-            <v>16.401185233376712</v>
-          </cell>
-          <cell r="E36">
-            <v>15.725778899137991</v>
-          </cell>
-          <cell r="F36">
-            <v>15.687797384201479</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>60</v>
-          </cell>
-          <cell r="C37">
-            <v>15.544722229846821</v>
-          </cell>
-          <cell r="D37">
-            <v>15.75842651580423</v>
-          </cell>
-          <cell r="E37">
-            <v>15.08115690148289</v>
-          </cell>
-          <cell r="F37">
-            <v>15.043649410527641</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>19.99025</v>
-          </cell>
-          <cell r="D38">
-            <v>19.30151</v>
-          </cell>
-          <cell r="E38">
-            <v>18.438230000000001</v>
-          </cell>
-          <cell r="F38">
-            <v>18.391079999999999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>19.99025</v>
-          </cell>
-          <cell r="D39">
-            <v>19.30151</v>
-          </cell>
-          <cell r="E39">
-            <v>18.438230000000001</v>
-          </cell>
-          <cell r="F39">
-            <v>18.391079999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>19.99025</v>
-          </cell>
-          <cell r="D40">
-            <v>19.30151</v>
-          </cell>
-          <cell r="E40">
-            <v>18.438230000000001</v>
-          </cell>
-          <cell r="F40">
-            <v>18.391079999999999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>19.99025</v>
-          </cell>
-          <cell r="D41">
-            <v>19.30151</v>
-          </cell>
-          <cell r="E41">
-            <v>18.438230000000001</v>
-          </cell>
-          <cell r="F41">
-            <v>18.391079999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>19.99025</v>
-          </cell>
-          <cell r="D42">
-            <v>19.30151</v>
-          </cell>
-          <cell r="E42">
-            <v>18.438230000000001</v>
-          </cell>
-          <cell r="F42">
-            <v>18.391079999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP001271</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip1271.1</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>10</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>16</v>
-          </cell>
-          <cell r="C4">
-            <v>1.5</v>
-          </cell>
-          <cell r="D4">
-            <v>16.069086430961409</v>
-          </cell>
-          <cell r="E4">
-            <v>17.002824925994869</v>
-          </cell>
-          <cell r="F4">
-            <v>17.175348677887811</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>13</v>
-          </cell>
-          <cell r="C5">
-            <v>3.6749999999999998</v>
-          </cell>
-          <cell r="D5">
-            <v>16.06524829587109</v>
-          </cell>
-          <cell r="E5">
-            <v>16.880445762486811</v>
-          </cell>
-          <cell r="F5">
-            <v>17.037979456372341</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>22</v>
-          </cell>
-          <cell r="C6">
-            <v>5.0737500000000004</v>
-          </cell>
-          <cell r="D6">
-            <v>15.87719625148212</v>
-          </cell>
-          <cell r="E6">
-            <v>16.582565652181891</v>
-          </cell>
-          <cell r="F6">
-            <v>16.725584761046999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>49</v>
-          </cell>
-          <cell r="C7">
-            <v>7.6126874999999989</v>
-          </cell>
-          <cell r="D7">
-            <v>16.28936749349263</v>
-          </cell>
-          <cell r="E7">
-            <v>16.836179544709449</v>
-          </cell>
-          <cell r="F7">
-            <v>16.960565001377891</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>28</v>
-          </cell>
-          <cell r="C8">
-            <v>13.820784375000001</v>
-          </cell>
-          <cell r="D8">
-            <v>18.68983956215834</v>
-          </cell>
-          <cell r="E8">
-            <v>18.926833635759792</v>
-          </cell>
-          <cell r="F8">
-            <v>19.020224284552871</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>15</v>
-          </cell>
-          <cell r="C9">
-            <v>15.94766671875</v>
-          </cell>
-          <cell r="D9">
-            <v>19.429754902894011</v>
-          </cell>
-          <cell r="E9">
-            <v>19.481018796562939</v>
-          </cell>
-          <cell r="F9">
-            <v>19.55345526625948</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="C10">
-            <v>15.8055167109375</v>
-          </cell>
-          <cell r="D10">
-            <v>19.050992087683252</v>
-          </cell>
-          <cell r="E10">
-            <v>19.001680434644019</v>
-          </cell>
-          <cell r="F10">
-            <v>19.06012390721218</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>13</v>
-          </cell>
-          <cell r="C11">
-            <v>14.484689204296879</v>
-          </cell>
-          <cell r="D11">
-            <v>17.949542358124681</v>
-          </cell>
-          <cell r="E11">
-            <v>17.856753223594669</v>
-          </cell>
-          <cell r="F11">
-            <v>17.905964380937469</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>16</v>
-          </cell>
-          <cell r="C12">
-            <v>14.26198582365234</v>
-          </cell>
-          <cell r="D12">
-            <v>17.46899836848732</v>
-          </cell>
-          <cell r="E12">
-            <v>17.290556643183219</v>
-          </cell>
-          <cell r="F12">
-            <v>17.327314715523681</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>29</v>
-          </cell>
-          <cell r="C13">
-            <v>14.522687950104491</v>
-          </cell>
-          <cell r="D13">
-            <v>17.318407435993208</v>
-          </cell>
-          <cell r="E13">
-            <v>17.035243053306839</v>
-          </cell>
-          <cell r="F13">
-            <v>17.0582587533215</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>22</v>
-          </cell>
-          <cell r="C14">
-            <v>16.694284757588822</v>
-          </cell>
-          <cell r="D14">
-            <v>18.57562027179792</v>
-          </cell>
-          <cell r="E14">
-            <v>18.08885008635826</v>
-          </cell>
-          <cell r="F14">
-            <v>18.09040922297244</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>17.490142043950499</v>
-          </cell>
-          <cell r="D15">
-            <v>18.960472419515568</v>
-          </cell>
-          <cell r="E15">
-            <v>18.342971553313351</v>
-          </cell>
-          <cell r="F15">
-            <v>18.329320047816282</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="C16">
-            <v>15.76662073735792</v>
-          </cell>
-          <cell r="D16">
-            <v>17.446968471895861</v>
-          </cell>
-          <cell r="E16">
-            <v>16.84902809905315</v>
-          </cell>
-          <cell r="F16">
-            <v>16.832709961277569</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>38</v>
-          </cell>
-          <cell r="C17">
-            <v>13.701627626754229</v>
-          </cell>
-          <cell r="D17">
-            <v>15.58110860941564</v>
-          </cell>
-          <cell r="E17">
-            <v>15.03727555088777</v>
-          </cell>
-          <cell r="F17">
-            <v>15.02145942055421</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>45</v>
-          </cell>
-          <cell r="C18">
-            <v>17.3463834827411</v>
-          </cell>
-          <cell r="D18">
-            <v>18.37059345522907</v>
-          </cell>
-          <cell r="E18">
-            <v>17.539814104358079</v>
-          </cell>
-          <cell r="F18">
-            <v>17.497213493441059</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>21.494425960329931</v>
-          </cell>
-          <cell r="D19">
-            <v>21.770935923953729</v>
-          </cell>
-          <cell r="E19">
-            <v>20.61528183192328</v>
-          </cell>
-          <cell r="F19">
-            <v>20.543178403930149</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1</v>
-          </cell>
-          <cell r="C20">
-            <v>20.970262066280441</v>
-          </cell>
-          <cell r="D20">
-            <v>21.27843325110932</v>
-          </cell>
-          <cell r="E20">
-            <v>20.097396633274339</v>
-          </cell>
-          <cell r="F20">
-            <v>20.020414325200431</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>37</v>
-          </cell>
-          <cell r="C21">
-            <v>17.97472275633837</v>
-          </cell>
-          <cell r="D21">
-            <v>18.57758750049274</v>
-          </cell>
-          <cell r="E21">
-            <v>17.54386178578293</v>
-          </cell>
-          <cell r="F21">
-            <v>17.476322677870829</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>45</v>
-          </cell>
-          <cell r="C22">
-            <v>20.828514342887619</v>
-          </cell>
-          <cell r="D22">
-            <v>21.073189233001269</v>
-          </cell>
-          <cell r="E22">
-            <v>19.803580887013378</v>
-          </cell>
-          <cell r="F22">
-            <v>19.714711256111059</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>12</v>
-          </cell>
-          <cell r="C23">
-            <v>24.454237191454471</v>
-          </cell>
-          <cell r="D23">
-            <v>24.362251960782299</v>
-          </cell>
-          <cell r="E23">
-            <v>22.803229145750809</v>
-          </cell>
-          <cell r="F23">
-            <v>22.688959146480961</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>22</v>
-          </cell>
-          <cell r="C24">
-            <v>22.5861016127363</v>
-          </cell>
-          <cell r="D24">
-            <v>22.64131925410501</v>
-          </cell>
-          <cell r="E24">
-            <v>21.174038131820609</v>
-          </cell>
-          <cell r="F24">
-            <v>21.065517037369339</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>16</v>
-          </cell>
-          <cell r="C25">
-            <v>22.498186370825859</v>
-          </cell>
-          <cell r="D25">
-            <v>22.551068121578599</v>
-          </cell>
-          <cell r="E25">
-            <v>21.05807346344</v>
-          </cell>
-          <cell r="F25">
-            <v>20.945997218747831</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>18</v>
-          </cell>
-          <cell r="C26">
-            <v>21.523458415201979</v>
-          </cell>
-          <cell r="D26">
-            <v>21.6205253004597</v>
-          </cell>
-          <cell r="E26">
-            <v>20.169148905418869</v>
-          </cell>
-          <cell r="F26">
-            <v>20.059171928290588</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="C27">
-            <v>20.99493965292168</v>
-          </cell>
-          <cell r="D27">
-            <v>21.102125643367099</v>
-          </cell>
-          <cell r="E27">
-            <v>19.665264680288828</v>
-          </cell>
-          <cell r="F27">
-            <v>19.555361803281631</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>14</v>
-          </cell>
-          <cell r="C28">
-            <v>21.895698704983431</v>
-          </cell>
-          <cell r="D28">
-            <v>21.952400072777671</v>
-          </cell>
-          <cell r="E28">
-            <v>20.43074931013696</v>
-          </cell>
-          <cell r="F28">
-            <v>20.313020178937489</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>4</v>
-          </cell>
-          <cell r="C29">
-            <v>20.71134389923591</v>
-          </cell>
-          <cell r="D29">
-            <v>20.799204923069539</v>
-          </cell>
-          <cell r="E29">
-            <v>19.345949282365599</v>
-          </cell>
-          <cell r="F29">
-            <v>19.23294667889818</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>5</v>
-          </cell>
-          <cell r="C30">
-            <v>18.204642314350529</v>
-          </cell>
-          <cell r="D30">
-            <v>18.350903404283461</v>
-          </cell>
-          <cell r="E30">
-            <v>17.065722238102481</v>
-          </cell>
-          <cell r="F30">
-            <v>16.965643530227741</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>6</v>
-          </cell>
-          <cell r="C31">
-            <v>16.223945967197949</v>
-          </cell>
-          <cell r="D31">
-            <v>16.396828291565051</v>
-          </cell>
-          <cell r="E31">
-            <v>15.244863755956271</v>
-          </cell>
-          <cell r="F31">
-            <v>15.15498262534944</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>1</v>
-          </cell>
-          <cell r="C32">
-            <v>14.690354072118261</v>
-          </cell>
-          <cell r="D32">
-            <v>14.869564755657009</v>
-          </cell>
-          <cell r="E32">
-            <v>13.82071674843184</v>
-          </cell>
-          <cell r="F32">
-            <v>13.73867913433663</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>28</v>
-          </cell>
-          <cell r="C33">
-            <v>12.636800961300519</v>
-          </cell>
-          <cell r="D33">
-            <v>12.825824837026451</v>
-          </cell>
-          <cell r="E33">
-            <v>11.920477515184009</v>
-          </cell>
-          <cell r="F33">
-            <v>11.84963242251634</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>14.94128081710544</v>
-          </cell>
-          <cell r="D34">
-            <v>15.06773613962906</v>
-          </cell>
-          <cell r="E34">
-            <v>13.985884637859179</v>
-          </cell>
-          <cell r="F34">
-            <v>13.90034995388408</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>12.70008869453962</v>
-          </cell>
-          <cell r="D35">
-            <v>15.06773613962906</v>
-          </cell>
-          <cell r="E35">
-            <v>13.985884637859179</v>
-          </cell>
-          <cell r="F35">
-            <v>13.90034995388408</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>41</v>
-          </cell>
-          <cell r="C36">
-            <v>10.795075390358679</v>
-          </cell>
-          <cell r="D36">
-            <v>15.06773613962906</v>
-          </cell>
-          <cell r="E36">
-            <v>13.985884637859179</v>
-          </cell>
-          <cell r="F36">
-            <v>13.90034995388408</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>60</v>
-          </cell>
-          <cell r="C37">
-            <v>15.32581408180488</v>
-          </cell>
-          <cell r="D37">
-            <v>14.58754225655891</v>
-          </cell>
-          <cell r="E37">
-            <v>13.525175686791769</v>
-          </cell>
-          <cell r="F37">
-            <v>13.440472672437521</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D38">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E38">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F38">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D39">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E39">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F39">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D40">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E40">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F40">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D41">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E41">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F41">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>22.02694</v>
-          </cell>
-          <cell r="D42">
-            <v>19.968050000000002</v>
-          </cell>
-          <cell r="E42">
-            <v>18.498390000000001</v>
-          </cell>
-          <cell r="F42">
-            <v>18.380500000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP001271</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip1271</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>10</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>16</v>
-          </cell>
-          <cell r="C4">
-            <v>5</v>
-          </cell>
-          <cell r="D4">
-            <v>17.181861170801749</v>
-          </cell>
-          <cell r="E4">
-            <v>17.1818165619738</v>
-          </cell>
-          <cell r="F4">
-            <v>17.181969642125878</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>13</v>
-          </cell>
-          <cell r="C5">
-            <v>10.5</v>
-          </cell>
-          <cell r="D5">
-            <v>16.88639565204544</v>
-          </cell>
-          <cell r="E5">
-            <v>15.74999737441005</v>
-          </cell>
-          <cell r="F5">
-            <v>15.224258953894619</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>22</v>
-          </cell>
-          <cell r="C6">
-            <v>11.75</v>
-          </cell>
-          <cell r="D6">
-            <v>15.59092977393702</v>
-          </cell>
-          <cell r="E6">
-            <v>13.61440369246777</v>
-          </cell>
-          <cell r="F6">
-            <v>12.762710153133961</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>49</v>
-          </cell>
-          <cell r="C7">
-            <v>16.875</v>
-          </cell>
-          <cell r="D7">
-            <v>18.154558648918549</v>
-          </cell>
-          <cell r="E7">
-            <v>14.814355090484391</v>
-          </cell>
-          <cell r="F7">
-            <v>13.57915618869489</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>28</v>
-          </cell>
-          <cell r="C8">
-            <v>32.9375</v>
-          </cell>
-          <cell r="D8">
-            <v>31.863646024643678</v>
-          </cell>
-          <cell r="E8">
-            <v>24.774325666513221</v>
-          </cell>
-          <cell r="F8">
-            <v>22.391477036175999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>15</v>
-          </cell>
-          <cell r="C9">
-            <v>30.46875</v>
-          </cell>
-          <cell r="D9">
-            <v>30.045459496450771</v>
-          </cell>
-          <cell r="E9">
-            <v>22.978045832919658</v>
-          </cell>
-          <cell r="F9">
-            <v>20.603283093335431</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="C10">
-            <v>22.734375</v>
-          </cell>
-          <cell r="D10">
-            <v>22.750690917498339</v>
-          </cell>
-          <cell r="E10">
-            <v>17.258708212510982</v>
-          </cell>
-          <cell r="F10">
-            <v>15.40941602137997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>13</v>
-          </cell>
-          <cell r="C11">
-            <v>14.8671875</v>
-          </cell>
-          <cell r="D11">
-            <v>14.996504437111399</v>
-          </cell>
-          <cell r="E11">
-            <v>11.32935321801537</v>
-          </cell>
-          <cell r="F11">
-            <v>10.09319799296434</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>16</v>
-          </cell>
-          <cell r="C12">
-            <v>13.93359375</v>
-          </cell>
-          <cell r="D12">
-            <v>14.00599059609759</v>
-          </cell>
-          <cell r="E12">
-            <v>10.544639445268659</v>
-          </cell>
-          <cell r="F12">
-            <v>9.3836133592921147</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>29</v>
-          </cell>
-          <cell r="C13">
-            <v>14.966796875</v>
-          </cell>
-          <cell r="D13">
-            <v>14.999115908234391</v>
-          </cell>
-          <cell r="E13">
-            <v>11.270025909035899</v>
-          </cell>
-          <cell r="F13">
-            <v>10.02348033133366</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>22</v>
-          </cell>
-          <cell r="C14">
-            <v>21.9833984375</v>
-          </cell>
-          <cell r="D14">
-            <v>21.985911889097871</v>
-          </cell>
-          <cell r="E14">
-            <v>16.501741102165759</v>
-          </cell>
-          <cell r="F14">
-            <v>14.672377696616881</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>21.99169921875</v>
-          </cell>
-          <cell r="D15">
-            <v>21.992949072310221</v>
-          </cell>
-          <cell r="E15">
-            <v>16.50087123875236</v>
-          </cell>
-          <cell r="F15">
-            <v>14.669524032094619</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="C16">
-            <v>13.995849609375</v>
-          </cell>
-          <cell r="D16">
-            <v>14.00037715319082</v>
-          </cell>
-          <cell r="E16">
-            <v>10.50280650082134</v>
-          </cell>
-          <cell r="F16">
-            <v>9.3364911131171766</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>38</v>
-          </cell>
-          <cell r="C17">
-            <v>7.9979248046875</v>
-          </cell>
-          <cell r="D17">
-            <v>8.0016531065923733</v>
-          </cell>
-          <cell r="E17">
-            <v>6.0022927193547702</v>
-          </cell>
-          <cell r="F17">
-            <v>5.335560821963373</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>45</v>
-          </cell>
-          <cell r="C18">
-            <v>22.99896240234375</v>
-          </cell>
-          <cell r="D18">
-            <v>22.998995825785109</v>
-          </cell>
-          <cell r="E18">
-            <v>17.25003487354234</v>
-          </cell>
-          <cell r="F18">
-            <v>15.33363667370363</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>33.999481201171882</v>
-          </cell>
-          <cell r="D19">
-            <v>33.998826537533652</v>
-          </cell>
-          <cell r="E19">
-            <v>25.49960983104641</v>
-          </cell>
-          <cell r="F19">
-            <v>22.666521149743328</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1</v>
-          </cell>
-          <cell r="C20">
-            <v>25.999740600585941</v>
-          </cell>
-          <cell r="D20">
-            <v>25.999657383662878</v>
-          </cell>
-          <cell r="E20">
-            <v>19.499953134942292</v>
-          </cell>
-          <cell r="F20">
-            <v>17.3333686458618</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>37</v>
-          </cell>
-          <cell r="C21">
-            <v>13.499870300292971</v>
-          </cell>
-          <cell r="D21">
-            <v>13.500019420878621</v>
-          </cell>
-          <cell r="E21">
-            <v>10.12509236879839</v>
-          </cell>
-          <cell r="F21">
-            <v>9.0001020889114525</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>45</v>
-          </cell>
-          <cell r="C22">
-            <v>25.249935150146481</v>
-          </cell>
-          <cell r="D22">
-            <v>25.249920065948761</v>
-          </cell>
-          <cell r="E22">
-            <v>18.93749175758845</v>
-          </cell>
-          <cell r="F22">
-            <v>16.833344694586501</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>12</v>
-          </cell>
-          <cell r="C23">
-            <v>35.124967575073242</v>
-          </cell>
-          <cell r="D23">
-            <v>35.124922362887759</v>
-          </cell>
-          <cell r="E23">
-            <v>26.343723007750331</v>
-          </cell>
-          <cell r="F23">
-            <v>23.416655671768432</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>22</v>
-          </cell>
-          <cell r="C24">
-            <v>23.562483787536621</v>
-          </cell>
-          <cell r="D24">
-            <v>23.5624832350126</v>
-          </cell>
-          <cell r="E24">
-            <v>17.671874893560972</v>
-          </cell>
-          <cell r="F24">
-            <v>15.70833759846796</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>16</v>
-          </cell>
-          <cell r="C25">
-            <v>22.781241893768311</v>
-          </cell>
-          <cell r="D25">
-            <v>22.781242362554519</v>
-          </cell>
-          <cell r="E25">
-            <v>17.08593789913575</v>
-          </cell>
-          <cell r="F25">
-            <v>15.187502462386121</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>18</v>
-          </cell>
-          <cell r="C26">
-            <v>19.390620946884159</v>
-          </cell>
-          <cell r="D26">
-            <v>19.390622798048181</v>
-          </cell>
-          <cell r="E26">
-            <v>14.542969931179339</v>
-          </cell>
-          <cell r="F26">
-            <v>12.92708528023091</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="C27">
-            <v>18.695310473442081</v>
-          </cell>
-          <cell r="D27">
-            <v>18.695311564798949</v>
-          </cell>
-          <cell r="E27">
-            <v>14.02148506623889</v>
-          </cell>
-          <cell r="F27">
-            <v>12.463542713500029</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>14</v>
-          </cell>
-          <cell r="C28">
-            <v>22.847655236721039</v>
-          </cell>
-          <cell r="D28">
-            <v>22.84765528740229</v>
-          </cell>
-          <cell r="E28">
-            <v>17.13574223258572</v>
-          </cell>
-          <cell r="F28">
-            <v>15.23177113762746</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>4</v>
-          </cell>
-          <cell r="C29">
-            <v>18.423827618360519</v>
-          </cell>
-          <cell r="D29">
-            <v>18.423827907381401</v>
-          </cell>
-          <cell r="E29">
-            <v>13.81787127638435</v>
-          </cell>
-          <cell r="F29">
-            <v>12.282552352204929</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>5</v>
-          </cell>
-          <cell r="C30">
-            <v>11.21191380918026</v>
-          </cell>
-          <cell r="D30">
-            <v>11.211914168622149</v>
-          </cell>
-          <cell r="E30">
-            <v>8.4089357686861756</v>
-          </cell>
-          <cell r="F30">
-            <v>7.4746096045804693</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>6</v>
-          </cell>
-          <cell r="C31">
-            <v>8.1059569045901299</v>
-          </cell>
-          <cell r="D31">
-            <v>8.1059571305933709</v>
-          </cell>
-          <cell r="E31">
-            <v>6.0794679124430333</v>
-          </cell>
-          <cell r="F31">
-            <v>5.4039714894448929</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>1</v>
-          </cell>
-          <cell r="C32">
-            <v>7.0529784522950649</v>
-          </cell>
-          <cell r="D32">
-            <v>7.0529785731419752</v>
-          </cell>
-          <cell r="E32">
-            <v>5.2897339609847247</v>
-          </cell>
-          <cell r="F32">
-            <v>4.701985748195356</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>28</v>
-          </cell>
-          <cell r="C33">
-            <v>4.0264892261475334</v>
-          </cell>
-          <cell r="D33">
-            <v>4.0264892978455213</v>
-          </cell>
-          <cell r="E33">
-            <v>3.0198669873376112</v>
-          </cell>
-          <cell r="F33">
-            <v>2.68432621242196</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>16.01324461307377</v>
-          </cell>
-          <cell r="D34">
-            <v>16.013244626595728</v>
-          </cell>
-          <cell r="E34">
-            <v>12.00993348011311</v>
-          </cell>
-          <cell r="F34">
-            <v>10.67549642966071</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>8.0066223065368831</v>
-          </cell>
-          <cell r="D35">
-            <v>16.013244626595728</v>
-          </cell>
-          <cell r="E35">
-            <v>12.00993348011311</v>
-          </cell>
-          <cell r="F35">
-            <v>10.67549642966071</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>41</v>
-          </cell>
-          <cell r="C36">
-            <v>4.0033111532684416</v>
-          </cell>
-          <cell r="D36">
-            <v>16.013244626595728</v>
-          </cell>
-          <cell r="E36">
-            <v>12.00993348011311</v>
-          </cell>
-          <cell r="F36">
-            <v>10.67549642966071</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>60</v>
-          </cell>
-          <cell r="C37">
-            <v>22.501655576634221</v>
-          </cell>
-          <cell r="D37">
-            <v>14.25331115746846</v>
-          </cell>
-          <cell r="E37">
-            <v>10.68998337052585</v>
-          </cell>
-          <cell r="F37">
-            <v>9.5022074411112953</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP001271</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip1271.1</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>10</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>16</v>
-          </cell>
-          <cell r="C4">
-            <v>3.2482967328445782</v>
-          </cell>
-          <cell r="D4">
-            <v>11.313970215948951</v>
-          </cell>
-          <cell r="E4">
-            <v>10.73315770912146</v>
-          </cell>
-          <cell r="F4">
-            <v>12.04010902309439</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>13</v>
-          </cell>
-          <cell r="C5">
-            <v>7.3904283389350258</v>
-          </cell>
-          <cell r="D5">
-            <v>11.74219013953172</v>
-          </cell>
-          <cell r="E5">
-            <v>11.24658253911428</v>
-          </cell>
-          <cell r="F5">
-            <v>12.36991714924274</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>22</v>
-          </cell>
-          <cell r="C6">
-            <v>9.2125836688645144</v>
-          </cell>
-          <cell r="D6">
-            <v>11.85713162236938</v>
-          </cell>
-          <cell r="E6">
-            <v>11.417392225472771</v>
-          </cell>
-          <cell r="F6">
-            <v>12.4223949664499</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>49</v>
-          </cell>
-          <cell r="C7">
-            <v>13.366315937859589</v>
-          </cell>
-          <cell r="D7">
-            <v>12.78400971870027</v>
-          </cell>
-          <cell r="E7">
-            <v>12.44916684477737</v>
-          </cell>
-          <cell r="F7">
-            <v>13.220086620757829</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>28</v>
-          </cell>
-          <cell r="C8">
-            <v>24.94119388968625</v>
-          </cell>
-          <cell r="D8">
-            <v>16.09350828476413</v>
-          </cell>
-          <cell r="E8">
-            <v>16.01318495503655</v>
-          </cell>
-          <cell r="F8">
-            <v>16.20009448987464</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>15</v>
-          </cell>
-          <cell r="C9">
-            <v>25.934784879139968</v>
-          </cell>
-          <cell r="D9">
-            <v>17.181550241705601</v>
-          </cell>
-          <cell r="E9">
-            <v>17.18181857509985</v>
-          </cell>
-          <cell r="F9">
-            <v>17.18287526984135</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="C10">
-            <v>22.382842279413101</v>
-          </cell>
-          <cell r="D10">
-            <v>16.982195265518619</v>
-          </cell>
-          <cell r="E10">
-            <v>16.968797505067091</v>
-          </cell>
-          <cell r="F10">
-            <v>17.00106975343666</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>13</v>
-          </cell>
-          <cell r="C11">
-            <v>17.386038647605002</v>
-          </cell>
-          <cell r="D11">
-            <v>16.069999817790212</v>
-          </cell>
-          <cell r="E11">
-            <v>15.99644210028745</v>
-          </cell>
-          <cell r="F11">
-            <v>16.168108912572858</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>16</v>
-          </cell>
-          <cell r="C12">
-            <v>15.961323146690461</v>
-          </cell>
-          <cell r="D12">
-            <v>15.78945632366551</v>
-          </cell>
-          <cell r="E12">
-            <v>15.704002228836201</v>
-          </cell>
-          <cell r="F12">
-            <v>15.904246070545071</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>29</v>
-          </cell>
-          <cell r="C13">
-            <v>15.973886536314669</v>
-          </cell>
-          <cell r="D13">
-            <v>15.80869626619749</v>
-          </cell>
-          <cell r="E13">
-            <v>15.732625049325391</v>
-          </cell>
-          <cell r="F13">
-            <v>15.91222114108883</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>22</v>
-          </cell>
-          <cell r="C14">
-            <v>20.205154716889851</v>
-          </cell>
-          <cell r="D14">
-            <v>17.01414723280466</v>
-          </cell>
-          <cell r="E14">
-            <v>17.026135232042609</v>
-          </cell>
-          <cell r="F14">
-            <v>17.002265252841351</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>20.788173723798671</v>
-          </cell>
-          <cell r="D15">
-            <v>17.4697656501036</v>
-          </cell>
-          <cell r="E15">
-            <v>17.510894183714399</v>
-          </cell>
-          <cell r="F15">
-            <v>17.418512452555088</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="C16">
-            <v>15.98453608462335</v>
-          </cell>
-          <cell r="D16">
-            <v>16.421632677438481</v>
-          </cell>
-          <cell r="E16">
-            <v>16.388154818789541</v>
-          </cell>
-          <cell r="F16">
-            <v>16.467496814846609</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>38</v>
-          </cell>
-          <cell r="C17">
-            <v>11.44194379722043</v>
-          </cell>
-          <cell r="D17">
-            <v>15.103751463233341</v>
-          </cell>
-          <cell r="E17">
-            <v>14.984860173392249</v>
-          </cell>
-          <cell r="F17">
-            <v>15.26253988618037</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>45</v>
-          </cell>
-          <cell r="C18">
-            <v>20.068788516639589</v>
-          </cell>
-          <cell r="D18">
-            <v>17.196062095167822</v>
-          </cell>
-          <cell r="E18">
-            <v>17.228923109771252</v>
-          </cell>
-          <cell r="F18">
-            <v>17.156278680025569</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>28.167185797365271</v>
-          </cell>
-          <cell r="D19">
-            <v>19.736848408436749</v>
-          </cell>
-          <cell r="E19">
-            <v>19.93672094358525</v>
-          </cell>
-          <cell r="F19">
-            <v>19.475303539120919</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1</v>
-          </cell>
-          <cell r="C20">
-            <v>24.864582156584731</v>
-          </cell>
-          <cell r="D20">
-            <v>19.57813128319675</v>
-          </cell>
-          <cell r="E20">
-            <v>19.747558032530531</v>
-          </cell>
-          <cell r="F20">
-            <v>19.352429672061511</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>37</v>
-          </cell>
-          <cell r="C21">
-            <v>17.112657731591209</v>
-          </cell>
-          <cell r="D21">
-            <v>17.88041988367117</v>
-          </cell>
-          <cell r="E21">
-            <v>17.919110015287771</v>
-          </cell>
-          <cell r="F21">
-            <v>17.823907663788152</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>45</v>
-          </cell>
-          <cell r="C22">
-            <v>23.57265662313463</v>
-          </cell>
-          <cell r="D22">
-            <v>19.627610066447069</v>
-          </cell>
-          <cell r="E22">
-            <v>19.779484452847779</v>
-          </cell>
-          <cell r="F22">
-            <v>19.421030199193311</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>12</v>
-          </cell>
-          <cell r="C23">
-            <v>30.5328935715957</v>
-          </cell>
-          <cell r="D23">
-            <v>21.946196060179041</v>
-          </cell>
-          <cell r="E23">
-            <v>22.238528359549271</v>
-          </cell>
-          <cell r="F23">
-            <v>21.55143030387428</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>22</v>
-          </cell>
-          <cell r="C24">
-            <v>24.512859807718641</v>
-          </cell>
-          <cell r="D24">
-            <v>21.037290297040201</v>
-          </cell>
-          <cell r="E24">
-            <v>21.239789644289871</v>
-          </cell>
-          <cell r="F24">
-            <v>20.75591866105173</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>16</v>
-          </cell>
-          <cell r="C25">
-            <v>23.696608377367749</v>
-          </cell>
-          <cell r="D25">
-            <v>21.125264857431919</v>
-          </cell>
-          <cell r="E25">
-            <v>21.313594691975009</v>
-          </cell>
-          <cell r="F25">
-            <v>20.859534675274279</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>18</v>
-          </cell>
-          <cell r="C26">
-            <v>21.196521592748962</v>
-          </cell>
-          <cell r="D26">
-            <v>20.656906621686051</v>
-          </cell>
-          <cell r="E26">
-            <v>20.795119007594881</v>
-          </cell>
-          <cell r="F26">
-            <v>20.454797760327072</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="C27">
-            <v>20.158196528129601</v>
-          </cell>
-          <cell r="D27">
-            <v>20.414112508703528</v>
-          </cell>
-          <cell r="E27">
-            <v>20.52223733385463</v>
-          </cell>
-          <cell r="F27">
-            <v>20.250344587387239</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>14</v>
-          </cell>
-          <cell r="C28">
-            <v>22.38061731457373</v>
-          </cell>
-          <cell r="D28">
-            <v>21.015945692120741</v>
-          </cell>
-          <cell r="E28">
-            <v>21.153593474787169</v>
-          </cell>
-          <cell r="F28">
-            <v>20.812504307695288</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>4</v>
-          </cell>
-          <cell r="C29">
-            <v>19.658344130358682</v>
-          </cell>
-          <cell r="D29">
-            <v>20.374812793091799</v>
-          </cell>
-          <cell r="E29">
-            <v>20.455695046760589</v>
-          </cell>
-          <cell r="F29">
-            <v>20.24511007112179</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>5</v>
-          </cell>
-          <cell r="C30">
-            <v>14.57204932231866</v>
-          </cell>
-          <cell r="D30">
-            <v>18.87844558784165</v>
-          </cell>
-          <cell r="E30">
-            <v>18.85072436115334</v>
-          </cell>
-          <cell r="F30">
-            <v>18.892100756969519</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>6</v>
-          </cell>
-          <cell r="C31">
-            <v>11.46276366828717</v>
-          </cell>
-          <cell r="D31">
-            <v>17.61020202869355</v>
-          </cell>
-          <cell r="E31">
-            <v>17.499798808914829</v>
-          </cell>
-          <cell r="F31">
-            <v>17.735066939352599</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>1</v>
-          </cell>
-          <cell r="C32">
-            <v>9.6882959306872447</v>
-          </cell>
-          <cell r="D32">
-            <v>16.54923566406336</v>
-          </cell>
-          <cell r="E32">
-            <v>16.37814159459376</v>
-          </cell>
-          <cell r="F32">
-            <v>16.757686372941961</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>28</v>
-          </cell>
-          <cell r="C33">
-            <v>6.8660796021234232</v>
-          </cell>
-          <cell r="D33">
-            <v>15.12831155492445</v>
-          </cell>
-          <cell r="E33">
-            <v>14.87830977116001</v>
-          </cell>
-          <cell r="F33">
-            <v>15.44527320196155</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>13.731004060185411</v>
-          </cell>
-          <cell r="D34">
-            <v>16.30455535872224</v>
-          </cell>
-          <cell r="E34">
-            <v>16.157626967529168</v>
-          </cell>
-          <cell r="F34">
-            <v>16.490920914063789</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>9.2707664974478199</v>
-          </cell>
-          <cell r="D35">
-            <v>16.30455535872224</v>
-          </cell>
-          <cell r="E35">
-            <v>16.157626967529168</v>
-          </cell>
-          <cell r="F35">
-            <v>16.490920914063789</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>41</v>
-          </cell>
-          <cell r="C36">
-            <v>6.259346444985348</v>
-          </cell>
-          <cell r="D36">
-            <v>16.30455535872224</v>
-          </cell>
-          <cell r="E36">
-            <v>16.157626967529168</v>
-          </cell>
-          <cell r="F36">
-            <v>16.490920914063789</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>60</v>
-          </cell>
-          <cell r="C37">
-            <v>17.544141588949291</v>
-          </cell>
-          <cell r="D37">
-            <v>18.561276703304699</v>
-          </cell>
-          <cell r="E37">
-            <v>18.579080889118789</v>
-          </cell>
-          <cell r="F37">
-            <v>18.53221279100293</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>31.335059999999999</v>
-          </cell>
-          <cell r="D38">
-            <v>22.348040000000001</v>
-          </cell>
-          <cell r="E38">
-            <v>22.617660000000001</v>
-          </cell>
-          <cell r="F38">
-            <v>21.985949999999999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>31.335059999999999</v>
-          </cell>
-          <cell r="D39">
-            <v>22.348040000000001</v>
-          </cell>
-          <cell r="E39">
-            <v>22.617660000000001</v>
-          </cell>
-          <cell r="F39">
-            <v>21.985949999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>31.335059999999999</v>
-          </cell>
-          <cell r="D40">
-            <v>22.348040000000001</v>
-          </cell>
-          <cell r="E40">
-            <v>22.617660000000001</v>
-          </cell>
-          <cell r="F40">
-            <v>21.985949999999999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>31.335059999999999</v>
-          </cell>
-          <cell r="D41">
-            <v>22.348040000000001</v>
-          </cell>
-          <cell r="E41">
-            <v>22.617660000000001</v>
-          </cell>
-          <cell r="F41">
-            <v>21.985949999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>31.335059999999999</v>
-          </cell>
-          <cell r="D42">
-            <v>22.348040000000001</v>
-          </cell>
-          <cell r="E42">
-            <v>22.617660000000001</v>
-          </cell>
-          <cell r="F42">
-            <v>21.985949999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -26258,7 +23108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -26542,20 +23392,20 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="R8" s="10" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="R8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
       <c r="X8" t="s">
         <v>57</v>
       </c>
@@ -26670,16 +23520,16 @@
         <f>(V6-T6)/T6</f>
         <v>-1.5893165521084264E-3</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="X10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AB10" s="10" t="s">
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AB10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -26732,30 +23582,30 @@
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="R12" s="11" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="R12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="X12" s="11" t="s">
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="X12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AB12" s="11" t="s">
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AB12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -27205,13 +24055,13 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
       <c r="R25" t="s">
         <v>60</v>
       </c>
@@ -27231,13 +24081,13 @@
         <f>V24-V23</f>
         <v>3.5895299999999999</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="X25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -27262,13 +24112,13 @@
         <f>(O23-L23)/L23</f>
         <v>1.656435033003717E-2</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
       <c r="X26" t="s">
         <v>66</v>
       </c>
@@ -27384,13 +24234,13 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
       <c r="R29" s="4" t="s">
         <v>53</v>
       </c>
@@ -27401,13 +24251,13 @@
         <f>(V24-U24)/U24</f>
         <v>-6.3891183581287333E-3</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="X29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
     </row>
     <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -27432,13 +24282,13 @@
         <f>(O22-L22)/L22</f>
         <v>-9.1881464673040827E-2</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
       <c r="X30" t="s">
         <v>66</v>
       </c>
@@ -27703,8 +24553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27772,9 +24622,12 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -27795,9 +24648,12 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -27818,16 +24674,16 @@
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>16.787301196608649</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>17.181817506169448</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>17.181820866992119</v>
       </c>
       <c r="G4">
@@ -27850,16 +24706,16 @@
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>2.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>16.759183294213688</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>17.111038291871211</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>17.109537789844801</v>
       </c>
       <c r="G5">
@@ -27882,16 +24738,16 @@
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>3.55</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>16.61570300345959</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>16.929319229514</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>16.9265702942552</v>
       </c>
       <c r="G6">
@@ -27914,16 +24770,16 @@
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5.3949999999999996</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>16.83475497421226</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>17.090860388345181</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>17.08586789484146</v>
       </c>
       <c r="G7">
@@ -27946,16 +24802,16 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>9.7555000000000014</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>18.225865067053991</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>18.364934694051701</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>18.354581030395401</v>
       </c>
       <c r="G8">
@@ -27978,16 +24834,16 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>11.57995</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>18.674018450838041</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>18.742520322330218</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>18.729262818445729</v>
       </c>
       <c r="G9">
@@ -28010,16 +24866,16 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>11.921955000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>18.49591719665402</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>18.524741446941789</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>18.51021313182795</v>
       </c>
       <c r="G10">
@@ -28042,16 +24898,16 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>11.429759499999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>17.908369695532659</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>17.917832455464179</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>17.903105293795601</v>
       </c>
       <c r="G11">
@@ -28074,16 +24930,16 @@
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>11.58678355</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>17.64461134065111</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>17.61863687958677</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>17.602862801657569</v>
       </c>
       <c r="G12">
@@ -28106,16 +24962,16 @@
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>12.028105195</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>17.55194887336658</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>17.482363415138959</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>17.465105778931989</v>
       </c>
       <c r="G13">
@@ -28138,16 +24994,16 @@
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>13.725294675500001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>18.226412323856731</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>18.075499620419041</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>18.05476247653516</v>
       </c>
       <c r="G14">
@@ -28170,16 +25026,16 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>14.552765207949999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>18.458259137895539</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>18.249035134432962</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>18.22601502748353</v>
       </c>
       <c r="G15">
@@ -28202,16 +25058,16 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>13.697488687154999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>17.662132510321559</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>17.447107529046349</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>17.42454959061671</v>
       </c>
       <c r="G16">
@@ -28234,16 +25090,16 @@
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>12.5277398184395</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>16.623786456334528</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>16.416387153250771</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>16.3949759265798</v>
       </c>
       <c r="G17">
@@ -28266,16 +25122,16 @@
       <c r="B18">
         <v>45</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>15.074965836595551</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>18.090386025114249</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>17.76685927067015</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>17.740055996295979</v>
       </c>
       <c r="G18">
@@ -28298,16 +25154,16 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>18.067469252936</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>19.996460052957911</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>19.53647659690953</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>19.503183622256699</v>
       </c>
       <c r="G19">
@@ -28330,16 +25186,16 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>18.060722327642399</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>19.850797259541078</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>19.358709949116879</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>19.32439003993505</v>
       </c>
       <c r="G20">
@@ -28362,16 +25218,16 @@
       <c r="B21">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>16.35465009487816</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>18.437210374544321</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>17.978274298880809</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>17.94633076565805</v>
       </c>
       <c r="G21">
@@ -28394,16 +25250,16 @@
       <c r="B22">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>18.41918508539035</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>19.864909452044021</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>19.298984108392759</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>19.26200851282665</v>
       </c>
       <c r="G22">
@@ -28426,16 +25282,16 @@
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>21.077266576851311</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>21.84378507452136</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>21.145273304626819</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>21.101885397688228</v>
       </c>
       <c r="G23">
@@ -28458,16 +25314,16 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>20.16953991916618</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>21.051945060113901</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>20.361357598332429</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>20.318919667151881</v>
       </c>
       <c r="G24">
@@ -28490,16 +25346,16 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>20.35258592724956</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>21.129728570349702</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>20.405550710853301</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>20.361844617596539</v>
       </c>
       <c r="G25">
@@ -28522,16 +25378,16 @@
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>19.917327334524611</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>20.701163402886898</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>19.97065093539139</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>19.92707861021411</v>
       </c>
       <c r="G26">
@@ -28554,16 +25410,16 @@
       <c r="B27">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>19.725594601072149</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>20.471718225175191</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>19.72680895308887</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>19.682914189182782</v>
       </c>
       <c r="G27">
@@ -28586,16 +25442,16 @@
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>20.453035140964939</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>21.034727862745981</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>20.23763459967001</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>20.19139767148264</v>
       </c>
       <c r="G28">
@@ -28618,16 +25474,16 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>19.807731626868438</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>20.419578029640309</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>19.630975041168728</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>19.585559668452579</v>
       </c>
       <c r="G29">
@@ -28650,16 +25506,16 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>18.2269584641816</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>18.965516422797741</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>18.22903805960939</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>18.186712400800399</v>
       </c>
       <c r="G30">
@@ -28682,16 +25538,16 @@
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>16.90426261776344</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>17.714461759553568</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>17.02156292249899</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>16.981850207364818</v>
       </c>
       <c r="G31">
@@ -28726,16 +25582,16 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>15.813836355987091</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>16.654012310019681</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>15.99668054220982</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>15.95913350941923</v>
       </c>
       <c r="G32">
@@ -28773,16 +25629,16 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>14.33245272038838</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>15.22338027986687</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>14.62155299243299</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>14.587196952551221</v>
       </c>
       <c r="G33">
@@ -28820,16 +25676,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>15.699207448349551</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>16.401185233376712</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>15.725778899137991</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>15.687797384201479</v>
       </c>
       <c r="G34">
@@ -28867,16 +25723,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>14.129286703514589</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>16.401185233376712</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>15.725778899137991</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>15.687797384201479</v>
       </c>
       <c r="G35">
@@ -28918,16 +25774,16 @@
       <c r="B36">
         <v>41</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>12.716358033163131</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>16.401185233376712</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>15.725778899137991</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>15.687797384201479</v>
       </c>
       <c r="G36">
@@ -28942,13 +25798,13 @@
       <c r="J36">
         <v>28.283641966836871</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -28957,16 +25813,16 @@
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>15.544722229846821</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>15.75842651580423</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>15.08115690148289</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>15.043649410527641</v>
       </c>
       <c r="G37">
@@ -28999,16 +25855,16 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>19.99025</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>19.30151</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>18.438230000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>18.391079999999999</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -29029,16 +25885,16 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>19.99025</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>19.30151</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>18.438230000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>18.391079999999999</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -29059,16 +25915,16 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>19.99025</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>19.30151</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>18.438230000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>18.391079999999999</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -29089,37 +25945,37 @@
       <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>19.99025</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>19.30151</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>18.438230000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>18.391079999999999</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>19.99025</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>19.30151</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>18.438230000000001</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>18.391079999999999</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -29207,8 +26063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29274,9 +26130,12 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -29297,9 +26156,12 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -29320,16 +26182,16 @@
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>16.069086430961409</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>17.002824925994869</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>17.175348677887811</v>
       </c>
       <c r="G4">
@@ -29352,16 +26214,16 @@
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3.6749999999999998</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>16.06524829587109</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>16.880445762486811</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>17.037979456372341</v>
       </c>
       <c r="G5">
@@ -29384,16 +26246,16 @@
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>5.0737500000000004</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>15.87719625148212</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>16.582565652181891</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>16.725584761046999</v>
       </c>
       <c r="G6">
@@ -29416,16 +26278,16 @@
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>7.6126874999999989</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>16.28936749349263</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>16.836179544709449</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>16.960565001377891</v>
       </c>
       <c r="G7">
@@ -29448,16 +26310,16 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>13.820784375000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>18.68983956215834</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>18.926833635759792</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>19.020224284552871</v>
       </c>
       <c r="G8">
@@ -29480,16 +26342,16 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>15.94766671875</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>19.429754902894011</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>19.481018796562939</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>19.55345526625948</v>
       </c>
       <c r="G9">
@@ -29512,16 +26374,16 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>15.8055167109375</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>19.050992087683252</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>19.001680434644019</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>19.06012390721218</v>
       </c>
       <c r="G10">
@@ -29544,16 +26406,16 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>14.484689204296879</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>17.949542358124681</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>17.856753223594669</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>17.905964380937469</v>
       </c>
       <c r="G11">
@@ -29576,16 +26438,16 @@
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>14.26198582365234</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>17.46899836848732</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>17.290556643183219</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>17.327314715523681</v>
       </c>
       <c r="G12">
@@ -29608,16 +26470,16 @@
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>14.522687950104491</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>17.318407435993208</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>17.035243053306839</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>17.0582587533215</v>
       </c>
       <c r="G13">
@@ -29640,16 +26502,16 @@
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>16.694284757588822</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>18.57562027179792</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>18.08885008635826</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>18.09040922297244</v>
       </c>
       <c r="G14">
@@ -29672,16 +26534,16 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>17.490142043950499</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>18.960472419515568</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>18.342971553313351</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>18.329320047816282</v>
       </c>
       <c r="G15">
@@ -29704,16 +26566,16 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>15.76662073735792</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>17.446968471895861</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>16.84902809905315</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>16.832709961277569</v>
       </c>
       <c r="G16">
@@ -29736,16 +26598,16 @@
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>13.701627626754229</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>15.58110860941564</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>15.03727555088777</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>15.02145942055421</v>
       </c>
       <c r="G17">
@@ -29768,16 +26630,16 @@
       <c r="B18">
         <v>45</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>17.3463834827411</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>18.37059345522907</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>17.539814104358079</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>17.497213493441059</v>
       </c>
       <c r="G18">
@@ -29800,16 +26662,16 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>21.494425960329931</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>21.770935923953729</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>20.61528183192328</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>20.543178403930149</v>
       </c>
       <c r="G19">
@@ -29832,16 +26694,16 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>20.970262066280441</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>21.27843325110932</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>20.097396633274339</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>20.020414325200431</v>
       </c>
       <c r="G20">
@@ -29864,16 +26726,16 @@
       <c r="B21">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>17.97472275633837</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>18.57758750049274</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>17.54386178578293</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>17.476322677870829</v>
       </c>
       <c r="G21">
@@ -29896,16 +26758,16 @@
       <c r="B22">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>20.828514342887619</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>21.073189233001269</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>19.803580887013378</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>19.714711256111059</v>
       </c>
       <c r="G22">
@@ -29928,16 +26790,16 @@
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>24.454237191454471</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>24.362251960782299</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>22.803229145750809</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>22.688959146480961</v>
       </c>
       <c r="G23">
@@ -29960,16 +26822,16 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>22.5861016127363</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>22.64131925410501</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>21.174038131820609</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>21.065517037369339</v>
       </c>
       <c r="G24">
@@ -29992,16 +26854,16 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>22.498186370825859</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>22.551068121578599</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>21.05807346344</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>20.945997218747831</v>
       </c>
       <c r="G25">
@@ -30024,16 +26886,16 @@
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>21.523458415201979</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>21.6205253004597</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>20.169148905418869</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>20.059171928290588</v>
       </c>
       <c r="G26">
@@ -30056,16 +26918,16 @@
       <c r="B27">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>20.99493965292168</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>21.102125643367099</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>19.665264680288828</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>19.555361803281631</v>
       </c>
       <c r="G27">
@@ -30088,16 +26950,16 @@
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>21.895698704983431</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>21.952400072777671</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>20.43074931013696</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>20.313020178937489</v>
       </c>
       <c r="G28">
@@ -30120,16 +26982,16 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>20.71134389923591</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>20.799204923069539</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>19.345949282365599</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>19.23294667889818</v>
       </c>
       <c r="G29">
@@ -30164,16 +27026,16 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>18.204642314350529</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>18.350903404283461</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>17.065722238102481</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>16.965643530227741</v>
       </c>
       <c r="G30">
@@ -30211,16 +27073,16 @@
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>16.223945967197949</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>16.396828291565051</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>15.244863755956271</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>15.15498262534944</v>
       </c>
       <c r="G31">
@@ -30258,16 +27120,16 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>14.690354072118261</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>14.869564755657009</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>13.82071674843184</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>13.73867913433663</v>
       </c>
       <c r="G32">
@@ -30305,16 +27167,16 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>12.636800961300519</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>12.825824837026451</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>11.920477515184009</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>11.84963242251634</v>
       </c>
       <c r="G33">
@@ -30356,16 +27218,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>14.94128081710544</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>15.06773613962906</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>13.985884637859179</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>13.90034995388408</v>
       </c>
       <c r="G34">
@@ -30380,13 +27242,13 @@
       <c r="J34">
         <v>-14.94128081710544</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -30395,16 +27257,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>12.70008869453962</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>15.06773613962906</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>13.985884637859179</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>13.90034995388408</v>
       </c>
       <c r="G35">
@@ -30443,16 +27305,16 @@
       <c r="B36">
         <v>41</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>10.795075390358679</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>15.06773613962906</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>13.985884637859179</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>13.90034995388408</v>
       </c>
       <c r="G36">
@@ -30483,7 +27345,7 @@
         <f>(N32-P32)/P32</f>
         <v>1.5918465000994504E-3</v>
       </c>
-      <c r="S36" s="13"/>
+      <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -30492,16 +27354,16 @@
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>15.32581408180488</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>14.58754225655891</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>13.525175686791769</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>13.440472672437521</v>
       </c>
       <c r="G37">
@@ -30534,16 +27396,16 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>22.02694</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>19.968050000000002</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>18.498390000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>18.380500000000001</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -30564,37 +27426,37 @@
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>22.02694</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>19.968050000000002</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>18.498390000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>18.380500000000001</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>22.02694</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>19.968050000000002</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>18.498390000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>18.380500000000001</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -30615,16 +27477,16 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>22.02694</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>19.968050000000002</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>18.498390000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>18.380500000000001</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -30645,16 +27507,16 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>22.02694</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>19.968050000000002</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>18.498390000000001</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>18.380500000000001</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -30706,8 +27568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30773,9 +27635,12 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -30796,9 +27661,12 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -30819,16 +27687,16 @@
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>17.181861170801749</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>17.1818165619738</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>17.181969642125878</v>
       </c>
       <c r="G4">
@@ -30851,16 +27719,16 @@
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>10.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>16.88639565204544</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>15.74999737441005</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>15.224258953894619</v>
       </c>
       <c r="G5">
@@ -30883,16 +27751,16 @@
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>11.75</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>15.59092977393702</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>13.61440369246777</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>12.762710153133961</v>
       </c>
       <c r="G6">
@@ -30915,16 +27783,16 @@
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>16.875</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>18.154558648918549</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>14.814355090484391</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>13.57915618869489</v>
       </c>
       <c r="G7">
@@ -30947,16 +27815,16 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>32.9375</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>31.863646024643678</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>24.774325666513221</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>22.391477036175999</v>
       </c>
       <c r="G8">
@@ -30979,16 +27847,16 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>30.46875</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>30.045459496450771</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>22.978045832919658</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>20.603283093335431</v>
       </c>
       <c r="G9">
@@ -31011,16 +27879,16 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>22.734375</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>22.750690917498339</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>17.258708212510982</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>15.40941602137997</v>
       </c>
       <c r="G10">
@@ -31043,16 +27911,16 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>14.8671875</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>14.996504437111399</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>11.32935321801537</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>10.09319799296434</v>
       </c>
       <c r="G11">
@@ -31075,16 +27943,16 @@
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>13.93359375</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>14.00599059609759</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>10.544639445268659</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>9.3836133592921147</v>
       </c>
       <c r="G12">
@@ -31107,16 +27975,16 @@
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>14.966796875</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>14.999115908234391</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>11.270025909035899</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>10.02348033133366</v>
       </c>
       <c r="G13">
@@ -31139,16 +28007,16 @@
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>21.9833984375</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>21.985911889097871</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>16.501741102165759</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>14.672377696616881</v>
       </c>
       <c r="G14">
@@ -31171,16 +28039,16 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>21.99169921875</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>21.992949072310221</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>16.50087123875236</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>14.669524032094619</v>
       </c>
       <c r="G15">
@@ -31203,16 +28071,16 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>13.995849609375</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>14.00037715319082</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>10.50280650082134</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>9.3364911131171766</v>
       </c>
       <c r="G16">
@@ -31235,16 +28103,16 @@
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>7.9979248046875</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>8.0016531065923733</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>6.0022927193547702</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>5.335560821963373</v>
       </c>
       <c r="G17">
@@ -31267,16 +28135,16 @@
       <c r="B18">
         <v>45</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>22.99896240234375</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>22.998995825785109</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>17.25003487354234</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>15.33363667370363</v>
       </c>
       <c r="G18">
@@ -31299,16 +28167,16 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>33.999481201171882</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>33.998826537533652</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>25.49960983104641</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>22.666521149743328</v>
       </c>
       <c r="G19">
@@ -31331,16 +28199,16 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>25.999740600585941</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>25.999657383662878</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>19.499953134942292</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>17.3333686458618</v>
       </c>
       <c r="G20">
@@ -31363,16 +28231,16 @@
       <c r="B21">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>13.499870300292971</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>13.500019420878621</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>10.12509236879839</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>9.0001020889114525</v>
       </c>
       <c r="G21">
@@ -31395,16 +28263,16 @@
       <c r="B22">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>25.249935150146481</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>25.249920065948761</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>18.93749175758845</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>16.833344694586501</v>
       </c>
       <c r="G22">
@@ -31427,16 +28295,16 @@
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>35.124967575073242</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>35.124922362887759</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>26.343723007750331</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>23.416655671768432</v>
       </c>
       <c r="G23">
@@ -31459,16 +28327,16 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>23.562483787536621</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>23.5624832350126</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>17.671874893560972</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>15.70833759846796</v>
       </c>
       <c r="G24">
@@ -31491,16 +28359,16 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>22.781241893768311</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>22.781242362554519</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>17.08593789913575</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>15.187502462386121</v>
       </c>
       <c r="G25">
@@ -31523,16 +28391,16 @@
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>19.390620946884159</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>19.390622798048181</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>14.542969931179339</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>12.92708528023091</v>
       </c>
       <c r="G26">
@@ -31567,16 +28435,16 @@
       <c r="B27">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>18.695310473442081</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>18.695311564798949</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>14.02148506623889</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>12.463542713500029</v>
       </c>
       <c r="G27">
@@ -31614,16 +28482,16 @@
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>22.847655236721039</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>22.84765528740229</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>17.13574223258572</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>15.23177113762746</v>
       </c>
       <c r="G28">
@@ -31661,16 +28529,16 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>18.423827618360519</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>18.423827907381401</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>13.81787127638435</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>12.282552352204929</v>
       </c>
       <c r="G29">
@@ -31708,16 +28576,16 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>11.21191380918026</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>11.211914168622149</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>8.4089357686861756</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>7.4746096045804693</v>
       </c>
       <c r="G30">
@@ -31759,16 +28627,16 @@
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>8.1059569045901299</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>8.1059571305933709</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>6.0794679124430333</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>5.4039714894448929</v>
       </c>
       <c r="G31">
@@ -31783,13 +28651,13 @@
       <c r="J31">
         <v>-2.1059569045901299</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -31798,16 +28666,16 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>7.0529784522950649</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>7.0529785731419752</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>5.2897339609847247</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>4.701985748195356</v>
       </c>
       <c r="G32">
@@ -31847,16 +28715,16 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>4.0264892261475334</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>4.0264892978455213</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>3.0198669873376112</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>2.68432621242196</v>
       </c>
       <c r="G33">
@@ -31896,16 +28764,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>16.01324461307377</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>16.013244626595728</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>12.00993348011311</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>10.67549642966071</v>
       </c>
       <c r="G34">
@@ -31945,16 +28813,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>8.0066223065368831</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>16.013244626595728</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>12.00993348011311</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>10.67549642966071</v>
       </c>
       <c r="G35">
@@ -31993,16 +28861,16 @@
       <c r="B36">
         <v>41</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>4.0033111532684416</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>16.013244626595728</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>12.00993348011311</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>10.67549642966071</v>
       </c>
       <c r="G36">
@@ -32017,13 +28885,13 @@
       <c r="J36">
         <v>36.996688846731558</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -32032,16 +28900,16 @@
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>22.501655576634221</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>14.25331115746846</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>10.68998337052585</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>9.5022074411112953</v>
       </c>
       <c r="G37">
@@ -32074,16 +28942,16 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>41.250830000000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>29.502210000000002</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>22.126660000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>19.668140000000001</v>
       </c>
       <c r="M38" s="4" t="s">
@@ -32104,16 +28972,16 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>41.250830000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>29.502210000000002</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>22.126660000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>19.668140000000001</v>
       </c>
       <c r="M39" s="4" t="s">
@@ -32134,16 +29002,16 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>41.250830000000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>29.502210000000002</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>22.126660000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>19.668140000000001</v>
       </c>
       <c r="M40" s="4" t="s">
@@ -32164,30 +29032,30 @@
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>41.250830000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>29.502210000000002</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>22.126660000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>19.668140000000001</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>41.250830000000001</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>29.502210000000002</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>22.126660000000001</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>19.668140000000001</v>
       </c>
     </row>
@@ -32205,8 +29073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32274,9 +29142,12 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -32297,9 +29168,12 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -32320,16 +29194,16 @@
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3.2482967328445782</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>11.313970215948951</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>10.73315770912146</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>12.04010902309439</v>
       </c>
       <c r="G4">
@@ -32352,16 +29226,16 @@
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>7.3904283389350258</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>11.74219013953172</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>11.24658253911428</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>12.36991714924274</v>
       </c>
       <c r="G5">
@@ -32384,16 +29258,16 @@
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>9.2125836688645144</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>11.85713162236938</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>11.417392225472771</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>12.4223949664499</v>
       </c>
       <c r="G6">
@@ -32416,16 +29290,16 @@
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>13.366315937859589</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>12.78400971870027</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>12.44916684477737</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>13.220086620757829</v>
       </c>
       <c r="G7">
@@ -32448,16 +29322,16 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>24.94119388968625</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>16.09350828476413</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>16.01318495503655</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>16.20009448987464</v>
       </c>
       <c r="G8">
@@ -32480,16 +29354,16 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>25.934784879139968</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>17.181550241705601</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>17.18181857509985</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>17.18287526984135</v>
       </c>
       <c r="G9">
@@ -32512,16 +29386,16 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>22.382842279413101</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>16.982195265518619</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>16.968797505067091</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>17.00106975343666</v>
       </c>
       <c r="G10">
@@ -32544,16 +29418,16 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>17.386038647605002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>16.069999817790212</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>15.99644210028745</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>16.168108912572858</v>
       </c>
       <c r="G11">
@@ -32576,16 +29450,16 @@
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>15.961323146690461</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>15.78945632366551</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>15.704002228836201</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>15.904246070545071</v>
       </c>
       <c r="G12">
@@ -32608,16 +29482,16 @@
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>15.973886536314669</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>15.80869626619749</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>15.732625049325391</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>15.91222114108883</v>
       </c>
       <c r="G13">
@@ -32640,16 +29514,16 @@
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>20.205154716889851</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>17.01414723280466</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>17.026135232042609</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>17.002265252841351</v>
       </c>
       <c r="G14">
@@ -32672,16 +29546,16 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>20.788173723798671</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>17.4697656501036</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>17.510894183714399</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>17.418512452555088</v>
       </c>
       <c r="G15">
@@ -32704,16 +29578,16 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>15.98453608462335</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>16.421632677438481</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>16.388154818789541</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>16.467496814846609</v>
       </c>
       <c r="G16">
@@ -32736,16 +29610,16 @@
       <c r="B17">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>11.44194379722043</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>15.103751463233341</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>14.984860173392249</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>15.26253988618037</v>
       </c>
       <c r="G17">
@@ -32768,16 +29642,16 @@
       <c r="B18">
         <v>45</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>20.068788516639589</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>17.196062095167822</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>17.228923109771252</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>17.156278680025569</v>
       </c>
       <c r="G18">
@@ -32800,16 +29674,16 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>28.167185797365271</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>19.736848408436749</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>19.93672094358525</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>19.475303539120919</v>
       </c>
       <c r="G19">
@@ -32832,16 +29706,16 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>24.864582156584731</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>19.57813128319675</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>19.747558032530531</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>19.352429672061511</v>
       </c>
       <c r="G20">
@@ -32864,16 +29738,16 @@
       <c r="B21">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>17.112657731591209</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>17.88041988367117</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>17.919110015287771</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>17.823907663788152</v>
       </c>
       <c r="G21">
@@ -32896,16 +29770,16 @@
       <c r="B22">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>23.57265662313463</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>19.627610066447069</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>19.779484452847779</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>19.421030199193311</v>
       </c>
       <c r="G22">
@@ -32928,16 +29802,16 @@
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>30.5328935715957</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>21.946196060179041</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>22.238528359549271</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>21.55143030387428</v>
       </c>
       <c r="G23">
@@ -32960,16 +29834,16 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>24.512859807718641</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>21.037290297040201</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>21.239789644289871</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>20.75591866105173</v>
       </c>
       <c r="G24">
@@ -32992,16 +29866,16 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>23.696608377367749</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>21.125264857431919</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>21.313594691975009</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>20.859534675274279</v>
       </c>
       <c r="G25">
@@ -33024,16 +29898,16 @@
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>21.196521592748962</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>20.656906621686051</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>20.795119007594881</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>20.454797760327072</v>
       </c>
       <c r="G26">
@@ -33056,16 +29930,16 @@
       <c r="B27">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>20.158196528129601</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>20.414112508703528</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>20.52223733385463</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>20.250344587387239</v>
       </c>
       <c r="G27">
@@ -33088,16 +29962,16 @@
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>22.38061731457373</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>21.015945692120741</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>21.153593474787169</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>20.812504307695288</v>
       </c>
       <c r="G28">
@@ -33120,16 +29994,16 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>19.658344130358682</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>20.374812793091799</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>20.455695046760589</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>20.24511007112179</v>
       </c>
       <c r="G29">
@@ -33164,16 +30038,16 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>14.57204932231866</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>18.87844558784165</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>18.85072436115334</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>18.892100756969519</v>
       </c>
       <c r="G30">
@@ -33208,16 +30082,16 @@
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>11.46276366828717</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>17.61020202869355</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>17.499798808914829</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>17.735066939352599</v>
       </c>
       <c r="G31">
@@ -33255,16 +30129,16 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>9.6882959306872447</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>16.54923566406336</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>16.37814159459376</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>16.757686372941961</v>
       </c>
       <c r="G32">
@@ -33302,16 +30176,16 @@
       <c r="B33">
         <v>28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>6.8660796021234232</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>15.12831155492445</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>14.87830977116001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>15.44527320196155</v>
       </c>
       <c r="G33">
@@ -33349,16 +30223,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>13.731004060185411</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>16.30455535872224</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>16.157626967529168</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>16.490920914063789</v>
       </c>
       <c r="G34">
@@ -33400,16 +30274,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>9.2707664974478199</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>16.30455535872224</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>16.157626967529168</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>16.490920914063789</v>
       </c>
       <c r="G35">
@@ -33424,13 +30298,13 @@
       <c r="J35">
         <v>-9.2707664974478199</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -33439,16 +30313,16 @@
       <c r="B36">
         <v>41</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>6.259346444985348</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>16.30455535872224</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>16.157626967529168</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>16.490920914063789</v>
       </c>
       <c r="G36">
@@ -33487,16 +30361,16 @@
       <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>17.544141588949291</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>18.561276703304699</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>18.579080889118789</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>18.53221279100293</v>
       </c>
       <c r="G37">
@@ -33529,16 +30403,16 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>31.335059999999999</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>22.348040000000001</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>22.617660000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>21.985949999999999</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -33559,16 +30433,16 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>31.335059999999999</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>22.348040000000001</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>22.617660000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>21.985949999999999</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -33589,37 +30463,37 @@
       <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>31.335059999999999</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>22.348040000000001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>22.617660000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>21.985949999999999</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>31.335059999999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>22.348040000000001</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>22.617660000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>21.985949999999999</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -33640,16 +30514,16 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>31.335059999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>22.348040000000001</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>22.617660000000001</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>21.985949999999999</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -33720,7 +30594,7 @@
   <dimension ref="B1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B1" sqref="B1:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33730,26 +30604,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="12">
+      <c r="C1" s="13">
         <v>0.1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13">
         <v>0.15</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13">
         <v>0.5</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -35970,8 +32844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36393,11 +33267,11 @@
       <c r="D28" s="2">
         <v>19.757439999999999</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -36456,11 +33330,11 @@
       <c r="D31" s="2">
         <v>18.879629999999999</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">

--- a/bip1271_data.xlsx
+++ b/bip1271_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2506\Desktop\TESIS\DOCUMENTOS TESIS\Capitulos\R\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Esteban\TESIS\Tesis\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543BCDBF-CE17-4BF0-AC8B-D937286888CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,19 @@
     <sheet name="Agregate-Disaggregate" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -271,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -365,7 +378,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,7 +396,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -445,7 +458,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1015,7 +1028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547302112"/>
@@ -1060,7 +1073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547309328"/>
@@ -1102,7 +1115,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1132,7 +1145,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1146,7 +1159,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1208,7 +1221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1742,7 +1755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525483296"/>
@@ -1801,7 +1814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525481984"/>
@@ -1843,7 +1856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1873,7 +1886,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1887,7 +1900,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1949,7 +1962,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2477,7 +2490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543171624"/>
@@ -2536,7 +2549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543165720"/>
@@ -2578,7 +2591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2608,7 +2621,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2622,7 +2635,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2684,7 +2697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3209,7 +3222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543206064"/>
@@ -3268,7 +3281,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543203768"/>
@@ -3310,7 +3323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3340,7 +3353,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3354,7 +3367,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3421,7 +3434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3946,7 +3959,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="546824848"/>
@@ -4005,7 +4018,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="546826488"/>
@@ -4047,7 +4060,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4077,7 +4090,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4091,7 +4104,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4153,7 +4166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4684,7 +4697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="375111720"/>
@@ -4743,7 +4756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="375111392"/>
@@ -4785,7 +4798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4815,7 +4828,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4829,7 +4842,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4860,18 +4873,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Croston's and Exponential Smoothing forecasts of item BIP001271, alpha = 0.1</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4897,7 +4904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6351,7 +6358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="463832904"/>
@@ -6410,7 +6417,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="463839464"/>
@@ -6427,7 +6434,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6453,7 +6459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6483,7 +6489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6497,7 +6503,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6534,7 +6540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6560,7 +6565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8014,7 +8019,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="502749280"/>
@@ -8073,7 +8078,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="502741408"/>
@@ -8090,7 +8095,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8116,7 +8120,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8146,7 +8150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8154,13 +8158,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8202,7 +8207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8228,7 +8232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9682,7 +9686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="502756496"/>
@@ -9741,7 +9745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="502752560"/>
@@ -9758,7 +9762,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9784,7 +9787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9814,7 +9817,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9828,7 +9831,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9870,7 +9873,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9896,7 +9898,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11350,7 +11352,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506509720"/>
@@ -11409,7 +11411,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="506502832"/>
@@ -11426,7 +11428,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11452,7 +11453,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11482,7 +11483,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11490,13 +11491,14 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11508,7 +11510,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11534,7 +11535,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12328,7 +12329,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529213032"/>
@@ -12387,7 +12388,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529212048"/>
@@ -12404,7 +12405,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12430,7 +12430,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12460,7 +12460,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12474,7 +12474,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12541,7 +12541,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13108,7 +13108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="480208472"/>
@@ -13167,7 +13167,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="480207488"/>
@@ -13209,7 +13209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13239,7 +13239,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13253,7 +13253,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13315,7 +13315,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13864,7 +13864,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="375110408"/>
@@ -13923,7 +13923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="375117624"/>
@@ -13965,7 +13965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13995,7 +13995,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14009,7 +14009,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14076,7 +14076,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14616,7 +14616,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525194200"/>
@@ -14675,7 +14675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525196824"/>
@@ -14717,7 +14717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14747,7 +14747,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22377,7 +22377,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22410,23 +22416,392 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="Grupo 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A1BAB4-A4F5-B6B3-279A-35226C46F5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9097201" y="195054"/>
+          <a:ext cx="8373719" cy="4938093"/>
+          <a:chOff x="9097201" y="195054"/>
+          <a:chExt cx="8373719" cy="4938093"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="9097201" y="195054"/>
+          <a:ext cx="8373719" cy="4938093"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="CuadroTexto 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D894E4F-B470-C8D2-32B9-D42B3CDAFF71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14381743" y="2742986"/>
+            <a:ext cx="634380" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>Croston</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Conector recto 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F21A1B-7CF8-912B-EC33-F3135DEBDAB1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="14589334" y="3010711"/>
+            <a:ext cx="109599" cy="234160"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="CuadroTexto 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A81C582-1F39-43B8-87BE-D0B5A262C0D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10814213" y="3927704"/>
+            <a:ext cx="818094" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>Exp.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+              <a:t> Smoo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Conector recto 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0628F7C-3D1A-D840-395D-97251734F6FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11228610" y="3716789"/>
+            <a:ext cx="99854" cy="196165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="CuadroTexto 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A85AE3-D1A2-4E15-8DA4-1EA698E7F755}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11378997" y="2643502"/>
+            <a:ext cx="371215" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>SBJ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Conector recto 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77C88EB-E4C4-1975-9E86-7F0031B85415}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="11" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11564604" y="2913496"/>
+            <a:ext cx="200691" cy="456812"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="CuadroTexto 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B274573F-2552-44C8-8509-177FB9118689}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10353678" y="2649484"/>
+            <a:ext cx="407894" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>SBA</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="Conector recto 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40101FC5-E455-4327-8E4B-2C99FC1467CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="14" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10557626" y="2919479"/>
+            <a:ext cx="182351" cy="456812"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22442,14 +22817,20 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22468,6 +22849,746 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14835</cdr:x>
+      <cdr:y>0.4876</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70983</cdr:x>
+      <cdr:y>0.80066</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="14" name="Grupo 13">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6BCE1D-84B5-438E-0505-6D0C43C63DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1231900" y="2411362"/>
+          <a:ext cx="4662445" cy="1548214"/>
+          <a:chOff x="1231900" y="2411362"/>
+          <a:chExt cx="4662445" cy="1548214"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="2" name="CuadroTexto 2">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D894E4F-B470-C8D2-32B9-D42B3CDAFF71}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="5259965" y="2504864"/>
+            <a:ext cx="634380" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>Croston</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="3" name="Conector recto 2">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F21A1B-7CF8-912B-EC33-F3135DEBDAB1}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr>
+            <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2" idx="2"/>
+          </cdr:cNvCxnSpPr>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+            <a:off x="5248276" y="2774858"/>
+            <a:ext cx="328879" cy="227422"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="4" name="CuadroTexto 7">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A81C582-1F39-43B8-87BE-D0B5A262C0D4}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="1692435" y="3689582"/>
+            <a:ext cx="818094" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>Exp.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+              <a:t> Smoo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="5" name="Conector recto 4">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0628F7C-3D1A-D840-395D-97251734F6FC}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr/>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+            <a:off x="2106832" y="3398520"/>
+            <a:ext cx="108684" cy="276312"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="6" name="CuadroTexto 10">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A85AE3-D1A2-4E15-8DA4-1EA698E7F755}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="2485819" y="2656840"/>
+            <a:ext cx="371215" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>SBJ</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="7" name="Conector recto 6">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77C88EB-E4C4-1975-9E86-7F0031B85415}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr/>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+            <a:off x="2421256" y="2872740"/>
+            <a:ext cx="266700" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="8" name="CuadroTexto 13">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B274573F-2552-44C8-8509-177FB9118689}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="1231900" y="2411362"/>
+            <a:ext cx="407894" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>SBA</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="9" name="Conector recto 8">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40101FC5-E455-4327-8E4B-2C99FC1467CB}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr>
+            <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="8" idx="2"/>
+          </cdr:cNvCxnSpPr>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="1435848" y="2681357"/>
+            <a:ext cx="182351" cy="456812"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22484,42 +23605,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22541,6 +23633,789 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16259</cdr:x>
+      <cdr:y>0.50256</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76016</cdr:x>
+      <cdr:y>0.83105</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="2" name="Grupo 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2F4BC5-2849-6B07-C598-515F29CBE10B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1239520" y="2496820"/>
+          <a:ext cx="4555765" cy="1632034"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="4555765" cy="1632034"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="3" name="CuadroTexto 2">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F7BCEA-76F2-62B8-BDE5-E2E7AD4164DB}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="3921385" y="55402"/>
+            <a:ext cx="634380" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>Croston</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="4" name="Conector recto 3">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E95D5F1-A022-9E2C-415A-F5805BA513FE}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr>
+            <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="3" idx="2"/>
+          </cdr:cNvCxnSpPr>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+            <a:off x="3854451" y="325396"/>
+            <a:ext cx="384124" cy="393425"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="5" name="CuadroTexto 7">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7890A479-964F-70AD-A425-7AF65A40C210}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="1359695" y="1362040"/>
+            <a:ext cx="818094" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>Exp.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+              <a:t> Smoo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="6" name="Conector recto 5">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA74EDA5-766E-8673-B301-E8C558CE9711}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr/>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+            <a:off x="1562736" y="1116698"/>
+            <a:ext cx="150495" cy="234583"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="7" name="CuadroTexto 10">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90FE9DB-3BF5-7DF1-B395-AC4F9E324938}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="1017699" y="123558"/>
+            <a:ext cx="371215" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>SBJ</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="8" name="Conector recto 7">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D6AD3A-4C48-8F86-DB00-FE942675C955}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr>
+            <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="7" idx="2"/>
+          </cdr:cNvCxnSpPr>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+            <a:off x="1187451" y="393552"/>
+            <a:ext cx="15856" cy="431949"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="9" name="CuadroTexto 13">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AE6182-6320-0524-289C-13C2717B4B36}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="0" y="0"/>
+            <a:ext cx="407894" cy="269994"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="es-CO" sz="1100"/>
+              <a:t>SBA</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="10" name="Conector recto 9">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D35726C-99D4-F020-1679-DB9CF4118877}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr>
+            <a:stCxn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="9" idx="2"/>
+          </cdr:cNvCxnSpPr>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+            <a:off x="59691" y="269994"/>
+            <a:ext cx="144256" cy="570747"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -22554,7 +24429,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -22574,7 +24455,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22591,7 +24472,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22621,7 +24508,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22651,7 +24544,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22681,7 +24580,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22711,7 +24616,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22741,7 +24652,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22771,7 +24688,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22801,7 +24724,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -22820,7 +24749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -22895,6 +24824,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -22930,6 +24876,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -23105,25 +25068,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23131,7 +25094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -23145,7 +25108,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -23177,7 +25140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -23215,7 +25178,7 @@
         <v>2.1649449999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -23265,7 +25228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -23321,7 +25284,7 @@
         <v>2.1843254999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -23385,7 +25348,7 @@
         <v>12.744807</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -23425,7 +25388,7 @@
         <v>15.649894</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -23487,7 +25450,7 @@
         <v>2.905087</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -23531,7 +25494,7 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -23575,7 +25538,7 @@
         <v>4.7827985156079214E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -23607,7 +25570,7 @@
       <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -23663,7 +25626,7 @@
         <v>6.5433041765022584E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -23697,7 +25660,7 @@
         <v>-1.7958723109665471E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -23728,7 +25691,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -23745,7 +25708,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -23758,7 +25721,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -23774,7 +25737,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -23787,7 +25750,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -23831,7 +25794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -23881,7 +25844,7 @@
         <v>2.4009550000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -23934,7 +25897,7 @@
         <v>12.142946999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -23987,7 +25950,7 @@
         <v>15.732476999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -24048,7 +26011,7 @@
         <v>3.5895299999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -24089,7 +26052,7 @@
       <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
     </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -24136,7 +26099,7 @@
         <v>1.0084941638737962E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -24186,7 +26149,7 @@
         <v>-2.6408422801531117E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -24227,7 +26190,7 @@
         <v>-7.023996442765118E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -24259,7 +26222,7 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
     </row>
-    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -24306,7 +26269,7 @@
         <v>1.5119095816943741E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -24356,7 +26319,7 @@
         <v>8.8534064715781353E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -24397,7 +26360,7 @@
         <v>-7.0125191547327614E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -24415,7 +26378,7 @@
         <v>-1.3479633298469624E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -24433,7 +26396,7 @@
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -24441,7 +26404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -24454,7 +26417,7 @@
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -24467,7 +26430,7 @@
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -24477,7 +26440,7 @@
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -24487,7 +26450,7 @@
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -24497,7 +26460,7 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -24507,7 +26470,7 @@
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -24517,15 +26480,15 @@
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R43" s="4"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="X10:Z10"/>
@@ -24550,26 +26513,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F42"/>
+    <sheetView topLeftCell="H2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24615,7 +26578,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -24641,7 +26604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -24667,7 +26630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -24699,7 +26662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -24731,7 +26694,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -24763,7 +26726,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -24795,7 +26758,7 @@
         <v>43.604999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -24827,7 +26790,7 @@
         <v>18.244499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -24859,7 +26822,7 @@
         <v>3.420049999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -24891,7 +26854,7 @@
         <v>-4.9219550000000023</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -24923,7 +26886,7 @@
         <v>1.570240499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -24955,7 +26918,7 @@
         <v>4.4132164499999984</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -24987,7 +26950,7 @@
         <v>16.971894805000002</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -25019,7 +26982,7 @@
         <v>8.2747053244999975</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -25051,7 +27014,7 @@
         <v>-8.5527652079500029</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -25083,7 +27046,7 @@
         <v>-11.697488687154999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -25115,7 +27078,7 @@
         <v>25.4722601815605</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -25147,7 +27110,7 @@
         <v>29.925034163404451</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -25179,7 +27142,7 @@
         <v>-6.7469252936000146E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -25211,7 +27174,7 @@
         <v>-17.060722327642399</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -25243,7 +27206,7 @@
         <v>20.64534990512184</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -25275,7 +27238,7 @@
         <v>26.58081491460965</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -25307,7 +27270,7 @@
         <v>-9.0772665768513114</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -25339,7 +27302,7 @@
         <v>1.8304600808338201</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -25371,7 +27334,7 @@
         <v>-4.3525859272495602</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -25403,7 +27366,7 @@
         <v>-1.9173273345246069</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -25435,7 +27398,7 @@
         <v>7.2744053989278514</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -25467,7 +27430,7 @@
         <v>-6.4530351409649356</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -25499,7 +27462,7 @@
         <v>-15.80773162686844</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -25531,7 +27494,7 @@
         <v>-13.2269584641816</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -25575,7 +27538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -25622,7 +27585,7 @@
         <v>1.840646</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -25669,7 +27632,7 @@
         <v>11.962090999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -25716,7 +27679,7 @@
         <v>15.5754</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -25767,7 +27730,7 @@
         <v>3.613309000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -25806,7 +27769,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -25854,7 +27817,7 @@
         <v>0.1211546412933215</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>19.99025</v>
       </c>
@@ -25884,7 +27847,7 @@
         <v>5.5138230799848457E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>19.99025</v>
       </c>
@@ -25914,7 +27877,7 @@
         <v>-8.6033103483749057E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>19.99025</v>
       </c>
@@ -25944,7 +27907,7 @@
       </c>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>19.99025</v>
       </c>
@@ -25965,7 +27928,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>19.99025</v>
       </c>
@@ -25995,7 +27958,7 @@
         <v>0.15472729642334282</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L43" s="4" t="s">
         <v>52</v>
       </c>
@@ -26013,7 +27976,7 @@
         <v>8.1030983629869074E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L44" s="4" t="s">
         <v>53</v>
       </c>
@@ -26031,7 +27994,7 @@
         <v>5.1420775849313519E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L45" s="4" t="s">
         <v>54</v>
       </c>
@@ -26060,27 +28023,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:F42"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26123,7 +28086,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -26149,7 +28112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -26175,7 +28138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -26207,7 +28170,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -26239,7 +28202,7 @@
         <v>9.3249999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -26271,7 +28234,7 @@
         <v>16.92625</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -26303,7 +28266,7 @@
         <v>41.3873125</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -26335,7 +28298,7 @@
         <v>14.179215624999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -26367,7 +28330,7 @@
         <v>-0.94766671874999986</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -26399,7 +28362,7 @@
         <v>-8.8055167109374999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -26431,7 +28394,7 @@
         <v>-1.484689204296876</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -26463,7 +28426,7 @@
         <v>1.738014176347656</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -26495,7 +28458,7 @@
         <v>14.477312049895509</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -26527,7 +28490,7 @@
         <v>5.305715242411182</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -26559,7 +28522,7 @@
         <v>-11.490142043950501</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -26591,7 +28554,7 @@
         <v>-13.76662073735792</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -26623,7 +28586,7 @@
         <v>24.298372373245769</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -26655,7 +28618,7 @@
         <v>27.6536165172589</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -26687,7 +28650,7 @@
         <v>-3.4944259603299308</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -26719,7 +28682,7 @@
         <v>-19.970262066280441</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -26751,7 +28714,7 @@
         <v>19.02527724366163</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -26783,7 +28746,7 @@
         <v>24.171485657112392</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -26815,7 +28778,7 @@
         <v>-12.454237191454469</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -26847,7 +28810,7 @@
         <v>-0.58610161273630013</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -26879,7 +28842,7 @@
         <v>-6.4981863708258558</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -26911,7 +28874,7 @@
         <v>-3.5234584152019761</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -26943,7 +28906,7 @@
         <v>6.0050603470783201</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -26975,7 +28938,7 @@
         <v>-7.8956987049834284</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -27019,7 +28982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -27066,7 +29029,7 @@
         <v>2.1649449999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -27113,7 +29076,7 @@
         <v>12.036384</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -27160,7 +29123,7 @@
         <v>15.774134</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -27211,7 +29174,7 @@
         <v>3.7377500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -27250,7 +29213,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -27298,7 +29261,7 @@
         <v>8.4516081833715909E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -27347,7 +29310,7 @@
       </c>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -27395,7 +29358,7 @@
         <v>2.6568811955068341E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>22.02694</v>
       </c>
@@ -27425,7 +29388,7 @@
       </c>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>22.02694</v>
       </c>
@@ -27446,7 +29409,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>22.02694</v>
       </c>
@@ -27476,7 +29439,7 @@
         <v>0.1345775442192606</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>22.02694</v>
       </c>
@@ -27506,7 +29469,7 @@
         <v>1.82871367347535E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>22.02694</v>
       </c>
@@ -27536,7 +29499,7 @@
         <v>8.1536115830139956E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L43" s="4" t="s">
         <v>54</v>
       </c>
@@ -27565,25 +29528,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="E6" workbookViewId="0">
       <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27628,7 +29591,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -27654,7 +29617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -27680,7 +29643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -27712,7 +29675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -27744,7 +29707,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -27776,7 +29739,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -27808,7 +29771,7 @@
         <v>32.125</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -27840,7 +29803,7 @@
         <v>-4.9375</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -27872,7 +29835,7 @@
         <v>-15.46875</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -27904,7 +29867,7 @@
         <v>-15.734375</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -27936,7 +29899,7 @@
         <v>-1.8671875</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -27968,7 +29931,7 @@
         <v>2.06640625</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -28000,7 +29963,7 @@
         <v>14.033203125</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -28032,7 +29995,7 @@
         <v>1.66015625E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -28064,7 +30027,7 @@
         <v>-15.99169921875</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -28096,7 +30059,7 @@
         <v>-11.995849609375</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -28128,7 +30091,7 @@
         <v>30.0020751953125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -28160,7 +30123,7 @@
         <v>22.00103759765625</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -28192,7 +30155,7 @@
         <v>-15.99948120117188</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -28224,7 +30187,7 @@
         <v>-24.999740600585941</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -28256,7 +30219,7 @@
         <v>23.500129699707031</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -28288,7 +30251,7 @@
         <v>19.750064849853519</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -28320,7 +30283,7 @@
         <v>-23.124967575073239</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -28352,7 +30315,7 @@
         <v>-1.5624837875366211</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -28384,7 +30347,7 @@
         <v>-6.7812418937683114</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -28428,7 +30391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -28475,7 +30438,7 @@
         <v>6.5320960000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -28522,7 +30485,7 @@
         <v>12.247840999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -28569,7 +30532,7 @@
         <v>17.259626000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -28620,7 +30583,7 @@
         <v>5.0117850000000015</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -28659,7 +30622,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -28708,7 +30671,7 @@
         <v>-1.6294443460130585E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -28757,7 +30720,7 @@
         <v>-2.7900952199080196E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -28806,7 +30769,7 @@
         <v>-1.9619080969657181E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -28854,7 +30817,7 @@
       </c>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -28893,7 +30856,7 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -28941,7 +30904,7 @@
         <v>0.10117783207669008</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>41.250830000000001</v>
       </c>
@@ -28971,7 +30934,7 @@
         <v>5.408373606417656E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>41.250830000000001</v>
       </c>
@@ -29001,7 +30964,7 @@
         <v>-1.5627244017945823E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>41.250830000000001</v>
       </c>
@@ -29031,7 +30994,7 @@
       </c>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>41.250830000000001</v>
       </c>
@@ -29045,7 +31008,7 @@
         <v>19.668140000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>41.250830000000001</v>
       </c>
@@ -29070,26 +31033,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:F42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29135,7 +31098,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -29161,7 +31124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -29187,7 +31150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -29219,7 +31182,7 @@
         <v>12.75170326715542</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -29251,7 +31214,7 @@
         <v>5.6095716610649742</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -29283,7 +31246,7 @@
         <v>12.787416331135489</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -29315,7 +31278,7 @@
         <v>35.633684062140397</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -29347,7 +31310,7 @@
         <v>3.0588061103137458</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -29379,7 +31342,7 @@
         <v>-10.93478487913997</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -29411,7 +31374,7 @@
         <v>-15.382842279413101</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -29443,7 +31406,7 @@
         <v>-4.3860386476050017</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -29475,7 +31438,7 @@
         <v>3.867685330953563E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -29507,7 +31470,7 @@
         <v>13.026113463685331</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -29539,7 +31502,7 @@
         <v>1.794845283110146</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -29571,7 +31534,7 @@
         <v>-14.788173723798669</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -29603,7 +31566,7 @@
         <v>-13.98453608462335</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -29635,7 +31598,7 @@
         <v>26.558056202779571</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -29667,7 +31630,7 @@
         <v>24.931211483360411</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -29699,7 +31662,7 @@
         <v>-10.167185797365271</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -29731,7 +31694,7 @@
         <v>-23.864582156584731</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -29763,7 +31726,7 @@
         <v>19.887342268408791</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -29795,7 +31758,7 @@
         <v>21.42734337686537</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -29827,7 +31790,7 @@
         <v>-18.5328935715957</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -29859,7 +31822,7 @@
         <v>-2.5128598077186379</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -29891,7 +31854,7 @@
         <v>-7.6966083773677454</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -29923,7 +31886,7 @@
         <v>-3.1965215927489581</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -29955,7 +31918,7 @@
         <v>6.8418034718703993</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -29987,7 +31950,7 @@
         <v>-8.3806173145737297</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -30031,7 +31994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -30075,7 +32038,7 @@
         <v>9.1399999999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -30122,7 +32085,7 @@
         <v>2.4009550000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -30169,7 +32132,7 @@
         <v>12.142946999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -30216,7 +32179,7 @@
         <v>15.732476999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -30267,7 +32230,7 @@
         <v>3.5895299999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -30306,7 +32269,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -30354,7 +32317,7 @@
         <v>7.3203984343978318E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -30402,7 +32365,7 @@
         <v>3.5815084935449989E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>31.335059999999999</v>
       </c>
@@ -30432,7 +32395,7 @@
         <v>6.4302016777142883E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>31.335059999999999</v>
       </c>
@@ -30462,7 +32425,7 @@
       </c>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>31.335059999999999</v>
       </c>
@@ -30483,7 +32446,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>31.335059999999999</v>
       </c>
@@ -30513,7 +32476,7 @@
         <v>0.11836270058660391</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>31.335059999999999</v>
       </c>
@@ -30543,7 +32506,7 @@
         <v>7.7860835594523413E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L43" s="4" t="s">
         <v>53</v>
       </c>
@@ -30561,7 +32524,7 @@
         <v>1.3663816534816514E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L44" s="4" t="s">
         <v>54</v>
       </c>
@@ -30590,20 +32553,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C1" s="13">
         <v>0.1</v>
       </c>
@@ -30625,7 +32588,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>63</v>
       </c>
@@ -30672,7 +32635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>44912</v>
       </c>
@@ -30708,7 +32671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>44579</v>
       </c>
@@ -30744,7 +32707,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>44610</v>
       </c>
@@ -30805,7 +32768,7 @@
         <v>0.36100000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>44638</v>
       </c>
@@ -30873,7 +32836,7 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>44669</v>
       </c>
@@ -30934,7 +32897,7 @@
         <v>0.48241000000000006</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>44699</v>
       </c>
@@ -30995,7 +32958,7 @@
         <v>0.53416900000000012</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>44730</v>
       </c>
@@ -31056,7 +33019,7 @@
         <v>0.5807521000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>44760</v>
       </c>
@@ -31117,7 +33080,7 @@
         <v>0.62267689000000015</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>44791</v>
       </c>
@@ -31178,7 +33141,7 @@
         <v>0.66040920100000011</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>44822</v>
       </c>
@@ -31239,7 +33202,7 @@
         <v>0.69436828090000013</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>44852</v>
       </c>
@@ -31300,7 +33263,7 @@
         <v>0.72493145281000015</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>44883</v>
       </c>
@@ -31361,7 +33324,7 @@
         <v>0.75243830752900009</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>44913</v>
       </c>
@@ -31422,7 +33385,7 @@
         <v>0.7771944767761001</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>44580</v>
       </c>
@@ -31483,7 +33446,7 @@
         <v>0.79947502909849011</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>44611</v>
       </c>
@@ -31544,7 +33507,7 @@
         <v>0.81952752618864111</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>44639</v>
       </c>
@@ -31605,7 +33568,7 @@
         <v>0.83757477356977694</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>44670</v>
       </c>
@@ -31666,7 +33629,7 @@
         <v>0.85381729621279923</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>44700</v>
       </c>
@@ -31727,7 +33690,7 @@
         <v>0.86843556659151933</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>44731</v>
       </c>
@@ -31788,7 +33751,7 @@
         <v>0.88159200993236742</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>44761</v>
       </c>
@@ -31849,7 +33812,7 @@
         <v>0.89343280893913068</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>44792</v>
       </c>
@@ -31910,7 +33873,7 @@
         <v>0.90408952804521758</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>44823</v>
       </c>
@@ -31971,7 +33934,7 @@
         <v>0.91368057524069579</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>44853</v>
       </c>
@@ -32032,7 +33995,7 @@
         <v>0.92231251771662626</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>44884</v>
       </c>
@@ -32093,7 +34056,7 @@
         <v>0.93008126594496365</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>44914</v>
       </c>
@@ -32154,7 +34117,7 @@
         <v>0.93707313935046732</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>44581</v>
       </c>
@@ -32215,7 +34178,7 @@
         <v>0.94336582541542058</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>44612</v>
       </c>
@@ -32276,7 +34239,7 @@
         <v>0.94902924287387846</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>44640</v>
       </c>
@@ -32337,7 +34300,7 @@
         <v>0.95412631858649066</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>44671</v>
       </c>
@@ -32398,7 +34361,7 @@
         <v>0.95871368672784163</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>44701</v>
       </c>
@@ -32459,7 +34422,7 @@
         <v>0.96284231805505749</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>44732</v>
       </c>
@@ -32520,7 +34483,7 @@
         <v>0.96655808624955175</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>44762</v>
       </c>
@@ -32581,7 +34544,7 @@
         <v>0.96990227762459658</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>44793</v>
       </c>
@@ -32642,7 +34605,7 @@
         <v>0.87291204986213689</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>44824</v>
       </c>
@@ -32702,7 +34665,7 @@
         <v>0.98562084487592316</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>44854</v>
       </c>
@@ -32762,7 +34725,7 @@
         <v>1.1870587603883309</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>44885</v>
       </c>
@@ -32823,7 +34786,7 @@
         <v>1.1683528843494979</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W39">
         <v>1</v>
       </c>
@@ -32841,16 +34804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32864,7 +34827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -32872,7 +34835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -32880,7 +34843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -32891,7 +34854,7 @@
         <v>6.1503969999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -32902,7 +34865,7 @@
         <v>6.1503969999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -32916,7 +34879,7 @@
         <v>17.762799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -32930,7 +34893,7 @@
         <v>17.800249999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -32944,7 +34907,7 @@
         <v>18.912510000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -32958,7 +34921,7 @@
         <v>18.97653</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -32972,7 +34935,7 @@
         <v>19.13109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -32986,7 +34949,7 @@
         <v>19.00544</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -33000,7 +34963,7 @@
         <v>18.726420000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -33014,7 +34977,7 @@
         <v>18.69923</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -33028,7 +34991,7 @@
         <v>19.049589999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -33042,7 +35005,7 @@
         <v>19.070029999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -33056,7 +35019,7 @@
         <v>18.84883</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -33070,7 +35033,7 @@
         <v>18.682020000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -33084,7 +35047,7 @@
         <v>18.968540000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -33098,7 +35061,7 @@
         <v>19.197690000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -33112,7 +35075,7 @@
         <v>19.631769999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -33126,7 +35089,7 @@
         <v>19.455439999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -33140,7 +35103,7 @@
         <v>19.484719999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -33160,7 +35123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -33183,7 +35146,7 @@
         <v>2.1843254999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -33206,7 +35169,7 @@
         <v>12.744807</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -33229,7 +35192,7 @@
         <v>15.649894</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -33254,7 +35217,7 @@
         <v>2.905087</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -33273,7 +35236,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -33295,7 +35258,7 @@
         <v>5.3831866209445169E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -33317,7 +35280,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -33336,7 +35299,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -33358,7 +35321,7 @@
         <v>2.0735896589097004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -33380,7 +35343,7 @@
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -33394,7 +35357,7 @@
         <v>18.268619999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -33408,7 +35371,7 @@
         <v>18.248329999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -33422,7 +35385,7 @@
         <v>18.248329999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -33439,7 +35402,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>12.24295</v>
       </c>
@@ -33450,7 +35413,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>12.24295</v>
       </c>
@@ -33458,7 +35421,7 @@
         <v>18.39264</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>12.24295</v>
       </c>
@@ -33466,7 +35429,7 @@
         <v>18.39264</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>12.24295</v>
       </c>
@@ -33474,7 +35437,7 @@
         <v>18.39264</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <v>12.24295</v>
       </c>
@@ -33493,7 +35456,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0600-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -33515,20 +35478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B64" sqref="B64:J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="10" width="8.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="10" width="8.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33560,7 +35523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -33568,7 +35531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -33579,7 +35542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -33590,7 +35553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -33604,7 +35567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -33612,7 +35575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -33632,7 +35595,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -33640,7 +35603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -33657,7 +35620,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -33671,7 +35634,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -33682,7 +35645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -33693,7 +35656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -33716,7 +35679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -33724,7 +35687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -33735,7 +35698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -33749,7 +35712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -33766,7 +35729,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -33774,7 +35737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -33794,7 +35757,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -33802,7 +35765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -33819,7 +35782,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -33833,7 +35796,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -33847,7 +35810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -33855,7 +35818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -33875,7 +35838,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -33883,7 +35846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -33897,7 +35860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -33911,7 +35874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -33928,7 +35891,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -33939,7 +35902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -33956,7 +35919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -33967,7 +35930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -33981,7 +35944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -33992,7 +35955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -34003,7 +35966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -34011,7 +35974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -34043,7 +36006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K64" s="9"/>
     </row>
   </sheetData>
